--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5026400</v>
+        <v>4909200</v>
       </c>
       <c r="E8" s="3">
-        <v>4963100</v>
+        <v>4788500</v>
       </c>
       <c r="F8" s="3">
-        <v>4722600</v>
+        <v>4728100</v>
       </c>
       <c r="G8" s="3">
-        <v>4701900</v>
+        <v>4499000</v>
       </c>
       <c r="H8" s="3">
-        <v>4788600</v>
+        <v>4479300</v>
       </c>
       <c r="I8" s="3">
-        <v>4695500</v>
+        <v>4561800</v>
       </c>
       <c r="J8" s="3">
+        <v>4473200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4210700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3922100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3903000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3852900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1766000</v>
+        <v>1710700</v>
       </c>
       <c r="E9" s="3">
-        <v>1738800</v>
+        <v>1682400</v>
       </c>
       <c r="F9" s="3">
-        <v>1679400</v>
+        <v>1656500</v>
       </c>
       <c r="G9" s="3">
-        <v>1647000</v>
+        <v>1599800</v>
       </c>
       <c r="H9" s="3">
-        <v>1750500</v>
+        <v>1569100</v>
       </c>
       <c r="I9" s="3">
-        <v>1697500</v>
+        <v>1667600</v>
       </c>
       <c r="J9" s="3">
+        <v>1617100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1519100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1445200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1344400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1355000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3260500</v>
+        <v>3198500</v>
       </c>
       <c r="E10" s="3">
-        <v>3224300</v>
+        <v>3106100</v>
       </c>
       <c r="F10" s="3">
-        <v>3043300</v>
+        <v>3071600</v>
       </c>
       <c r="G10" s="3">
-        <v>3054900</v>
+        <v>2899200</v>
       </c>
       <c r="H10" s="3">
-        <v>3038100</v>
+        <v>2910300</v>
       </c>
       <c r="I10" s="3">
-        <v>2998000</v>
+        <v>2894300</v>
       </c>
       <c r="J10" s="3">
+        <v>2856100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2691600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2476900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2558500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2498000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,43 +929,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-73700</v>
+        <v>7400</v>
       </c>
       <c r="E14" s="3">
-        <v>46500</v>
+        <v>-70200</v>
       </c>
       <c r="F14" s="3">
-        <v>-3900</v>
+        <v>44300</v>
       </c>
       <c r="G14" s="3">
-        <v>10300</v>
+        <v>-3700</v>
       </c>
       <c r="H14" s="3">
-        <v>-29700</v>
+        <v>9900</v>
       </c>
       <c r="I14" s="3">
-        <v>46500</v>
+        <v>-28300</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>44300</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-50900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>65800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3597900</v>
+        <v>3619700</v>
       </c>
       <c r="E17" s="3">
-        <v>3723300</v>
+        <v>3427500</v>
       </c>
       <c r="F17" s="3">
-        <v>3466000</v>
+        <v>3547000</v>
       </c>
       <c r="G17" s="3">
-        <v>3467300</v>
+        <v>3301900</v>
       </c>
       <c r="H17" s="3">
-        <v>3541000</v>
+        <v>3303200</v>
       </c>
       <c r="I17" s="3">
-        <v>3597900</v>
+        <v>3373400</v>
       </c>
       <c r="J17" s="3">
+        <v>3427500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3146700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2879900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2998300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2919300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1428600</v>
+        <v>1289500</v>
       </c>
       <c r="E18" s="3">
-        <v>1239800</v>
+        <v>1360900</v>
       </c>
       <c r="F18" s="3">
-        <v>1256600</v>
+        <v>1181100</v>
       </c>
       <c r="G18" s="3">
-        <v>1234600</v>
+        <v>1197100</v>
       </c>
       <c r="H18" s="3">
-        <v>1247600</v>
+        <v>1176200</v>
       </c>
       <c r="I18" s="3">
-        <v>1097600</v>
+        <v>1188500</v>
       </c>
       <c r="J18" s="3">
+        <v>1045600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1064000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1042100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>904600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,78 +1112,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-133200</v>
+        <v>-248800</v>
       </c>
       <c r="E20" s="3">
-        <v>-143500</v>
+        <v>-126900</v>
       </c>
       <c r="F20" s="3">
-        <v>-129300</v>
+        <v>-136700</v>
       </c>
       <c r="G20" s="3">
-        <v>-124100</v>
+        <v>-123200</v>
       </c>
       <c r="H20" s="3">
-        <v>-133200</v>
+        <v>-118200</v>
       </c>
       <c r="I20" s="3">
-        <v>-159000</v>
+        <v>-126900</v>
       </c>
       <c r="J20" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-116400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-114800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-113200</v>
       </c>
       <c r="M20" s="3">
         <v>-113200</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>-113200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1725900</v>
+        <v>1471800</v>
       </c>
       <c r="E21" s="3">
-        <v>1538400</v>
+        <v>1644200</v>
       </c>
       <c r="F21" s="3">
-        <v>1526800</v>
+        <v>1465600</v>
       </c>
       <c r="G21" s="3">
-        <v>1499700</v>
+        <v>1454500</v>
       </c>
       <c r="H21" s="3">
-        <v>1573300</v>
+        <v>1428700</v>
       </c>
       <c r="I21" s="3">
-        <v>1447900</v>
+        <v>1498900</v>
       </c>
       <c r="J21" s="3">
+        <v>1379400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1300600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1273000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1127200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1169300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1184,78 +1224,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1295400</v>
+        <v>1040700</v>
       </c>
       <c r="E23" s="3">
-        <v>1096300</v>
+        <v>1234100</v>
       </c>
       <c r="F23" s="3">
-        <v>1127300</v>
+        <v>1044400</v>
       </c>
       <c r="G23" s="3">
-        <v>1110500</v>
+        <v>1074000</v>
       </c>
       <c r="H23" s="3">
-        <v>1114400</v>
+        <v>1057900</v>
       </c>
       <c r="I23" s="3">
-        <v>938600</v>
+        <v>1061600</v>
       </c>
       <c r="J23" s="3">
+        <v>894100</v>
+      </c>
+      <c r="K23" s="3">
         <v>947600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>927400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>791400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>288300</v>
+        <v>141600</v>
       </c>
       <c r="E24" s="3">
-        <v>139600</v>
+        <v>274600</v>
       </c>
       <c r="F24" s="3">
-        <v>248200</v>
+        <v>133000</v>
       </c>
       <c r="G24" s="3">
-        <v>301200</v>
+        <v>236500</v>
       </c>
       <c r="H24" s="3">
-        <v>230100</v>
+        <v>287000</v>
       </c>
       <c r="I24" s="3">
-        <v>165500</v>
+        <v>219200</v>
       </c>
       <c r="J24" s="3">
+        <v>157600</v>
+      </c>
+      <c r="K24" s="3">
         <v>223700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>212600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>177800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1007100</v>
+        <v>899100</v>
       </c>
       <c r="E26" s="3">
-        <v>956700</v>
+        <v>959400</v>
       </c>
       <c r="F26" s="3">
-        <v>879100</v>
+        <v>911400</v>
       </c>
       <c r="G26" s="3">
-        <v>809300</v>
+        <v>837500</v>
       </c>
       <c r="H26" s="3">
-        <v>884300</v>
+        <v>771000</v>
       </c>
       <c r="I26" s="3">
-        <v>773100</v>
+        <v>842400</v>
       </c>
       <c r="J26" s="3">
+        <v>736500</v>
+      </c>
+      <c r="K26" s="3">
         <v>724000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>714800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>613600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>663700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1007100</v>
+        <v>894100</v>
       </c>
       <c r="E27" s="3">
-        <v>951500</v>
+        <v>959400</v>
       </c>
       <c r="F27" s="3">
-        <v>876500</v>
+        <v>906500</v>
       </c>
       <c r="G27" s="3">
-        <v>801500</v>
+        <v>835000</v>
       </c>
       <c r="H27" s="3">
-        <v>881700</v>
+        <v>763600</v>
       </c>
       <c r="I27" s="3">
-        <v>765300</v>
+        <v>840000</v>
       </c>
       <c r="J27" s="3">
+        <v>729100</v>
+      </c>
+      <c r="K27" s="3">
         <v>721400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>709500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>611000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,25 +1452,28 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>10300</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>447300</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>426100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1423,14 +1484,17 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>133200</v>
+        <v>248800</v>
       </c>
       <c r="E32" s="3">
-        <v>143500</v>
+        <v>126900</v>
       </c>
       <c r="F32" s="3">
-        <v>129300</v>
+        <v>136700</v>
       </c>
       <c r="G32" s="3">
-        <v>124100</v>
+        <v>123200</v>
       </c>
       <c r="H32" s="3">
-        <v>133200</v>
+        <v>118200</v>
       </c>
       <c r="I32" s="3">
-        <v>159000</v>
+        <v>126900</v>
       </c>
       <c r="J32" s="3">
+        <v>151500</v>
+      </c>
+      <c r="K32" s="3">
         <v>116400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>114800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>113200</v>
       </c>
       <c r="M32" s="3">
         <v>113200</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1007100</v>
+        <v>894100</v>
       </c>
       <c r="E33" s="3">
-        <v>961900</v>
+        <v>959400</v>
       </c>
       <c r="F33" s="3">
-        <v>876500</v>
+        <v>916300</v>
       </c>
       <c r="G33" s="3">
-        <v>1248900</v>
+        <v>835000</v>
       </c>
       <c r="H33" s="3">
-        <v>881700</v>
+        <v>1189700</v>
       </c>
       <c r="I33" s="3">
-        <v>765300</v>
+        <v>840000</v>
       </c>
       <c r="J33" s="3">
+        <v>729100</v>
+      </c>
+      <c r="K33" s="3">
         <v>721400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>709500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>611000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1007100</v>
+        <v>894100</v>
       </c>
       <c r="E35" s="3">
-        <v>961900</v>
+        <v>959400</v>
       </c>
       <c r="F35" s="3">
-        <v>876500</v>
+        <v>916300</v>
       </c>
       <c r="G35" s="3">
-        <v>1248900</v>
+        <v>835000</v>
       </c>
       <c r="H35" s="3">
-        <v>881700</v>
+        <v>1189700</v>
       </c>
       <c r="I35" s="3">
-        <v>765300</v>
+        <v>840000</v>
       </c>
       <c r="J35" s="3">
+        <v>729100</v>
+      </c>
+      <c r="K35" s="3">
         <v>721400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>709500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>611000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,43 +1795,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>152600</v>
+        <v>170000</v>
       </c>
       <c r="E41" s="3">
-        <v>147400</v>
+        <v>145300</v>
       </c>
       <c r="F41" s="3">
-        <v>135700</v>
+        <v>140400</v>
       </c>
       <c r="G41" s="3">
-        <v>143500</v>
+        <v>129300</v>
       </c>
       <c r="H41" s="3">
-        <v>206800</v>
+        <v>136700</v>
       </c>
       <c r="I41" s="3">
-        <v>209400</v>
+        <v>197100</v>
       </c>
       <c r="J41" s="3">
+        <v>199500</v>
+      </c>
+      <c r="K41" s="3">
         <v>272800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>189600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1779,253 +1869,277 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2277900</v>
+        <v>2545700</v>
       </c>
       <c r="E43" s="3">
-        <v>2605000</v>
+        <v>2170100</v>
       </c>
       <c r="F43" s="3">
-        <v>2078800</v>
+        <v>2481700</v>
       </c>
       <c r="G43" s="3">
-        <v>2421400</v>
+        <v>1980400</v>
       </c>
       <c r="H43" s="3">
-        <v>2106000</v>
+        <v>2306800</v>
       </c>
       <c r="I43" s="3">
-        <v>2605000</v>
+        <v>2006300</v>
       </c>
       <c r="J43" s="3">
+        <v>2481700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1910800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2088200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1677600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1958100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>276700</v>
+        <v>267300</v>
       </c>
       <c r="E44" s="3">
-        <v>274100</v>
+        <v>263600</v>
       </c>
       <c r="F44" s="3">
-        <v>257300</v>
+        <v>261100</v>
       </c>
       <c r="G44" s="3">
-        <v>254700</v>
+        <v>245100</v>
       </c>
       <c r="H44" s="3">
-        <v>261100</v>
+        <v>242600</v>
       </c>
       <c r="I44" s="3">
-        <v>270200</v>
+        <v>248800</v>
       </c>
       <c r="J44" s="3">
+        <v>257400</v>
+      </c>
+      <c r="K44" s="3">
         <v>243000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>206100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>193600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22000</v>
+        <v>28300</v>
       </c>
       <c r="E45" s="3">
-        <v>12900</v>
+        <v>20900</v>
       </c>
       <c r="F45" s="3">
-        <v>28400</v>
+        <v>12300</v>
       </c>
       <c r="G45" s="3">
-        <v>37500</v>
+        <v>27100</v>
       </c>
       <c r="H45" s="3">
-        <v>22000</v>
+        <v>35700</v>
       </c>
       <c r="I45" s="3">
-        <v>25900</v>
+        <v>20900</v>
       </c>
       <c r="J45" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K45" s="3">
         <v>16800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2729100</v>
+        <v>3011300</v>
       </c>
       <c r="E46" s="3">
-        <v>3039400</v>
+        <v>2599900</v>
       </c>
       <c r="F46" s="3">
-        <v>2500300</v>
+        <v>2895500</v>
       </c>
       <c r="G46" s="3">
-        <v>2857100</v>
+        <v>2381900</v>
       </c>
       <c r="H46" s="3">
-        <v>2596000</v>
+        <v>2721800</v>
       </c>
       <c r="I46" s="3">
-        <v>3110500</v>
+        <v>2473100</v>
       </c>
       <c r="J46" s="3">
+        <v>2963200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2443400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2493800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2113400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2549300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>424000</v>
+        <v>347300</v>
       </c>
       <c r="E47" s="3">
-        <v>329700</v>
+        <v>404000</v>
       </c>
       <c r="F47" s="3">
-        <v>316700</v>
+        <v>314100</v>
       </c>
       <c r="G47" s="3">
-        <v>314200</v>
+        <v>301700</v>
       </c>
       <c r="H47" s="3">
-        <v>303800</v>
+        <v>299300</v>
       </c>
       <c r="I47" s="3">
-        <v>309000</v>
+        <v>289400</v>
       </c>
       <c r="J47" s="3">
+        <v>294400</v>
+      </c>
+      <c r="K47" s="3">
         <v>334800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>315600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>256800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>312100</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>594700</v>
+        <v>546800</v>
       </c>
       <c r="E48" s="3">
-        <v>596000</v>
+        <v>566500</v>
       </c>
       <c r="F48" s="3">
-        <v>606300</v>
+        <v>567800</v>
       </c>
       <c r="G48" s="3">
-        <v>621800</v>
+        <v>577600</v>
       </c>
       <c r="H48" s="3">
-        <v>656700</v>
+        <v>592400</v>
       </c>
       <c r="I48" s="3">
-        <v>709800</v>
+        <v>625700</v>
       </c>
       <c r="J48" s="3">
+        <v>676100</v>
+      </c>
+      <c r="K48" s="3">
         <v>298600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>298700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>280500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>298900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13734800</v>
+        <v>12655900</v>
       </c>
       <c r="E49" s="3">
-        <v>13487900</v>
+        <v>13084500</v>
       </c>
       <c r="F49" s="3">
-        <v>12903500</v>
+        <v>12849300</v>
       </c>
       <c r="G49" s="3">
-        <v>11840800</v>
+        <v>12292600</v>
       </c>
       <c r="H49" s="3">
-        <v>12206700</v>
+        <v>11280200</v>
       </c>
       <c r="I49" s="3">
-        <v>12922900</v>
+        <v>11628800</v>
       </c>
       <c r="J49" s="3">
+        <v>12311100</v>
+      </c>
+      <c r="K49" s="3">
         <v>11882200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10939200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10435600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10725300</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>730400</v>
+        <v>421200</v>
       </c>
       <c r="E52" s="3">
-        <v>645100</v>
+        <v>695900</v>
       </c>
       <c r="F52" s="3">
-        <v>649000</v>
+        <v>614600</v>
       </c>
       <c r="G52" s="3">
-        <v>696800</v>
+        <v>618300</v>
       </c>
       <c r="H52" s="3">
-        <v>685200</v>
+        <v>663800</v>
       </c>
       <c r="I52" s="3">
-        <v>677400</v>
+        <v>652700</v>
       </c>
       <c r="J52" s="3">
+        <v>645400</v>
+      </c>
+      <c r="K52" s="3">
         <v>650300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>541300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>680800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18213100</v>
+        <v>16982500</v>
       </c>
       <c r="E54" s="3">
-        <v>18098000</v>
+        <v>17350800</v>
       </c>
       <c r="F54" s="3">
-        <v>16975900</v>
+        <v>17241200</v>
       </c>
       <c r="G54" s="3">
-        <v>16330800</v>
+        <v>16172100</v>
       </c>
       <c r="H54" s="3">
-        <v>16448400</v>
+        <v>15557600</v>
       </c>
       <c r="I54" s="3">
-        <v>17729600</v>
+        <v>15669600</v>
       </c>
       <c r="J54" s="3">
+        <v>16890200</v>
+      </c>
+      <c r="K54" s="3">
         <v>15609400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14588700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13767000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14599300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4016800</v>
+        <v>4284700</v>
       </c>
       <c r="E57" s="3">
-        <v>4436900</v>
+        <v>3826600</v>
       </c>
       <c r="F57" s="3">
-        <v>3772400</v>
+        <v>4226900</v>
       </c>
       <c r="G57" s="3">
-        <v>4263700</v>
+        <v>3593800</v>
       </c>
       <c r="H57" s="3">
-        <v>3839600</v>
+        <v>4061800</v>
       </c>
       <c r="I57" s="3">
-        <v>4497700</v>
+        <v>3657900</v>
       </c>
       <c r="J57" s="3">
+        <v>4284700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3529400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3783800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2983800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3471100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1431100</v>
+        <v>2537100</v>
       </c>
       <c r="E58" s="3">
-        <v>1799600</v>
+        <v>1363400</v>
       </c>
       <c r="F58" s="3">
-        <v>1575900</v>
+        <v>1714400</v>
       </c>
       <c r="G58" s="3">
-        <v>985100</v>
+        <v>1501300</v>
       </c>
       <c r="H58" s="3">
-        <v>1000600</v>
+        <v>938500</v>
       </c>
       <c r="I58" s="3">
-        <v>1511300</v>
+        <v>953300</v>
       </c>
       <c r="J58" s="3">
+        <v>1439700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1129900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>813900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>539900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>890200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>638600</v>
+        <v>502500</v>
       </c>
       <c r="E59" s="3">
-        <v>642500</v>
+        <v>608400</v>
       </c>
       <c r="F59" s="3">
-        <v>774400</v>
+        <v>612100</v>
       </c>
       <c r="G59" s="3">
-        <v>780900</v>
+        <v>737700</v>
       </c>
       <c r="H59" s="3">
-        <v>828700</v>
+        <v>743900</v>
       </c>
       <c r="I59" s="3">
-        <v>923100</v>
+        <v>789500</v>
       </c>
       <c r="J59" s="3">
+        <v>879400</v>
+      </c>
+      <c r="K59" s="3">
         <v>897200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>849100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>754500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6086500</v>
+        <v>7324300</v>
       </c>
       <c r="E60" s="3">
-        <v>6879000</v>
+        <v>5798400</v>
       </c>
       <c r="F60" s="3">
-        <v>6122700</v>
+        <v>6553300</v>
       </c>
       <c r="G60" s="3">
-        <v>6029700</v>
+        <v>5832900</v>
       </c>
       <c r="H60" s="3">
-        <v>5669000</v>
+        <v>5744200</v>
       </c>
       <c r="I60" s="3">
-        <v>6932000</v>
+        <v>5400600</v>
       </c>
       <c r="J60" s="3">
+        <v>6603800</v>
+      </c>
+      <c r="K60" s="3">
         <v>5556500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5446800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4278300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5182900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7456900</v>
+        <v>5362400</v>
       </c>
       <c r="E61" s="3">
-        <v>6429100</v>
+        <v>7103900</v>
       </c>
       <c r="F61" s="3">
-        <v>6670900</v>
+        <v>6124700</v>
       </c>
       <c r="G61" s="3">
-        <v>5806000</v>
+        <v>6355100</v>
       </c>
       <c r="H61" s="3">
-        <v>6228800</v>
+        <v>5531100</v>
       </c>
       <c r="I61" s="3">
-        <v>5283700</v>
+        <v>5933800</v>
       </c>
       <c r="J61" s="3">
+        <v>5033500</v>
+      </c>
+      <c r="K61" s="3">
         <v>5098800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4275500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4669300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1784100</v>
+        <v>1598600</v>
       </c>
       <c r="E62" s="3">
-        <v>1740100</v>
+        <v>1699600</v>
       </c>
       <c r="F62" s="3">
-        <v>1385900</v>
+        <v>1657700</v>
       </c>
       <c r="G62" s="3">
-        <v>1504800</v>
+        <v>1320300</v>
       </c>
       <c r="H62" s="3">
-        <v>2149900</v>
+        <v>1433600</v>
       </c>
       <c r="I62" s="3">
-        <v>2530000</v>
+        <v>2048200</v>
       </c>
       <c r="J62" s="3">
+        <v>2410200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2356800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2025600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2416300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2455800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15362500</v>
+        <v>14314900</v>
       </c>
       <c r="E66" s="3">
-        <v>15087100</v>
+        <v>14635100</v>
       </c>
       <c r="F66" s="3">
-        <v>14202800</v>
+        <v>14372800</v>
       </c>
       <c r="G66" s="3">
-        <v>13367700</v>
+        <v>13530400</v>
       </c>
       <c r="H66" s="3">
-        <v>14091600</v>
+        <v>12734700</v>
       </c>
       <c r="I66" s="3">
-        <v>14794900</v>
+        <v>13424400</v>
       </c>
       <c r="J66" s="3">
+        <v>14094400</v>
+      </c>
+      <c r="K66" s="3">
         <v>13060000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11792300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11406000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11826100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1484100</v>
+        <v>1205700</v>
       </c>
       <c r="E72" s="3">
-        <v>1272100</v>
+        <v>1413900</v>
       </c>
       <c r="F72" s="3">
-        <v>800200</v>
+        <v>1211900</v>
       </c>
       <c r="G72" s="3">
-        <v>549400</v>
+        <v>762400</v>
       </c>
       <c r="H72" s="3">
-        <v>32300</v>
+        <v>523400</v>
       </c>
       <c r="I72" s="3">
-        <v>-278000</v>
+        <v>30800</v>
       </c>
       <c r="J72" s="3">
+        <v>-264800</v>
+      </c>
+      <c r="K72" s="3">
         <v>262400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>444800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>184400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2850600</v>
+        <v>2667600</v>
       </c>
       <c r="E76" s="3">
-        <v>3011000</v>
+        <v>2715700</v>
       </c>
       <c r="F76" s="3">
-        <v>2773100</v>
+        <v>2868400</v>
       </c>
       <c r="G76" s="3">
-        <v>2963100</v>
+        <v>2641800</v>
       </c>
       <c r="H76" s="3">
-        <v>2356800</v>
+        <v>2822800</v>
       </c>
       <c r="I76" s="3">
-        <v>2934700</v>
+        <v>2245200</v>
       </c>
       <c r="J76" s="3">
+        <v>2795700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2549400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2796400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2361000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2773200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1007100</v>
+        <v>894100</v>
       </c>
       <c r="E81" s="3">
-        <v>961900</v>
+        <v>959400</v>
       </c>
       <c r="F81" s="3">
-        <v>876500</v>
+        <v>916300</v>
       </c>
       <c r="G81" s="3">
-        <v>1248900</v>
+        <v>835000</v>
       </c>
       <c r="H81" s="3">
-        <v>881700</v>
+        <v>1189700</v>
       </c>
       <c r="I81" s="3">
-        <v>765300</v>
+        <v>840000</v>
       </c>
       <c r="J81" s="3">
+        <v>729100</v>
+      </c>
+      <c r="K81" s="3">
         <v>721400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>709500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>611000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,43 +3232,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>279200</v>
+        <v>268500</v>
       </c>
       <c r="E83" s="3">
-        <v>281800</v>
+        <v>266000</v>
       </c>
       <c r="F83" s="3">
-        <v>268900</v>
+        <v>268500</v>
       </c>
       <c r="G83" s="3">
-        <v>259900</v>
+        <v>256200</v>
       </c>
       <c r="H83" s="3">
-        <v>325800</v>
+        <v>247600</v>
       </c>
       <c r="I83" s="3">
-        <v>374900</v>
+        <v>310400</v>
       </c>
       <c r="J83" s="3">
+        <v>357200</v>
+      </c>
+      <c r="K83" s="3">
         <v>243000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>238700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>237000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1268200</v>
+        <v>1364600</v>
       </c>
       <c r="E89" s="3">
-        <v>1398800</v>
+        <v>1208200</v>
       </c>
       <c r="F89" s="3">
-        <v>1167400</v>
+        <v>1332600</v>
       </c>
       <c r="G89" s="3">
-        <v>1307000</v>
+        <v>1112100</v>
       </c>
       <c r="H89" s="3">
-        <v>1167400</v>
+        <v>1245100</v>
       </c>
       <c r="I89" s="3">
-        <v>1327700</v>
+        <v>1112100</v>
       </c>
       <c r="J89" s="3">
+        <v>1264900</v>
+      </c>
+      <c r="K89" s="3">
         <v>923100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1021300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>821700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>923100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27100</v>
+        <v>-32000</v>
       </c>
       <c r="E91" s="3">
-        <v>-45200</v>
+        <v>-25900</v>
       </c>
       <c r="F91" s="3">
-        <v>-27100</v>
+        <v>-43100</v>
       </c>
       <c r="G91" s="3">
-        <v>-41400</v>
+        <v>-25900</v>
       </c>
       <c r="H91" s="3">
-        <v>-24600</v>
+        <v>-39400</v>
       </c>
       <c r="I91" s="3">
-        <v>-47800</v>
+        <v>-23400</v>
       </c>
       <c r="J91" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-376600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-509400</v>
+        <v>-417500</v>
       </c>
       <c r="E94" s="3">
-        <v>-584400</v>
+        <v>-485300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1058800</v>
+        <v>-556700</v>
       </c>
       <c r="G94" s="3">
-        <v>-319300</v>
+        <v>-1008700</v>
       </c>
       <c r="H94" s="3">
-        <v>-217200</v>
+        <v>-304200</v>
       </c>
       <c r="I94" s="3">
-        <v>-624400</v>
+        <v>-206900</v>
       </c>
       <c r="J94" s="3">
+        <v>-594900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-228800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-250400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-302900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,43 +3682,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-747200</v>
+        <v>-325100</v>
       </c>
       <c r="E96" s="3">
-        <v>-320600</v>
+        <v>-711900</v>
       </c>
       <c r="F96" s="3">
-        <v>-708500</v>
+        <v>-305400</v>
       </c>
       <c r="G96" s="3">
-        <v>-309000</v>
+        <v>-674900</v>
       </c>
       <c r="H96" s="3">
-        <v>-676100</v>
+        <v>-294400</v>
       </c>
       <c r="I96" s="3">
-        <v>-283100</v>
+        <v>-644100</v>
       </c>
       <c r="J96" s="3">
+        <v>-269700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-599900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-211300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-554400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-756300</v>
+        <v>-916300</v>
       </c>
       <c r="E100" s="3">
-        <v>-804100</v>
+        <v>-720500</v>
       </c>
       <c r="F100" s="3">
-        <v>-117600</v>
+        <v>-766100</v>
       </c>
       <c r="G100" s="3">
-        <v>-998000</v>
+        <v>-112100</v>
       </c>
       <c r="H100" s="3">
-        <v>-903700</v>
+        <v>-950800</v>
       </c>
       <c r="I100" s="3">
-        <v>-671000</v>
+        <v>-860900</v>
       </c>
       <c r="J100" s="3">
+        <v>-639200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-628300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-795600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-676800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-266000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2600</v>
+        <v>-6200</v>
       </c>
       <c r="E101" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1300</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-6500</v>
+        <v>-1200</v>
       </c>
       <c r="I101" s="3">
-        <v>-9000</v>
+        <v>-6200</v>
       </c>
       <c r="J101" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K101" s="3">
         <v>49100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5200</v>
+        <v>24600</v>
       </c>
       <c r="E102" s="3">
-        <v>11600</v>
+        <v>4900</v>
       </c>
       <c r="F102" s="3">
-        <v>-7800</v>
+        <v>11100</v>
       </c>
       <c r="G102" s="3">
-        <v>-63300</v>
+        <v>-7400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2600</v>
+        <v>-60300</v>
       </c>
       <c r="I102" s="3">
-        <v>-63300</v>
+        <v>-2500</v>
       </c>
       <c r="J102" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K102" s="3">
         <v>115100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-173800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>159300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4909200</v>
+        <v>4624100</v>
       </c>
       <c r="E8" s="3">
-        <v>4788500</v>
+        <v>5264700</v>
       </c>
       <c r="F8" s="3">
-        <v>4728100</v>
+        <v>5135200</v>
       </c>
       <c r="G8" s="3">
-        <v>4499000</v>
+        <v>5070500</v>
       </c>
       <c r="H8" s="3">
-        <v>4479300</v>
+        <v>4824800</v>
       </c>
       <c r="I8" s="3">
-        <v>4561800</v>
+        <v>4803700</v>
       </c>
       <c r="J8" s="3">
+        <v>4892200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4473200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4210700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3922100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3903000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3852900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1710700</v>
+        <v>1654900</v>
       </c>
       <c r="E9" s="3">
-        <v>1682400</v>
+        <v>1834600</v>
       </c>
       <c r="F9" s="3">
-        <v>1656500</v>
+        <v>1804200</v>
       </c>
       <c r="G9" s="3">
-        <v>1599800</v>
+        <v>1776500</v>
       </c>
       <c r="H9" s="3">
-        <v>1569100</v>
+        <v>1715700</v>
       </c>
       <c r="I9" s="3">
-        <v>1667600</v>
+        <v>1682700</v>
       </c>
       <c r="J9" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1617100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1519100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1445200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1344400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1355000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3198500</v>
+        <v>2969100</v>
       </c>
       <c r="E10" s="3">
-        <v>3106100</v>
+        <v>3430100</v>
       </c>
       <c r="F10" s="3">
-        <v>3071600</v>
+        <v>3331000</v>
       </c>
       <c r="G10" s="3">
-        <v>2899200</v>
+        <v>3294100</v>
       </c>
       <c r="H10" s="3">
-        <v>2910300</v>
+        <v>3109100</v>
       </c>
       <c r="I10" s="3">
-        <v>2894300</v>
+        <v>3121000</v>
       </c>
       <c r="J10" s="3">
+        <v>3103900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2856100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2691600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2476900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2558500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2498000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,46 +949,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7400</v>
+        <v>-7900</v>
       </c>
       <c r="E14" s="3">
-        <v>-70200</v>
+        <v>7900</v>
       </c>
       <c r="F14" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>47500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K14" s="3">
         <v>44300</v>
       </c>
-      <c r="G14" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="J14" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-50900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>65800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3619700</v>
+        <v>3629500</v>
       </c>
       <c r="E17" s="3">
+        <v>3881800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3675800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3803900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3541000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3542400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3617600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3427500</v>
       </c>
-      <c r="F17" s="3">
-        <v>3547000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3301900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3303200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3373400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3427500</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3146700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2879900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2998300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2919300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1289500</v>
+        <v>994600</v>
       </c>
       <c r="E18" s="3">
-        <v>1360900</v>
+        <v>1382900</v>
       </c>
       <c r="F18" s="3">
-        <v>1181100</v>
+        <v>1459500</v>
       </c>
       <c r="G18" s="3">
-        <v>1197100</v>
+        <v>1266600</v>
       </c>
       <c r="H18" s="3">
-        <v>1176200</v>
+        <v>1283800</v>
       </c>
       <c r="I18" s="3">
-        <v>1188500</v>
+        <v>1261400</v>
       </c>
       <c r="J18" s="3">
+        <v>1274600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1045600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1064000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1042100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>904600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-248800</v>
+        <v>-114900</v>
       </c>
       <c r="E20" s="3">
-        <v>-126900</v>
+        <v>-266800</v>
       </c>
       <c r="F20" s="3">
-        <v>-136700</v>
+        <v>-136000</v>
       </c>
       <c r="G20" s="3">
-        <v>-123200</v>
+        <v>-146600</v>
       </c>
       <c r="H20" s="3">
-        <v>-118200</v>
+        <v>-132100</v>
       </c>
       <c r="I20" s="3">
-        <v>-126900</v>
+        <v>-126800</v>
       </c>
       <c r="J20" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-151500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-116400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-114800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-113200</v>
       </c>
       <c r="N20" s="3">
         <v>-113200</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>-113200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1471800</v>
+        <v>1365700</v>
       </c>
       <c r="E21" s="3">
-        <v>1644200</v>
+        <v>1578300</v>
       </c>
       <c r="F21" s="3">
-        <v>1465600</v>
+        <v>1763300</v>
       </c>
       <c r="G21" s="3">
-        <v>1454500</v>
+        <v>1571700</v>
       </c>
       <c r="H21" s="3">
-        <v>1428700</v>
+        <v>1559900</v>
       </c>
       <c r="I21" s="3">
-        <v>1498900</v>
+        <v>1532100</v>
       </c>
       <c r="J21" s="3">
+        <v>1607400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1379400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1273000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1127200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1169300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,84 +1267,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1040700</v>
+        <v>879600</v>
       </c>
       <c r="E23" s="3">
-        <v>1234100</v>
+        <v>1116100</v>
       </c>
       <c r="F23" s="3">
-        <v>1044400</v>
+        <v>1323400</v>
       </c>
       <c r="G23" s="3">
-        <v>1074000</v>
+        <v>1120000</v>
       </c>
       <c r="H23" s="3">
-        <v>1057900</v>
+        <v>1151700</v>
       </c>
       <c r="I23" s="3">
-        <v>1061600</v>
+        <v>1134600</v>
       </c>
       <c r="J23" s="3">
+        <v>1138500</v>
+      </c>
+      <c r="K23" s="3">
         <v>894100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>947600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>927400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>791400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>141600</v>
+        <v>163800</v>
       </c>
       <c r="E24" s="3">
-        <v>274600</v>
+        <v>151900</v>
       </c>
       <c r="F24" s="3">
-        <v>133000</v>
+        <v>294500</v>
       </c>
       <c r="G24" s="3">
-        <v>236500</v>
+        <v>142600</v>
       </c>
       <c r="H24" s="3">
-        <v>287000</v>
+        <v>253600</v>
       </c>
       <c r="I24" s="3">
-        <v>219200</v>
+        <v>307700</v>
       </c>
       <c r="J24" s="3">
+        <v>235100</v>
+      </c>
+      <c r="K24" s="3">
         <v>157600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>223700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>212600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>177800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>899100</v>
+        <v>715900</v>
       </c>
       <c r="E26" s="3">
-        <v>959400</v>
+        <v>964200</v>
       </c>
       <c r="F26" s="3">
-        <v>911400</v>
+        <v>1028900</v>
       </c>
       <c r="G26" s="3">
-        <v>837500</v>
+        <v>977400</v>
       </c>
       <c r="H26" s="3">
-        <v>771000</v>
+        <v>898100</v>
       </c>
       <c r="I26" s="3">
-        <v>842400</v>
+        <v>826800</v>
       </c>
       <c r="J26" s="3">
+        <v>903400</v>
+      </c>
+      <c r="K26" s="3">
         <v>736500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>724000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>714800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>613600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>663700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>894100</v>
+        <v>723800</v>
       </c>
       <c r="E27" s="3">
-        <v>959400</v>
+        <v>958900</v>
       </c>
       <c r="F27" s="3">
-        <v>906500</v>
+        <v>1028900</v>
       </c>
       <c r="G27" s="3">
-        <v>835000</v>
+        <v>972100</v>
       </c>
       <c r="H27" s="3">
-        <v>763600</v>
+        <v>895500</v>
       </c>
       <c r="I27" s="3">
-        <v>840000</v>
+        <v>818900</v>
       </c>
       <c r="J27" s="3">
+        <v>900800</v>
+      </c>
+      <c r="K27" s="3">
         <v>729100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>721400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>709500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>611000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1466,17 +1527,17 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>426100</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>457000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1487,14 +1548,17 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>248800</v>
+        <v>114900</v>
       </c>
       <c r="E32" s="3">
-        <v>126900</v>
+        <v>266800</v>
       </c>
       <c r="F32" s="3">
-        <v>136700</v>
+        <v>136000</v>
       </c>
       <c r="G32" s="3">
-        <v>123200</v>
+        <v>146600</v>
       </c>
       <c r="H32" s="3">
-        <v>118200</v>
+        <v>132100</v>
       </c>
       <c r="I32" s="3">
-        <v>126900</v>
+        <v>126800</v>
       </c>
       <c r="J32" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K32" s="3">
         <v>151500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>116400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>114800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>113200</v>
       </c>
       <c r="N32" s="3">
         <v>113200</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>894100</v>
+        <v>723800</v>
       </c>
       <c r="E33" s="3">
-        <v>959400</v>
+        <v>958900</v>
       </c>
       <c r="F33" s="3">
-        <v>916300</v>
+        <v>1028900</v>
       </c>
       <c r="G33" s="3">
-        <v>835000</v>
+        <v>982700</v>
       </c>
       <c r="H33" s="3">
-        <v>1189700</v>
+        <v>895500</v>
       </c>
       <c r="I33" s="3">
-        <v>840000</v>
+        <v>1275900</v>
       </c>
       <c r="J33" s="3">
+        <v>900800</v>
+      </c>
+      <c r="K33" s="3">
         <v>729100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>721400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>709500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>611000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>894100</v>
+        <v>723800</v>
       </c>
       <c r="E35" s="3">
-        <v>959400</v>
+        <v>958900</v>
       </c>
       <c r="F35" s="3">
-        <v>916300</v>
+        <v>1028900</v>
       </c>
       <c r="G35" s="3">
-        <v>835000</v>
+        <v>982700</v>
       </c>
       <c r="H35" s="3">
-        <v>1189700</v>
+        <v>895500</v>
       </c>
       <c r="I35" s="3">
-        <v>840000</v>
+        <v>1275900</v>
       </c>
       <c r="J35" s="3">
+        <v>900800</v>
+      </c>
+      <c r="K35" s="3">
         <v>729100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>721400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>709500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>611000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>170000</v>
+        <v>257600</v>
       </c>
       <c r="E41" s="3">
-        <v>145300</v>
+        <v>182300</v>
       </c>
       <c r="F41" s="3">
-        <v>140400</v>
+        <v>155900</v>
       </c>
       <c r="G41" s="3">
-        <v>129300</v>
+        <v>150600</v>
       </c>
       <c r="H41" s="3">
-        <v>136700</v>
+        <v>138700</v>
       </c>
       <c r="I41" s="3">
-        <v>197100</v>
+        <v>146600</v>
       </c>
       <c r="J41" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K41" s="3">
         <v>199500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>272800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>189600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,274 +1962,298 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2545700</v>
+        <v>2380100</v>
       </c>
       <c r="E43" s="3">
-        <v>2170100</v>
+        <v>2730100</v>
       </c>
       <c r="F43" s="3">
+        <v>2327200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2661400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2123800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2473800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2151600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2481700</v>
       </c>
-      <c r="G43" s="3">
-        <v>1980400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2306800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2006300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2481700</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1910800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2088200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1677600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1958100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>267300</v>
+        <v>313000</v>
       </c>
       <c r="E44" s="3">
-        <v>263600</v>
+        <v>286600</v>
       </c>
       <c r="F44" s="3">
-        <v>261100</v>
+        <v>282600</v>
       </c>
       <c r="G44" s="3">
-        <v>245100</v>
+        <v>280000</v>
       </c>
       <c r="H44" s="3">
-        <v>242600</v>
+        <v>262800</v>
       </c>
       <c r="I44" s="3">
-        <v>248800</v>
+        <v>260200</v>
       </c>
       <c r="J44" s="3">
+        <v>266800</v>
+      </c>
+      <c r="K44" s="3">
         <v>257400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>243000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>206100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>193600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28300</v>
+        <v>17200</v>
       </c>
       <c r="E45" s="3">
-        <v>20900</v>
+        <v>30400</v>
       </c>
       <c r="F45" s="3">
-        <v>12300</v>
+        <v>22500</v>
       </c>
       <c r="G45" s="3">
-        <v>27100</v>
+        <v>13200</v>
       </c>
       <c r="H45" s="3">
-        <v>35700</v>
+        <v>29100</v>
       </c>
       <c r="I45" s="3">
-        <v>20900</v>
+        <v>38300</v>
       </c>
       <c r="J45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K45" s="3">
         <v>24600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3011300</v>
+        <v>2967800</v>
       </c>
       <c r="E46" s="3">
-        <v>2599900</v>
+        <v>3229300</v>
       </c>
       <c r="F46" s="3">
-        <v>2895500</v>
+        <v>2788200</v>
       </c>
       <c r="G46" s="3">
-        <v>2381900</v>
+        <v>3105200</v>
       </c>
       <c r="H46" s="3">
-        <v>2721800</v>
+        <v>2554400</v>
       </c>
       <c r="I46" s="3">
-        <v>2473100</v>
+        <v>2918900</v>
       </c>
       <c r="J46" s="3">
+        <v>2652100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2963200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2443400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2493800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2113400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2549300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>347300</v>
+        <v>397600</v>
       </c>
       <c r="E47" s="3">
-        <v>404000</v>
+        <v>372500</v>
       </c>
       <c r="F47" s="3">
-        <v>314100</v>
+        <v>433200</v>
       </c>
       <c r="G47" s="3">
-        <v>301700</v>
+        <v>336800</v>
       </c>
       <c r="H47" s="3">
-        <v>299300</v>
+        <v>323600</v>
       </c>
       <c r="I47" s="3">
-        <v>289400</v>
+        <v>321000</v>
       </c>
       <c r="J47" s="3">
+        <v>310400</v>
+      </c>
+      <c r="K47" s="3">
         <v>294400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>334800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>315600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>256800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>312100</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>546800</v>
+        <v>570600</v>
       </c>
       <c r="E48" s="3">
-        <v>566500</v>
+        <v>586400</v>
       </c>
       <c r="F48" s="3">
-        <v>567800</v>
+        <v>607600</v>
       </c>
       <c r="G48" s="3">
-        <v>577600</v>
+        <v>608900</v>
       </c>
       <c r="H48" s="3">
-        <v>592400</v>
+        <v>619500</v>
       </c>
       <c r="I48" s="3">
-        <v>625700</v>
+        <v>635300</v>
       </c>
       <c r="J48" s="3">
+        <v>671000</v>
+      </c>
+      <c r="K48" s="3">
         <v>676100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>298600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>298700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>280500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>298900</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12655900</v>
+        <v>15259100</v>
       </c>
       <c r="E49" s="3">
-        <v>13084500</v>
+        <v>13572400</v>
       </c>
       <c r="F49" s="3">
-        <v>12849300</v>
+        <v>14032100</v>
       </c>
       <c r="G49" s="3">
-        <v>12292600</v>
+        <v>13779800</v>
       </c>
       <c r="H49" s="3">
-        <v>11280200</v>
+        <v>13182800</v>
       </c>
       <c r="I49" s="3">
-        <v>11628800</v>
+        <v>12097100</v>
       </c>
       <c r="J49" s="3">
+        <v>12470900</v>
+      </c>
+      <c r="K49" s="3">
         <v>12311100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11882200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10939200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10435600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10725300</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>421200</v>
+        <v>569300</v>
       </c>
       <c r="E52" s="3">
-        <v>695900</v>
+        <v>451700</v>
       </c>
       <c r="F52" s="3">
-        <v>614600</v>
+        <v>746200</v>
       </c>
       <c r="G52" s="3">
-        <v>618300</v>
+        <v>659100</v>
       </c>
       <c r="H52" s="3">
-        <v>663800</v>
+        <v>663000</v>
       </c>
       <c r="I52" s="3">
-        <v>652700</v>
+        <v>711900</v>
       </c>
       <c r="J52" s="3">
+        <v>700000</v>
+      </c>
+      <c r="K52" s="3">
         <v>645400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>650300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>541300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>680800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16982500</v>
+        <v>19764300</v>
       </c>
       <c r="E54" s="3">
-        <v>17350800</v>
+        <v>18212400</v>
       </c>
       <c r="F54" s="3">
-        <v>17241200</v>
+        <v>18607300</v>
       </c>
       <c r="G54" s="3">
-        <v>16172100</v>
+        <v>18489700</v>
       </c>
       <c r="H54" s="3">
-        <v>15557600</v>
+        <v>17343300</v>
       </c>
       <c r="I54" s="3">
-        <v>15669600</v>
+        <v>16684200</v>
       </c>
       <c r="J54" s="3">
+        <v>16804400</v>
+      </c>
+      <c r="K54" s="3">
         <v>16890200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15609400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14588700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13767000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14599300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4233100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4595000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4103700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4533000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3854100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4356000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3922700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4284700</v>
       </c>
-      <c r="E57" s="3">
-        <v>3826600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4226900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3593800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4061800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3657900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4284700</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3529400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3783800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2983800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3471100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2537100</v>
+        <v>1607400</v>
       </c>
       <c r="E58" s="3">
-        <v>1363400</v>
+        <v>2720800</v>
       </c>
       <c r="F58" s="3">
-        <v>1714400</v>
+        <v>1462100</v>
       </c>
       <c r="G58" s="3">
-        <v>1501300</v>
+        <v>1838500</v>
       </c>
       <c r="H58" s="3">
-        <v>938500</v>
+        <v>1610000</v>
       </c>
       <c r="I58" s="3">
-        <v>953300</v>
+        <v>1006400</v>
       </c>
       <c r="J58" s="3">
+        <v>1022300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1439700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1129900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>813900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>539900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>890200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>502500</v>
+        <v>447700</v>
       </c>
       <c r="E59" s="3">
-        <v>608400</v>
+        <v>538900</v>
       </c>
       <c r="F59" s="3">
-        <v>612100</v>
+        <v>652500</v>
       </c>
       <c r="G59" s="3">
-        <v>737700</v>
+        <v>656400</v>
       </c>
       <c r="H59" s="3">
-        <v>743900</v>
+        <v>791200</v>
       </c>
       <c r="I59" s="3">
-        <v>789500</v>
+        <v>797800</v>
       </c>
       <c r="J59" s="3">
+        <v>846600</v>
+      </c>
+      <c r="K59" s="3">
         <v>879400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>897200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>849100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>754500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7324300</v>
+        <v>6288300</v>
       </c>
       <c r="E60" s="3">
-        <v>5798400</v>
+        <v>7854700</v>
       </c>
       <c r="F60" s="3">
-        <v>6553300</v>
+        <v>6218300</v>
       </c>
       <c r="G60" s="3">
-        <v>5832900</v>
+        <v>7027900</v>
       </c>
       <c r="H60" s="3">
-        <v>5744200</v>
+        <v>6255300</v>
       </c>
       <c r="I60" s="3">
-        <v>5400600</v>
+        <v>6160200</v>
       </c>
       <c r="J60" s="3">
+        <v>5791700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6603800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5556500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5446800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4278300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5182900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5362400</v>
+        <v>8731700</v>
       </c>
       <c r="E61" s="3">
-        <v>7103900</v>
+        <v>5750700</v>
       </c>
       <c r="F61" s="3">
-        <v>6124700</v>
+        <v>7618300</v>
       </c>
       <c r="G61" s="3">
-        <v>6355100</v>
+        <v>6568300</v>
       </c>
       <c r="H61" s="3">
-        <v>5531100</v>
+        <v>6815300</v>
       </c>
       <c r="I61" s="3">
-        <v>5933800</v>
+        <v>5931700</v>
       </c>
       <c r="J61" s="3">
+        <v>6363600</v>
+      </c>
+      <c r="K61" s="3">
         <v>5033500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5098800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4275500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4669300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1598600</v>
+        <v>1974600</v>
       </c>
       <c r="E62" s="3">
-        <v>1699600</v>
+        <v>1714400</v>
       </c>
       <c r="F62" s="3">
-        <v>1657700</v>
+        <v>1822700</v>
       </c>
       <c r="G62" s="3">
-        <v>1320300</v>
+        <v>1777800</v>
       </c>
       <c r="H62" s="3">
-        <v>1433600</v>
+        <v>1415900</v>
       </c>
       <c r="I62" s="3">
-        <v>2048200</v>
+        <v>1537400</v>
       </c>
       <c r="J62" s="3">
+        <v>2196500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2410200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2356800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2025600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2416300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2455800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14314900</v>
+        <v>17018400</v>
       </c>
       <c r="E66" s="3">
-        <v>14635100</v>
+        <v>15351500</v>
       </c>
       <c r="F66" s="3">
-        <v>14372800</v>
+        <v>15694900</v>
       </c>
       <c r="G66" s="3">
-        <v>13530400</v>
+        <v>15413600</v>
       </c>
       <c r="H66" s="3">
-        <v>12734700</v>
+        <v>14510200</v>
       </c>
       <c r="I66" s="3">
-        <v>13424400</v>
+        <v>13657000</v>
       </c>
       <c r="J66" s="3">
+        <v>14396600</v>
+      </c>
+      <c r="K66" s="3">
         <v>14094400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13060000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11792300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11406000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11826100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1205700</v>
+        <v>1035500</v>
       </c>
       <c r="E72" s="3">
-        <v>1413900</v>
+        <v>1293100</v>
       </c>
       <c r="F72" s="3">
-        <v>1211900</v>
+        <v>1516300</v>
       </c>
       <c r="G72" s="3">
-        <v>762400</v>
+        <v>1299700</v>
       </c>
       <c r="H72" s="3">
-        <v>523400</v>
+        <v>817600</v>
       </c>
       <c r="I72" s="3">
-        <v>30800</v>
+        <v>561300</v>
       </c>
       <c r="J72" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-264800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>262400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>444800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>184400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2667600</v>
+        <v>2745900</v>
       </c>
       <c r="E76" s="3">
-        <v>2715700</v>
+        <v>2860800</v>
       </c>
       <c r="F76" s="3">
-        <v>2868400</v>
+        <v>2912300</v>
       </c>
       <c r="G76" s="3">
-        <v>2641800</v>
+        <v>3076100</v>
       </c>
       <c r="H76" s="3">
-        <v>2822800</v>
+        <v>2833100</v>
       </c>
       <c r="I76" s="3">
-        <v>2245200</v>
+        <v>3027300</v>
       </c>
       <c r="J76" s="3">
+        <v>2407800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2795700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2549400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2796400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2361000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2773200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>894100</v>
+        <v>723800</v>
       </c>
       <c r="E81" s="3">
-        <v>959400</v>
+        <v>958900</v>
       </c>
       <c r="F81" s="3">
-        <v>916300</v>
+        <v>1028900</v>
       </c>
       <c r="G81" s="3">
-        <v>835000</v>
+        <v>982700</v>
       </c>
       <c r="H81" s="3">
-        <v>1189700</v>
+        <v>895500</v>
       </c>
       <c r="I81" s="3">
-        <v>840000</v>
+        <v>1275900</v>
       </c>
       <c r="J81" s="3">
+        <v>900800</v>
+      </c>
+      <c r="K81" s="3">
         <v>729100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>721400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>709500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>611000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>268500</v>
+        <v>307700</v>
       </c>
       <c r="E83" s="3">
-        <v>266000</v>
+        <v>287900</v>
       </c>
       <c r="F83" s="3">
-        <v>268500</v>
+        <v>285300</v>
       </c>
       <c r="G83" s="3">
-        <v>256200</v>
+        <v>287900</v>
       </c>
       <c r="H83" s="3">
-        <v>247600</v>
+        <v>274700</v>
       </c>
       <c r="I83" s="3">
-        <v>310400</v>
+        <v>265500</v>
       </c>
       <c r="J83" s="3">
+        <v>332800</v>
+      </c>
+      <c r="K83" s="3">
         <v>357200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>243000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>238700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>237000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1364600</v>
+        <v>1035500</v>
       </c>
       <c r="E89" s="3">
-        <v>1208200</v>
+        <v>1463400</v>
       </c>
       <c r="F89" s="3">
-        <v>1332600</v>
+        <v>1295700</v>
       </c>
       <c r="G89" s="3">
-        <v>1112100</v>
+        <v>1429100</v>
       </c>
       <c r="H89" s="3">
-        <v>1245100</v>
+        <v>1192700</v>
       </c>
       <c r="I89" s="3">
-        <v>1112100</v>
+        <v>1335300</v>
       </c>
       <c r="J89" s="3">
+        <v>1192700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1264900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>923100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1021300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>821700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>923100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32000</v>
+        <v>-19800</v>
       </c>
       <c r="E91" s="3">
-        <v>-25900</v>
+        <v>-34300</v>
       </c>
       <c r="F91" s="3">
-        <v>-43100</v>
+        <v>-27700</v>
       </c>
       <c r="G91" s="3">
-        <v>-25900</v>
+        <v>-46200</v>
       </c>
       <c r="H91" s="3">
-        <v>-39400</v>
+        <v>-27700</v>
       </c>
       <c r="I91" s="3">
-        <v>-23400</v>
+        <v>-42300</v>
       </c>
       <c r="J91" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-53500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-376600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-417500</v>
+        <v>-1151700</v>
       </c>
       <c r="E94" s="3">
-        <v>-485300</v>
+        <v>-447700</v>
       </c>
       <c r="F94" s="3">
-        <v>-556700</v>
+        <v>-520400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1008700</v>
+        <v>-597000</v>
       </c>
       <c r="H94" s="3">
-        <v>-304200</v>
+        <v>-1081700</v>
       </c>
       <c r="I94" s="3">
-        <v>-206900</v>
+        <v>-326200</v>
       </c>
       <c r="J94" s="3">
+        <v>-221900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-594900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-228800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-250400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-302900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-325100</v>
+        <v>-814900</v>
       </c>
       <c r="E96" s="3">
-        <v>-711900</v>
+        <v>-348700</v>
       </c>
       <c r="F96" s="3">
-        <v>-305400</v>
+        <v>-763400</v>
       </c>
       <c r="G96" s="3">
-        <v>-674900</v>
+        <v>-327600</v>
       </c>
       <c r="H96" s="3">
-        <v>-294400</v>
+        <v>-723800</v>
       </c>
       <c r="I96" s="3">
-        <v>-644100</v>
+        <v>-315700</v>
       </c>
       <c r="J96" s="3">
+        <v>-690800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-269700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-599900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-211300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-554400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-916300</v>
+        <v>183600</v>
       </c>
       <c r="E100" s="3">
-        <v>-720500</v>
+        <v>-982700</v>
       </c>
       <c r="F100" s="3">
-        <v>-766100</v>
+        <v>-772700</v>
       </c>
       <c r="G100" s="3">
-        <v>-112100</v>
+        <v>-821500</v>
       </c>
       <c r="H100" s="3">
-        <v>-950800</v>
+        <v>-120200</v>
       </c>
       <c r="I100" s="3">
-        <v>-860900</v>
+        <v>-1019600</v>
       </c>
       <c r="J100" s="3">
+        <v>-923200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-639200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-628300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-795600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-676800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-266000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6200</v>
+        <v>7900</v>
       </c>
       <c r="E101" s="3">
-        <v>2500</v>
+        <v>-6600</v>
       </c>
       <c r="F101" s="3">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="G101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
-        <v>-1200</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="3">
-        <v>-6200</v>
+        <v>-1300</v>
       </c>
       <c r="J101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>49100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24600</v>
+        <v>75300</v>
       </c>
       <c r="E102" s="3">
-        <v>4900</v>
+        <v>26400</v>
       </c>
       <c r="F102" s="3">
-        <v>11100</v>
+        <v>5300</v>
       </c>
       <c r="G102" s="3">
-        <v>-7400</v>
+        <v>11900</v>
       </c>
       <c r="H102" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-60300</v>
       </c>
-      <c r="I102" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-60300</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-173800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>159300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4624100</v>
+        <v>4661200</v>
       </c>
       <c r="E8" s="3">
-        <v>5264700</v>
+        <v>5307000</v>
       </c>
       <c r="F8" s="3">
-        <v>5135200</v>
+        <v>5176500</v>
       </c>
       <c r="G8" s="3">
-        <v>5070500</v>
+        <v>5111200</v>
       </c>
       <c r="H8" s="3">
-        <v>4824800</v>
+        <v>4863600</v>
       </c>
       <c r="I8" s="3">
-        <v>4803700</v>
+        <v>4842300</v>
       </c>
       <c r="J8" s="3">
-        <v>4892200</v>
+        <v>4931500</v>
       </c>
       <c r="K8" s="3">
         <v>4473200</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1654900</v>
+        <v>1668200</v>
       </c>
       <c r="E9" s="3">
-        <v>1834600</v>
+        <v>1849300</v>
       </c>
       <c r="F9" s="3">
-        <v>1804200</v>
+        <v>1818700</v>
       </c>
       <c r="G9" s="3">
-        <v>1776500</v>
+        <v>1790700</v>
       </c>
       <c r="H9" s="3">
-        <v>1715700</v>
+        <v>1729500</v>
       </c>
       <c r="I9" s="3">
-        <v>1682700</v>
+        <v>1696200</v>
       </c>
       <c r="J9" s="3">
-        <v>1788300</v>
+        <v>1802700</v>
       </c>
       <c r="K9" s="3">
         <v>1617100</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2969100</v>
+        <v>2993000</v>
       </c>
       <c r="E10" s="3">
-        <v>3430100</v>
+        <v>3457600</v>
       </c>
       <c r="F10" s="3">
-        <v>3331000</v>
+        <v>3357800</v>
       </c>
       <c r="G10" s="3">
-        <v>3294100</v>
+        <v>3320500</v>
       </c>
       <c r="H10" s="3">
-        <v>3109100</v>
+        <v>3134100</v>
       </c>
       <c r="I10" s="3">
-        <v>3121000</v>
+        <v>3146100</v>
       </c>
       <c r="J10" s="3">
-        <v>3103900</v>
+        <v>3128800</v>
       </c>
       <c r="K10" s="3">
         <v>2856100</v>
@@ -958,25 +958,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="E14" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F14" s="3">
-        <v>-75300</v>
+        <v>-75900</v>
       </c>
       <c r="G14" s="3">
-        <v>47500</v>
+        <v>47900</v>
       </c>
       <c r="H14" s="3">
         <v>-4000</v>
       </c>
       <c r="I14" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="J14" s="3">
-        <v>-30400</v>
+        <v>-30600</v>
       </c>
       <c r="K14" s="3">
         <v>44300</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3629500</v>
+        <v>3658700</v>
       </c>
       <c r="E17" s="3">
-        <v>3881800</v>
+        <v>3913000</v>
       </c>
       <c r="F17" s="3">
-        <v>3675800</v>
+        <v>3705300</v>
       </c>
       <c r="G17" s="3">
-        <v>3803900</v>
+        <v>3834400</v>
       </c>
       <c r="H17" s="3">
-        <v>3541000</v>
+        <v>3569500</v>
       </c>
       <c r="I17" s="3">
-        <v>3542400</v>
+        <v>3570800</v>
       </c>
       <c r="J17" s="3">
-        <v>3617600</v>
+        <v>3646700</v>
       </c>
       <c r="K17" s="3">
         <v>3427500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>994600</v>
+        <v>1002500</v>
       </c>
       <c r="E18" s="3">
-        <v>1382900</v>
+        <v>1394000</v>
       </c>
       <c r="F18" s="3">
-        <v>1459500</v>
+        <v>1471200</v>
       </c>
       <c r="G18" s="3">
-        <v>1266600</v>
+        <v>1276800</v>
       </c>
       <c r="H18" s="3">
-        <v>1283800</v>
+        <v>1294100</v>
       </c>
       <c r="I18" s="3">
-        <v>1261400</v>
+        <v>1271500</v>
       </c>
       <c r="J18" s="3">
-        <v>1274600</v>
+        <v>1284800</v>
       </c>
       <c r="K18" s="3">
         <v>1045600</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-114900</v>
+        <v>-115800</v>
       </c>
       <c r="E20" s="3">
-        <v>-266800</v>
+        <v>-268900</v>
       </c>
       <c r="F20" s="3">
-        <v>-136000</v>
+        <v>-137100</v>
       </c>
       <c r="G20" s="3">
-        <v>-146600</v>
+        <v>-147800</v>
       </c>
       <c r="H20" s="3">
-        <v>-132100</v>
+        <v>-133100</v>
       </c>
       <c r="I20" s="3">
-        <v>-126800</v>
+        <v>-127800</v>
       </c>
       <c r="J20" s="3">
-        <v>-136000</v>
+        <v>-137100</v>
       </c>
       <c r="K20" s="3">
         <v>-151500</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1365700</v>
+        <v>1376700</v>
       </c>
       <c r="E21" s="3">
-        <v>1578300</v>
+        <v>1591000</v>
       </c>
       <c r="F21" s="3">
-        <v>1763300</v>
+        <v>1777400</v>
       </c>
       <c r="G21" s="3">
-        <v>1571700</v>
+        <v>1584400</v>
       </c>
       <c r="H21" s="3">
-        <v>1559900</v>
+        <v>1572400</v>
       </c>
       <c r="I21" s="3">
-        <v>1532100</v>
+        <v>1544400</v>
       </c>
       <c r="J21" s="3">
-        <v>1607400</v>
+        <v>1620300</v>
       </c>
       <c r="K21" s="3">
         <v>1379400</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>879600</v>
+        <v>886700</v>
       </c>
       <c r="E23" s="3">
-        <v>1116100</v>
+        <v>1125000</v>
       </c>
       <c r="F23" s="3">
-        <v>1323400</v>
+        <v>1334100</v>
       </c>
       <c r="G23" s="3">
-        <v>1120000</v>
+        <v>1129000</v>
       </c>
       <c r="H23" s="3">
-        <v>1151700</v>
+        <v>1161000</v>
       </c>
       <c r="I23" s="3">
-        <v>1134600</v>
+        <v>1143700</v>
       </c>
       <c r="J23" s="3">
-        <v>1138500</v>
+        <v>1147700</v>
       </c>
       <c r="K23" s="3">
         <v>894100</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>163800</v>
+        <v>165100</v>
       </c>
       <c r="E24" s="3">
-        <v>151900</v>
+        <v>153100</v>
       </c>
       <c r="F24" s="3">
-        <v>294500</v>
+        <v>296900</v>
       </c>
       <c r="G24" s="3">
-        <v>142600</v>
+        <v>143800</v>
       </c>
       <c r="H24" s="3">
-        <v>253600</v>
+        <v>255600</v>
       </c>
       <c r="I24" s="3">
-        <v>307700</v>
+        <v>310200</v>
       </c>
       <c r="J24" s="3">
-        <v>235100</v>
+        <v>237000</v>
       </c>
       <c r="K24" s="3">
         <v>157600</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>715900</v>
+        <v>721600</v>
       </c>
       <c r="E26" s="3">
-        <v>964200</v>
+        <v>971900</v>
       </c>
       <c r="F26" s="3">
-        <v>1028900</v>
+        <v>1037200</v>
       </c>
       <c r="G26" s="3">
-        <v>977400</v>
+        <v>985200</v>
       </c>
       <c r="H26" s="3">
-        <v>898100</v>
+        <v>905400</v>
       </c>
       <c r="I26" s="3">
-        <v>826800</v>
+        <v>833500</v>
       </c>
       <c r="J26" s="3">
-        <v>903400</v>
+        <v>910700</v>
       </c>
       <c r="K26" s="3">
         <v>736500</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>723800</v>
+        <v>729600</v>
       </c>
       <c r="E27" s="3">
-        <v>958900</v>
+        <v>966600</v>
       </c>
       <c r="F27" s="3">
-        <v>1028900</v>
+        <v>1037200</v>
       </c>
       <c r="G27" s="3">
-        <v>972100</v>
+        <v>979900</v>
       </c>
       <c r="H27" s="3">
-        <v>895500</v>
+        <v>902700</v>
       </c>
       <c r="I27" s="3">
-        <v>818900</v>
+        <v>825500</v>
       </c>
       <c r="J27" s="3">
-        <v>900800</v>
+        <v>908000</v>
       </c>
       <c r="K27" s="3">
         <v>729100</v>
@@ -1531,13 +1531,13 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>457000</v>
+        <v>460700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>114900</v>
+        <v>115800</v>
       </c>
       <c r="E32" s="3">
-        <v>266800</v>
+        <v>268900</v>
       </c>
       <c r="F32" s="3">
-        <v>136000</v>
+        <v>137100</v>
       </c>
       <c r="G32" s="3">
-        <v>146600</v>
+        <v>147800</v>
       </c>
       <c r="H32" s="3">
-        <v>132100</v>
+        <v>133100</v>
       </c>
       <c r="I32" s="3">
-        <v>126800</v>
+        <v>127800</v>
       </c>
       <c r="J32" s="3">
-        <v>136000</v>
+        <v>137100</v>
       </c>
       <c r="K32" s="3">
         <v>151500</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>723800</v>
+        <v>729600</v>
       </c>
       <c r="E33" s="3">
-        <v>958900</v>
+        <v>966600</v>
       </c>
       <c r="F33" s="3">
-        <v>1028900</v>
+        <v>1037200</v>
       </c>
       <c r="G33" s="3">
-        <v>982700</v>
+        <v>990600</v>
       </c>
       <c r="H33" s="3">
-        <v>895500</v>
+        <v>902700</v>
       </c>
       <c r="I33" s="3">
-        <v>1275900</v>
+        <v>1286100</v>
       </c>
       <c r="J33" s="3">
-        <v>900800</v>
+        <v>908000</v>
       </c>
       <c r="K33" s="3">
         <v>729100</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>723800</v>
+        <v>729600</v>
       </c>
       <c r="E35" s="3">
-        <v>958900</v>
+        <v>966600</v>
       </c>
       <c r="F35" s="3">
-        <v>1028900</v>
+        <v>1037200</v>
       </c>
       <c r="G35" s="3">
-        <v>982700</v>
+        <v>990600</v>
       </c>
       <c r="H35" s="3">
-        <v>895500</v>
+        <v>902700</v>
       </c>
       <c r="I35" s="3">
-        <v>1275900</v>
+        <v>1286100</v>
       </c>
       <c r="J35" s="3">
-        <v>900800</v>
+        <v>908000</v>
       </c>
       <c r="K35" s="3">
         <v>729100</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>257600</v>
+        <v>259600</v>
       </c>
       <c r="E41" s="3">
-        <v>182300</v>
+        <v>183700</v>
       </c>
       <c r="F41" s="3">
-        <v>155900</v>
+        <v>157100</v>
       </c>
       <c r="G41" s="3">
-        <v>150600</v>
+        <v>151800</v>
       </c>
       <c r="H41" s="3">
-        <v>138700</v>
+        <v>139800</v>
       </c>
       <c r="I41" s="3">
-        <v>146600</v>
+        <v>147800</v>
       </c>
       <c r="J41" s="3">
-        <v>211300</v>
+        <v>213000</v>
       </c>
       <c r="K41" s="3">
         <v>199500</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2380100</v>
+        <v>2399200</v>
       </c>
       <c r="E43" s="3">
-        <v>2730100</v>
+        <v>2752000</v>
       </c>
       <c r="F43" s="3">
-        <v>2327200</v>
+        <v>2345900</v>
       </c>
       <c r="G43" s="3">
-        <v>2661400</v>
+        <v>2682800</v>
       </c>
       <c r="H43" s="3">
-        <v>2123800</v>
+        <v>2140900</v>
       </c>
       <c r="I43" s="3">
-        <v>2473800</v>
+        <v>2493700</v>
       </c>
       <c r="J43" s="3">
-        <v>2151600</v>
+        <v>2168900</v>
       </c>
       <c r="K43" s="3">
         <v>2481700</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>313000</v>
+        <v>315500</v>
       </c>
       <c r="E44" s="3">
-        <v>286600</v>
+        <v>288900</v>
       </c>
       <c r="F44" s="3">
-        <v>282600</v>
+        <v>284900</v>
       </c>
       <c r="G44" s="3">
-        <v>280000</v>
+        <v>282300</v>
       </c>
       <c r="H44" s="3">
-        <v>262800</v>
+        <v>264900</v>
       </c>
       <c r="I44" s="3">
-        <v>260200</v>
+        <v>262300</v>
       </c>
       <c r="J44" s="3">
-        <v>266800</v>
+        <v>268900</v>
       </c>
       <c r="K44" s="3">
         <v>257400</v>
@@ -2053,25 +2053,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="F45" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="G45" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="H45" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="I45" s="3">
-        <v>38300</v>
+        <v>38600</v>
       </c>
       <c r="J45" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="K45" s="3">
         <v>24600</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2967800</v>
+        <v>2991700</v>
       </c>
       <c r="E46" s="3">
-        <v>3229300</v>
+        <v>3255300</v>
       </c>
       <c r="F46" s="3">
-        <v>2788200</v>
+        <v>2810600</v>
       </c>
       <c r="G46" s="3">
-        <v>3105200</v>
+        <v>3130100</v>
       </c>
       <c r="H46" s="3">
-        <v>2554400</v>
+        <v>2574900</v>
       </c>
       <c r="I46" s="3">
-        <v>2918900</v>
+        <v>2942400</v>
       </c>
       <c r="J46" s="3">
-        <v>2652100</v>
+        <v>2673500</v>
       </c>
       <c r="K46" s="3">
         <v>2963200</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>397600</v>
+        <v>400800</v>
       </c>
       <c r="E47" s="3">
-        <v>372500</v>
+        <v>375500</v>
       </c>
       <c r="F47" s="3">
-        <v>433200</v>
+        <v>436700</v>
       </c>
       <c r="G47" s="3">
-        <v>336800</v>
+        <v>339500</v>
       </c>
       <c r="H47" s="3">
-        <v>323600</v>
+        <v>326200</v>
       </c>
       <c r="I47" s="3">
-        <v>321000</v>
+        <v>323500</v>
       </c>
       <c r="J47" s="3">
-        <v>310400</v>
+        <v>312900</v>
       </c>
       <c r="K47" s="3">
         <v>294400</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>570600</v>
+        <v>575200</v>
       </c>
       <c r="E48" s="3">
-        <v>586400</v>
+        <v>591100</v>
       </c>
       <c r="F48" s="3">
-        <v>607600</v>
+        <v>612400</v>
       </c>
       <c r="G48" s="3">
-        <v>608900</v>
+        <v>613800</v>
       </c>
       <c r="H48" s="3">
-        <v>619500</v>
+        <v>624400</v>
       </c>
       <c r="I48" s="3">
-        <v>635300</v>
+        <v>640400</v>
       </c>
       <c r="J48" s="3">
-        <v>671000</v>
+        <v>676400</v>
       </c>
       <c r="K48" s="3">
         <v>676100</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15259100</v>
+        <v>15381700</v>
       </c>
       <c r="E49" s="3">
-        <v>13572400</v>
+        <v>13681500</v>
       </c>
       <c r="F49" s="3">
-        <v>14032100</v>
+        <v>14144800</v>
       </c>
       <c r="G49" s="3">
-        <v>13779800</v>
+        <v>13890500</v>
       </c>
       <c r="H49" s="3">
-        <v>13182800</v>
+        <v>13288700</v>
       </c>
       <c r="I49" s="3">
-        <v>12097100</v>
+        <v>12194300</v>
       </c>
       <c r="J49" s="3">
-        <v>12470900</v>
+        <v>12571100</v>
       </c>
       <c r="K49" s="3">
         <v>12311100</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>569300</v>
+        <v>573800</v>
       </c>
       <c r="E52" s="3">
-        <v>451700</v>
+        <v>455300</v>
       </c>
       <c r="F52" s="3">
-        <v>746200</v>
+        <v>752200</v>
       </c>
       <c r="G52" s="3">
-        <v>659100</v>
+        <v>664400</v>
       </c>
       <c r="H52" s="3">
-        <v>663000</v>
+        <v>668400</v>
       </c>
       <c r="I52" s="3">
-        <v>711900</v>
+        <v>717600</v>
       </c>
       <c r="J52" s="3">
-        <v>700000</v>
+        <v>705600</v>
       </c>
       <c r="K52" s="3">
         <v>645400</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19764300</v>
+        <v>19923100</v>
       </c>
       <c r="E54" s="3">
-        <v>18212400</v>
+        <v>18358700</v>
       </c>
       <c r="F54" s="3">
-        <v>18607300</v>
+        <v>18756800</v>
       </c>
       <c r="G54" s="3">
-        <v>18489700</v>
+        <v>18638300</v>
       </c>
       <c r="H54" s="3">
-        <v>17343300</v>
+        <v>17482600</v>
       </c>
       <c r="I54" s="3">
-        <v>16684200</v>
+        <v>16818200</v>
       </c>
       <c r="J54" s="3">
-        <v>16804400</v>
+        <v>16939400</v>
       </c>
       <c r="K54" s="3">
         <v>16890200</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4233100</v>
+        <v>4267100</v>
       </c>
       <c r="E57" s="3">
-        <v>4595000</v>
+        <v>4631900</v>
       </c>
       <c r="F57" s="3">
-        <v>4103700</v>
+        <v>4136700</v>
       </c>
       <c r="G57" s="3">
-        <v>4533000</v>
+        <v>4569400</v>
       </c>
       <c r="H57" s="3">
-        <v>3854100</v>
+        <v>3885000</v>
       </c>
       <c r="I57" s="3">
-        <v>4356000</v>
+        <v>4391000</v>
       </c>
       <c r="J57" s="3">
-        <v>3922700</v>
+        <v>3954300</v>
       </c>
       <c r="K57" s="3">
         <v>4284700</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1607400</v>
+        <v>1620300</v>
       </c>
       <c r="E58" s="3">
-        <v>2720800</v>
+        <v>2742700</v>
       </c>
       <c r="F58" s="3">
-        <v>1462100</v>
+        <v>1473900</v>
       </c>
       <c r="G58" s="3">
-        <v>1838500</v>
+        <v>1853300</v>
       </c>
       <c r="H58" s="3">
-        <v>1610000</v>
+        <v>1623000</v>
       </c>
       <c r="I58" s="3">
-        <v>1006400</v>
+        <v>1014500</v>
       </c>
       <c r="J58" s="3">
-        <v>1022300</v>
+        <v>1030500</v>
       </c>
       <c r="K58" s="3">
         <v>1439700</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>447700</v>
+        <v>451300</v>
       </c>
       <c r="E59" s="3">
-        <v>538900</v>
+        <v>543200</v>
       </c>
       <c r="F59" s="3">
-        <v>652500</v>
+        <v>657700</v>
       </c>
       <c r="G59" s="3">
-        <v>656400</v>
+        <v>661700</v>
       </c>
       <c r="H59" s="3">
-        <v>791200</v>
+        <v>797500</v>
       </c>
       <c r="I59" s="3">
-        <v>797800</v>
+        <v>804200</v>
       </c>
       <c r="J59" s="3">
-        <v>846600</v>
+        <v>853400</v>
       </c>
       <c r="K59" s="3">
         <v>879400</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6288300</v>
+        <v>6338800</v>
       </c>
       <c r="E60" s="3">
-        <v>7854700</v>
+        <v>7917800</v>
       </c>
       <c r="F60" s="3">
-        <v>6218300</v>
+        <v>6268200</v>
       </c>
       <c r="G60" s="3">
-        <v>7027900</v>
+        <v>7084400</v>
       </c>
       <c r="H60" s="3">
-        <v>6255300</v>
+        <v>6305500</v>
       </c>
       <c r="I60" s="3">
-        <v>6160200</v>
+        <v>6209600</v>
       </c>
       <c r="J60" s="3">
-        <v>5791700</v>
+        <v>5838200</v>
       </c>
       <c r="K60" s="3">
         <v>6603800</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8731700</v>
+        <v>8801900</v>
       </c>
       <c r="E61" s="3">
-        <v>5750700</v>
+        <v>5796900</v>
       </c>
       <c r="F61" s="3">
-        <v>7618300</v>
+        <v>7679500</v>
       </c>
       <c r="G61" s="3">
-        <v>6568300</v>
+        <v>6621100</v>
       </c>
       <c r="H61" s="3">
-        <v>6815300</v>
+        <v>6870000</v>
       </c>
       <c r="I61" s="3">
-        <v>5931700</v>
+        <v>5979300</v>
       </c>
       <c r="J61" s="3">
-        <v>6363600</v>
+        <v>6414700</v>
       </c>
       <c r="K61" s="3">
         <v>5033500</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1974600</v>
+        <v>1990400</v>
       </c>
       <c r="E62" s="3">
-        <v>1714400</v>
+        <v>1728200</v>
       </c>
       <c r="F62" s="3">
-        <v>1822700</v>
+        <v>1837300</v>
       </c>
       <c r="G62" s="3">
-        <v>1777800</v>
+        <v>1792100</v>
       </c>
       <c r="H62" s="3">
-        <v>1415900</v>
+        <v>1427300</v>
       </c>
       <c r="I62" s="3">
-        <v>1537400</v>
+        <v>1549700</v>
       </c>
       <c r="J62" s="3">
-        <v>2196500</v>
+        <v>2214100</v>
       </c>
       <c r="K62" s="3">
         <v>2410200</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17018400</v>
+        <v>17155100</v>
       </c>
       <c r="E66" s="3">
-        <v>15351500</v>
+        <v>15474900</v>
       </c>
       <c r="F66" s="3">
-        <v>15694900</v>
+        <v>15821000</v>
       </c>
       <c r="G66" s="3">
-        <v>15413600</v>
+        <v>15537400</v>
       </c>
       <c r="H66" s="3">
-        <v>14510200</v>
+        <v>14626800</v>
       </c>
       <c r="I66" s="3">
-        <v>13657000</v>
+        <v>13766700</v>
       </c>
       <c r="J66" s="3">
-        <v>14396600</v>
+        <v>14512300</v>
       </c>
       <c r="K66" s="3">
         <v>14094400</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1035500</v>
+        <v>1043800</v>
       </c>
       <c r="E72" s="3">
-        <v>1293100</v>
+        <v>1303400</v>
       </c>
       <c r="F72" s="3">
-        <v>1516300</v>
+        <v>1528400</v>
       </c>
       <c r="G72" s="3">
-        <v>1299700</v>
+        <v>1310100</v>
       </c>
       <c r="H72" s="3">
-        <v>817600</v>
+        <v>824100</v>
       </c>
       <c r="I72" s="3">
-        <v>561300</v>
+        <v>565800</v>
       </c>
       <c r="J72" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="K72" s="3">
         <v>-264800</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2745900</v>
+        <v>2768000</v>
       </c>
       <c r="E76" s="3">
-        <v>2860800</v>
+        <v>2883800</v>
       </c>
       <c r="F76" s="3">
-        <v>2912300</v>
+        <v>2935700</v>
       </c>
       <c r="G76" s="3">
-        <v>3076100</v>
+        <v>3100800</v>
       </c>
       <c r="H76" s="3">
-        <v>2833100</v>
+        <v>2855900</v>
       </c>
       <c r="I76" s="3">
-        <v>3027300</v>
+        <v>3051600</v>
       </c>
       <c r="J76" s="3">
-        <v>2407800</v>
+        <v>2427100</v>
       </c>
       <c r="K76" s="3">
         <v>2795700</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>723800</v>
+        <v>729600</v>
       </c>
       <c r="E81" s="3">
-        <v>958900</v>
+        <v>966600</v>
       </c>
       <c r="F81" s="3">
-        <v>1028900</v>
+        <v>1037200</v>
       </c>
       <c r="G81" s="3">
-        <v>982700</v>
+        <v>990600</v>
       </c>
       <c r="H81" s="3">
-        <v>895500</v>
+        <v>902700</v>
       </c>
       <c r="I81" s="3">
-        <v>1275900</v>
+        <v>1286100</v>
       </c>
       <c r="J81" s="3">
-        <v>900800</v>
+        <v>908000</v>
       </c>
       <c r="K81" s="3">
         <v>729100</v>
@@ -3438,25 +3438,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>307700</v>
+        <v>310200</v>
       </c>
       <c r="E83" s="3">
-        <v>287900</v>
+        <v>290200</v>
       </c>
       <c r="F83" s="3">
-        <v>285300</v>
+        <v>287600</v>
       </c>
       <c r="G83" s="3">
-        <v>287900</v>
+        <v>290200</v>
       </c>
       <c r="H83" s="3">
-        <v>274700</v>
+        <v>276900</v>
       </c>
       <c r="I83" s="3">
-        <v>265500</v>
+        <v>267600</v>
       </c>
       <c r="J83" s="3">
-        <v>332800</v>
+        <v>335500</v>
       </c>
       <c r="K83" s="3">
         <v>357200</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1035500</v>
+        <v>1043800</v>
       </c>
       <c r="E89" s="3">
-        <v>1463400</v>
+        <v>1475200</v>
       </c>
       <c r="F89" s="3">
-        <v>1295700</v>
+        <v>1306100</v>
       </c>
       <c r="G89" s="3">
-        <v>1429100</v>
+        <v>1440600</v>
       </c>
       <c r="H89" s="3">
-        <v>1192700</v>
+        <v>1202300</v>
       </c>
       <c r="I89" s="3">
-        <v>1335300</v>
+        <v>1346000</v>
       </c>
       <c r="J89" s="3">
-        <v>1192700</v>
+        <v>1202300</v>
       </c>
       <c r="K89" s="3">
         <v>1264900</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19800</v>
+        <v>-20000</v>
       </c>
       <c r="E91" s="3">
-        <v>-34300</v>
+        <v>-34600</v>
       </c>
       <c r="F91" s="3">
-        <v>-27700</v>
+        <v>-28000</v>
       </c>
       <c r="G91" s="3">
-        <v>-46200</v>
+        <v>-46600</v>
       </c>
       <c r="H91" s="3">
-        <v>-27700</v>
+        <v>-28000</v>
       </c>
       <c r="I91" s="3">
-        <v>-42300</v>
+        <v>-42600</v>
       </c>
       <c r="J91" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="K91" s="3">
         <v>-45600</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1151700</v>
+        <v>-1161000</v>
       </c>
       <c r="E94" s="3">
-        <v>-447700</v>
+        <v>-451300</v>
       </c>
       <c r="F94" s="3">
-        <v>-520400</v>
+        <v>-524600</v>
       </c>
       <c r="G94" s="3">
-        <v>-597000</v>
+        <v>-601800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1081700</v>
+        <v>-1090400</v>
       </c>
       <c r="I94" s="3">
-        <v>-326200</v>
+        <v>-328900</v>
       </c>
       <c r="J94" s="3">
-        <v>-221900</v>
+        <v>-223700</v>
       </c>
       <c r="K94" s="3">
         <v>-594900</v>
@@ -3923,25 +3923,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-814900</v>
+        <v>-821500</v>
       </c>
       <c r="E96" s="3">
-        <v>-348700</v>
+        <v>-351500</v>
       </c>
       <c r="F96" s="3">
-        <v>-763400</v>
+        <v>-769500</v>
       </c>
       <c r="G96" s="3">
-        <v>-327600</v>
+        <v>-330200</v>
       </c>
       <c r="H96" s="3">
-        <v>-723800</v>
+        <v>-729600</v>
       </c>
       <c r="I96" s="3">
-        <v>-315700</v>
+        <v>-318200</v>
       </c>
       <c r="J96" s="3">
-        <v>-690800</v>
+        <v>-696300</v>
       </c>
       <c r="K96" s="3">
         <v>-269700</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>183600</v>
+        <v>185100</v>
       </c>
       <c r="E100" s="3">
-        <v>-982700</v>
+        <v>-990600</v>
       </c>
       <c r="F100" s="3">
-        <v>-772700</v>
+        <v>-778900</v>
       </c>
       <c r="G100" s="3">
-        <v>-821500</v>
+        <v>-828100</v>
       </c>
       <c r="H100" s="3">
-        <v>-120200</v>
+        <v>-121200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1019600</v>
+        <v>-1027800</v>
       </c>
       <c r="J100" s="3">
-        <v>-923200</v>
+        <v>-930600</v>
       </c>
       <c r="K100" s="3">
         <v>-639200</v>
@@ -4128,13 +4128,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="E101" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="F101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G101" s="3">
         <v>1300</v>
@@ -4146,7 +4146,7 @@
         <v>-1300</v>
       </c>
       <c r="J101" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="K101" s="3">
         <v>-8600</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>75300</v>
+        <v>75900</v>
       </c>
       <c r="E102" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="F102" s="3">
         <v>5300</v>
       </c>
       <c r="G102" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="H102" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="I102" s="3">
-        <v>-64700</v>
+        <v>-65200</v>
       </c>
       <c r="J102" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="K102" s="3">
         <v>-60300</v>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4661200</v>
+        <v>4955800</v>
       </c>
       <c r="E8" s="3">
-        <v>5307000</v>
+        <v>4807500</v>
       </c>
       <c r="F8" s="3">
-        <v>5176500</v>
+        <v>5473500</v>
       </c>
       <c r="G8" s="3">
-        <v>5111200</v>
+        <v>5339000</v>
       </c>
       <c r="H8" s="3">
-        <v>4863600</v>
+        <v>5271700</v>
       </c>
       <c r="I8" s="3">
-        <v>4842300</v>
+        <v>5016300</v>
       </c>
       <c r="J8" s="3">
+        <v>4994300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4931500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4473200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4210700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3922100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3903000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3852900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1668200</v>
+        <v>1694500</v>
       </c>
       <c r="E9" s="3">
-        <v>1849300</v>
+        <v>1720600</v>
       </c>
       <c r="F9" s="3">
-        <v>1818700</v>
+        <v>1907400</v>
       </c>
       <c r="G9" s="3">
-        <v>1790700</v>
+        <v>1875800</v>
       </c>
       <c r="H9" s="3">
-        <v>1729500</v>
+        <v>1846900</v>
       </c>
       <c r="I9" s="3">
-        <v>1696200</v>
+        <v>1783800</v>
       </c>
       <c r="J9" s="3">
+        <v>1749400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1802700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1617100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1519100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1445200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1344400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1355000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2993000</v>
+        <v>3261300</v>
       </c>
       <c r="E10" s="3">
-        <v>3457600</v>
+        <v>3086900</v>
       </c>
       <c r="F10" s="3">
-        <v>3357800</v>
+        <v>3566200</v>
       </c>
       <c r="G10" s="3">
-        <v>3320500</v>
+        <v>3463200</v>
       </c>
       <c r="H10" s="3">
-        <v>3134100</v>
+        <v>3424700</v>
       </c>
       <c r="I10" s="3">
-        <v>3146100</v>
+        <v>3232500</v>
       </c>
       <c r="J10" s="3">
+        <v>3244800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3128800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2856100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2691600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2476900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2558500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2498000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,49 +969,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8000</v>
+        <v>170300</v>
       </c>
       <c r="E14" s="3">
-        <v>8000</v>
+        <v>-8200</v>
       </c>
       <c r="F14" s="3">
-        <v>-75900</v>
+        <v>8200</v>
       </c>
       <c r="G14" s="3">
-        <v>47900</v>
+        <v>-78300</v>
       </c>
       <c r="H14" s="3">
-        <v>-4000</v>
+        <v>49400</v>
       </c>
       <c r="I14" s="3">
-        <v>10700</v>
+        <v>-4100</v>
       </c>
       <c r="J14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-30600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-50900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>65800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3658700</v>
+        <v>3717200</v>
       </c>
       <c r="E17" s="3">
-        <v>3913000</v>
+        <v>3773500</v>
       </c>
       <c r="F17" s="3">
-        <v>3705300</v>
+        <v>4035800</v>
       </c>
       <c r="G17" s="3">
-        <v>3834400</v>
+        <v>3821600</v>
       </c>
       <c r="H17" s="3">
-        <v>3569500</v>
+        <v>3954800</v>
       </c>
       <c r="I17" s="3">
-        <v>3570800</v>
+        <v>3681500</v>
       </c>
       <c r="J17" s="3">
+        <v>3682900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3646700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3427500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3146700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2879900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2998300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2919300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1002500</v>
+        <v>1238600</v>
       </c>
       <c r="E18" s="3">
-        <v>1394000</v>
+        <v>1034000</v>
       </c>
       <c r="F18" s="3">
-        <v>1471200</v>
+        <v>1437700</v>
       </c>
       <c r="G18" s="3">
-        <v>1276800</v>
+        <v>1517400</v>
       </c>
       <c r="H18" s="3">
-        <v>1294100</v>
+        <v>1316900</v>
       </c>
       <c r="I18" s="3">
-        <v>1271500</v>
+        <v>1334700</v>
       </c>
       <c r="J18" s="3">
+        <v>1311400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1284800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1045600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1064000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1042100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>904600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,90 +1180,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-115800</v>
+        <v>-116700</v>
       </c>
       <c r="E20" s="3">
-        <v>-268900</v>
+        <v>-119500</v>
       </c>
       <c r="F20" s="3">
+        <v>-277400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-152400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-131800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-137100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-147800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-133100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-127800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-137100</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-151500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-116400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-114800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-113200</v>
       </c>
       <c r="O20" s="3">
         <v>-113200</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>-113200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1376700</v>
+        <v>1774200</v>
       </c>
       <c r="E21" s="3">
-        <v>1591000</v>
+        <v>1419900</v>
       </c>
       <c r="F21" s="3">
-        <v>1777400</v>
+        <v>1641000</v>
       </c>
       <c r="G21" s="3">
-        <v>1584400</v>
+        <v>1833200</v>
       </c>
       <c r="H21" s="3">
-        <v>1572400</v>
+        <v>1634100</v>
       </c>
       <c r="I21" s="3">
-        <v>1544400</v>
+        <v>1621700</v>
       </c>
       <c r="J21" s="3">
+        <v>1592900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1620300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1379400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1273000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1127200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1169300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,90 +1310,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>886700</v>
+        <v>1121900</v>
       </c>
       <c r="E23" s="3">
-        <v>1125000</v>
+        <v>914500</v>
       </c>
       <c r="F23" s="3">
-        <v>1334100</v>
+        <v>1160300</v>
       </c>
       <c r="G23" s="3">
-        <v>1129000</v>
+        <v>1375900</v>
       </c>
       <c r="H23" s="3">
-        <v>1161000</v>
+        <v>1164500</v>
       </c>
       <c r="I23" s="3">
-        <v>1143700</v>
+        <v>1197400</v>
       </c>
       <c r="J23" s="3">
+        <v>1179600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1147700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>894100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>947600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>927400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>791400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>165100</v>
+        <v>207400</v>
       </c>
       <c r="E24" s="3">
-        <v>153100</v>
+        <v>170300</v>
       </c>
       <c r="F24" s="3">
-        <v>296900</v>
+        <v>157900</v>
       </c>
       <c r="G24" s="3">
-        <v>143800</v>
+        <v>306200</v>
       </c>
       <c r="H24" s="3">
-        <v>255600</v>
+        <v>148300</v>
       </c>
       <c r="I24" s="3">
-        <v>310200</v>
+        <v>263700</v>
       </c>
       <c r="J24" s="3">
+        <v>320000</v>
+      </c>
+      <c r="K24" s="3">
         <v>237000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>157600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>223700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>212600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>177800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>721600</v>
+        <v>914500</v>
       </c>
       <c r="E26" s="3">
-        <v>971900</v>
+        <v>744300</v>
       </c>
       <c r="F26" s="3">
-        <v>1037200</v>
+        <v>1002400</v>
       </c>
       <c r="G26" s="3">
-        <v>985200</v>
+        <v>1069700</v>
       </c>
       <c r="H26" s="3">
-        <v>905400</v>
+        <v>1016200</v>
       </c>
       <c r="I26" s="3">
-        <v>833500</v>
+        <v>933800</v>
       </c>
       <c r="J26" s="3">
+        <v>859600</v>
+      </c>
+      <c r="K26" s="3">
         <v>910700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>736500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>724000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>714800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>613600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>663700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>729600</v>
+        <v>928300</v>
       </c>
       <c r="E27" s="3">
-        <v>966600</v>
+        <v>752500</v>
       </c>
       <c r="F27" s="3">
-        <v>1037200</v>
+        <v>996900</v>
       </c>
       <c r="G27" s="3">
-        <v>979900</v>
+        <v>1069700</v>
       </c>
       <c r="H27" s="3">
-        <v>902700</v>
+        <v>1010700</v>
       </c>
       <c r="I27" s="3">
-        <v>825500</v>
+        <v>931000</v>
       </c>
       <c r="J27" s="3">
+        <v>851400</v>
+      </c>
+      <c r="K27" s="3">
         <v>908000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>729100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>721400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>709500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>611000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1530,17 +1591,17 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>10700</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>460700</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>475100</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1551,14 +1612,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>115800</v>
+        <v>116700</v>
       </c>
       <c r="E32" s="3">
-        <v>268900</v>
+        <v>119500</v>
       </c>
       <c r="F32" s="3">
+        <v>277400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>141400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>152400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>137300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K32" s="3">
         <v>137100</v>
       </c>
-      <c r="G32" s="3">
-        <v>147800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>133100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>127800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>137100</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>151500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>116400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>114800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>113200</v>
       </c>
       <c r="O32" s="3">
         <v>113200</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>729600</v>
+        <v>928300</v>
       </c>
       <c r="E33" s="3">
-        <v>966600</v>
+        <v>752500</v>
       </c>
       <c r="F33" s="3">
-        <v>1037200</v>
+        <v>996900</v>
       </c>
       <c r="G33" s="3">
-        <v>990600</v>
+        <v>1069700</v>
       </c>
       <c r="H33" s="3">
-        <v>902700</v>
+        <v>1021700</v>
       </c>
       <c r="I33" s="3">
-        <v>1286100</v>
+        <v>931000</v>
       </c>
       <c r="J33" s="3">
+        <v>1326500</v>
+      </c>
+      <c r="K33" s="3">
         <v>908000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>729100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>721400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>709500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>611000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>729600</v>
+        <v>928300</v>
       </c>
       <c r="E35" s="3">
-        <v>966600</v>
+        <v>752500</v>
       </c>
       <c r="F35" s="3">
-        <v>1037200</v>
+        <v>996900</v>
       </c>
       <c r="G35" s="3">
-        <v>990600</v>
+        <v>1069700</v>
       </c>
       <c r="H35" s="3">
-        <v>902700</v>
+        <v>1021700</v>
       </c>
       <c r="I35" s="3">
-        <v>1286100</v>
+        <v>931000</v>
       </c>
       <c r="J35" s="3">
+        <v>1326500</v>
+      </c>
+      <c r="K35" s="3">
         <v>908000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>729100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>721400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>709500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>611000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>259600</v>
+        <v>120800</v>
       </c>
       <c r="E41" s="3">
-        <v>183700</v>
+        <v>267800</v>
       </c>
       <c r="F41" s="3">
-        <v>157100</v>
+        <v>189500</v>
       </c>
       <c r="G41" s="3">
-        <v>151800</v>
+        <v>162000</v>
       </c>
       <c r="H41" s="3">
-        <v>139800</v>
+        <v>156500</v>
       </c>
       <c r="I41" s="3">
-        <v>147800</v>
+        <v>144200</v>
       </c>
       <c r="J41" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K41" s="3">
         <v>213000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>199500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>272800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>189600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,295 +2055,319 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2399200</v>
+        <v>2646100</v>
       </c>
       <c r="E43" s="3">
-        <v>2752000</v>
+        <v>2474500</v>
       </c>
       <c r="F43" s="3">
-        <v>2345900</v>
+        <v>2838400</v>
       </c>
       <c r="G43" s="3">
-        <v>2682800</v>
+        <v>2419600</v>
       </c>
       <c r="H43" s="3">
-        <v>2140900</v>
+        <v>2767000</v>
       </c>
       <c r="I43" s="3">
-        <v>2493700</v>
+        <v>2208100</v>
       </c>
       <c r="J43" s="3">
+        <v>2572000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2168900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2481700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1910800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2088200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1677600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1958100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>315500</v>
+        <v>329600</v>
       </c>
       <c r="E44" s="3">
-        <v>288900</v>
+        <v>325400</v>
       </c>
       <c r="F44" s="3">
-        <v>284900</v>
+        <v>298000</v>
       </c>
       <c r="G44" s="3">
-        <v>282300</v>
+        <v>293900</v>
       </c>
       <c r="H44" s="3">
-        <v>264900</v>
+        <v>291100</v>
       </c>
       <c r="I44" s="3">
-        <v>262300</v>
+        <v>273300</v>
       </c>
       <c r="J44" s="3">
+        <v>270500</v>
+      </c>
+      <c r="K44" s="3">
         <v>268900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>257400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>243000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>206100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>193600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17300</v>
+        <v>26100</v>
       </c>
       <c r="E45" s="3">
-        <v>30600</v>
+        <v>17900</v>
       </c>
       <c r="F45" s="3">
+        <v>31600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K45" s="3">
         <v>22600</v>
       </c>
-      <c r="G45" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>29300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>38600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>22600</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2991700</v>
+        <v>3122600</v>
       </c>
       <c r="E46" s="3">
-        <v>3255300</v>
+        <v>3085600</v>
       </c>
       <c r="F46" s="3">
-        <v>2810600</v>
+        <v>3357400</v>
       </c>
       <c r="G46" s="3">
-        <v>3130100</v>
+        <v>2898800</v>
       </c>
       <c r="H46" s="3">
-        <v>2574900</v>
+        <v>3228400</v>
       </c>
       <c r="I46" s="3">
-        <v>2942400</v>
+        <v>2655700</v>
       </c>
       <c r="J46" s="3">
+        <v>3034700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2673500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2963200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2443400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2493800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2113400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2549300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400800</v>
+        <v>534200</v>
       </c>
       <c r="E47" s="3">
-        <v>375500</v>
+        <v>413300</v>
       </c>
       <c r="F47" s="3">
-        <v>436700</v>
+        <v>387200</v>
       </c>
       <c r="G47" s="3">
-        <v>339500</v>
+        <v>450400</v>
       </c>
       <c r="H47" s="3">
-        <v>326200</v>
+        <v>350200</v>
       </c>
       <c r="I47" s="3">
-        <v>323500</v>
+        <v>336400</v>
       </c>
       <c r="J47" s="3">
+        <v>333700</v>
+      </c>
+      <c r="K47" s="3">
         <v>312900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>294400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>334800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>315600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>256800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>312100</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>575200</v>
+        <v>519100</v>
       </c>
       <c r="E48" s="3">
-        <v>591100</v>
+        <v>593200</v>
       </c>
       <c r="F48" s="3">
-        <v>612400</v>
+        <v>609700</v>
       </c>
       <c r="G48" s="3">
-        <v>613800</v>
+        <v>631700</v>
       </c>
       <c r="H48" s="3">
-        <v>624400</v>
+        <v>633000</v>
       </c>
       <c r="I48" s="3">
-        <v>640400</v>
+        <v>644000</v>
       </c>
       <c r="J48" s="3">
+        <v>660500</v>
+      </c>
+      <c r="K48" s="3">
         <v>676400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>676100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>298600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>298700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>280500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>298900</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15381700</v>
+        <v>14623100</v>
       </c>
       <c r="E49" s="3">
-        <v>13681500</v>
+        <v>15864500</v>
       </c>
       <c r="F49" s="3">
-        <v>14144800</v>
+        <v>14110900</v>
       </c>
       <c r="G49" s="3">
-        <v>13890500</v>
+        <v>14588800</v>
       </c>
       <c r="H49" s="3">
-        <v>13288700</v>
+        <v>14326500</v>
       </c>
       <c r="I49" s="3">
-        <v>12194300</v>
+        <v>13705800</v>
       </c>
       <c r="J49" s="3">
+        <v>12577000</v>
+      </c>
+      <c r="K49" s="3">
         <v>12571100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12311100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11882200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10939200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10435600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10725300</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>573800</v>
+        <v>624800</v>
       </c>
       <c r="E52" s="3">
-        <v>455300</v>
+        <v>591800</v>
       </c>
       <c r="F52" s="3">
-        <v>752200</v>
+        <v>469600</v>
       </c>
       <c r="G52" s="3">
-        <v>664400</v>
+        <v>775900</v>
       </c>
       <c r="H52" s="3">
-        <v>668400</v>
+        <v>685200</v>
       </c>
       <c r="I52" s="3">
-        <v>717600</v>
+        <v>689300</v>
       </c>
       <c r="J52" s="3">
+        <v>740100</v>
+      </c>
+      <c r="K52" s="3">
         <v>705600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>645400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>650300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>541300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>680800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19923100</v>
+        <v>19423800</v>
       </c>
       <c r="E54" s="3">
-        <v>18358700</v>
+        <v>20548400</v>
       </c>
       <c r="F54" s="3">
-        <v>18756800</v>
+        <v>18934900</v>
       </c>
       <c r="G54" s="3">
-        <v>18638300</v>
+        <v>19345500</v>
       </c>
       <c r="H54" s="3">
-        <v>17482600</v>
+        <v>19223300</v>
       </c>
       <c r="I54" s="3">
-        <v>16818200</v>
+        <v>18031400</v>
       </c>
       <c r="J54" s="3">
+        <v>17346100</v>
+      </c>
+      <c r="K54" s="3">
         <v>16939400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16890200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15609400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14588700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13767000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14599300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4267100</v>
+        <v>4476600</v>
       </c>
       <c r="E57" s="3">
-        <v>4631900</v>
+        <v>4401100</v>
       </c>
       <c r="F57" s="3">
-        <v>4136700</v>
+        <v>4777300</v>
       </c>
       <c r="G57" s="3">
-        <v>4569400</v>
+        <v>4266500</v>
       </c>
       <c r="H57" s="3">
-        <v>3885000</v>
+        <v>4712800</v>
       </c>
       <c r="I57" s="3">
-        <v>4391000</v>
+        <v>4007000</v>
       </c>
       <c r="J57" s="3">
+        <v>4528800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3954300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4284700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3529400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3783800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2983800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3471100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1620300</v>
+        <v>1163100</v>
       </c>
       <c r="E58" s="3">
-        <v>2742700</v>
+        <v>1671200</v>
       </c>
       <c r="F58" s="3">
-        <v>1473900</v>
+        <v>2828800</v>
       </c>
       <c r="G58" s="3">
-        <v>1853300</v>
+        <v>1520100</v>
       </c>
       <c r="H58" s="3">
-        <v>1623000</v>
+        <v>1911500</v>
       </c>
       <c r="I58" s="3">
-        <v>1014500</v>
+        <v>1673900</v>
       </c>
       <c r="J58" s="3">
+        <v>1046400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1030500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1439700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1129900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>813900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>539900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>890200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>451300</v>
+        <v>366600</v>
       </c>
       <c r="E59" s="3">
-        <v>543200</v>
+        <v>465500</v>
       </c>
       <c r="F59" s="3">
-        <v>657700</v>
+        <v>560300</v>
       </c>
       <c r="G59" s="3">
-        <v>661700</v>
+        <v>678400</v>
       </c>
       <c r="H59" s="3">
-        <v>797500</v>
+        <v>682500</v>
       </c>
       <c r="I59" s="3">
-        <v>804200</v>
+        <v>822500</v>
       </c>
       <c r="J59" s="3">
+        <v>829400</v>
+      </c>
+      <c r="K59" s="3">
         <v>853400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>879400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>897200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>849100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>754500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6338800</v>
+        <v>6006300</v>
       </c>
       <c r="E60" s="3">
-        <v>7917800</v>
+        <v>6537800</v>
       </c>
       <c r="F60" s="3">
-        <v>6268200</v>
+        <v>8166400</v>
       </c>
       <c r="G60" s="3">
-        <v>7084400</v>
+        <v>6465000</v>
       </c>
       <c r="H60" s="3">
-        <v>6305500</v>
+        <v>7306700</v>
       </c>
       <c r="I60" s="3">
-        <v>6209600</v>
+        <v>6503400</v>
       </c>
       <c r="J60" s="3">
+        <v>6404600</v>
+      </c>
+      <c r="K60" s="3">
         <v>5838200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6603800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5556500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5446800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4278300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5182900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8801900</v>
+        <v>8618100</v>
       </c>
       <c r="E61" s="3">
-        <v>5796900</v>
+        <v>9078200</v>
       </c>
       <c r="F61" s="3">
-        <v>7679500</v>
+        <v>5978900</v>
       </c>
       <c r="G61" s="3">
-        <v>6621100</v>
+        <v>7920600</v>
       </c>
       <c r="H61" s="3">
-        <v>6870000</v>
+        <v>6828900</v>
       </c>
       <c r="I61" s="3">
-        <v>5979300</v>
+        <v>7085700</v>
       </c>
       <c r="J61" s="3">
+        <v>6167000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6414700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5033500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5098800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4275500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4669300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1990400</v>
+        <v>1914200</v>
       </c>
       <c r="E62" s="3">
-        <v>1728200</v>
+        <v>2052900</v>
       </c>
       <c r="F62" s="3">
-        <v>1837300</v>
+        <v>1782400</v>
       </c>
       <c r="G62" s="3">
-        <v>1792100</v>
+        <v>1895000</v>
       </c>
       <c r="H62" s="3">
-        <v>1427300</v>
+        <v>1848300</v>
       </c>
       <c r="I62" s="3">
-        <v>1549700</v>
+        <v>1472100</v>
       </c>
       <c r="J62" s="3">
+        <v>1598400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2214100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2410200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2356800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2025600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2416300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2455800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17155100</v>
+        <v>16541400</v>
       </c>
       <c r="E66" s="3">
-        <v>15474900</v>
+        <v>17693600</v>
       </c>
       <c r="F66" s="3">
-        <v>15821000</v>
+        <v>15960600</v>
       </c>
       <c r="G66" s="3">
-        <v>15537400</v>
+        <v>16317600</v>
       </c>
       <c r="H66" s="3">
-        <v>14626800</v>
+        <v>16025100</v>
       </c>
       <c r="I66" s="3">
-        <v>13766700</v>
+        <v>15085900</v>
       </c>
       <c r="J66" s="3">
+        <v>14198800</v>
+      </c>
+      <c r="K66" s="3">
         <v>14512300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14094400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13060000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11792300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11406000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11826100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1043800</v>
+        <v>1667100</v>
       </c>
       <c r="E72" s="3">
-        <v>1303400</v>
+        <v>1076600</v>
       </c>
       <c r="F72" s="3">
-        <v>1528400</v>
+        <v>1344400</v>
       </c>
       <c r="G72" s="3">
-        <v>1310100</v>
+        <v>1576400</v>
       </c>
       <c r="H72" s="3">
-        <v>824100</v>
+        <v>1351200</v>
       </c>
       <c r="I72" s="3">
-        <v>565800</v>
+        <v>850000</v>
       </c>
       <c r="J72" s="3">
+        <v>583600</v>
+      </c>
+      <c r="K72" s="3">
         <v>33300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-264800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>262400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>444800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>184400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2768000</v>
+        <v>2882300</v>
       </c>
       <c r="E76" s="3">
-        <v>2883800</v>
+        <v>2854900</v>
       </c>
       <c r="F76" s="3">
-        <v>2935700</v>
+        <v>2974300</v>
       </c>
       <c r="G76" s="3">
-        <v>3100800</v>
+        <v>3027900</v>
       </c>
       <c r="H76" s="3">
-        <v>2855900</v>
+        <v>3198200</v>
       </c>
       <c r="I76" s="3">
-        <v>3051600</v>
+        <v>2945500</v>
       </c>
       <c r="J76" s="3">
+        <v>3147400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2427100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2795700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2549400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2796400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2361000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2773200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>729600</v>
+        <v>928300</v>
       </c>
       <c r="E81" s="3">
-        <v>966600</v>
+        <v>752500</v>
       </c>
       <c r="F81" s="3">
-        <v>1037200</v>
+        <v>996900</v>
       </c>
       <c r="G81" s="3">
-        <v>990600</v>
+        <v>1069700</v>
       </c>
       <c r="H81" s="3">
-        <v>902700</v>
+        <v>1021700</v>
       </c>
       <c r="I81" s="3">
-        <v>1286100</v>
+        <v>931000</v>
       </c>
       <c r="J81" s="3">
+        <v>1326500</v>
+      </c>
+      <c r="K81" s="3">
         <v>908000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>729100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>721400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>709500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>611000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>310200</v>
+        <v>399600</v>
       </c>
       <c r="E83" s="3">
-        <v>290200</v>
+        <v>320000</v>
       </c>
       <c r="F83" s="3">
-        <v>287600</v>
+        <v>299400</v>
       </c>
       <c r="G83" s="3">
-        <v>290200</v>
+        <v>296600</v>
       </c>
       <c r="H83" s="3">
-        <v>276900</v>
+        <v>299400</v>
       </c>
       <c r="I83" s="3">
-        <v>267600</v>
+        <v>285600</v>
       </c>
       <c r="J83" s="3">
+        <v>276000</v>
+      </c>
+      <c r="K83" s="3">
         <v>335500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>357200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>243000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>238700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>237000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1043800</v>
+        <v>1115000</v>
       </c>
       <c r="E89" s="3">
-        <v>1475200</v>
+        <v>1076600</v>
       </c>
       <c r="F89" s="3">
-        <v>1306100</v>
+        <v>1521500</v>
       </c>
       <c r="G89" s="3">
-        <v>1440600</v>
+        <v>1347100</v>
       </c>
       <c r="H89" s="3">
+        <v>1485800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1388300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1202300</v>
       </c>
-      <c r="I89" s="3">
-        <v>1346000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1202300</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1264900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>923100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1021300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>821700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>923100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20000</v>
+        <v>-38400</v>
       </c>
       <c r="E91" s="3">
-        <v>-34600</v>
+        <v>-20600</v>
       </c>
       <c r="F91" s="3">
-        <v>-28000</v>
+        <v>-35700</v>
       </c>
       <c r="G91" s="3">
-        <v>-46600</v>
+        <v>-28800</v>
       </c>
       <c r="H91" s="3">
-        <v>-28000</v>
+        <v>-48100</v>
       </c>
       <c r="I91" s="3">
-        <v>-42600</v>
+        <v>-28800</v>
       </c>
       <c r="J91" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-376600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1161000</v>
+        <v>-413300</v>
       </c>
       <c r="E94" s="3">
-        <v>-451300</v>
+        <v>-1197400</v>
       </c>
       <c r="F94" s="3">
-        <v>-524600</v>
+        <v>-465500</v>
       </c>
       <c r="G94" s="3">
-        <v>-601800</v>
+        <v>-541000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1090400</v>
+        <v>-620700</v>
       </c>
       <c r="I94" s="3">
-        <v>-328900</v>
+        <v>-1124600</v>
       </c>
       <c r="J94" s="3">
+        <v>-339200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-223700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-594900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-228800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-250400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-302900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-821500</v>
+        <v>-361100</v>
       </c>
       <c r="E96" s="3">
-        <v>-351500</v>
+        <v>-847300</v>
       </c>
       <c r="F96" s="3">
-        <v>-769500</v>
+        <v>-362500</v>
       </c>
       <c r="G96" s="3">
-        <v>-330200</v>
+        <v>-793700</v>
       </c>
       <c r="H96" s="3">
-        <v>-729600</v>
+        <v>-340600</v>
       </c>
       <c r="I96" s="3">
-        <v>-318200</v>
+        <v>-752500</v>
       </c>
       <c r="J96" s="3">
+        <v>-328200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-696300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-269700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-599900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-211300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-554400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>185100</v>
+        <v>-841800</v>
       </c>
       <c r="E100" s="3">
-        <v>-990600</v>
+        <v>190900</v>
       </c>
       <c r="F100" s="3">
-        <v>-778900</v>
+        <v>-1021700</v>
       </c>
       <c r="G100" s="3">
-        <v>-828100</v>
+        <v>-803300</v>
       </c>
       <c r="H100" s="3">
-        <v>-121200</v>
+        <v>-854100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1027800</v>
+        <v>-125000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1060100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-930600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-639200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-628300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-795600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-676800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-266000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8000</v>
+        <v>-6900</v>
       </c>
       <c r="E101" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6700</v>
       </c>
-      <c r="F101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>49100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>75900</v>
+        <v>-146900</v>
       </c>
       <c r="E102" s="3">
-        <v>26600</v>
+        <v>78300</v>
       </c>
       <c r="F102" s="3">
-        <v>5300</v>
+        <v>27500</v>
       </c>
       <c r="G102" s="3">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="H102" s="3">
-        <v>-8000</v>
+        <v>12400</v>
       </c>
       <c r="I102" s="3">
-        <v>-65200</v>
+        <v>-8200</v>
       </c>
       <c r="J102" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>115100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-28700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-173800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>159300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4955800</v>
+        <v>5107100</v>
       </c>
       <c r="E8" s="3">
-        <v>4807500</v>
+        <v>4954300</v>
       </c>
       <c r="F8" s="3">
-        <v>5473500</v>
+        <v>5640600</v>
       </c>
       <c r="G8" s="3">
-        <v>5339000</v>
+        <v>5501900</v>
       </c>
       <c r="H8" s="3">
-        <v>5271700</v>
+        <v>5432600</v>
       </c>
       <c r="I8" s="3">
-        <v>5016300</v>
+        <v>5169400</v>
       </c>
       <c r="J8" s="3">
-        <v>4994300</v>
+        <v>5146800</v>
       </c>
       <c r="K8" s="3">
         <v>4931500</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1694500</v>
+        <v>1746200</v>
       </c>
       <c r="E9" s="3">
-        <v>1720600</v>
+        <v>1773100</v>
       </c>
       <c r="F9" s="3">
-        <v>1907400</v>
+        <v>1965600</v>
       </c>
       <c r="G9" s="3">
-        <v>1875800</v>
+        <v>1933000</v>
       </c>
       <c r="H9" s="3">
-        <v>1846900</v>
+        <v>1903300</v>
       </c>
       <c r="I9" s="3">
-        <v>1783800</v>
+        <v>1838200</v>
       </c>
       <c r="J9" s="3">
-        <v>1749400</v>
+        <v>1802900</v>
       </c>
       <c r="K9" s="3">
         <v>1802700</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3261300</v>
+        <v>3360900</v>
       </c>
       <c r="E10" s="3">
-        <v>3086900</v>
+        <v>3181200</v>
       </c>
       <c r="F10" s="3">
-        <v>3566200</v>
+        <v>3675000</v>
       </c>
       <c r="G10" s="3">
-        <v>3463200</v>
+        <v>3568900</v>
       </c>
       <c r="H10" s="3">
-        <v>3424700</v>
+        <v>3529300</v>
       </c>
       <c r="I10" s="3">
-        <v>3232500</v>
+        <v>3331200</v>
       </c>
       <c r="J10" s="3">
-        <v>3244800</v>
+        <v>3343900</v>
       </c>
       <c r="K10" s="3">
         <v>3128800</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>170300</v>
+        <v>175500</v>
       </c>
       <c r="E14" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="F14" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="G14" s="3">
-        <v>-78300</v>
+        <v>-80700</v>
       </c>
       <c r="H14" s="3">
-        <v>49400</v>
+        <v>50900</v>
       </c>
       <c r="I14" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="J14" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="K14" s="3">
         <v>-30600</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3717200</v>
+        <v>3830700</v>
       </c>
       <c r="E17" s="3">
-        <v>3773500</v>
+        <v>3888700</v>
       </c>
       <c r="F17" s="3">
-        <v>4035800</v>
+        <v>4159000</v>
       </c>
       <c r="G17" s="3">
-        <v>3821600</v>
+        <v>3938300</v>
       </c>
       <c r="H17" s="3">
-        <v>3954800</v>
+        <v>4075500</v>
       </c>
       <c r="I17" s="3">
-        <v>3681500</v>
+        <v>3793900</v>
       </c>
       <c r="J17" s="3">
-        <v>3682900</v>
+        <v>3795300</v>
       </c>
       <c r="K17" s="3">
         <v>3646700</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1238600</v>
+        <v>1276400</v>
       </c>
       <c r="E18" s="3">
-        <v>1034000</v>
+        <v>1065600</v>
       </c>
       <c r="F18" s="3">
-        <v>1437700</v>
+        <v>1481600</v>
       </c>
       <c r="G18" s="3">
-        <v>1517400</v>
+        <v>1563700</v>
       </c>
       <c r="H18" s="3">
-        <v>1316900</v>
+        <v>1357100</v>
       </c>
       <c r="I18" s="3">
-        <v>1334700</v>
+        <v>1375500</v>
       </c>
       <c r="J18" s="3">
-        <v>1311400</v>
+        <v>1351400</v>
       </c>
       <c r="K18" s="3">
         <v>1284800</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-116700</v>
+        <v>-120300</v>
       </c>
       <c r="E20" s="3">
-        <v>-119500</v>
+        <v>-123100</v>
       </c>
       <c r="F20" s="3">
-        <v>-277400</v>
+        <v>-285900</v>
       </c>
       <c r="G20" s="3">
-        <v>-141400</v>
+        <v>-145800</v>
       </c>
       <c r="H20" s="3">
-        <v>-152400</v>
+        <v>-157100</v>
       </c>
       <c r="I20" s="3">
-        <v>-137300</v>
+        <v>-141500</v>
       </c>
       <c r="J20" s="3">
-        <v>-131800</v>
+        <v>-135900</v>
       </c>
       <c r="K20" s="3">
         <v>-137100</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1774200</v>
+        <v>1828300</v>
       </c>
       <c r="E21" s="3">
-        <v>1419900</v>
+        <v>1463200</v>
       </c>
       <c r="F21" s="3">
-        <v>1641000</v>
+        <v>1691100</v>
       </c>
       <c r="G21" s="3">
-        <v>1833200</v>
+        <v>1889200</v>
       </c>
       <c r="H21" s="3">
-        <v>1634100</v>
+        <v>1684000</v>
       </c>
       <c r="I21" s="3">
-        <v>1621700</v>
+        <v>1671200</v>
       </c>
       <c r="J21" s="3">
-        <v>1592900</v>
+        <v>1641500</v>
       </c>
       <c r="K21" s="3">
         <v>1620300</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1121900</v>
+        <v>1156100</v>
       </c>
       <c r="E23" s="3">
-        <v>914500</v>
+        <v>942500</v>
       </c>
       <c r="F23" s="3">
-        <v>1160300</v>
+        <v>1195800</v>
       </c>
       <c r="G23" s="3">
-        <v>1375900</v>
+        <v>1417900</v>
       </c>
       <c r="H23" s="3">
-        <v>1164500</v>
+        <v>1200000</v>
       </c>
       <c r="I23" s="3">
-        <v>1197400</v>
+        <v>1234000</v>
       </c>
       <c r="J23" s="3">
-        <v>1179600</v>
+        <v>1215600</v>
       </c>
       <c r="K23" s="3">
         <v>1147700</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>207400</v>
+        <v>213700</v>
       </c>
       <c r="E24" s="3">
-        <v>170300</v>
+        <v>175500</v>
       </c>
       <c r="F24" s="3">
-        <v>157900</v>
+        <v>162700</v>
       </c>
       <c r="G24" s="3">
-        <v>306200</v>
+        <v>315600</v>
       </c>
       <c r="H24" s="3">
-        <v>148300</v>
+        <v>152800</v>
       </c>
       <c r="I24" s="3">
-        <v>263700</v>
+        <v>271700</v>
       </c>
       <c r="J24" s="3">
-        <v>320000</v>
+        <v>329700</v>
       </c>
       <c r="K24" s="3">
         <v>237000</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>914500</v>
+        <v>942500</v>
       </c>
       <c r="E26" s="3">
-        <v>744300</v>
+        <v>767000</v>
       </c>
       <c r="F26" s="3">
-        <v>1002400</v>
+        <v>1033000</v>
       </c>
       <c r="G26" s="3">
-        <v>1069700</v>
+        <v>1102400</v>
       </c>
       <c r="H26" s="3">
-        <v>1016200</v>
+        <v>1047200</v>
       </c>
       <c r="I26" s="3">
-        <v>933800</v>
+        <v>962300</v>
       </c>
       <c r="J26" s="3">
-        <v>859600</v>
+        <v>885900</v>
       </c>
       <c r="K26" s="3">
         <v>910700</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>928300</v>
+        <v>956600</v>
       </c>
       <c r="E27" s="3">
-        <v>752500</v>
+        <v>775500</v>
       </c>
       <c r="F27" s="3">
-        <v>996900</v>
+        <v>1027400</v>
       </c>
       <c r="G27" s="3">
-        <v>1069700</v>
+        <v>1102400</v>
       </c>
       <c r="H27" s="3">
-        <v>1010700</v>
+        <v>1041500</v>
       </c>
       <c r="I27" s="3">
-        <v>931000</v>
+        <v>959400</v>
       </c>
       <c r="J27" s="3">
-        <v>851400</v>
+        <v>877400</v>
       </c>
       <c r="K27" s="3">
         <v>908000</v>
@@ -1595,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>475100</v>
+        <v>489600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>116700</v>
+        <v>120300</v>
       </c>
       <c r="E32" s="3">
-        <v>119500</v>
+        <v>123100</v>
       </c>
       <c r="F32" s="3">
-        <v>277400</v>
+        <v>285900</v>
       </c>
       <c r="G32" s="3">
-        <v>141400</v>
+        <v>145800</v>
       </c>
       <c r="H32" s="3">
-        <v>152400</v>
+        <v>157100</v>
       </c>
       <c r="I32" s="3">
-        <v>137300</v>
+        <v>141500</v>
       </c>
       <c r="J32" s="3">
-        <v>131800</v>
+        <v>135900</v>
       </c>
       <c r="K32" s="3">
         <v>137100</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>928300</v>
+        <v>956600</v>
       </c>
       <c r="E33" s="3">
-        <v>752500</v>
+        <v>775500</v>
       </c>
       <c r="F33" s="3">
-        <v>996900</v>
+        <v>1027400</v>
       </c>
       <c r="G33" s="3">
-        <v>1069700</v>
+        <v>1102400</v>
       </c>
       <c r="H33" s="3">
-        <v>1021700</v>
+        <v>1052800</v>
       </c>
       <c r="I33" s="3">
-        <v>931000</v>
+        <v>959400</v>
       </c>
       <c r="J33" s="3">
-        <v>1326500</v>
+        <v>1367000</v>
       </c>
       <c r="K33" s="3">
         <v>908000</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>928300</v>
+        <v>956600</v>
       </c>
       <c r="E35" s="3">
-        <v>752500</v>
+        <v>775500</v>
       </c>
       <c r="F35" s="3">
-        <v>996900</v>
+        <v>1027400</v>
       </c>
       <c r="G35" s="3">
-        <v>1069700</v>
+        <v>1102400</v>
       </c>
       <c r="H35" s="3">
-        <v>1021700</v>
+        <v>1052800</v>
       </c>
       <c r="I35" s="3">
-        <v>931000</v>
+        <v>959400</v>
       </c>
       <c r="J35" s="3">
-        <v>1326500</v>
+        <v>1367000</v>
       </c>
       <c r="K35" s="3">
         <v>908000</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120800</v>
+        <v>124500</v>
       </c>
       <c r="E41" s="3">
-        <v>267800</v>
+        <v>275900</v>
       </c>
       <c r="F41" s="3">
-        <v>189500</v>
+        <v>195300</v>
       </c>
       <c r="G41" s="3">
-        <v>162000</v>
+        <v>167000</v>
       </c>
       <c r="H41" s="3">
-        <v>156500</v>
+        <v>161300</v>
       </c>
       <c r="I41" s="3">
-        <v>144200</v>
+        <v>148600</v>
       </c>
       <c r="J41" s="3">
-        <v>152400</v>
+        <v>157100</v>
       </c>
       <c r="K41" s="3">
         <v>213000</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2646100</v>
+        <v>2726900</v>
       </c>
       <c r="E43" s="3">
-        <v>2474500</v>
+        <v>2550000</v>
       </c>
       <c r="F43" s="3">
-        <v>2838400</v>
+        <v>2925000</v>
       </c>
       <c r="G43" s="3">
-        <v>2419600</v>
+        <v>2493400</v>
       </c>
       <c r="H43" s="3">
-        <v>2767000</v>
+        <v>2851400</v>
       </c>
       <c r="I43" s="3">
-        <v>2208100</v>
+        <v>2275500</v>
       </c>
       <c r="J43" s="3">
-        <v>2572000</v>
+        <v>2650500</v>
       </c>
       <c r="K43" s="3">
         <v>2168900</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>329600</v>
+        <v>339600</v>
       </c>
       <c r="E44" s="3">
-        <v>325400</v>
+        <v>335400</v>
       </c>
       <c r="F44" s="3">
-        <v>298000</v>
+        <v>307100</v>
       </c>
       <c r="G44" s="3">
-        <v>293900</v>
+        <v>302800</v>
       </c>
       <c r="H44" s="3">
-        <v>291100</v>
+        <v>300000</v>
       </c>
       <c r="I44" s="3">
-        <v>273300</v>
+        <v>281600</v>
       </c>
       <c r="J44" s="3">
-        <v>270500</v>
+        <v>278800</v>
       </c>
       <c r="K44" s="3">
         <v>268900</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="F45" s="3">
-        <v>31600</v>
+        <v>32500</v>
       </c>
       <c r="G45" s="3">
-        <v>23300</v>
+        <v>24100</v>
       </c>
       <c r="H45" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="I45" s="3">
-        <v>30200</v>
+        <v>31100</v>
       </c>
       <c r="J45" s="3">
-        <v>39800</v>
+        <v>41000</v>
       </c>
       <c r="K45" s="3">
         <v>22600</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3122600</v>
+        <v>3218000</v>
       </c>
       <c r="E46" s="3">
-        <v>3085600</v>
+        <v>3179800</v>
       </c>
       <c r="F46" s="3">
-        <v>3357400</v>
+        <v>3459900</v>
       </c>
       <c r="G46" s="3">
-        <v>2898800</v>
+        <v>2987300</v>
       </c>
       <c r="H46" s="3">
-        <v>3228400</v>
+        <v>3326900</v>
       </c>
       <c r="I46" s="3">
-        <v>2655700</v>
+        <v>2736800</v>
       </c>
       <c r="J46" s="3">
-        <v>3034700</v>
+        <v>3127400</v>
       </c>
       <c r="K46" s="3">
         <v>2673500</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>534200</v>
+        <v>550500</v>
       </c>
       <c r="E47" s="3">
-        <v>413300</v>
+        <v>425900</v>
       </c>
       <c r="F47" s="3">
-        <v>387200</v>
+        <v>399100</v>
       </c>
       <c r="G47" s="3">
-        <v>450400</v>
+        <v>464200</v>
       </c>
       <c r="H47" s="3">
-        <v>350200</v>
+        <v>360900</v>
       </c>
       <c r="I47" s="3">
-        <v>336400</v>
+        <v>346700</v>
       </c>
       <c r="J47" s="3">
-        <v>333700</v>
+        <v>343900</v>
       </c>
       <c r="K47" s="3">
         <v>312900</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>519100</v>
+        <v>534900</v>
       </c>
       <c r="E48" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="F48" s="3">
-        <v>609700</v>
+        <v>628300</v>
       </c>
       <c r="G48" s="3">
-        <v>631700</v>
+        <v>651000</v>
       </c>
       <c r="H48" s="3">
-        <v>633000</v>
+        <v>652400</v>
       </c>
       <c r="I48" s="3">
-        <v>644000</v>
+        <v>663700</v>
       </c>
       <c r="J48" s="3">
-        <v>660500</v>
+        <v>680700</v>
       </c>
       <c r="K48" s="3">
         <v>676400</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14623100</v>
+        <v>15069500</v>
       </c>
       <c r="E49" s="3">
-        <v>15864500</v>
+        <v>16348800</v>
       </c>
       <c r="F49" s="3">
-        <v>14110900</v>
+        <v>14541700</v>
       </c>
       <c r="G49" s="3">
-        <v>14588800</v>
+        <v>15034100</v>
       </c>
       <c r="H49" s="3">
-        <v>14326500</v>
+        <v>14763800</v>
       </c>
       <c r="I49" s="3">
-        <v>13705800</v>
+        <v>14124200</v>
       </c>
       <c r="J49" s="3">
-        <v>12577000</v>
+        <v>12961000</v>
       </c>
       <c r="K49" s="3">
         <v>12571100</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>624800</v>
+        <v>643900</v>
       </c>
       <c r="E52" s="3">
-        <v>591800</v>
+        <v>609900</v>
       </c>
       <c r="F52" s="3">
-        <v>469600</v>
+        <v>484000</v>
       </c>
       <c r="G52" s="3">
-        <v>775900</v>
+        <v>799500</v>
       </c>
       <c r="H52" s="3">
-        <v>685200</v>
+        <v>706100</v>
       </c>
       <c r="I52" s="3">
-        <v>689300</v>
+        <v>710400</v>
       </c>
       <c r="J52" s="3">
-        <v>740100</v>
+        <v>762700</v>
       </c>
       <c r="K52" s="3">
         <v>705600</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19423800</v>
+        <v>20016700</v>
       </c>
       <c r="E54" s="3">
-        <v>20548400</v>
+        <v>21175700</v>
       </c>
       <c r="F54" s="3">
-        <v>18934900</v>
+        <v>19513000</v>
       </c>
       <c r="G54" s="3">
-        <v>19345500</v>
+        <v>19936100</v>
       </c>
       <c r="H54" s="3">
-        <v>19223300</v>
+        <v>19810100</v>
       </c>
       <c r="I54" s="3">
-        <v>18031400</v>
+        <v>18581800</v>
       </c>
       <c r="J54" s="3">
-        <v>17346100</v>
+        <v>17875700</v>
       </c>
       <c r="K54" s="3">
         <v>16939400</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4476600</v>
+        <v>4613300</v>
       </c>
       <c r="E57" s="3">
-        <v>4401100</v>
+        <v>4535400</v>
       </c>
       <c r="F57" s="3">
-        <v>4777300</v>
+        <v>4923200</v>
       </c>
       <c r="G57" s="3">
-        <v>4266500</v>
+        <v>4396700</v>
       </c>
       <c r="H57" s="3">
-        <v>4712800</v>
+        <v>4856700</v>
       </c>
       <c r="I57" s="3">
-        <v>4007000</v>
+        <v>4129300</v>
       </c>
       <c r="J57" s="3">
-        <v>4528800</v>
+        <v>4667000</v>
       </c>
       <c r="K57" s="3">
         <v>3954300</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1163100</v>
+        <v>1198600</v>
       </c>
       <c r="E58" s="3">
-        <v>1671200</v>
+        <v>1722200</v>
       </c>
       <c r="F58" s="3">
-        <v>2828800</v>
+        <v>2915100</v>
       </c>
       <c r="G58" s="3">
-        <v>1520100</v>
+        <v>1566500</v>
       </c>
       <c r="H58" s="3">
-        <v>1911500</v>
+        <v>1969800</v>
       </c>
       <c r="I58" s="3">
-        <v>1673900</v>
+        <v>1725000</v>
       </c>
       <c r="J58" s="3">
-        <v>1046400</v>
+        <v>1078300</v>
       </c>
       <c r="K58" s="3">
         <v>1030500</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>366600</v>
+        <v>377800</v>
       </c>
       <c r="E59" s="3">
-        <v>465500</v>
+        <v>479700</v>
       </c>
       <c r="F59" s="3">
-        <v>560300</v>
+        <v>577400</v>
       </c>
       <c r="G59" s="3">
-        <v>678400</v>
+        <v>699100</v>
       </c>
       <c r="H59" s="3">
-        <v>682500</v>
+        <v>703300</v>
       </c>
       <c r="I59" s="3">
-        <v>822500</v>
+        <v>847700</v>
       </c>
       <c r="J59" s="3">
-        <v>829400</v>
+        <v>854700</v>
       </c>
       <c r="K59" s="3">
         <v>853400</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6006300</v>
+        <v>6189700</v>
       </c>
       <c r="E60" s="3">
-        <v>6537800</v>
+        <v>6737300</v>
       </c>
       <c r="F60" s="3">
-        <v>8166400</v>
+        <v>8415700</v>
       </c>
       <c r="G60" s="3">
-        <v>6465000</v>
+        <v>6662300</v>
       </c>
       <c r="H60" s="3">
-        <v>7306700</v>
+        <v>7529800</v>
       </c>
       <c r="I60" s="3">
-        <v>6503400</v>
+        <v>6702000</v>
       </c>
       <c r="J60" s="3">
-        <v>6404600</v>
+        <v>6600100</v>
       </c>
       <c r="K60" s="3">
         <v>5838200</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8618100</v>
+        <v>8881200</v>
       </c>
       <c r="E61" s="3">
-        <v>9078200</v>
+        <v>9355300</v>
       </c>
       <c r="F61" s="3">
-        <v>5978900</v>
+        <v>6161400</v>
       </c>
       <c r="G61" s="3">
-        <v>7920600</v>
+        <v>8162400</v>
       </c>
       <c r="H61" s="3">
-        <v>6828900</v>
+        <v>7037300</v>
       </c>
       <c r="I61" s="3">
-        <v>7085700</v>
+        <v>7302000</v>
       </c>
       <c r="J61" s="3">
-        <v>6167000</v>
+        <v>6355300</v>
       </c>
       <c r="K61" s="3">
         <v>6414700</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1914200</v>
+        <v>1972700</v>
       </c>
       <c r="E62" s="3">
-        <v>2052900</v>
+        <v>2115600</v>
       </c>
       <c r="F62" s="3">
-        <v>1782400</v>
+        <v>1836800</v>
       </c>
       <c r="G62" s="3">
-        <v>1895000</v>
+        <v>1952900</v>
       </c>
       <c r="H62" s="3">
-        <v>1848300</v>
+        <v>1904700</v>
       </c>
       <c r="I62" s="3">
-        <v>1472100</v>
+        <v>1517000</v>
       </c>
       <c r="J62" s="3">
-        <v>1598400</v>
+        <v>1647200</v>
       </c>
       <c r="K62" s="3">
         <v>2214100</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16541400</v>
+        <v>17046400</v>
       </c>
       <c r="E66" s="3">
-        <v>17693600</v>
+        <v>18233700</v>
       </c>
       <c r="F66" s="3">
-        <v>15960600</v>
+        <v>16447800</v>
       </c>
       <c r="G66" s="3">
-        <v>16317600</v>
+        <v>16815800</v>
       </c>
       <c r="H66" s="3">
-        <v>16025100</v>
+        <v>16514300</v>
       </c>
       <c r="I66" s="3">
-        <v>15085900</v>
+        <v>15546400</v>
       </c>
       <c r="J66" s="3">
-        <v>14198800</v>
+        <v>14632200</v>
       </c>
       <c r="K66" s="3">
         <v>14512300</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1667100</v>
+        <v>1717900</v>
       </c>
       <c r="E72" s="3">
-        <v>1076600</v>
+        <v>1109400</v>
       </c>
       <c r="F72" s="3">
-        <v>1344400</v>
+        <v>1385400</v>
       </c>
       <c r="G72" s="3">
-        <v>1576400</v>
+        <v>1624500</v>
       </c>
       <c r="H72" s="3">
-        <v>1351200</v>
+        <v>1392500</v>
       </c>
       <c r="I72" s="3">
-        <v>850000</v>
+        <v>876000</v>
       </c>
       <c r="J72" s="3">
-        <v>583600</v>
+        <v>601400</v>
       </c>
       <c r="K72" s="3">
         <v>33300</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2882300</v>
+        <v>2970300</v>
       </c>
       <c r="E76" s="3">
-        <v>2854900</v>
+        <v>2942000</v>
       </c>
       <c r="F76" s="3">
-        <v>2974300</v>
+        <v>3065100</v>
       </c>
       <c r="G76" s="3">
-        <v>3027900</v>
+        <v>3120300</v>
       </c>
       <c r="H76" s="3">
-        <v>3198200</v>
+        <v>3295800</v>
       </c>
       <c r="I76" s="3">
-        <v>2945500</v>
+        <v>3035400</v>
       </c>
       <c r="J76" s="3">
-        <v>3147400</v>
+        <v>3243400</v>
       </c>
       <c r="K76" s="3">
         <v>2427100</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>928300</v>
+        <v>956600</v>
       </c>
       <c r="E81" s="3">
-        <v>752500</v>
+        <v>775500</v>
       </c>
       <c r="F81" s="3">
-        <v>996900</v>
+        <v>1027400</v>
       </c>
       <c r="G81" s="3">
-        <v>1069700</v>
+        <v>1102400</v>
       </c>
       <c r="H81" s="3">
-        <v>1021700</v>
+        <v>1052800</v>
       </c>
       <c r="I81" s="3">
-        <v>931000</v>
+        <v>959400</v>
       </c>
       <c r="J81" s="3">
-        <v>1326500</v>
+        <v>1367000</v>
       </c>
       <c r="K81" s="3">
         <v>908000</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>399600</v>
+        <v>411800</v>
       </c>
       <c r="E83" s="3">
-        <v>320000</v>
+        <v>329700</v>
       </c>
       <c r="F83" s="3">
-        <v>299400</v>
+        <v>308500</v>
       </c>
       <c r="G83" s="3">
-        <v>296600</v>
+        <v>305700</v>
       </c>
       <c r="H83" s="3">
-        <v>299400</v>
+        <v>308500</v>
       </c>
       <c r="I83" s="3">
-        <v>285600</v>
+        <v>294300</v>
       </c>
       <c r="J83" s="3">
-        <v>276000</v>
+        <v>284400</v>
       </c>
       <c r="K83" s="3">
         <v>335500</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1115000</v>
+        <v>1149100</v>
       </c>
       <c r="E89" s="3">
-        <v>1076600</v>
+        <v>1109400</v>
       </c>
       <c r="F89" s="3">
-        <v>1521500</v>
+        <v>1567900</v>
       </c>
       <c r="G89" s="3">
-        <v>1347100</v>
+        <v>1388200</v>
       </c>
       <c r="H89" s="3">
-        <v>1485800</v>
+        <v>1531100</v>
       </c>
       <c r="I89" s="3">
-        <v>1240000</v>
+        <v>1277800</v>
       </c>
       <c r="J89" s="3">
-        <v>1388300</v>
+        <v>1430700</v>
       </c>
       <c r="K89" s="3">
         <v>1202300</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38400</v>
+        <v>-39600</v>
       </c>
       <c r="E91" s="3">
-        <v>-20600</v>
+        <v>-21200</v>
       </c>
       <c r="F91" s="3">
-        <v>-35700</v>
+        <v>-36800</v>
       </c>
       <c r="G91" s="3">
-        <v>-28800</v>
+        <v>-29700</v>
       </c>
       <c r="H91" s="3">
-        <v>-48100</v>
+        <v>-49500</v>
       </c>
       <c r="I91" s="3">
-        <v>-28800</v>
+        <v>-29700</v>
       </c>
       <c r="J91" s="3">
-        <v>-43900</v>
+        <v>-45300</v>
       </c>
       <c r="K91" s="3">
         <v>-25300</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-413300</v>
+        <v>-425900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1197400</v>
+        <v>-1234000</v>
       </c>
       <c r="F94" s="3">
-        <v>-465500</v>
+        <v>-479700</v>
       </c>
       <c r="G94" s="3">
-        <v>-541000</v>
+        <v>-557600</v>
       </c>
       <c r="H94" s="3">
-        <v>-620700</v>
+        <v>-639600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1124600</v>
+        <v>-1159000</v>
       </c>
       <c r="J94" s="3">
-        <v>-339200</v>
+        <v>-349500</v>
       </c>
       <c r="K94" s="3">
         <v>-223700</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-361100</v>
+        <v>-372200</v>
       </c>
       <c r="E96" s="3">
-        <v>-847300</v>
+        <v>-873100</v>
       </c>
       <c r="F96" s="3">
-        <v>-362500</v>
+        <v>-373600</v>
       </c>
       <c r="G96" s="3">
-        <v>-793700</v>
+        <v>-817900</v>
       </c>
       <c r="H96" s="3">
-        <v>-340600</v>
+        <v>-350900</v>
       </c>
       <c r="I96" s="3">
-        <v>-752500</v>
+        <v>-775500</v>
       </c>
       <c r="J96" s="3">
-        <v>-328200</v>
+        <v>-338200</v>
       </c>
       <c r="K96" s="3">
         <v>-696300</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-841800</v>
+        <v>-867500</v>
       </c>
       <c r="E100" s="3">
-        <v>190900</v>
+        <v>196700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1021700</v>
+        <v>-1052800</v>
       </c>
       <c r="G100" s="3">
-        <v>-803300</v>
+        <v>-827800</v>
       </c>
       <c r="H100" s="3">
-        <v>-854100</v>
+        <v>-880200</v>
       </c>
       <c r="I100" s="3">
-        <v>-125000</v>
+        <v>-128800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1060100</v>
+        <v>-1092500</v>
       </c>
       <c r="K100" s="3">
         <v>-930600</v>
@@ -4377,16 +4377,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="E101" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="F101" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="G101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H101" s="3">
         <v>1400</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-146900</v>
+        <v>-151400</v>
       </c>
       <c r="E102" s="3">
-        <v>78300</v>
+        <v>80700</v>
       </c>
       <c r="F102" s="3">
-        <v>27500</v>
+        <v>28300</v>
       </c>
       <c r="G102" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H102" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="I102" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="J102" s="3">
-        <v>-67300</v>
+        <v>-69300</v>
       </c>
       <c r="K102" s="3">
         <v>-2700</v>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5107100</v>
+        <v>4628700</v>
       </c>
       <c r="E8" s="3">
-        <v>4954300</v>
+        <v>4921900</v>
       </c>
       <c r="F8" s="3">
-        <v>5640600</v>
+        <v>4774600</v>
       </c>
       <c r="G8" s="3">
-        <v>5501900</v>
+        <v>5436100</v>
       </c>
       <c r="H8" s="3">
-        <v>5432600</v>
+        <v>5302400</v>
       </c>
       <c r="I8" s="3">
-        <v>5169400</v>
+        <v>5235600</v>
       </c>
       <c r="J8" s="3">
+        <v>4981900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5146800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4931500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4473200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4210700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3922100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3903000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3852900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1746200</v>
+        <v>1597000</v>
       </c>
       <c r="E9" s="3">
-        <v>1773100</v>
+        <v>1682900</v>
       </c>
       <c r="F9" s="3">
-        <v>1965600</v>
+        <v>1708800</v>
       </c>
       <c r="G9" s="3">
-        <v>1933000</v>
+        <v>1894300</v>
       </c>
       <c r="H9" s="3">
-        <v>1903300</v>
+        <v>1862900</v>
       </c>
       <c r="I9" s="3">
-        <v>1838200</v>
+        <v>1834300</v>
       </c>
       <c r="J9" s="3">
+        <v>1771600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1802900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1802700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1617100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1519100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1445200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1344400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1355000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3360900</v>
+        <v>3031700</v>
       </c>
       <c r="E10" s="3">
-        <v>3181200</v>
+        <v>3239000</v>
       </c>
       <c r="F10" s="3">
-        <v>3675000</v>
+        <v>3065800</v>
       </c>
       <c r="G10" s="3">
-        <v>3568900</v>
+        <v>3541800</v>
       </c>
       <c r="H10" s="3">
-        <v>3529300</v>
+        <v>3439500</v>
       </c>
       <c r="I10" s="3">
-        <v>3331200</v>
+        <v>3401300</v>
       </c>
       <c r="J10" s="3">
+        <v>3210400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3343900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3128800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2856100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2691600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2476900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2558500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2498000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,52 +989,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>175500</v>
+        <v>-53200</v>
       </c>
       <c r="E14" s="3">
-        <v>-8500</v>
+        <v>169100</v>
       </c>
       <c r="F14" s="3">
-        <v>8500</v>
+        <v>-8200</v>
       </c>
       <c r="G14" s="3">
-        <v>-80700</v>
+        <v>8200</v>
       </c>
       <c r="H14" s="3">
-        <v>50900</v>
+        <v>-77700</v>
       </c>
       <c r="I14" s="3">
-        <v>-4200</v>
+        <v>49100</v>
       </c>
       <c r="J14" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K14" s="3">
         <v>11300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-30600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>44300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-50900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>65800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3830700</v>
+        <v>3402700</v>
       </c>
       <c r="E17" s="3">
-        <v>3888700</v>
+        <v>3691800</v>
       </c>
       <c r="F17" s="3">
-        <v>4159000</v>
+        <v>3747700</v>
       </c>
       <c r="G17" s="3">
-        <v>3938300</v>
+        <v>4008200</v>
       </c>
       <c r="H17" s="3">
-        <v>4075500</v>
+        <v>3795400</v>
       </c>
       <c r="I17" s="3">
-        <v>3793900</v>
+        <v>3927700</v>
       </c>
       <c r="J17" s="3">
+        <v>3656300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3795300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3646700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3427500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3146700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2879900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2998300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2919300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1276400</v>
+        <v>1226000</v>
       </c>
       <c r="E18" s="3">
-        <v>1065600</v>
+        <v>1230100</v>
       </c>
       <c r="F18" s="3">
-        <v>1481600</v>
+        <v>1026900</v>
       </c>
       <c r="G18" s="3">
-        <v>1563700</v>
+        <v>1427900</v>
       </c>
       <c r="H18" s="3">
-        <v>1357100</v>
+        <v>1507000</v>
       </c>
       <c r="I18" s="3">
-        <v>1375500</v>
+        <v>1307900</v>
       </c>
       <c r="J18" s="3">
+        <v>1325600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1351400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1284800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1045600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1064000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1042100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>904600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,96 +1214,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-120300</v>
+        <v>-100900</v>
       </c>
       <c r="E20" s="3">
-        <v>-123100</v>
+        <v>-115900</v>
       </c>
       <c r="F20" s="3">
-        <v>-285900</v>
+        <v>-118600</v>
       </c>
       <c r="G20" s="3">
-        <v>-145800</v>
+        <v>-275500</v>
       </c>
       <c r="H20" s="3">
-        <v>-157100</v>
+        <v>-140500</v>
       </c>
       <c r="I20" s="3">
-        <v>-141500</v>
+        <v>-151400</v>
       </c>
       <c r="J20" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-135900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-137100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-151500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-116400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-114800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-113200</v>
       </c>
       <c r="P20" s="3">
         <v>-113200</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>-113200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1828300</v>
+        <v>1602500</v>
       </c>
       <c r="E21" s="3">
-        <v>1463200</v>
+        <v>1762000</v>
       </c>
       <c r="F21" s="3">
-        <v>1691100</v>
+        <v>1410200</v>
       </c>
       <c r="G21" s="3">
-        <v>1889200</v>
+        <v>1629700</v>
       </c>
       <c r="H21" s="3">
-        <v>1684000</v>
+        <v>1820700</v>
       </c>
       <c r="I21" s="3">
-        <v>1671200</v>
+        <v>1622900</v>
       </c>
       <c r="J21" s="3">
+        <v>1610600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1641500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1620300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1379400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1273000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1127200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1169300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,96 +1353,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1156100</v>
+        <v>1125100</v>
       </c>
       <c r="E23" s="3">
-        <v>942500</v>
+        <v>1114200</v>
       </c>
       <c r="F23" s="3">
-        <v>1195800</v>
+        <v>908300</v>
       </c>
       <c r="G23" s="3">
-        <v>1417900</v>
+        <v>1152400</v>
       </c>
       <c r="H23" s="3">
-        <v>1200000</v>
+        <v>1366500</v>
       </c>
       <c r="I23" s="3">
-        <v>1234000</v>
+        <v>1156500</v>
       </c>
       <c r="J23" s="3">
+        <v>1189200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1215600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1147700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>894100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>947600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>927400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>791400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>213700</v>
+        <v>223700</v>
       </c>
       <c r="E24" s="3">
-        <v>175500</v>
+        <v>205900</v>
       </c>
       <c r="F24" s="3">
-        <v>162700</v>
+        <v>169100</v>
       </c>
       <c r="G24" s="3">
-        <v>315600</v>
+        <v>156800</v>
       </c>
       <c r="H24" s="3">
-        <v>152800</v>
+        <v>304100</v>
       </c>
       <c r="I24" s="3">
-        <v>271700</v>
+        <v>147300</v>
       </c>
       <c r="J24" s="3">
+        <v>261800</v>
+      </c>
+      <c r="K24" s="3">
         <v>329700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>237000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>157600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>223700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>212600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>177800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>942500</v>
+        <v>901500</v>
       </c>
       <c r="E26" s="3">
-        <v>767000</v>
+        <v>908300</v>
       </c>
       <c r="F26" s="3">
-        <v>1033000</v>
+        <v>739200</v>
       </c>
       <c r="G26" s="3">
-        <v>1102400</v>
+        <v>995600</v>
       </c>
       <c r="H26" s="3">
-        <v>1047200</v>
+        <v>1062400</v>
       </c>
       <c r="I26" s="3">
-        <v>962300</v>
+        <v>1009200</v>
       </c>
       <c r="J26" s="3">
+        <v>927400</v>
+      </c>
+      <c r="K26" s="3">
         <v>885900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>910700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>736500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>724000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>714800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>613600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>663700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>956600</v>
+        <v>905600</v>
       </c>
       <c r="E27" s="3">
-        <v>775500</v>
+        <v>921900</v>
       </c>
       <c r="F27" s="3">
-        <v>1027400</v>
+        <v>747400</v>
       </c>
       <c r="G27" s="3">
-        <v>1102400</v>
+        <v>990100</v>
       </c>
       <c r="H27" s="3">
-        <v>1041500</v>
+        <v>1062400</v>
       </c>
       <c r="I27" s="3">
-        <v>959400</v>
+        <v>1003700</v>
       </c>
       <c r="J27" s="3">
+        <v>924600</v>
+      </c>
+      <c r="K27" s="3">
         <v>877400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>908000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>729100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>721400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>709500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>611000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,17 +1655,17 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="I29" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>489600</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1615,14 +1676,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>120300</v>
+        <v>100900</v>
       </c>
       <c r="E32" s="3">
-        <v>123100</v>
+        <v>115900</v>
       </c>
       <c r="F32" s="3">
-        <v>285900</v>
+        <v>118600</v>
       </c>
       <c r="G32" s="3">
-        <v>145800</v>
+        <v>275500</v>
       </c>
       <c r="H32" s="3">
-        <v>157100</v>
+        <v>140500</v>
       </c>
       <c r="I32" s="3">
-        <v>141500</v>
+        <v>151400</v>
       </c>
       <c r="J32" s="3">
+        <v>136400</v>
+      </c>
+      <c r="K32" s="3">
         <v>135900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>137100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>151500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>116400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>114800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>113200</v>
       </c>
       <c r="P32" s="3">
         <v>113200</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>956600</v>
+        <v>905600</v>
       </c>
       <c r="E33" s="3">
-        <v>775500</v>
+        <v>921900</v>
       </c>
       <c r="F33" s="3">
-        <v>1027400</v>
+        <v>747400</v>
       </c>
       <c r="G33" s="3">
-        <v>1102400</v>
+        <v>990100</v>
       </c>
       <c r="H33" s="3">
-        <v>1052800</v>
+        <v>1062400</v>
       </c>
       <c r="I33" s="3">
-        <v>959400</v>
+        <v>1014700</v>
       </c>
       <c r="J33" s="3">
+        <v>924600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1367000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>908000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>729100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>721400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>709500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>611000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>956600</v>
+        <v>905600</v>
       </c>
       <c r="E35" s="3">
-        <v>775500</v>
+        <v>921900</v>
       </c>
       <c r="F35" s="3">
-        <v>1027400</v>
+        <v>747400</v>
       </c>
       <c r="G35" s="3">
-        <v>1102400</v>
+        <v>990100</v>
       </c>
       <c r="H35" s="3">
-        <v>1052800</v>
+        <v>1062400</v>
       </c>
       <c r="I35" s="3">
-        <v>959400</v>
+        <v>1014700</v>
       </c>
       <c r="J35" s="3">
+        <v>924600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1367000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>908000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>729100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>721400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>709500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>611000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124500</v>
+        <v>90000</v>
       </c>
       <c r="E41" s="3">
-        <v>275900</v>
+        <v>120000</v>
       </c>
       <c r="F41" s="3">
-        <v>195300</v>
+        <v>265900</v>
       </c>
       <c r="G41" s="3">
-        <v>167000</v>
+        <v>188200</v>
       </c>
       <c r="H41" s="3">
-        <v>161300</v>
+        <v>160900</v>
       </c>
       <c r="I41" s="3">
-        <v>148600</v>
+        <v>155500</v>
       </c>
       <c r="J41" s="3">
+        <v>143200</v>
+      </c>
+      <c r="K41" s="3">
         <v>157100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>213000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>199500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>272800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>159100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>189600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,316 +2148,340 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2726900</v>
+        <v>2224300</v>
       </c>
       <c r="E43" s="3">
-        <v>2550000</v>
+        <v>2628000</v>
       </c>
       <c r="F43" s="3">
-        <v>2925000</v>
+        <v>2457500</v>
       </c>
       <c r="G43" s="3">
-        <v>2493400</v>
+        <v>2819000</v>
       </c>
       <c r="H43" s="3">
-        <v>2851400</v>
+        <v>2403000</v>
       </c>
       <c r="I43" s="3">
-        <v>2275500</v>
+        <v>2748000</v>
       </c>
       <c r="J43" s="3">
+        <v>2193000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2650500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2168900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2481700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1910800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2088200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1677600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1958100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>339600</v>
+        <v>324600</v>
       </c>
       <c r="E44" s="3">
-        <v>335400</v>
+        <v>327300</v>
       </c>
       <c r="F44" s="3">
-        <v>307100</v>
+        <v>323200</v>
       </c>
       <c r="G44" s="3">
-        <v>302800</v>
+        <v>295900</v>
       </c>
       <c r="H44" s="3">
-        <v>300000</v>
+        <v>291900</v>
       </c>
       <c r="I44" s="3">
-        <v>281600</v>
+        <v>289100</v>
       </c>
       <c r="J44" s="3">
+        <v>271400</v>
+      </c>
+      <c r="K44" s="3">
         <v>278800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>268900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>257400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>243000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>206100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>193600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26900</v>
+        <v>39500</v>
       </c>
       <c r="E45" s="3">
-        <v>18400</v>
+        <v>25900</v>
       </c>
       <c r="F45" s="3">
-        <v>32500</v>
+        <v>17700</v>
       </c>
       <c r="G45" s="3">
-        <v>24100</v>
+        <v>31400</v>
       </c>
       <c r="H45" s="3">
-        <v>14200</v>
+        <v>23200</v>
       </c>
       <c r="I45" s="3">
-        <v>31100</v>
+        <v>13600</v>
       </c>
       <c r="J45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K45" s="3">
         <v>41000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3218000</v>
+        <v>2678500</v>
       </c>
       <c r="E46" s="3">
-        <v>3179800</v>
+        <v>3101300</v>
       </c>
       <c r="F46" s="3">
-        <v>3459900</v>
+        <v>3064400</v>
       </c>
       <c r="G46" s="3">
-        <v>2987300</v>
+        <v>3334500</v>
       </c>
       <c r="H46" s="3">
-        <v>3326900</v>
+        <v>2879000</v>
       </c>
       <c r="I46" s="3">
-        <v>2736800</v>
+        <v>3206300</v>
       </c>
       <c r="J46" s="3">
+        <v>2637600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3127400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2673500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2963200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2443400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2493800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2113400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2549300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>550500</v>
+        <v>323200</v>
       </c>
       <c r="E47" s="3">
-        <v>425900</v>
+        <v>530500</v>
       </c>
       <c r="F47" s="3">
-        <v>399100</v>
+        <v>410500</v>
       </c>
       <c r="G47" s="3">
-        <v>464200</v>
+        <v>384600</v>
       </c>
       <c r="H47" s="3">
-        <v>360900</v>
+        <v>447300</v>
       </c>
       <c r="I47" s="3">
-        <v>346700</v>
+        <v>347800</v>
       </c>
       <c r="J47" s="3">
+        <v>334100</v>
+      </c>
+      <c r="K47" s="3">
         <v>343900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>312900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>294400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>334800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>315600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>256800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>312100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>534900</v>
+        <v>447300</v>
       </c>
       <c r="E48" s="3">
-        <v>611300</v>
+        <v>515500</v>
       </c>
       <c r="F48" s="3">
-        <v>628300</v>
+        <v>589200</v>
       </c>
       <c r="G48" s="3">
-        <v>651000</v>
+        <v>605500</v>
       </c>
       <c r="H48" s="3">
-        <v>652400</v>
+        <v>627300</v>
       </c>
       <c r="I48" s="3">
-        <v>663700</v>
+        <v>628700</v>
       </c>
       <c r="J48" s="3">
+        <v>639600</v>
+      </c>
+      <c r="K48" s="3">
         <v>680700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>676400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>676100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>298600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>298700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>280500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>298900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15069500</v>
+        <v>14206600</v>
       </c>
       <c r="E49" s="3">
-        <v>16348800</v>
+        <v>14523000</v>
       </c>
       <c r="F49" s="3">
-        <v>14541700</v>
+        <v>15755900</v>
       </c>
       <c r="G49" s="3">
-        <v>15034100</v>
+        <v>14014300</v>
       </c>
       <c r="H49" s="3">
-        <v>14763800</v>
+        <v>14488900</v>
       </c>
       <c r="I49" s="3">
-        <v>14124200</v>
+        <v>14228400</v>
       </c>
       <c r="J49" s="3">
+        <v>13612000</v>
+      </c>
+      <c r="K49" s="3">
         <v>12961000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12571100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12311100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11882200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10939200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10435600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10725300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>643900</v>
+        <v>522300</v>
       </c>
       <c r="E52" s="3">
-        <v>609900</v>
+        <v>620500</v>
       </c>
       <c r="F52" s="3">
-        <v>484000</v>
+        <v>587800</v>
       </c>
       <c r="G52" s="3">
-        <v>799500</v>
+        <v>466400</v>
       </c>
       <c r="H52" s="3">
-        <v>706100</v>
+        <v>770500</v>
       </c>
       <c r="I52" s="3">
-        <v>710400</v>
+        <v>680500</v>
       </c>
       <c r="J52" s="3">
+        <v>684600</v>
+      </c>
+      <c r="K52" s="3">
         <v>762700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>705600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>645400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>650300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>541300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>680800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20016700</v>
+        <v>18178000</v>
       </c>
       <c r="E54" s="3">
-        <v>21175700</v>
+        <v>19290800</v>
       </c>
       <c r="F54" s="3">
-        <v>19513000</v>
+        <v>20407800</v>
       </c>
       <c r="G54" s="3">
-        <v>19936100</v>
+        <v>18805300</v>
       </c>
       <c r="H54" s="3">
-        <v>19810100</v>
+        <v>19213100</v>
       </c>
       <c r="I54" s="3">
-        <v>18581800</v>
+        <v>19091700</v>
       </c>
       <c r="J54" s="3">
+        <v>17907900</v>
+      </c>
+      <c r="K54" s="3">
         <v>17875700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16939400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16890200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15609400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14588700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13767000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14599300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4613300</v>
+        <v>4156800</v>
       </c>
       <c r="E57" s="3">
-        <v>4535400</v>
+        <v>4446000</v>
       </c>
       <c r="F57" s="3">
-        <v>4923200</v>
+        <v>4370900</v>
       </c>
       <c r="G57" s="3">
-        <v>4396700</v>
+        <v>4744600</v>
       </c>
       <c r="H57" s="3">
-        <v>4856700</v>
+        <v>4237300</v>
       </c>
       <c r="I57" s="3">
-        <v>4129300</v>
+        <v>4680500</v>
       </c>
       <c r="J57" s="3">
+        <v>3979500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4667000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3954300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4284700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3529400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3783800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2983800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3471100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1198600</v>
+        <v>619200</v>
       </c>
       <c r="E58" s="3">
-        <v>1722200</v>
+        <v>1155100</v>
       </c>
       <c r="F58" s="3">
-        <v>2915100</v>
+        <v>1659700</v>
       </c>
       <c r="G58" s="3">
-        <v>1566500</v>
+        <v>2809400</v>
       </c>
       <c r="H58" s="3">
-        <v>1969800</v>
+        <v>1509700</v>
       </c>
       <c r="I58" s="3">
-        <v>1725000</v>
+        <v>1898400</v>
       </c>
       <c r="J58" s="3">
+        <v>1662500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1078300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1030500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1439700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1129900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>813900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>539900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>890200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>377800</v>
+        <v>315000</v>
       </c>
       <c r="E59" s="3">
-        <v>479700</v>
+        <v>364100</v>
       </c>
       <c r="F59" s="3">
-        <v>577400</v>
+        <v>462300</v>
       </c>
       <c r="G59" s="3">
-        <v>699100</v>
+        <v>556400</v>
       </c>
       <c r="H59" s="3">
-        <v>703300</v>
+        <v>673700</v>
       </c>
       <c r="I59" s="3">
-        <v>847700</v>
+        <v>677800</v>
       </c>
       <c r="J59" s="3">
+        <v>816900</v>
+      </c>
+      <c r="K59" s="3">
         <v>854700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>853400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>879400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>897200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>849100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>754500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6189700</v>
+        <v>5091000</v>
       </c>
       <c r="E60" s="3">
-        <v>6737300</v>
+        <v>5965200</v>
       </c>
       <c r="F60" s="3">
-        <v>8415700</v>
+        <v>6493000</v>
       </c>
       <c r="G60" s="3">
-        <v>6662300</v>
+        <v>8110500</v>
       </c>
       <c r="H60" s="3">
-        <v>7529800</v>
+        <v>6420700</v>
       </c>
       <c r="I60" s="3">
-        <v>6702000</v>
+        <v>7256700</v>
       </c>
       <c r="J60" s="3">
+        <v>6458900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6600100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5838200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6603800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5556500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5446800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4278300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5182900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8881200</v>
+        <v>8211400</v>
       </c>
       <c r="E61" s="3">
-        <v>9355300</v>
+        <v>8559100</v>
       </c>
       <c r="F61" s="3">
-        <v>6161400</v>
+        <v>9016000</v>
       </c>
       <c r="G61" s="3">
-        <v>8162400</v>
+        <v>5937900</v>
       </c>
       <c r="H61" s="3">
-        <v>7037300</v>
+        <v>7866300</v>
       </c>
       <c r="I61" s="3">
-        <v>7302000</v>
+        <v>6782100</v>
       </c>
       <c r="J61" s="3">
+        <v>7037200</v>
+      </c>
+      <c r="K61" s="3">
         <v>6355300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6414700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5033500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5098800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4275500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4669300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1972700</v>
+        <v>1584700</v>
       </c>
       <c r="E62" s="3">
-        <v>2115600</v>
+        <v>1901100</v>
       </c>
       <c r="F62" s="3">
-        <v>1836800</v>
+        <v>2038900</v>
       </c>
       <c r="G62" s="3">
-        <v>1952900</v>
+        <v>1770200</v>
       </c>
       <c r="H62" s="3">
-        <v>1904700</v>
+        <v>1882000</v>
       </c>
       <c r="I62" s="3">
-        <v>1517000</v>
+        <v>1835700</v>
       </c>
       <c r="J62" s="3">
+        <v>1462000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1647200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2214100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2410200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2356800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2025600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2416300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2455800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17046400</v>
+        <v>14877600</v>
       </c>
       <c r="E66" s="3">
-        <v>18233700</v>
+        <v>16428200</v>
       </c>
       <c r="F66" s="3">
-        <v>16447800</v>
+        <v>17572400</v>
       </c>
       <c r="G66" s="3">
-        <v>16815800</v>
+        <v>15851300</v>
       </c>
       <c r="H66" s="3">
-        <v>16514300</v>
+        <v>16205900</v>
       </c>
       <c r="I66" s="3">
-        <v>15546400</v>
+        <v>15915400</v>
       </c>
       <c r="J66" s="3">
+        <v>14982600</v>
+      </c>
+      <c r="K66" s="3">
         <v>14632200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14512300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14094400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13060000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11792300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11406000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11826100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1717900</v>
+        <v>1977500</v>
       </c>
       <c r="E72" s="3">
-        <v>1109400</v>
+        <v>1655600</v>
       </c>
       <c r="F72" s="3">
-        <v>1385400</v>
+        <v>1069200</v>
       </c>
       <c r="G72" s="3">
-        <v>1624500</v>
+        <v>1335200</v>
       </c>
       <c r="H72" s="3">
-        <v>1392500</v>
+        <v>1565600</v>
       </c>
       <c r="I72" s="3">
-        <v>876000</v>
+        <v>1342000</v>
       </c>
       <c r="J72" s="3">
+        <v>844200</v>
+      </c>
+      <c r="K72" s="3">
         <v>601400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-264800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>262400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>444800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>184400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2970300</v>
+        <v>3300400</v>
       </c>
       <c r="E76" s="3">
-        <v>2942000</v>
+        <v>2862600</v>
       </c>
       <c r="F76" s="3">
-        <v>3065100</v>
+        <v>2835300</v>
       </c>
       <c r="G76" s="3">
-        <v>3120300</v>
+        <v>2954000</v>
       </c>
       <c r="H76" s="3">
-        <v>3295800</v>
+        <v>3007200</v>
       </c>
       <c r="I76" s="3">
-        <v>3035400</v>
+        <v>3176300</v>
       </c>
       <c r="J76" s="3">
+        <v>2925300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3243400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2427100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2795700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2549400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2796400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2361000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2773200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>956600</v>
+        <v>905600</v>
       </c>
       <c r="E81" s="3">
-        <v>775500</v>
+        <v>921900</v>
       </c>
       <c r="F81" s="3">
-        <v>1027400</v>
+        <v>747400</v>
       </c>
       <c r="G81" s="3">
-        <v>1102400</v>
+        <v>990100</v>
       </c>
       <c r="H81" s="3">
-        <v>1052800</v>
+        <v>1062400</v>
       </c>
       <c r="I81" s="3">
-        <v>959400</v>
+        <v>1014700</v>
       </c>
       <c r="J81" s="3">
+        <v>924600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1367000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>908000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>729100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>721400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>709500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>611000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>411800</v>
+        <v>283700</v>
       </c>
       <c r="E83" s="3">
-        <v>329700</v>
+        <v>396900</v>
       </c>
       <c r="F83" s="3">
-        <v>308500</v>
+        <v>317800</v>
       </c>
       <c r="G83" s="3">
-        <v>305700</v>
+        <v>297300</v>
       </c>
       <c r="H83" s="3">
-        <v>308500</v>
+        <v>294600</v>
       </c>
       <c r="I83" s="3">
-        <v>294300</v>
+        <v>297300</v>
       </c>
       <c r="J83" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K83" s="3">
         <v>284400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>335500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>357200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>243000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>238700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>237000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1149100</v>
+        <v>1448300</v>
       </c>
       <c r="E89" s="3">
-        <v>1109400</v>
+        <v>1107400</v>
       </c>
       <c r="F89" s="3">
-        <v>1567900</v>
+        <v>1069200</v>
       </c>
       <c r="G89" s="3">
-        <v>1388200</v>
+        <v>1511100</v>
       </c>
       <c r="H89" s="3">
-        <v>1531100</v>
+        <v>1337900</v>
       </c>
       <c r="I89" s="3">
-        <v>1277800</v>
+        <v>1475600</v>
       </c>
       <c r="J89" s="3">
+        <v>1231500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1430700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1202300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1264900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>923100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1021300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>821700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>923100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39600</v>
+        <v>-13600</v>
       </c>
       <c r="E91" s="3">
-        <v>-21200</v>
+        <v>-38200</v>
       </c>
       <c r="F91" s="3">
-        <v>-36800</v>
+        <v>-20500</v>
       </c>
       <c r="G91" s="3">
-        <v>-29700</v>
+        <v>-35500</v>
       </c>
       <c r="H91" s="3">
-        <v>-49500</v>
+        <v>-28600</v>
       </c>
       <c r="I91" s="3">
-        <v>-29700</v>
+        <v>-47700</v>
       </c>
       <c r="J91" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-53500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-376600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-425900</v>
+        <v>1400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1234000</v>
+        <v>-410500</v>
       </c>
       <c r="F94" s="3">
-        <v>-479700</v>
+        <v>-1189200</v>
       </c>
       <c r="G94" s="3">
-        <v>-557600</v>
+        <v>-462300</v>
       </c>
       <c r="H94" s="3">
-        <v>-639600</v>
+        <v>-537300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1159000</v>
+        <v>-616400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1116900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-349500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-223700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-594900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-228800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-250400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-302900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-372200</v>
+        <v>-864600</v>
       </c>
       <c r="E96" s="3">
-        <v>-873100</v>
+        <v>-358700</v>
       </c>
       <c r="F96" s="3">
-        <v>-373600</v>
+        <v>-841500</v>
       </c>
       <c r="G96" s="3">
-        <v>-817900</v>
+        <v>-360000</v>
       </c>
       <c r="H96" s="3">
-        <v>-350900</v>
+        <v>-788300</v>
       </c>
       <c r="I96" s="3">
-        <v>-775500</v>
+        <v>-338200</v>
       </c>
       <c r="J96" s="3">
+        <v>-747400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-338200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-696300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-269700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-599900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-211300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-554400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-867500</v>
+        <v>-1478300</v>
       </c>
       <c r="E100" s="3">
-        <v>196700</v>
+        <v>-836000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1052800</v>
+        <v>189600</v>
       </c>
       <c r="G100" s="3">
-        <v>-827800</v>
+        <v>-1014700</v>
       </c>
       <c r="H100" s="3">
-        <v>-880200</v>
+        <v>-797800</v>
       </c>
       <c r="I100" s="3">
-        <v>-128800</v>
+        <v>-848300</v>
       </c>
       <c r="J100" s="3">
+        <v>-124100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1092500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-930600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-639200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-628300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-795600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-676800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-266000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7100</v>
+        <v>-1400</v>
       </c>
       <c r="E101" s="3">
-        <v>8500</v>
+        <v>-6800</v>
       </c>
       <c r="F101" s="3">
-        <v>-7100</v>
+        <v>8200</v>
       </c>
       <c r="G101" s="3">
-        <v>2800</v>
+        <v>-6800</v>
       </c>
       <c r="H101" s="3">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
         <v>1400</v>
       </c>
       <c r="J101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>49100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-151400</v>
+        <v>-30000</v>
       </c>
       <c r="E102" s="3">
-        <v>80700</v>
+        <v>-145900</v>
       </c>
       <c r="F102" s="3">
-        <v>28300</v>
+        <v>77700</v>
       </c>
       <c r="G102" s="3">
-        <v>5700</v>
+        <v>27300</v>
       </c>
       <c r="H102" s="3">
-        <v>12700</v>
+        <v>5500</v>
       </c>
       <c r="I102" s="3">
-        <v>-8500</v>
+        <v>12300</v>
       </c>
       <c r="J102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-69300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>115100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-173800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>159300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4628700</v>
+        <v>4517800</v>
       </c>
       <c r="E8" s="3">
-        <v>4921900</v>
+        <v>4803900</v>
       </c>
       <c r="F8" s="3">
-        <v>4774600</v>
+        <v>4660200</v>
       </c>
       <c r="G8" s="3">
-        <v>5436100</v>
+        <v>5305800</v>
       </c>
       <c r="H8" s="3">
-        <v>5302400</v>
+        <v>5175300</v>
       </c>
       <c r="I8" s="3">
-        <v>5235600</v>
+        <v>5110100</v>
       </c>
       <c r="J8" s="3">
-        <v>4981900</v>
+        <v>4862500</v>
       </c>
       <c r="K8" s="3">
         <v>5146800</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1597000</v>
+        <v>1558700</v>
       </c>
       <c r="E9" s="3">
-        <v>1682900</v>
+        <v>1642600</v>
       </c>
       <c r="F9" s="3">
-        <v>1708800</v>
+        <v>1667900</v>
       </c>
       <c r="G9" s="3">
-        <v>1894300</v>
+        <v>1848900</v>
       </c>
       <c r="H9" s="3">
-        <v>1862900</v>
+        <v>1818300</v>
       </c>
       <c r="I9" s="3">
-        <v>1834300</v>
+        <v>1790300</v>
       </c>
       <c r="J9" s="3">
-        <v>1771600</v>
+        <v>1729100</v>
       </c>
       <c r="K9" s="3">
         <v>1802900</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3031700</v>
+        <v>2959000</v>
       </c>
       <c r="E10" s="3">
-        <v>3239000</v>
+        <v>3161400</v>
       </c>
       <c r="F10" s="3">
-        <v>3065800</v>
+        <v>2992300</v>
       </c>
       <c r="G10" s="3">
-        <v>3541800</v>
+        <v>3456900</v>
       </c>
       <c r="H10" s="3">
-        <v>3439500</v>
+        <v>3357000</v>
       </c>
       <c r="I10" s="3">
-        <v>3401300</v>
+        <v>3319800</v>
       </c>
       <c r="J10" s="3">
-        <v>3210400</v>
+        <v>3133400</v>
       </c>
       <c r="K10" s="3">
         <v>3343900</v>
@@ -998,25 +998,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-53200</v>
+        <v>-51900</v>
       </c>
       <c r="E14" s="3">
-        <v>169100</v>
+        <v>165100</v>
       </c>
       <c r="F14" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="G14" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="H14" s="3">
-        <v>-77700</v>
+        <v>-75900</v>
       </c>
       <c r="I14" s="3">
-        <v>49100</v>
+        <v>47900</v>
       </c>
       <c r="J14" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K14" s="3">
         <v>11300</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3402700</v>
+        <v>3321100</v>
       </c>
       <c r="E17" s="3">
-        <v>3691800</v>
+        <v>3603300</v>
       </c>
       <c r="F17" s="3">
-        <v>3747700</v>
+        <v>3657900</v>
       </c>
       <c r="G17" s="3">
-        <v>4008200</v>
+        <v>3912100</v>
       </c>
       <c r="H17" s="3">
-        <v>3795400</v>
+        <v>3704500</v>
       </c>
       <c r="I17" s="3">
-        <v>3927700</v>
+        <v>3833600</v>
       </c>
       <c r="J17" s="3">
-        <v>3656300</v>
+        <v>3568700</v>
       </c>
       <c r="K17" s="3">
         <v>3795300</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1226000</v>
+        <v>1196700</v>
       </c>
       <c r="E18" s="3">
-        <v>1230100</v>
+        <v>1200700</v>
       </c>
       <c r="F18" s="3">
-        <v>1026900</v>
+        <v>1002300</v>
       </c>
       <c r="G18" s="3">
-        <v>1427900</v>
+        <v>1393700</v>
       </c>
       <c r="H18" s="3">
-        <v>1507000</v>
+        <v>1470900</v>
       </c>
       <c r="I18" s="3">
-        <v>1307900</v>
+        <v>1276500</v>
       </c>
       <c r="J18" s="3">
-        <v>1325600</v>
+        <v>1293800</v>
       </c>
       <c r="K18" s="3">
         <v>1351400</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100900</v>
+        <v>-98500</v>
       </c>
       <c r="E20" s="3">
-        <v>-115900</v>
+        <v>-113100</v>
       </c>
       <c r="F20" s="3">
-        <v>-118600</v>
+        <v>-115800</v>
       </c>
       <c r="G20" s="3">
-        <v>-275500</v>
+        <v>-268900</v>
       </c>
       <c r="H20" s="3">
-        <v>-140500</v>
+        <v>-137100</v>
       </c>
       <c r="I20" s="3">
-        <v>-151400</v>
+        <v>-147800</v>
       </c>
       <c r="J20" s="3">
-        <v>-136400</v>
+        <v>-133100</v>
       </c>
       <c r="K20" s="3">
         <v>-135900</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1602500</v>
+        <v>1564000</v>
       </c>
       <c r="E21" s="3">
-        <v>1762000</v>
+        <v>1719800</v>
       </c>
       <c r="F21" s="3">
-        <v>1410200</v>
+        <v>1376400</v>
       </c>
       <c r="G21" s="3">
-        <v>1629700</v>
+        <v>1590700</v>
       </c>
       <c r="H21" s="3">
-        <v>1820700</v>
+        <v>1777000</v>
       </c>
       <c r="I21" s="3">
-        <v>1622900</v>
+        <v>1584000</v>
       </c>
       <c r="J21" s="3">
-        <v>1610600</v>
+        <v>1572000</v>
       </c>
       <c r="K21" s="3">
         <v>1641500</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1125100</v>
+        <v>1098200</v>
       </c>
       <c r="E23" s="3">
-        <v>1114200</v>
+        <v>1087500</v>
       </c>
       <c r="F23" s="3">
-        <v>908300</v>
+        <v>886500</v>
       </c>
       <c r="G23" s="3">
-        <v>1152400</v>
+        <v>1124800</v>
       </c>
       <c r="H23" s="3">
-        <v>1366500</v>
+        <v>1333800</v>
       </c>
       <c r="I23" s="3">
-        <v>1156500</v>
+        <v>1128800</v>
       </c>
       <c r="J23" s="3">
-        <v>1189200</v>
+        <v>1160700</v>
       </c>
       <c r="K23" s="3">
         <v>1215600</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>223700</v>
+        <v>218300</v>
       </c>
       <c r="E24" s="3">
-        <v>205900</v>
+        <v>201000</v>
       </c>
       <c r="F24" s="3">
-        <v>169100</v>
+        <v>165100</v>
       </c>
       <c r="G24" s="3">
-        <v>156800</v>
+        <v>153100</v>
       </c>
       <c r="H24" s="3">
-        <v>304100</v>
+        <v>296800</v>
       </c>
       <c r="I24" s="3">
-        <v>147300</v>
+        <v>143800</v>
       </c>
       <c r="J24" s="3">
-        <v>261800</v>
+        <v>255600</v>
       </c>
       <c r="K24" s="3">
         <v>329700</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>901500</v>
+        <v>879900</v>
       </c>
       <c r="E26" s="3">
-        <v>908300</v>
+        <v>886500</v>
       </c>
       <c r="F26" s="3">
-        <v>739200</v>
+        <v>721500</v>
       </c>
       <c r="G26" s="3">
-        <v>995600</v>
+        <v>971700</v>
       </c>
       <c r="H26" s="3">
-        <v>1062400</v>
+        <v>1036900</v>
       </c>
       <c r="I26" s="3">
-        <v>1009200</v>
+        <v>985000</v>
       </c>
       <c r="J26" s="3">
-        <v>927400</v>
+        <v>905100</v>
       </c>
       <c r="K26" s="3">
         <v>885900</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>905600</v>
+        <v>883900</v>
       </c>
       <c r="E27" s="3">
-        <v>921900</v>
+        <v>899800</v>
       </c>
       <c r="F27" s="3">
-        <v>747400</v>
+        <v>729400</v>
       </c>
       <c r="G27" s="3">
-        <v>990100</v>
+        <v>966400</v>
       </c>
       <c r="H27" s="3">
-        <v>1062400</v>
+        <v>1036900</v>
       </c>
       <c r="I27" s="3">
-        <v>1003700</v>
+        <v>979700</v>
       </c>
       <c r="J27" s="3">
-        <v>924600</v>
+        <v>902500</v>
       </c>
       <c r="K27" s="3">
         <v>877400</v>
@@ -1659,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100900</v>
+        <v>98500</v>
       </c>
       <c r="E32" s="3">
-        <v>115900</v>
+        <v>113100</v>
       </c>
       <c r="F32" s="3">
-        <v>118600</v>
+        <v>115800</v>
       </c>
       <c r="G32" s="3">
-        <v>275500</v>
+        <v>268900</v>
       </c>
       <c r="H32" s="3">
-        <v>140500</v>
+        <v>137100</v>
       </c>
       <c r="I32" s="3">
-        <v>151400</v>
+        <v>147800</v>
       </c>
       <c r="J32" s="3">
-        <v>136400</v>
+        <v>133100</v>
       </c>
       <c r="K32" s="3">
         <v>135900</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>905600</v>
+        <v>883900</v>
       </c>
       <c r="E33" s="3">
-        <v>921900</v>
+        <v>899800</v>
       </c>
       <c r="F33" s="3">
-        <v>747400</v>
+        <v>729400</v>
       </c>
       <c r="G33" s="3">
-        <v>990100</v>
+        <v>966400</v>
       </c>
       <c r="H33" s="3">
-        <v>1062400</v>
+        <v>1036900</v>
       </c>
       <c r="I33" s="3">
-        <v>1014700</v>
+        <v>990300</v>
       </c>
       <c r="J33" s="3">
-        <v>924600</v>
+        <v>902500</v>
       </c>
       <c r="K33" s="3">
         <v>1367000</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>905600</v>
+        <v>883900</v>
       </c>
       <c r="E35" s="3">
-        <v>921900</v>
+        <v>899800</v>
       </c>
       <c r="F35" s="3">
-        <v>747400</v>
+        <v>729400</v>
       </c>
       <c r="G35" s="3">
-        <v>990100</v>
+        <v>966400</v>
       </c>
       <c r="H35" s="3">
-        <v>1062400</v>
+        <v>1036900</v>
       </c>
       <c r="I35" s="3">
-        <v>1014700</v>
+        <v>990300</v>
       </c>
       <c r="J35" s="3">
-        <v>924600</v>
+        <v>902500</v>
       </c>
       <c r="K35" s="3">
         <v>1367000</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90000</v>
+        <v>87900</v>
       </c>
       <c r="E41" s="3">
-        <v>120000</v>
+        <v>117100</v>
       </c>
       <c r="F41" s="3">
-        <v>265900</v>
+        <v>259600</v>
       </c>
       <c r="G41" s="3">
-        <v>188200</v>
+        <v>183700</v>
       </c>
       <c r="H41" s="3">
-        <v>160900</v>
+        <v>157100</v>
       </c>
       <c r="I41" s="3">
-        <v>155500</v>
+        <v>151700</v>
       </c>
       <c r="J41" s="3">
-        <v>143200</v>
+        <v>139800</v>
       </c>
       <c r="K41" s="3">
         <v>157100</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2224300</v>
+        <v>2171000</v>
       </c>
       <c r="E43" s="3">
-        <v>2628000</v>
+        <v>2565000</v>
       </c>
       <c r="F43" s="3">
-        <v>2457500</v>
+        <v>2398600</v>
       </c>
       <c r="G43" s="3">
-        <v>2819000</v>
+        <v>2751400</v>
       </c>
       <c r="H43" s="3">
-        <v>2403000</v>
+        <v>2345400</v>
       </c>
       <c r="I43" s="3">
-        <v>2748000</v>
+        <v>2682200</v>
       </c>
       <c r="J43" s="3">
-        <v>2193000</v>
+        <v>2140400</v>
       </c>
       <c r="K43" s="3">
         <v>2650500</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>324600</v>
+        <v>316800</v>
       </c>
       <c r="E44" s="3">
-        <v>327300</v>
+        <v>319500</v>
       </c>
       <c r="F44" s="3">
-        <v>323200</v>
+        <v>315500</v>
       </c>
       <c r="G44" s="3">
-        <v>295900</v>
+        <v>288800</v>
       </c>
       <c r="H44" s="3">
-        <v>291900</v>
+        <v>284900</v>
       </c>
       <c r="I44" s="3">
-        <v>289100</v>
+        <v>282200</v>
       </c>
       <c r="J44" s="3">
-        <v>271400</v>
+        <v>264900</v>
       </c>
       <c r="K44" s="3">
         <v>278800</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39500</v>
+        <v>38600</v>
       </c>
       <c r="E45" s="3">
-        <v>25900</v>
+        <v>25300</v>
       </c>
       <c r="F45" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="G45" s="3">
-        <v>31400</v>
+        <v>30600</v>
       </c>
       <c r="H45" s="3">
-        <v>23200</v>
+        <v>22600</v>
       </c>
       <c r="I45" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="J45" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="K45" s="3">
         <v>41000</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2678500</v>
+        <v>2614300</v>
       </c>
       <c r="E46" s="3">
-        <v>3101300</v>
+        <v>3026900</v>
       </c>
       <c r="F46" s="3">
-        <v>3064400</v>
+        <v>2991000</v>
       </c>
       <c r="G46" s="3">
-        <v>3334500</v>
+        <v>3254500</v>
       </c>
       <c r="H46" s="3">
-        <v>2879000</v>
+        <v>2810000</v>
       </c>
       <c r="I46" s="3">
-        <v>3206300</v>
+        <v>3129400</v>
       </c>
       <c r="J46" s="3">
-        <v>2637600</v>
+        <v>2574300</v>
       </c>
       <c r="K46" s="3">
         <v>3127400</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>323200</v>
+        <v>315500</v>
       </c>
       <c r="E47" s="3">
-        <v>530500</v>
+        <v>517800</v>
       </c>
       <c r="F47" s="3">
-        <v>410500</v>
+        <v>400700</v>
       </c>
       <c r="G47" s="3">
-        <v>384600</v>
+        <v>375400</v>
       </c>
       <c r="H47" s="3">
-        <v>447300</v>
+        <v>436600</v>
       </c>
       <c r="I47" s="3">
-        <v>347800</v>
+        <v>339400</v>
       </c>
       <c r="J47" s="3">
-        <v>334100</v>
+        <v>326100</v>
       </c>
       <c r="K47" s="3">
         <v>343900</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>447300</v>
+        <v>436600</v>
       </c>
       <c r="E48" s="3">
-        <v>515500</v>
+        <v>503200</v>
       </c>
       <c r="F48" s="3">
-        <v>589200</v>
+        <v>575000</v>
       </c>
       <c r="G48" s="3">
-        <v>605500</v>
+        <v>591000</v>
       </c>
       <c r="H48" s="3">
-        <v>627300</v>
+        <v>612300</v>
       </c>
       <c r="I48" s="3">
-        <v>628700</v>
+        <v>613600</v>
       </c>
       <c r="J48" s="3">
-        <v>639600</v>
+        <v>624300</v>
       </c>
       <c r="K48" s="3">
         <v>680700</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14206600</v>
+        <v>13866100</v>
       </c>
       <c r="E49" s="3">
-        <v>14523000</v>
+        <v>14174900</v>
       </c>
       <c r="F49" s="3">
-        <v>15755900</v>
+        <v>15378200</v>
       </c>
       <c r="G49" s="3">
-        <v>14014300</v>
+        <v>13678400</v>
       </c>
       <c r="H49" s="3">
-        <v>14488900</v>
+        <v>14141600</v>
       </c>
       <c r="I49" s="3">
-        <v>14228400</v>
+        <v>13887400</v>
       </c>
       <c r="J49" s="3">
-        <v>13612000</v>
+        <v>13285700</v>
       </c>
       <c r="K49" s="3">
         <v>12961000</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>522300</v>
+        <v>509800</v>
       </c>
       <c r="E52" s="3">
-        <v>620500</v>
+        <v>605700</v>
       </c>
       <c r="F52" s="3">
-        <v>587800</v>
+        <v>573700</v>
       </c>
       <c r="G52" s="3">
-        <v>466400</v>
+        <v>455200</v>
       </c>
       <c r="H52" s="3">
-        <v>770500</v>
+        <v>752100</v>
       </c>
       <c r="I52" s="3">
-        <v>680500</v>
+        <v>664200</v>
       </c>
       <c r="J52" s="3">
-        <v>684600</v>
+        <v>668200</v>
       </c>
       <c r="K52" s="3">
         <v>762700</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18178000</v>
+        <v>17742200</v>
       </c>
       <c r="E54" s="3">
-        <v>19290800</v>
+        <v>18828400</v>
       </c>
       <c r="F54" s="3">
-        <v>20407800</v>
+        <v>19918600</v>
       </c>
       <c r="G54" s="3">
-        <v>18805300</v>
+        <v>18354500</v>
       </c>
       <c r="H54" s="3">
-        <v>19213100</v>
+        <v>18752500</v>
       </c>
       <c r="I54" s="3">
-        <v>19091700</v>
+        <v>18634100</v>
       </c>
       <c r="J54" s="3">
-        <v>17907900</v>
+        <v>17478700</v>
       </c>
       <c r="K54" s="3">
         <v>17875700</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4156800</v>
+        <v>4057200</v>
       </c>
       <c r="E57" s="3">
-        <v>4446000</v>
+        <v>4339400</v>
       </c>
       <c r="F57" s="3">
-        <v>4370900</v>
+        <v>4266200</v>
       </c>
       <c r="G57" s="3">
-        <v>4744600</v>
+        <v>4630900</v>
       </c>
       <c r="H57" s="3">
-        <v>4237300</v>
+        <v>4135700</v>
       </c>
       <c r="I57" s="3">
-        <v>4680500</v>
+        <v>4568300</v>
       </c>
       <c r="J57" s="3">
-        <v>3979500</v>
+        <v>3884100</v>
       </c>
       <c r="K57" s="3">
         <v>4667000</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>619200</v>
+        <v>604300</v>
       </c>
       <c r="E58" s="3">
-        <v>1155100</v>
+        <v>1127400</v>
       </c>
       <c r="F58" s="3">
-        <v>1659700</v>
+        <v>1619900</v>
       </c>
       <c r="G58" s="3">
-        <v>2809400</v>
+        <v>2742100</v>
       </c>
       <c r="H58" s="3">
-        <v>1509700</v>
+        <v>1473500</v>
       </c>
       <c r="I58" s="3">
-        <v>1898400</v>
+        <v>1852900</v>
       </c>
       <c r="J58" s="3">
-        <v>1662500</v>
+        <v>1622600</v>
       </c>
       <c r="K58" s="3">
         <v>1078300</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>315000</v>
+        <v>307500</v>
       </c>
       <c r="E59" s="3">
-        <v>364100</v>
+        <v>355400</v>
       </c>
       <c r="F59" s="3">
-        <v>462300</v>
+        <v>451200</v>
       </c>
       <c r="G59" s="3">
-        <v>556400</v>
+        <v>543100</v>
       </c>
       <c r="H59" s="3">
-        <v>673700</v>
+        <v>657600</v>
       </c>
       <c r="I59" s="3">
-        <v>677800</v>
+        <v>661600</v>
       </c>
       <c r="J59" s="3">
-        <v>816900</v>
+        <v>797300</v>
       </c>
       <c r="K59" s="3">
         <v>854700</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5091000</v>
+        <v>4969000</v>
       </c>
       <c r="E60" s="3">
-        <v>5965200</v>
+        <v>5822200</v>
       </c>
       <c r="F60" s="3">
-        <v>6493000</v>
+        <v>6337400</v>
       </c>
       <c r="G60" s="3">
-        <v>8110500</v>
+        <v>7916100</v>
       </c>
       <c r="H60" s="3">
-        <v>6420700</v>
+        <v>6266800</v>
       </c>
       <c r="I60" s="3">
-        <v>7256700</v>
+        <v>7082800</v>
       </c>
       <c r="J60" s="3">
-        <v>6458900</v>
+        <v>6304100</v>
       </c>
       <c r="K60" s="3">
         <v>6600100</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8211400</v>
+        <v>8014600</v>
       </c>
       <c r="E61" s="3">
-        <v>8559100</v>
+        <v>8354000</v>
       </c>
       <c r="F61" s="3">
-        <v>9016000</v>
+        <v>8799900</v>
       </c>
       <c r="G61" s="3">
-        <v>5937900</v>
+        <v>5795600</v>
       </c>
       <c r="H61" s="3">
-        <v>7866300</v>
+        <v>7677800</v>
       </c>
       <c r="I61" s="3">
-        <v>6782100</v>
+        <v>6619600</v>
       </c>
       <c r="J61" s="3">
-        <v>7037200</v>
+        <v>6868500</v>
       </c>
       <c r="K61" s="3">
         <v>6355300</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1584700</v>
+        <v>1546700</v>
       </c>
       <c r="E62" s="3">
-        <v>1901100</v>
+        <v>1855600</v>
       </c>
       <c r="F62" s="3">
-        <v>2038900</v>
+        <v>1990000</v>
       </c>
       <c r="G62" s="3">
-        <v>1770200</v>
+        <v>1727800</v>
       </c>
       <c r="H62" s="3">
-        <v>1882000</v>
+        <v>1836900</v>
       </c>
       <c r="I62" s="3">
-        <v>1835700</v>
+        <v>1791700</v>
       </c>
       <c r="J62" s="3">
-        <v>1462000</v>
+        <v>1426900</v>
       </c>
       <c r="K62" s="3">
         <v>1647200</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14877600</v>
+        <v>14521000</v>
       </c>
       <c r="E66" s="3">
-        <v>16428200</v>
+        <v>16034400</v>
       </c>
       <c r="F66" s="3">
-        <v>17572400</v>
+        <v>17151200</v>
       </c>
       <c r="G66" s="3">
-        <v>15851300</v>
+        <v>15471400</v>
       </c>
       <c r="H66" s="3">
-        <v>16205900</v>
+        <v>15817500</v>
       </c>
       <c r="I66" s="3">
-        <v>15915400</v>
+        <v>15533900</v>
       </c>
       <c r="J66" s="3">
-        <v>14982600</v>
+        <v>14623500</v>
       </c>
       <c r="K66" s="3">
         <v>14632200</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1977500</v>
+        <v>1930100</v>
       </c>
       <c r="E72" s="3">
-        <v>1655600</v>
+        <v>1616000</v>
       </c>
       <c r="F72" s="3">
-        <v>1069200</v>
+        <v>1043600</v>
       </c>
       <c r="G72" s="3">
-        <v>1335200</v>
+        <v>1303100</v>
       </c>
       <c r="H72" s="3">
-        <v>1565600</v>
+        <v>1528100</v>
       </c>
       <c r="I72" s="3">
-        <v>1342000</v>
+        <v>1309800</v>
       </c>
       <c r="J72" s="3">
-        <v>844200</v>
+        <v>824000</v>
       </c>
       <c r="K72" s="3">
         <v>601400</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3300400</v>
+        <v>3221300</v>
       </c>
       <c r="E76" s="3">
-        <v>2862600</v>
+        <v>2794000</v>
       </c>
       <c r="F76" s="3">
-        <v>2835300</v>
+        <v>2767400</v>
       </c>
       <c r="G76" s="3">
-        <v>2954000</v>
+        <v>2883200</v>
       </c>
       <c r="H76" s="3">
-        <v>3007200</v>
+        <v>2935100</v>
       </c>
       <c r="I76" s="3">
-        <v>3176300</v>
+        <v>3100100</v>
       </c>
       <c r="J76" s="3">
-        <v>2925300</v>
+        <v>2855200</v>
       </c>
       <c r="K76" s="3">
         <v>3243400</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>905600</v>
+        <v>883900</v>
       </c>
       <c r="E81" s="3">
-        <v>921900</v>
+        <v>899800</v>
       </c>
       <c r="F81" s="3">
-        <v>747400</v>
+        <v>729400</v>
       </c>
       <c r="G81" s="3">
-        <v>990100</v>
+        <v>966400</v>
       </c>
       <c r="H81" s="3">
-        <v>1062400</v>
+        <v>1036900</v>
       </c>
       <c r="I81" s="3">
-        <v>1014700</v>
+        <v>990300</v>
       </c>
       <c r="J81" s="3">
-        <v>924600</v>
+        <v>902500</v>
       </c>
       <c r="K81" s="3">
         <v>1367000</v>
@@ -3836,25 +3836,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>283700</v>
+        <v>276900</v>
       </c>
       <c r="E83" s="3">
-        <v>396900</v>
+        <v>387400</v>
       </c>
       <c r="F83" s="3">
-        <v>317800</v>
+        <v>310100</v>
       </c>
       <c r="G83" s="3">
-        <v>297300</v>
+        <v>290200</v>
       </c>
       <c r="H83" s="3">
-        <v>294600</v>
+        <v>287500</v>
       </c>
       <c r="I83" s="3">
-        <v>297300</v>
+        <v>290200</v>
       </c>
       <c r="J83" s="3">
-        <v>283700</v>
+        <v>276900</v>
       </c>
       <c r="K83" s="3">
         <v>284400</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1448300</v>
+        <v>1413600</v>
       </c>
       <c r="E89" s="3">
-        <v>1107400</v>
+        <v>1080900</v>
       </c>
       <c r="F89" s="3">
-        <v>1069200</v>
+        <v>1043600</v>
       </c>
       <c r="G89" s="3">
-        <v>1511100</v>
+        <v>1474900</v>
       </c>
       <c r="H89" s="3">
-        <v>1337900</v>
+        <v>1305800</v>
       </c>
       <c r="I89" s="3">
-        <v>1475600</v>
+        <v>1440300</v>
       </c>
       <c r="J89" s="3">
-        <v>1231500</v>
+        <v>1202000</v>
       </c>
       <c r="K89" s="3">
         <v>1430700</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13600</v>
+        <v>-13300</v>
       </c>
       <c r="E91" s="3">
-        <v>-38200</v>
+        <v>-37300</v>
       </c>
       <c r="F91" s="3">
-        <v>-20500</v>
+        <v>-20000</v>
       </c>
       <c r="G91" s="3">
-        <v>-35500</v>
+        <v>-34600</v>
       </c>
       <c r="H91" s="3">
-        <v>-28600</v>
+        <v>-28000</v>
       </c>
       <c r="I91" s="3">
-        <v>-47700</v>
+        <v>-46600</v>
       </c>
       <c r="J91" s="3">
-        <v>-28600</v>
+        <v>-28000</v>
       </c>
       <c r="K91" s="3">
         <v>-45300</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E94" s="3">
-        <v>-410500</v>
+        <v>-400700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1189200</v>
+        <v>-1160700</v>
       </c>
       <c r="G94" s="3">
-        <v>-462300</v>
+        <v>-451200</v>
       </c>
       <c r="H94" s="3">
-        <v>-537300</v>
+        <v>-524500</v>
       </c>
       <c r="I94" s="3">
-        <v>-616400</v>
+        <v>-601700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1116900</v>
+        <v>-1090200</v>
       </c>
       <c r="K94" s="3">
         <v>-349500</v>
@@ -4391,25 +4391,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-864600</v>
+        <v>-843900</v>
       </c>
       <c r="E96" s="3">
-        <v>-358700</v>
+        <v>-350100</v>
       </c>
       <c r="F96" s="3">
-        <v>-841500</v>
+        <v>-821300</v>
       </c>
       <c r="G96" s="3">
-        <v>-360000</v>
+        <v>-351400</v>
       </c>
       <c r="H96" s="3">
-        <v>-788300</v>
+        <v>-769400</v>
       </c>
       <c r="I96" s="3">
-        <v>-338200</v>
+        <v>-330100</v>
       </c>
       <c r="J96" s="3">
-        <v>-747400</v>
+        <v>-729400</v>
       </c>
       <c r="K96" s="3">
         <v>-338200</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1478300</v>
+        <v>-1442900</v>
       </c>
       <c r="E100" s="3">
-        <v>-836000</v>
+        <v>-816000</v>
       </c>
       <c r="F100" s="3">
-        <v>189600</v>
+        <v>185000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1014700</v>
+        <v>-990300</v>
       </c>
       <c r="H100" s="3">
-        <v>-797800</v>
+        <v>-778700</v>
       </c>
       <c r="I100" s="3">
-        <v>-848300</v>
+        <v>-827900</v>
       </c>
       <c r="J100" s="3">
-        <v>-124100</v>
+        <v>-121100</v>
       </c>
       <c r="K100" s="3">
         <v>-1092500</v>
@@ -4626,25 +4626,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E101" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="F101" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="G101" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="H101" s="3">
         <v>2700</v>
       </c>
       <c r="I101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K101" s="3">
         <v>-1400</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-30000</v>
+        <v>-29300</v>
       </c>
       <c r="E102" s="3">
-        <v>-145900</v>
+        <v>-142400</v>
       </c>
       <c r="F102" s="3">
-        <v>77700</v>
+        <v>75900</v>
       </c>
       <c r="G102" s="3">
-        <v>27300</v>
+        <v>26600</v>
       </c>
       <c r="H102" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I102" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="J102" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="K102" s="3">
         <v>-69300</v>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4517800</v>
+        <v>5018800</v>
       </c>
       <c r="E8" s="3">
-        <v>4803900</v>
+        <v>4424400</v>
       </c>
       <c r="F8" s="3">
-        <v>4660200</v>
+        <v>4704700</v>
       </c>
       <c r="G8" s="3">
-        <v>5305800</v>
+        <v>4563900</v>
       </c>
       <c r="H8" s="3">
-        <v>5175300</v>
+        <v>5196100</v>
       </c>
       <c r="I8" s="3">
-        <v>5110100</v>
+        <v>5068400</v>
       </c>
       <c r="J8" s="3">
+        <v>5004500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4862500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5146800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4931500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4473200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4210700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3922100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3903000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3852900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1558700</v>
+        <v>1813300</v>
       </c>
       <c r="E9" s="3">
-        <v>1642600</v>
+        <v>1526500</v>
       </c>
       <c r="F9" s="3">
-        <v>1667900</v>
+        <v>1608600</v>
       </c>
       <c r="G9" s="3">
-        <v>1848900</v>
+        <v>1633400</v>
       </c>
       <c r="H9" s="3">
-        <v>1818300</v>
+        <v>1810700</v>
       </c>
       <c r="I9" s="3">
-        <v>1790300</v>
+        <v>1780700</v>
       </c>
       <c r="J9" s="3">
+        <v>1753300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1729100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1802900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1802700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1617100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1519100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1445200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1344400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1355000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2959000</v>
+        <v>3205500</v>
       </c>
       <c r="E10" s="3">
-        <v>3161400</v>
+        <v>2897900</v>
       </c>
       <c r="F10" s="3">
-        <v>2992300</v>
+        <v>3096000</v>
       </c>
       <c r="G10" s="3">
-        <v>3456900</v>
+        <v>2930500</v>
       </c>
       <c r="H10" s="3">
-        <v>3357000</v>
+        <v>3385400</v>
       </c>
       <c r="I10" s="3">
-        <v>3319800</v>
+        <v>3287700</v>
       </c>
       <c r="J10" s="3">
+        <v>3251200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3133400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3343900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3128800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2856100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2691600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2476900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2558500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2498000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,55 +1009,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-51900</v>
+        <v>-20900</v>
       </c>
       <c r="E14" s="3">
-        <v>165100</v>
+        <v>-50800</v>
       </c>
       <c r="F14" s="3">
-        <v>-8000</v>
+        <v>161600</v>
       </c>
       <c r="G14" s="3">
-        <v>8000</v>
+        <v>-7800</v>
       </c>
       <c r="H14" s="3">
-        <v>-75900</v>
+        <v>7800</v>
       </c>
       <c r="I14" s="3">
-        <v>47900</v>
+        <v>-74300</v>
       </c>
       <c r="J14" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-30600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-50900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>65800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3321100</v>
+        <v>3663100</v>
       </c>
       <c r="E17" s="3">
-        <v>3603300</v>
+        <v>3252500</v>
       </c>
       <c r="F17" s="3">
-        <v>3657900</v>
+        <v>3528800</v>
       </c>
       <c r="G17" s="3">
-        <v>3912100</v>
+        <v>3582300</v>
       </c>
       <c r="H17" s="3">
-        <v>3704500</v>
+        <v>3831300</v>
       </c>
       <c r="I17" s="3">
-        <v>3833600</v>
+        <v>3627900</v>
       </c>
       <c r="J17" s="3">
+        <v>3754300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3568700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3795300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3646700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3427500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3146700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2879900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2998300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2919300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1196700</v>
+        <v>1355700</v>
       </c>
       <c r="E18" s="3">
-        <v>1200700</v>
+        <v>1171900</v>
       </c>
       <c r="F18" s="3">
-        <v>1002300</v>
+        <v>1175800</v>
       </c>
       <c r="G18" s="3">
-        <v>1393700</v>
+        <v>981600</v>
       </c>
       <c r="H18" s="3">
-        <v>1470900</v>
+        <v>1364900</v>
       </c>
       <c r="I18" s="3">
-        <v>1276500</v>
+        <v>1440500</v>
       </c>
       <c r="J18" s="3">
+        <v>1250100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1293800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1351400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1284800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1045600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1064000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1042100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>904600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,102 +1248,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-98500</v>
+        <v>-88600</v>
       </c>
       <c r="E20" s="3">
-        <v>-113100</v>
+        <v>-96500</v>
       </c>
       <c r="F20" s="3">
-        <v>-115800</v>
+        <v>-110800</v>
       </c>
       <c r="G20" s="3">
-        <v>-268900</v>
+        <v>-113400</v>
       </c>
       <c r="H20" s="3">
+        <v>-263300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-134300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-144700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-133100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-137100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-147800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-133100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-135900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-137100</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-151500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-116400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-114800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-113200</v>
       </c>
       <c r="Q20" s="3">
         <v>-113200</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>-113200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1564000</v>
+        <v>1754600</v>
       </c>
       <c r="E21" s="3">
-        <v>1719800</v>
+        <v>1531700</v>
       </c>
       <c r="F21" s="3">
-        <v>1376400</v>
+        <v>1684200</v>
       </c>
       <c r="G21" s="3">
-        <v>1590700</v>
+        <v>1347900</v>
       </c>
       <c r="H21" s="3">
-        <v>1777000</v>
+        <v>1557800</v>
       </c>
       <c r="I21" s="3">
-        <v>1584000</v>
+        <v>1740300</v>
       </c>
       <c r="J21" s="3">
+        <v>1551300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1572000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1641500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1620300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1379400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1273000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1127200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1169300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,102 +1396,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1098200</v>
+        <v>1267100</v>
       </c>
       <c r="E23" s="3">
-        <v>1087500</v>
+        <v>1075500</v>
       </c>
       <c r="F23" s="3">
-        <v>886500</v>
+        <v>1065000</v>
       </c>
       <c r="G23" s="3">
-        <v>1124800</v>
+        <v>868200</v>
       </c>
       <c r="H23" s="3">
-        <v>1333800</v>
+        <v>1101500</v>
       </c>
       <c r="I23" s="3">
-        <v>1128800</v>
+        <v>1306200</v>
       </c>
       <c r="J23" s="3">
+        <v>1105400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1160700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1215600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1147700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>894100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>947600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>927400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>791400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>218300</v>
+        <v>211200</v>
       </c>
       <c r="E24" s="3">
-        <v>201000</v>
+        <v>213800</v>
       </c>
       <c r="F24" s="3">
-        <v>165100</v>
+        <v>196800</v>
       </c>
       <c r="G24" s="3">
-        <v>153100</v>
+        <v>161600</v>
       </c>
       <c r="H24" s="3">
-        <v>296800</v>
+        <v>149900</v>
       </c>
       <c r="I24" s="3">
-        <v>143800</v>
+        <v>290700</v>
       </c>
       <c r="J24" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K24" s="3">
         <v>255600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>329700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>237000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>157600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>223700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>212600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>177800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>879900</v>
+        <v>1055900</v>
       </c>
       <c r="E26" s="3">
-        <v>886500</v>
+        <v>861700</v>
       </c>
       <c r="F26" s="3">
-        <v>721500</v>
+        <v>868200</v>
       </c>
       <c r="G26" s="3">
-        <v>971700</v>
+        <v>706500</v>
       </c>
       <c r="H26" s="3">
-        <v>1036900</v>
+        <v>951600</v>
       </c>
       <c r="I26" s="3">
-        <v>985000</v>
+        <v>1015500</v>
       </c>
       <c r="J26" s="3">
+        <v>964700</v>
+      </c>
+      <c r="K26" s="3">
         <v>905100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>885900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>910700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>736500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>724000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>714800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>613600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>663700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>883900</v>
+        <v>1052000</v>
       </c>
       <c r="E27" s="3">
-        <v>899800</v>
+        <v>865600</v>
       </c>
       <c r="F27" s="3">
-        <v>729400</v>
+        <v>881200</v>
       </c>
       <c r="G27" s="3">
-        <v>966400</v>
+        <v>714400</v>
       </c>
       <c r="H27" s="3">
-        <v>1036900</v>
+        <v>946400</v>
       </c>
       <c r="I27" s="3">
-        <v>979700</v>
+        <v>1015500</v>
       </c>
       <c r="J27" s="3">
+        <v>959400</v>
+      </c>
+      <c r="K27" s="3">
         <v>902500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>877400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>908000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>729100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>721400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>709500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>611000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,17 +1719,17 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="J29" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>489600</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1679,14 +1740,17 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>98500</v>
+        <v>88600</v>
       </c>
       <c r="E32" s="3">
-        <v>113100</v>
+        <v>96500</v>
       </c>
       <c r="F32" s="3">
-        <v>115800</v>
+        <v>110800</v>
       </c>
       <c r="G32" s="3">
-        <v>268900</v>
+        <v>113400</v>
       </c>
       <c r="H32" s="3">
+        <v>263300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>134300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>144700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>133100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>135900</v>
+      </c>
+      <c r="M32" s="3">
         <v>137100</v>
       </c>
-      <c r="I32" s="3">
-        <v>147800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>133100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>135900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>137100</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>151500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>116400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>114800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>113200</v>
       </c>
       <c r="Q32" s="3">
         <v>113200</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>883900</v>
+        <v>1052000</v>
       </c>
       <c r="E33" s="3">
-        <v>899800</v>
+        <v>865600</v>
       </c>
       <c r="F33" s="3">
-        <v>729400</v>
+        <v>881200</v>
       </c>
       <c r="G33" s="3">
-        <v>966400</v>
+        <v>714400</v>
       </c>
       <c r="H33" s="3">
-        <v>1036900</v>
+        <v>946400</v>
       </c>
       <c r="I33" s="3">
-        <v>990300</v>
+        <v>1015500</v>
       </c>
       <c r="J33" s="3">
+        <v>969900</v>
+      </c>
+      <c r="K33" s="3">
         <v>902500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1367000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>908000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>729100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>721400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>709500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>611000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>883900</v>
+        <v>1052000</v>
       </c>
       <c r="E35" s="3">
-        <v>899800</v>
+        <v>865600</v>
       </c>
       <c r="F35" s="3">
-        <v>729400</v>
+        <v>881200</v>
       </c>
       <c r="G35" s="3">
-        <v>966400</v>
+        <v>714400</v>
       </c>
       <c r="H35" s="3">
-        <v>1036900</v>
+        <v>946400</v>
       </c>
       <c r="I35" s="3">
-        <v>990300</v>
+        <v>1015500</v>
       </c>
       <c r="J35" s="3">
+        <v>969900</v>
+      </c>
+      <c r="K35" s="3">
         <v>902500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1367000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>908000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>729100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>721400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>709500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>611000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87900</v>
+        <v>147300</v>
       </c>
       <c r="E41" s="3">
-        <v>117100</v>
+        <v>86000</v>
       </c>
       <c r="F41" s="3">
-        <v>259600</v>
+        <v>114700</v>
       </c>
       <c r="G41" s="3">
-        <v>183700</v>
+        <v>254200</v>
       </c>
       <c r="H41" s="3">
+        <v>179900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>153800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>148600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>139800</v>
+      </c>
+      <c r="L41" s="3">
         <v>157100</v>
       </c>
-      <c r="I41" s="3">
-        <v>151700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>139800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>157100</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>213000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>199500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>272800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>159100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>189600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,337 +2241,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2171000</v>
+        <v>2555000</v>
       </c>
       <c r="E43" s="3">
-        <v>2565000</v>
+        <v>2126200</v>
       </c>
       <c r="F43" s="3">
-        <v>2398600</v>
+        <v>2512000</v>
       </c>
       <c r="G43" s="3">
-        <v>2751400</v>
+        <v>2349100</v>
       </c>
       <c r="H43" s="3">
-        <v>2345400</v>
+        <v>2694500</v>
       </c>
       <c r="I43" s="3">
-        <v>2682200</v>
+        <v>2296900</v>
       </c>
       <c r="J43" s="3">
+        <v>2626700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2140400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2650500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2168900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2481700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1910800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2088200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1677600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1958100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>316800</v>
+        <v>329800</v>
       </c>
       <c r="E44" s="3">
-        <v>319500</v>
+        <v>310300</v>
       </c>
       <c r="F44" s="3">
-        <v>315500</v>
+        <v>312900</v>
       </c>
       <c r="G44" s="3">
-        <v>288800</v>
+        <v>309000</v>
       </c>
       <c r="H44" s="3">
-        <v>284900</v>
+        <v>282900</v>
       </c>
       <c r="I44" s="3">
-        <v>282200</v>
+        <v>279000</v>
       </c>
       <c r="J44" s="3">
+        <v>276400</v>
+      </c>
+      <c r="K44" s="3">
         <v>264900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>278800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>268900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>257400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>243000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>206100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>193600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38600</v>
+        <v>40400</v>
       </c>
       <c r="E45" s="3">
-        <v>25300</v>
+        <v>37800</v>
       </c>
       <c r="F45" s="3">
-        <v>17300</v>
+        <v>24800</v>
       </c>
       <c r="G45" s="3">
-        <v>30600</v>
+        <v>16900</v>
       </c>
       <c r="H45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>29300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>41000</v>
+      </c>
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="I45" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>29300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>41000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>22600</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2614300</v>
+        <v>3072600</v>
       </c>
       <c r="E46" s="3">
-        <v>3026900</v>
+        <v>2560300</v>
       </c>
       <c r="F46" s="3">
-        <v>2991000</v>
+        <v>2964400</v>
       </c>
       <c r="G46" s="3">
-        <v>3254500</v>
+        <v>2929200</v>
       </c>
       <c r="H46" s="3">
-        <v>2810000</v>
+        <v>3187300</v>
       </c>
       <c r="I46" s="3">
-        <v>3129400</v>
+        <v>2751900</v>
       </c>
       <c r="J46" s="3">
+        <v>3064700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2574300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3127400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2673500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2963200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2443400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2493800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2113400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2549300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>315500</v>
+        <v>301100</v>
       </c>
       <c r="E47" s="3">
-        <v>517800</v>
+        <v>309000</v>
       </c>
       <c r="F47" s="3">
-        <v>400700</v>
+        <v>507100</v>
       </c>
       <c r="G47" s="3">
-        <v>375400</v>
+        <v>392400</v>
       </c>
       <c r="H47" s="3">
-        <v>436600</v>
+        <v>367600</v>
       </c>
       <c r="I47" s="3">
-        <v>339400</v>
+        <v>427600</v>
       </c>
       <c r="J47" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K47" s="3">
         <v>326100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>343900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>312900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>294400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>334800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>315600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>256800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>312100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>436600</v>
+        <v>380600</v>
       </c>
       <c r="E48" s="3">
-        <v>503200</v>
+        <v>427600</v>
       </c>
       <c r="F48" s="3">
-        <v>575000</v>
+        <v>492800</v>
       </c>
       <c r="G48" s="3">
-        <v>591000</v>
+        <v>563200</v>
       </c>
       <c r="H48" s="3">
-        <v>612300</v>
+        <v>578800</v>
       </c>
       <c r="I48" s="3">
-        <v>613600</v>
+        <v>599700</v>
       </c>
       <c r="J48" s="3">
+        <v>601000</v>
+      </c>
+      <c r="K48" s="3">
         <v>624300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>680700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>676400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>676100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>298600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>298700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>280500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>298900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13866100</v>
+        <v>13909300</v>
       </c>
       <c r="E49" s="3">
-        <v>14174900</v>
+        <v>13579500</v>
       </c>
       <c r="F49" s="3">
-        <v>15378200</v>
+        <v>13881900</v>
       </c>
       <c r="G49" s="3">
-        <v>13678400</v>
+        <v>15060400</v>
       </c>
       <c r="H49" s="3">
-        <v>14141600</v>
+        <v>13395700</v>
       </c>
       <c r="I49" s="3">
-        <v>13887400</v>
+        <v>13849300</v>
       </c>
       <c r="J49" s="3">
+        <v>13600400</v>
+      </c>
+      <c r="K49" s="3">
         <v>13285700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12961000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12571100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12311100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11882200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10939200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10435600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10725300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>509800</v>
+        <v>401500</v>
       </c>
       <c r="E52" s="3">
-        <v>605700</v>
+        <v>499300</v>
       </c>
       <c r="F52" s="3">
-        <v>573700</v>
+        <v>593100</v>
       </c>
       <c r="G52" s="3">
-        <v>455200</v>
+        <v>561800</v>
       </c>
       <c r="H52" s="3">
-        <v>752100</v>
+        <v>445800</v>
       </c>
       <c r="I52" s="3">
-        <v>664200</v>
+        <v>736500</v>
       </c>
       <c r="J52" s="3">
+        <v>650500</v>
+      </c>
+      <c r="K52" s="3">
         <v>668200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>762700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>705600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>645400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>650300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>541300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>680800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17742200</v>
+        <v>18065200</v>
       </c>
       <c r="E54" s="3">
-        <v>18828400</v>
+        <v>17375600</v>
       </c>
       <c r="F54" s="3">
-        <v>19918600</v>
+        <v>18439300</v>
       </c>
       <c r="G54" s="3">
-        <v>18354500</v>
+        <v>19506900</v>
       </c>
       <c r="H54" s="3">
-        <v>18752500</v>
+        <v>17975200</v>
       </c>
       <c r="I54" s="3">
-        <v>18634100</v>
+        <v>18365000</v>
       </c>
       <c r="J54" s="3">
+        <v>18249000</v>
+      </c>
+      <c r="K54" s="3">
         <v>17478700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17875700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16939400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16890200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15609400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14588700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13767000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14599300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4057200</v>
+        <v>4269300</v>
       </c>
       <c r="E57" s="3">
-        <v>4339400</v>
+        <v>3973300</v>
       </c>
       <c r="F57" s="3">
-        <v>4266200</v>
+        <v>4249700</v>
       </c>
       <c r="G57" s="3">
-        <v>4630900</v>
+        <v>4178000</v>
       </c>
       <c r="H57" s="3">
-        <v>4135700</v>
+        <v>4535200</v>
       </c>
       <c r="I57" s="3">
-        <v>4568300</v>
+        <v>4050300</v>
       </c>
       <c r="J57" s="3">
+        <v>4473900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3884100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4667000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3954300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4284700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3529400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3783800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2983800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3471100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>604300</v>
+        <v>302400</v>
       </c>
       <c r="E58" s="3">
-        <v>1127400</v>
+        <v>591800</v>
       </c>
       <c r="F58" s="3">
-        <v>1619900</v>
+        <v>1104100</v>
       </c>
       <c r="G58" s="3">
-        <v>2742100</v>
+        <v>1586500</v>
       </c>
       <c r="H58" s="3">
-        <v>1473500</v>
+        <v>2685400</v>
       </c>
       <c r="I58" s="3">
-        <v>1852900</v>
+        <v>1443100</v>
       </c>
       <c r="J58" s="3">
+        <v>1814600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1622600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1078300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1030500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1439700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1129900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>813900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>539900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>890200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>307500</v>
+        <v>314200</v>
       </c>
       <c r="E59" s="3">
-        <v>355400</v>
+        <v>301100</v>
       </c>
       <c r="F59" s="3">
-        <v>451200</v>
+        <v>348100</v>
       </c>
       <c r="G59" s="3">
-        <v>543100</v>
+        <v>441900</v>
       </c>
       <c r="H59" s="3">
-        <v>657600</v>
+        <v>531900</v>
       </c>
       <c r="I59" s="3">
-        <v>661600</v>
+        <v>644000</v>
       </c>
       <c r="J59" s="3">
+        <v>647900</v>
+      </c>
+      <c r="K59" s="3">
         <v>797300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>854700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>853400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>879400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>897200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>849100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>754500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4969000</v>
+        <v>4885900</v>
       </c>
       <c r="E60" s="3">
-        <v>5822200</v>
+        <v>4866300</v>
       </c>
       <c r="F60" s="3">
-        <v>6337400</v>
+        <v>5701900</v>
       </c>
       <c r="G60" s="3">
-        <v>7916100</v>
+        <v>6206400</v>
       </c>
       <c r="H60" s="3">
-        <v>6266800</v>
+        <v>7752400</v>
       </c>
       <c r="I60" s="3">
-        <v>7082800</v>
+        <v>6137300</v>
       </c>
       <c r="J60" s="3">
+        <v>6936400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6304100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6600100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5838200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6603800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5556500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5446800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4278300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5182900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8014600</v>
+        <v>7736800</v>
       </c>
       <c r="E61" s="3">
-        <v>8354000</v>
+        <v>7848900</v>
       </c>
       <c r="F61" s="3">
-        <v>8799900</v>
+        <v>8181300</v>
       </c>
       <c r="G61" s="3">
-        <v>5795600</v>
+        <v>8618000</v>
       </c>
       <c r="H61" s="3">
-        <v>7677800</v>
+        <v>5675800</v>
       </c>
       <c r="I61" s="3">
-        <v>6619600</v>
+        <v>7519100</v>
       </c>
       <c r="J61" s="3">
+        <v>6482800</v>
+      </c>
+      <c r="K61" s="3">
         <v>6868500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6355300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6414700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5033500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5098800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4275500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4669300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1546700</v>
+        <v>1239700</v>
       </c>
       <c r="E62" s="3">
-        <v>1855600</v>
+        <v>1514800</v>
       </c>
       <c r="F62" s="3">
-        <v>1990000</v>
+        <v>1817200</v>
       </c>
       <c r="G62" s="3">
-        <v>1727800</v>
+        <v>1948900</v>
       </c>
       <c r="H62" s="3">
-        <v>1836900</v>
+        <v>1692100</v>
       </c>
       <c r="I62" s="3">
-        <v>1791700</v>
+        <v>1799000</v>
       </c>
       <c r="J62" s="3">
+        <v>1754600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1426900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1647200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2214100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2410200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2356800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2025600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2416300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2455800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14521000</v>
+        <v>13851900</v>
       </c>
       <c r="E66" s="3">
-        <v>16034400</v>
+        <v>14220900</v>
       </c>
       <c r="F66" s="3">
-        <v>17151200</v>
+        <v>15703000</v>
       </c>
       <c r="G66" s="3">
-        <v>15471400</v>
+        <v>16796800</v>
       </c>
       <c r="H66" s="3">
-        <v>15817500</v>
+        <v>15151600</v>
       </c>
       <c r="I66" s="3">
-        <v>15533900</v>
+        <v>15490600</v>
       </c>
       <c r="J66" s="3">
+        <v>15212900</v>
+      </c>
+      <c r="K66" s="3">
         <v>14623500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14632200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14512300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14094400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13060000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11792300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11406000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11826100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1930100</v>
+        <v>2712800</v>
       </c>
       <c r="E72" s="3">
-        <v>1616000</v>
+        <v>1890200</v>
       </c>
       <c r="F72" s="3">
-        <v>1043600</v>
+        <v>1582600</v>
       </c>
       <c r="G72" s="3">
-        <v>1303100</v>
+        <v>1022000</v>
       </c>
       <c r="H72" s="3">
-        <v>1528100</v>
+        <v>1276200</v>
       </c>
       <c r="I72" s="3">
-        <v>1309800</v>
+        <v>1496500</v>
       </c>
       <c r="J72" s="3">
+        <v>1282700</v>
+      </c>
+      <c r="K72" s="3">
         <v>824000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>601400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-264800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>262400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>444800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>184400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3221300</v>
+        <v>4213200</v>
       </c>
       <c r="E76" s="3">
-        <v>2794000</v>
+        <v>3154700</v>
       </c>
       <c r="F76" s="3">
-        <v>2767400</v>
+        <v>2736200</v>
       </c>
       <c r="G76" s="3">
-        <v>2883200</v>
+        <v>2710200</v>
       </c>
       <c r="H76" s="3">
-        <v>2935100</v>
+        <v>2823600</v>
       </c>
       <c r="I76" s="3">
-        <v>3100100</v>
+        <v>2874400</v>
       </c>
       <c r="J76" s="3">
+        <v>3036100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2855200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3243400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2427100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2795700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2549400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2796400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2361000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2773200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>883900</v>
+        <v>1052000</v>
       </c>
       <c r="E81" s="3">
-        <v>899800</v>
+        <v>865600</v>
       </c>
       <c r="F81" s="3">
-        <v>729400</v>
+        <v>881200</v>
       </c>
       <c r="G81" s="3">
-        <v>966400</v>
+        <v>714400</v>
       </c>
       <c r="H81" s="3">
-        <v>1036900</v>
+        <v>946400</v>
       </c>
       <c r="I81" s="3">
-        <v>990300</v>
+        <v>1015500</v>
       </c>
       <c r="J81" s="3">
+        <v>969900</v>
+      </c>
+      <c r="K81" s="3">
         <v>902500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1367000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>908000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>729100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>721400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>709500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>611000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4028,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>288100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>271100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>379300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>303700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>284200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>281600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>284200</v>
+      </c>
+      <c r="K83" s="3">
         <v>276900</v>
       </c>
-      <c r="E83" s="3">
-        <v>387400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>310100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>290200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>287500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>290200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>276900</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>284400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>335500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>357200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>243000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>238700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>237000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1413600</v>
+        <v>1243600</v>
       </c>
       <c r="E89" s="3">
-        <v>1080900</v>
+        <v>1384400</v>
       </c>
       <c r="F89" s="3">
-        <v>1043600</v>
+        <v>1058500</v>
       </c>
       <c r="G89" s="3">
-        <v>1474900</v>
+        <v>1022000</v>
       </c>
       <c r="H89" s="3">
-        <v>1305800</v>
+        <v>1444400</v>
       </c>
       <c r="I89" s="3">
-        <v>1440300</v>
+        <v>1278800</v>
       </c>
       <c r="J89" s="3">
+        <v>1410500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1202000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1430700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1202300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1264900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>923100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1021300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>821700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>923100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13300</v>
+        <v>-23500</v>
       </c>
       <c r="E91" s="3">
-        <v>-37300</v>
+        <v>-13000</v>
       </c>
       <c r="F91" s="3">
-        <v>-20000</v>
+        <v>-36500</v>
       </c>
       <c r="G91" s="3">
-        <v>-34600</v>
+        <v>-19600</v>
       </c>
       <c r="H91" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-28000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-46600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-53500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-376600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-501900</v>
+      </c>
+      <c r="E94" s="3">
         <v>1300</v>
       </c>
-      <c r="E94" s="3">
-        <v>-400700</v>
-      </c>
       <c r="F94" s="3">
-        <v>-1160700</v>
+        <v>-392400</v>
       </c>
       <c r="G94" s="3">
-        <v>-451200</v>
+        <v>-1136700</v>
       </c>
       <c r="H94" s="3">
-        <v>-524500</v>
+        <v>-441900</v>
       </c>
       <c r="I94" s="3">
-        <v>-601700</v>
+        <v>-513600</v>
       </c>
       <c r="J94" s="3">
+        <v>-589200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1090200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-349500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-223700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-594900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-228800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-250400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-302900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-843900</v>
+        <v>-372800</v>
       </c>
       <c r="E96" s="3">
-        <v>-350100</v>
+        <v>-826500</v>
       </c>
       <c r="F96" s="3">
-        <v>-821300</v>
+        <v>-342800</v>
       </c>
       <c r="G96" s="3">
-        <v>-351400</v>
+        <v>-804300</v>
       </c>
       <c r="H96" s="3">
-        <v>-769400</v>
+        <v>-344100</v>
       </c>
       <c r="I96" s="3">
-        <v>-330100</v>
+        <v>-753500</v>
       </c>
       <c r="J96" s="3">
+        <v>-323300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-729400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-338200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-696300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-269700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-599900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-211300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-554400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1442900</v>
+        <v>-680500</v>
       </c>
       <c r="E100" s="3">
-        <v>-816000</v>
+        <v>-1413100</v>
       </c>
       <c r="F100" s="3">
-        <v>185000</v>
+        <v>-799100</v>
       </c>
       <c r="G100" s="3">
-        <v>-990300</v>
+        <v>181200</v>
       </c>
       <c r="H100" s="3">
-        <v>-778700</v>
+        <v>-969900</v>
       </c>
       <c r="I100" s="3">
-        <v>-827900</v>
+        <v>-762600</v>
       </c>
       <c r="J100" s="3">
+        <v>-810800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-121100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1092500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-930600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-639200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-628300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-795600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-676800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-266000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-6700</v>
-      </c>
       <c r="F101" s="3">
-        <v>8000</v>
+        <v>-6500</v>
       </c>
       <c r="G101" s="3">
-        <v>-6700</v>
+        <v>7800</v>
       </c>
       <c r="H101" s="3">
-        <v>2700</v>
+        <v>-6500</v>
       </c>
       <c r="I101" s="3">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="J101" s="3">
         <v>1300</v>
       </c>
       <c r="K101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>49100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29300</v>
+        <v>61300</v>
       </c>
       <c r="E102" s="3">
-        <v>-142400</v>
+        <v>-28700</v>
       </c>
       <c r="F102" s="3">
-        <v>75900</v>
+        <v>-139500</v>
       </c>
       <c r="G102" s="3">
-        <v>26600</v>
+        <v>74300</v>
       </c>
       <c r="H102" s="3">
-        <v>5300</v>
+        <v>26100</v>
       </c>
       <c r="I102" s="3">
-        <v>12000</v>
+        <v>5200</v>
       </c>
       <c r="J102" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-69300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-173800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>159300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5018800</v>
+        <v>4696600</v>
       </c>
       <c r="E8" s="3">
-        <v>4424400</v>
+        <v>4140300</v>
       </c>
       <c r="F8" s="3">
-        <v>4704700</v>
+        <v>4402600</v>
       </c>
       <c r="G8" s="3">
-        <v>4563900</v>
+        <v>4270900</v>
       </c>
       <c r="H8" s="3">
-        <v>5196100</v>
+        <v>4862500</v>
       </c>
       <c r="I8" s="3">
-        <v>5068400</v>
+        <v>4743000</v>
       </c>
       <c r="J8" s="3">
-        <v>5004500</v>
+        <v>4683200</v>
       </c>
       <c r="K8" s="3">
         <v>4862500</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1813300</v>
+        <v>1696900</v>
       </c>
       <c r="E9" s="3">
-        <v>1526500</v>
+        <v>1428500</v>
       </c>
       <c r="F9" s="3">
-        <v>1608600</v>
+        <v>1505400</v>
       </c>
       <c r="G9" s="3">
-        <v>1633400</v>
+        <v>1528500</v>
       </c>
       <c r="H9" s="3">
-        <v>1810700</v>
+        <v>1694400</v>
       </c>
       <c r="I9" s="3">
-        <v>1780700</v>
+        <v>1666400</v>
       </c>
       <c r="J9" s="3">
-        <v>1753300</v>
+        <v>1640800</v>
       </c>
       <c r="K9" s="3">
         <v>1729100</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3205500</v>
+        <v>2999700</v>
       </c>
       <c r="E10" s="3">
-        <v>2897900</v>
+        <v>2711800</v>
       </c>
       <c r="F10" s="3">
-        <v>3096000</v>
+        <v>2897300</v>
       </c>
       <c r="G10" s="3">
-        <v>2930500</v>
+        <v>2742300</v>
       </c>
       <c r="H10" s="3">
-        <v>3385400</v>
+        <v>3168100</v>
       </c>
       <c r="I10" s="3">
-        <v>3287700</v>
+        <v>3076600</v>
       </c>
       <c r="J10" s="3">
-        <v>3251200</v>
+        <v>3042400</v>
       </c>
       <c r="K10" s="3">
         <v>3133400</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-20900</v>
+        <v>-19500</v>
       </c>
       <c r="E14" s="3">
-        <v>-50800</v>
+        <v>-47600</v>
       </c>
       <c r="F14" s="3">
-        <v>161600</v>
+        <v>151300</v>
       </c>
       <c r="G14" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="H14" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="I14" s="3">
-        <v>-74300</v>
+        <v>-69500</v>
       </c>
       <c r="J14" s="3">
-        <v>46900</v>
+        <v>43900</v>
       </c>
       <c r="K14" s="3">
         <v>-4000</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3663100</v>
+        <v>3427900</v>
       </c>
       <c r="E17" s="3">
-        <v>3252500</v>
+        <v>3043700</v>
       </c>
       <c r="F17" s="3">
-        <v>3528800</v>
+        <v>3302300</v>
       </c>
       <c r="G17" s="3">
-        <v>3582300</v>
+        <v>3352300</v>
       </c>
       <c r="H17" s="3">
-        <v>3831300</v>
+        <v>3585300</v>
       </c>
       <c r="I17" s="3">
-        <v>3627900</v>
+        <v>3395000</v>
       </c>
       <c r="J17" s="3">
-        <v>3754300</v>
+        <v>3513300</v>
       </c>
       <c r="K17" s="3">
         <v>3568700</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1355700</v>
+        <v>1268700</v>
       </c>
       <c r="E18" s="3">
-        <v>1171900</v>
+        <v>1096700</v>
       </c>
       <c r="F18" s="3">
-        <v>1175800</v>
+        <v>1100300</v>
       </c>
       <c r="G18" s="3">
-        <v>981600</v>
+        <v>918600</v>
       </c>
       <c r="H18" s="3">
-        <v>1364900</v>
+        <v>1277200</v>
       </c>
       <c r="I18" s="3">
-        <v>1440500</v>
+        <v>1348000</v>
       </c>
       <c r="J18" s="3">
-        <v>1250100</v>
+        <v>1169900</v>
       </c>
       <c r="K18" s="3">
         <v>1293800</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-88600</v>
+        <v>-83000</v>
       </c>
       <c r="E20" s="3">
-        <v>-96500</v>
+        <v>-90300</v>
       </c>
       <c r="F20" s="3">
-        <v>-110800</v>
+        <v>-103700</v>
       </c>
       <c r="G20" s="3">
-        <v>-113400</v>
+        <v>-106100</v>
       </c>
       <c r="H20" s="3">
-        <v>-263300</v>
+        <v>-246400</v>
       </c>
       <c r="I20" s="3">
-        <v>-134300</v>
+        <v>-125600</v>
       </c>
       <c r="J20" s="3">
-        <v>-144700</v>
+        <v>-135400</v>
       </c>
       <c r="K20" s="3">
         <v>-133100</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1754600</v>
+        <v>1642000</v>
       </c>
       <c r="E21" s="3">
-        <v>1531700</v>
+        <v>1433400</v>
       </c>
       <c r="F21" s="3">
-        <v>1684200</v>
+        <v>1576100</v>
       </c>
       <c r="G21" s="3">
-        <v>1347900</v>
+        <v>1261400</v>
       </c>
       <c r="H21" s="3">
-        <v>1557800</v>
+        <v>1457800</v>
       </c>
       <c r="I21" s="3">
-        <v>1740300</v>
+        <v>1628600</v>
       </c>
       <c r="J21" s="3">
-        <v>1551300</v>
+        <v>1451700</v>
       </c>
       <c r="K21" s="3">
         <v>1572000</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1267100</v>
+        <v>1185700</v>
       </c>
       <c r="E23" s="3">
-        <v>1075500</v>
+        <v>1006400</v>
       </c>
       <c r="F23" s="3">
-        <v>1065000</v>
+        <v>996700</v>
       </c>
       <c r="G23" s="3">
-        <v>868200</v>
+        <v>812500</v>
       </c>
       <c r="H23" s="3">
-        <v>1101500</v>
+        <v>1030800</v>
       </c>
       <c r="I23" s="3">
-        <v>1306200</v>
+        <v>1222300</v>
       </c>
       <c r="J23" s="3">
-        <v>1105400</v>
+        <v>1034500</v>
       </c>
       <c r="K23" s="3">
         <v>1160700</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>211200</v>
+        <v>197600</v>
       </c>
       <c r="E24" s="3">
-        <v>213800</v>
+        <v>200100</v>
       </c>
       <c r="F24" s="3">
-        <v>196800</v>
+        <v>184200</v>
       </c>
       <c r="G24" s="3">
-        <v>161600</v>
+        <v>151300</v>
       </c>
       <c r="H24" s="3">
-        <v>149900</v>
+        <v>140300</v>
       </c>
       <c r="I24" s="3">
-        <v>290700</v>
+        <v>272000</v>
       </c>
       <c r="J24" s="3">
-        <v>140800</v>
+        <v>131700</v>
       </c>
       <c r="K24" s="3">
         <v>255600</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1055900</v>
+        <v>988100</v>
       </c>
       <c r="E26" s="3">
-        <v>861700</v>
+        <v>806400</v>
       </c>
       <c r="F26" s="3">
-        <v>868200</v>
+        <v>812500</v>
       </c>
       <c r="G26" s="3">
-        <v>706500</v>
+        <v>661200</v>
       </c>
       <c r="H26" s="3">
-        <v>951600</v>
+        <v>890500</v>
       </c>
       <c r="I26" s="3">
-        <v>1015500</v>
+        <v>950300</v>
       </c>
       <c r="J26" s="3">
-        <v>964700</v>
+        <v>902700</v>
       </c>
       <c r="K26" s="3">
         <v>905100</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1052000</v>
+        <v>984500</v>
       </c>
       <c r="E27" s="3">
-        <v>865600</v>
+        <v>810000</v>
       </c>
       <c r="F27" s="3">
-        <v>881200</v>
+        <v>824700</v>
       </c>
       <c r="G27" s="3">
-        <v>714400</v>
+        <v>668500</v>
       </c>
       <c r="H27" s="3">
-        <v>946400</v>
+        <v>885600</v>
       </c>
       <c r="I27" s="3">
-        <v>1015500</v>
+        <v>950300</v>
       </c>
       <c r="J27" s="3">
-        <v>959400</v>
+        <v>897800</v>
       </c>
       <c r="K27" s="3">
         <v>902500</v>
@@ -1723,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>88600</v>
+        <v>83000</v>
       </c>
       <c r="E32" s="3">
-        <v>96500</v>
+        <v>90300</v>
       </c>
       <c r="F32" s="3">
-        <v>110800</v>
+        <v>103700</v>
       </c>
       <c r="G32" s="3">
-        <v>113400</v>
+        <v>106100</v>
       </c>
       <c r="H32" s="3">
-        <v>263300</v>
+        <v>246400</v>
       </c>
       <c r="I32" s="3">
-        <v>134300</v>
+        <v>125600</v>
       </c>
       <c r="J32" s="3">
-        <v>144700</v>
+        <v>135400</v>
       </c>
       <c r="K32" s="3">
         <v>133100</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1052000</v>
+        <v>984500</v>
       </c>
       <c r="E33" s="3">
-        <v>865600</v>
+        <v>810000</v>
       </c>
       <c r="F33" s="3">
-        <v>881200</v>
+        <v>824700</v>
       </c>
       <c r="G33" s="3">
-        <v>714400</v>
+        <v>668500</v>
       </c>
       <c r="H33" s="3">
-        <v>946400</v>
+        <v>885600</v>
       </c>
       <c r="I33" s="3">
-        <v>1015500</v>
+        <v>950300</v>
       </c>
       <c r="J33" s="3">
-        <v>969900</v>
+        <v>907600</v>
       </c>
       <c r="K33" s="3">
         <v>902500</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1052000</v>
+        <v>984500</v>
       </c>
       <c r="E35" s="3">
-        <v>865600</v>
+        <v>810000</v>
       </c>
       <c r="F35" s="3">
-        <v>881200</v>
+        <v>824700</v>
       </c>
       <c r="G35" s="3">
-        <v>714400</v>
+        <v>668500</v>
       </c>
       <c r="H35" s="3">
-        <v>946400</v>
+        <v>885600</v>
       </c>
       <c r="I35" s="3">
-        <v>1015500</v>
+        <v>950300</v>
       </c>
       <c r="J35" s="3">
-        <v>969900</v>
+        <v>907600</v>
       </c>
       <c r="K35" s="3">
         <v>902500</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>147300</v>
+        <v>137800</v>
       </c>
       <c r="E41" s="3">
-        <v>86000</v>
+        <v>80500</v>
       </c>
       <c r="F41" s="3">
-        <v>114700</v>
+        <v>107400</v>
       </c>
       <c r="G41" s="3">
-        <v>254200</v>
+        <v>237900</v>
       </c>
       <c r="H41" s="3">
-        <v>179900</v>
+        <v>168300</v>
       </c>
       <c r="I41" s="3">
-        <v>153800</v>
+        <v>143900</v>
       </c>
       <c r="J41" s="3">
-        <v>148600</v>
+        <v>139100</v>
       </c>
       <c r="K41" s="3">
         <v>139800</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2555000</v>
+        <v>2391000</v>
       </c>
       <c r="E43" s="3">
-        <v>2126200</v>
+        <v>1989700</v>
       </c>
       <c r="F43" s="3">
-        <v>2512000</v>
+        <v>2350700</v>
       </c>
       <c r="G43" s="3">
-        <v>2349100</v>
+        <v>2198300</v>
       </c>
       <c r="H43" s="3">
-        <v>2694500</v>
+        <v>2521500</v>
       </c>
       <c r="I43" s="3">
-        <v>2296900</v>
+        <v>2149500</v>
       </c>
       <c r="J43" s="3">
-        <v>2626700</v>
+        <v>2458100</v>
       </c>
       <c r="K43" s="3">
         <v>2140400</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>329800</v>
+        <v>308600</v>
       </c>
       <c r="E44" s="3">
-        <v>310300</v>
+        <v>290300</v>
       </c>
       <c r="F44" s="3">
-        <v>312900</v>
+        <v>292800</v>
       </c>
       <c r="G44" s="3">
-        <v>309000</v>
+        <v>289100</v>
       </c>
       <c r="H44" s="3">
-        <v>282900</v>
+        <v>264700</v>
       </c>
       <c r="I44" s="3">
-        <v>279000</v>
+        <v>261100</v>
       </c>
       <c r="J44" s="3">
-        <v>276400</v>
+        <v>258600</v>
       </c>
       <c r="K44" s="3">
         <v>264900</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40400</v>
+        <v>37800</v>
       </c>
       <c r="E45" s="3">
-        <v>37800</v>
+        <v>35400</v>
       </c>
       <c r="F45" s="3">
-        <v>24800</v>
+        <v>23200</v>
       </c>
       <c r="G45" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="H45" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="I45" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="J45" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="K45" s="3">
         <v>29300</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3072600</v>
+        <v>2875300</v>
       </c>
       <c r="E46" s="3">
-        <v>2560300</v>
+        <v>2395900</v>
       </c>
       <c r="F46" s="3">
-        <v>2964400</v>
+        <v>2774100</v>
       </c>
       <c r="G46" s="3">
-        <v>2929200</v>
+        <v>2741100</v>
       </c>
       <c r="H46" s="3">
-        <v>3187300</v>
+        <v>2982700</v>
       </c>
       <c r="I46" s="3">
-        <v>2751900</v>
+        <v>2575200</v>
       </c>
       <c r="J46" s="3">
-        <v>3064700</v>
+        <v>2868000</v>
       </c>
       <c r="K46" s="3">
         <v>2574300</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>301100</v>
+        <v>281800</v>
       </c>
       <c r="E47" s="3">
-        <v>309000</v>
+        <v>289100</v>
       </c>
       <c r="F47" s="3">
-        <v>507100</v>
+        <v>474500</v>
       </c>
       <c r="G47" s="3">
-        <v>392400</v>
+        <v>367200</v>
       </c>
       <c r="H47" s="3">
-        <v>367600</v>
+        <v>344000</v>
       </c>
       <c r="I47" s="3">
-        <v>427600</v>
+        <v>400100</v>
       </c>
       <c r="J47" s="3">
-        <v>332400</v>
+        <v>311100</v>
       </c>
       <c r="K47" s="3">
         <v>326100</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>380600</v>
+        <v>356200</v>
       </c>
       <c r="E48" s="3">
-        <v>427600</v>
+        <v>400100</v>
       </c>
       <c r="F48" s="3">
-        <v>492800</v>
+        <v>461100</v>
       </c>
       <c r="G48" s="3">
-        <v>563200</v>
+        <v>527000</v>
       </c>
       <c r="H48" s="3">
-        <v>578800</v>
+        <v>541600</v>
       </c>
       <c r="I48" s="3">
-        <v>599700</v>
+        <v>561200</v>
       </c>
       <c r="J48" s="3">
-        <v>601000</v>
+        <v>562400</v>
       </c>
       <c r="K48" s="3">
         <v>624300</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13909300</v>
+        <v>13016300</v>
       </c>
       <c r="E49" s="3">
-        <v>13579500</v>
+        <v>12707700</v>
       </c>
       <c r="F49" s="3">
-        <v>13881900</v>
+        <v>12990700</v>
       </c>
       <c r="G49" s="3">
-        <v>15060400</v>
+        <v>14093500</v>
       </c>
       <c r="H49" s="3">
-        <v>13395700</v>
+        <v>12535700</v>
       </c>
       <c r="I49" s="3">
-        <v>13849300</v>
+        <v>12960200</v>
       </c>
       <c r="J49" s="3">
-        <v>13600400</v>
+        <v>12727200</v>
       </c>
       <c r="K49" s="3">
         <v>13285700</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>401500</v>
+        <v>375700</v>
       </c>
       <c r="E52" s="3">
-        <v>499300</v>
+        <v>467200</v>
       </c>
       <c r="F52" s="3">
-        <v>593100</v>
+        <v>555100</v>
       </c>
       <c r="G52" s="3">
-        <v>561800</v>
+        <v>525800</v>
       </c>
       <c r="H52" s="3">
-        <v>445800</v>
+        <v>417200</v>
       </c>
       <c r="I52" s="3">
-        <v>736500</v>
+        <v>689200</v>
       </c>
       <c r="J52" s="3">
-        <v>650500</v>
+        <v>608700</v>
       </c>
       <c r="K52" s="3">
         <v>668200</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18065200</v>
+        <v>16905400</v>
       </c>
       <c r="E54" s="3">
-        <v>17375600</v>
+        <v>16260000</v>
       </c>
       <c r="F54" s="3">
-        <v>18439300</v>
+        <v>17255500</v>
       </c>
       <c r="G54" s="3">
-        <v>19506900</v>
+        <v>18254600</v>
       </c>
       <c r="H54" s="3">
-        <v>17975200</v>
+        <v>16821200</v>
       </c>
       <c r="I54" s="3">
-        <v>18365000</v>
+        <v>17186000</v>
       </c>
       <c r="J54" s="3">
-        <v>18249000</v>
+        <v>17077400</v>
       </c>
       <c r="K54" s="3">
         <v>17478700</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4269300</v>
+        <v>3995200</v>
       </c>
       <c r="E57" s="3">
-        <v>3973300</v>
+        <v>3718300</v>
       </c>
       <c r="F57" s="3">
-        <v>4249700</v>
+        <v>3976900</v>
       </c>
       <c r="G57" s="3">
-        <v>4178000</v>
+        <v>3909800</v>
       </c>
       <c r="H57" s="3">
-        <v>4535200</v>
+        <v>4244000</v>
       </c>
       <c r="I57" s="3">
-        <v>4050300</v>
+        <v>3790200</v>
       </c>
       <c r="J57" s="3">
-        <v>4473900</v>
+        <v>4186700</v>
       </c>
       <c r="K57" s="3">
         <v>3884100</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>302400</v>
+        <v>283000</v>
       </c>
       <c r="E58" s="3">
-        <v>591800</v>
+        <v>553800</v>
       </c>
       <c r="F58" s="3">
-        <v>1104100</v>
+        <v>1033300</v>
       </c>
       <c r="G58" s="3">
-        <v>1586500</v>
+        <v>1484600</v>
       </c>
       <c r="H58" s="3">
-        <v>2685400</v>
+        <v>2513000</v>
       </c>
       <c r="I58" s="3">
-        <v>1443100</v>
+        <v>1350400</v>
       </c>
       <c r="J58" s="3">
-        <v>1814600</v>
+        <v>1698100</v>
       </c>
       <c r="K58" s="3">
         <v>1622600</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>314200</v>
+        <v>294000</v>
       </c>
       <c r="E59" s="3">
-        <v>301100</v>
+        <v>281800</v>
       </c>
       <c r="F59" s="3">
-        <v>348100</v>
+        <v>325700</v>
       </c>
       <c r="G59" s="3">
-        <v>441900</v>
+        <v>413500</v>
       </c>
       <c r="H59" s="3">
-        <v>531900</v>
+        <v>497700</v>
       </c>
       <c r="I59" s="3">
-        <v>644000</v>
+        <v>602600</v>
       </c>
       <c r="J59" s="3">
-        <v>647900</v>
+        <v>606300</v>
       </c>
       <c r="K59" s="3">
         <v>797300</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4885900</v>
+        <v>4572200</v>
       </c>
       <c r="E60" s="3">
-        <v>4866300</v>
+        <v>4553900</v>
       </c>
       <c r="F60" s="3">
-        <v>5701900</v>
+        <v>5335800</v>
       </c>
       <c r="G60" s="3">
-        <v>6206400</v>
+        <v>5807900</v>
       </c>
       <c r="H60" s="3">
-        <v>7752400</v>
+        <v>7254700</v>
       </c>
       <c r="I60" s="3">
-        <v>6137300</v>
+        <v>5743300</v>
       </c>
       <c r="J60" s="3">
-        <v>6936400</v>
+        <v>6491100</v>
       </c>
       <c r="K60" s="3">
         <v>6304100</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7736800</v>
+        <v>7240100</v>
       </c>
       <c r="E61" s="3">
-        <v>7848900</v>
+        <v>7345000</v>
       </c>
       <c r="F61" s="3">
-        <v>8181300</v>
+        <v>7656100</v>
       </c>
       <c r="G61" s="3">
-        <v>8618000</v>
+        <v>8064800</v>
       </c>
       <c r="H61" s="3">
-        <v>5675800</v>
+        <v>5311400</v>
       </c>
       <c r="I61" s="3">
-        <v>7519100</v>
+        <v>7036400</v>
       </c>
       <c r="J61" s="3">
-        <v>6482800</v>
+        <v>6066600</v>
       </c>
       <c r="K61" s="3">
         <v>6868500</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1239700</v>
+        <v>1160100</v>
       </c>
       <c r="E62" s="3">
-        <v>1514800</v>
+        <v>1417500</v>
       </c>
       <c r="F62" s="3">
-        <v>1817200</v>
+        <v>1700500</v>
       </c>
       <c r="G62" s="3">
-        <v>1948900</v>
+        <v>1823800</v>
       </c>
       <c r="H62" s="3">
-        <v>1692100</v>
+        <v>1583400</v>
       </c>
       <c r="I62" s="3">
-        <v>1799000</v>
+        <v>1683500</v>
       </c>
       <c r="J62" s="3">
-        <v>1754600</v>
+        <v>1642000</v>
       </c>
       <c r="K62" s="3">
         <v>1426900</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13851900</v>
+        <v>12962700</v>
       </c>
       <c r="E66" s="3">
-        <v>14220900</v>
+        <v>13307900</v>
       </c>
       <c r="F66" s="3">
-        <v>15703000</v>
+        <v>14694900</v>
       </c>
       <c r="G66" s="3">
-        <v>16796800</v>
+        <v>15718400</v>
       </c>
       <c r="H66" s="3">
-        <v>15151600</v>
+        <v>14178900</v>
       </c>
       <c r="I66" s="3">
-        <v>15490600</v>
+        <v>14496100</v>
       </c>
       <c r="J66" s="3">
-        <v>15212900</v>
+        <v>14236200</v>
       </c>
       <c r="K66" s="3">
         <v>14623500</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2712800</v>
+        <v>2538600</v>
       </c>
       <c r="E72" s="3">
-        <v>1890200</v>
+        <v>1768900</v>
       </c>
       <c r="F72" s="3">
-        <v>1582600</v>
+        <v>1481000</v>
       </c>
       <c r="G72" s="3">
-        <v>1022000</v>
+        <v>956400</v>
       </c>
       <c r="H72" s="3">
-        <v>1276200</v>
+        <v>1194300</v>
       </c>
       <c r="I72" s="3">
-        <v>1496500</v>
+        <v>1400400</v>
       </c>
       <c r="J72" s="3">
-        <v>1282700</v>
+        <v>1200400</v>
       </c>
       <c r="K72" s="3">
         <v>824000</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4213200</v>
+        <v>3942700</v>
       </c>
       <c r="E76" s="3">
-        <v>3154700</v>
+        <v>2952200</v>
       </c>
       <c r="F76" s="3">
-        <v>2736200</v>
+        <v>2560600</v>
       </c>
       <c r="G76" s="3">
-        <v>2710200</v>
+        <v>2536200</v>
       </c>
       <c r="H76" s="3">
-        <v>2823600</v>
+        <v>2642300</v>
       </c>
       <c r="I76" s="3">
-        <v>2874400</v>
+        <v>2689900</v>
       </c>
       <c r="J76" s="3">
-        <v>3036100</v>
+        <v>2841100</v>
       </c>
       <c r="K76" s="3">
         <v>2855200</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1052000</v>
+        <v>984500</v>
       </c>
       <c r="E81" s="3">
-        <v>865600</v>
+        <v>810000</v>
       </c>
       <c r="F81" s="3">
-        <v>881200</v>
+        <v>824700</v>
       </c>
       <c r="G81" s="3">
-        <v>714400</v>
+        <v>668500</v>
       </c>
       <c r="H81" s="3">
-        <v>946400</v>
+        <v>885600</v>
       </c>
       <c r="I81" s="3">
-        <v>1015500</v>
+        <v>950300</v>
       </c>
       <c r="J81" s="3">
-        <v>969900</v>
+        <v>907600</v>
       </c>
       <c r="K81" s="3">
         <v>902500</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>288100</v>
+        <v>269600</v>
       </c>
       <c r="E83" s="3">
-        <v>271100</v>
+        <v>253700</v>
       </c>
       <c r="F83" s="3">
-        <v>379300</v>
+        <v>355000</v>
       </c>
       <c r="G83" s="3">
-        <v>303700</v>
+        <v>284200</v>
       </c>
       <c r="H83" s="3">
-        <v>284200</v>
+        <v>265900</v>
       </c>
       <c r="I83" s="3">
-        <v>281600</v>
+        <v>263500</v>
       </c>
       <c r="J83" s="3">
-        <v>284200</v>
+        <v>265900</v>
       </c>
       <c r="K83" s="3">
         <v>276900</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1243600</v>
+        <v>1163800</v>
       </c>
       <c r="E89" s="3">
-        <v>1384400</v>
+        <v>1295500</v>
       </c>
       <c r="F89" s="3">
-        <v>1058500</v>
+        <v>990600</v>
       </c>
       <c r="G89" s="3">
-        <v>1022000</v>
+        <v>956400</v>
       </c>
       <c r="H89" s="3">
-        <v>1444400</v>
+        <v>1351600</v>
       </c>
       <c r="I89" s="3">
-        <v>1278800</v>
+        <v>1196700</v>
       </c>
       <c r="J89" s="3">
-        <v>1410500</v>
+        <v>1319900</v>
       </c>
       <c r="K89" s="3">
         <v>1202000</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23500</v>
+        <v>-22000</v>
       </c>
       <c r="E91" s="3">
-        <v>-13000</v>
+        <v>-12200</v>
       </c>
       <c r="F91" s="3">
-        <v>-36500</v>
+        <v>-34200</v>
       </c>
       <c r="G91" s="3">
-        <v>-19600</v>
+        <v>-18300</v>
       </c>
       <c r="H91" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="I91" s="3">
-        <v>-27400</v>
+        <v>-25600</v>
       </c>
       <c r="J91" s="3">
-        <v>-45600</v>
+        <v>-42700</v>
       </c>
       <c r="K91" s="3">
         <v>-28000</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-501900</v>
+        <v>-469700</v>
       </c>
       <c r="E94" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F94" s="3">
-        <v>-392400</v>
+        <v>-367200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1136700</v>
+        <v>-1063800</v>
       </c>
       <c r="H94" s="3">
-        <v>-441900</v>
+        <v>-413500</v>
       </c>
       <c r="I94" s="3">
-        <v>-513600</v>
+        <v>-480600</v>
       </c>
       <c r="J94" s="3">
-        <v>-589200</v>
+        <v>-551400</v>
       </c>
       <c r="K94" s="3">
         <v>-1090200</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-372800</v>
+        <v>-348900</v>
       </c>
       <c r="E96" s="3">
-        <v>-826500</v>
+        <v>-773400</v>
       </c>
       <c r="F96" s="3">
-        <v>-342800</v>
+        <v>-320800</v>
       </c>
       <c r="G96" s="3">
-        <v>-804300</v>
+        <v>-752700</v>
       </c>
       <c r="H96" s="3">
-        <v>-344100</v>
+        <v>-322100</v>
       </c>
       <c r="I96" s="3">
-        <v>-753500</v>
+        <v>-705100</v>
       </c>
       <c r="J96" s="3">
-        <v>-323300</v>
+        <v>-302500</v>
       </c>
       <c r="K96" s="3">
         <v>-729400</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-680500</v>
+        <v>-636800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1413100</v>
+        <v>-1322400</v>
       </c>
       <c r="F100" s="3">
-        <v>-799100</v>
+        <v>-747800</v>
       </c>
       <c r="G100" s="3">
-        <v>181200</v>
+        <v>169600</v>
       </c>
       <c r="H100" s="3">
-        <v>-969900</v>
+        <v>-907600</v>
       </c>
       <c r="I100" s="3">
-        <v>-762600</v>
+        <v>-713600</v>
       </c>
       <c r="J100" s="3">
-        <v>-810800</v>
+        <v>-758800</v>
       </c>
       <c r="K100" s="3">
         <v>-121100</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F101" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="G101" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="H101" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="I101" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3">
         <v>1300</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="E102" s="3">
-        <v>-28700</v>
+        <v>-26800</v>
       </c>
       <c r="F102" s="3">
-        <v>-139500</v>
+        <v>-130500</v>
       </c>
       <c r="G102" s="3">
-        <v>74300</v>
+        <v>69500</v>
       </c>
       <c r="H102" s="3">
-        <v>26100</v>
+        <v>24400</v>
       </c>
       <c r="I102" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J102" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="K102" s="3">
         <v>-8000</v>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4696600</v>
+        <v>4694900</v>
       </c>
       <c r="E8" s="3">
-        <v>4140300</v>
+        <v>4554200</v>
       </c>
       <c r="F8" s="3">
-        <v>4402600</v>
+        <v>4014800</v>
       </c>
       <c r="G8" s="3">
-        <v>4270900</v>
+        <v>4269100</v>
       </c>
       <c r="H8" s="3">
+        <v>4141300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4715000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4599100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4683200</v>
+      </c>
+      <c r="L8" s="3">
         <v>4862500</v>
       </c>
-      <c r="I8" s="3">
-        <v>4743000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4683200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4862500</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5146800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4931500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4473200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4210700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3922100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3903000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3852900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1696900</v>
+        <v>1660800</v>
       </c>
       <c r="E9" s="3">
-        <v>1428500</v>
+        <v>1645400</v>
       </c>
       <c r="F9" s="3">
-        <v>1505400</v>
+        <v>1385200</v>
       </c>
       <c r="G9" s="3">
-        <v>1528500</v>
+        <v>1459700</v>
       </c>
       <c r="H9" s="3">
-        <v>1694400</v>
+        <v>1482200</v>
       </c>
       <c r="I9" s="3">
-        <v>1666400</v>
+        <v>1643000</v>
       </c>
       <c r="J9" s="3">
+        <v>1615800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1640800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1729100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1802900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1802700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1617100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1519100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1445200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1344400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1355000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2999700</v>
+        <v>3034100</v>
       </c>
       <c r="E10" s="3">
-        <v>2711800</v>
+        <v>2908800</v>
       </c>
       <c r="F10" s="3">
-        <v>2897300</v>
+        <v>2629600</v>
       </c>
       <c r="G10" s="3">
-        <v>2742300</v>
+        <v>2809400</v>
       </c>
       <c r="H10" s="3">
-        <v>3168100</v>
+        <v>2659200</v>
       </c>
       <c r="I10" s="3">
-        <v>3076600</v>
+        <v>3072000</v>
       </c>
       <c r="J10" s="3">
+        <v>2983300</v>
+      </c>
+      <c r="K10" s="3">
         <v>3042400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3133400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3343900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3128800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2856100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2691600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2476900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2558500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2498000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,58 +1029,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-19500</v>
+        <v>5900</v>
       </c>
       <c r="E14" s="3">
-        <v>-47600</v>
+        <v>-18900</v>
       </c>
       <c r="F14" s="3">
-        <v>151300</v>
+        <v>-46100</v>
       </c>
       <c r="G14" s="3">
-        <v>-7300</v>
+        <v>146700</v>
       </c>
       <c r="H14" s="3">
-        <v>7300</v>
+        <v>-7100</v>
       </c>
       <c r="I14" s="3">
-        <v>-69500</v>
+        <v>7100</v>
       </c>
       <c r="J14" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K14" s="3">
         <v>43900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-30600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>44300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>65800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3427900</v>
+        <v>3422100</v>
       </c>
       <c r="E17" s="3">
-        <v>3043700</v>
+        <v>3323900</v>
       </c>
       <c r="F17" s="3">
-        <v>3302300</v>
+        <v>2951300</v>
       </c>
       <c r="G17" s="3">
-        <v>3352300</v>
+        <v>3202100</v>
       </c>
       <c r="H17" s="3">
-        <v>3585300</v>
+        <v>3250600</v>
       </c>
       <c r="I17" s="3">
-        <v>3395000</v>
+        <v>3476500</v>
       </c>
       <c r="J17" s="3">
+        <v>3292000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3513300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3568700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3795300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3646700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3427500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3146700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2879900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2998300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2919300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1268700</v>
+        <v>1272800</v>
       </c>
       <c r="E18" s="3">
-        <v>1096700</v>
+        <v>1230200</v>
       </c>
       <c r="F18" s="3">
-        <v>1100300</v>
+        <v>1063400</v>
       </c>
       <c r="G18" s="3">
-        <v>918600</v>
+        <v>1067000</v>
       </c>
       <c r="H18" s="3">
-        <v>1277200</v>
+        <v>890700</v>
       </c>
       <c r="I18" s="3">
-        <v>1348000</v>
+        <v>1238500</v>
       </c>
       <c r="J18" s="3">
+        <v>1307100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1169900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1293800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1351400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1284800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1045600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1064000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1042100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>904600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,108 +1282,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-83000</v>
+        <v>-92300</v>
       </c>
       <c r="E20" s="3">
-        <v>-90300</v>
+        <v>-80400</v>
       </c>
       <c r="F20" s="3">
-        <v>-103700</v>
+        <v>-87500</v>
       </c>
       <c r="G20" s="3">
-        <v>-106100</v>
+        <v>-100500</v>
       </c>
       <c r="H20" s="3">
-        <v>-246400</v>
+        <v>-102900</v>
       </c>
       <c r="I20" s="3">
-        <v>-125600</v>
+        <v>-238900</v>
       </c>
       <c r="J20" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-135400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-133100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-135900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-137100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-151500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-116400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-114800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-113200</v>
       </c>
       <c r="R20" s="3">
         <v>-113200</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-113200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1642000</v>
+        <v>1618200</v>
       </c>
       <c r="E21" s="3">
-        <v>1433400</v>
+        <v>1592200</v>
       </c>
       <c r="F21" s="3">
-        <v>1576100</v>
+        <v>1389900</v>
       </c>
       <c r="G21" s="3">
-        <v>1261400</v>
+        <v>1528300</v>
       </c>
       <c r="H21" s="3">
-        <v>1457800</v>
+        <v>1223100</v>
       </c>
       <c r="I21" s="3">
-        <v>1628600</v>
+        <v>1413600</v>
       </c>
       <c r="J21" s="3">
+        <v>1579200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1451700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1572000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1641500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1620300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1379400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1273000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1127200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1169300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,108 +1439,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1185700</v>
+        <v>1180500</v>
       </c>
       <c r="E23" s="3">
-        <v>1006400</v>
+        <v>1149800</v>
       </c>
       <c r="F23" s="3">
-        <v>996700</v>
+        <v>975900</v>
       </c>
       <c r="G23" s="3">
-        <v>812500</v>
+        <v>966400</v>
       </c>
       <c r="H23" s="3">
-        <v>1030800</v>
+        <v>787800</v>
       </c>
       <c r="I23" s="3">
-        <v>1222300</v>
+        <v>999600</v>
       </c>
       <c r="J23" s="3">
+        <v>1185300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1034500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1160700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1215600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1147700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>894100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>947600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>927400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>791400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>197600</v>
+        <v>281500</v>
       </c>
       <c r="E24" s="3">
-        <v>200100</v>
+        <v>191600</v>
       </c>
       <c r="F24" s="3">
-        <v>184200</v>
+        <v>194000</v>
       </c>
       <c r="G24" s="3">
-        <v>151300</v>
+        <v>178600</v>
       </c>
       <c r="H24" s="3">
-        <v>140300</v>
+        <v>146700</v>
       </c>
       <c r="I24" s="3">
-        <v>272000</v>
+        <v>136000</v>
       </c>
       <c r="J24" s="3">
+        <v>263800</v>
+      </c>
+      <c r="K24" s="3">
         <v>131700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>255600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>329700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>237000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>157600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>223700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>212600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>177800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>988100</v>
+        <v>899000</v>
       </c>
       <c r="E26" s="3">
-        <v>806400</v>
+        <v>958100</v>
       </c>
       <c r="F26" s="3">
-        <v>812500</v>
+        <v>781900</v>
       </c>
       <c r="G26" s="3">
-        <v>661200</v>
+        <v>787800</v>
       </c>
       <c r="H26" s="3">
-        <v>890500</v>
+        <v>641100</v>
       </c>
       <c r="I26" s="3">
-        <v>950300</v>
+        <v>863500</v>
       </c>
       <c r="J26" s="3">
+        <v>921500</v>
+      </c>
+      <c r="K26" s="3">
         <v>902700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>905100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>885900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>910700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>736500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>724000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>714800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>613600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>663700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>984500</v>
+        <v>900200</v>
       </c>
       <c r="E27" s="3">
-        <v>810000</v>
+        <v>954600</v>
       </c>
       <c r="F27" s="3">
-        <v>824700</v>
+        <v>785400</v>
       </c>
       <c r="G27" s="3">
-        <v>668500</v>
+        <v>799600</v>
       </c>
       <c r="H27" s="3">
-        <v>885600</v>
+        <v>648200</v>
       </c>
       <c r="I27" s="3">
-        <v>950300</v>
+        <v>858800</v>
       </c>
       <c r="J27" s="3">
+        <v>921500</v>
+      </c>
+      <c r="K27" s="3">
         <v>897800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>902500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>877400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>908000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>729100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>721400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>709500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>611000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,17 +1783,17 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>9800</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>489600</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1743,14 +1804,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>83000</v>
+        <v>92300</v>
       </c>
       <c r="E32" s="3">
-        <v>90300</v>
+        <v>80400</v>
       </c>
       <c r="F32" s="3">
-        <v>103700</v>
+        <v>87500</v>
       </c>
       <c r="G32" s="3">
-        <v>106100</v>
+        <v>100500</v>
       </c>
       <c r="H32" s="3">
-        <v>246400</v>
+        <v>102900</v>
       </c>
       <c r="I32" s="3">
-        <v>125600</v>
+        <v>238900</v>
       </c>
       <c r="J32" s="3">
+        <v>121800</v>
+      </c>
+      <c r="K32" s="3">
         <v>135400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>133100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>135900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>137100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>151500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>116400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>114800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>113200</v>
       </c>
       <c r="R32" s="3">
         <v>113200</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>984500</v>
+        <v>900200</v>
       </c>
       <c r="E33" s="3">
-        <v>810000</v>
+        <v>954600</v>
       </c>
       <c r="F33" s="3">
-        <v>824700</v>
+        <v>785400</v>
       </c>
       <c r="G33" s="3">
-        <v>668500</v>
+        <v>799600</v>
       </c>
       <c r="H33" s="3">
-        <v>885600</v>
+        <v>648200</v>
       </c>
       <c r="I33" s="3">
-        <v>950300</v>
+        <v>858800</v>
       </c>
       <c r="J33" s="3">
+        <v>921500</v>
+      </c>
+      <c r="K33" s="3">
         <v>907600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>902500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1367000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>908000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>729100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>721400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>709500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>611000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>984500</v>
+        <v>900200</v>
       </c>
       <c r="E35" s="3">
-        <v>810000</v>
+        <v>954600</v>
       </c>
       <c r="F35" s="3">
-        <v>824700</v>
+        <v>785400</v>
       </c>
       <c r="G35" s="3">
-        <v>668500</v>
+        <v>799600</v>
       </c>
       <c r="H35" s="3">
-        <v>885600</v>
+        <v>648200</v>
       </c>
       <c r="I35" s="3">
-        <v>950300</v>
+        <v>858800</v>
       </c>
       <c r="J35" s="3">
+        <v>921500</v>
+      </c>
+      <c r="K35" s="3">
         <v>907600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>902500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1367000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>908000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>729100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>721400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>709500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>611000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>137800</v>
+        <v>120700</v>
       </c>
       <c r="E41" s="3">
-        <v>80500</v>
+        <v>133700</v>
       </c>
       <c r="F41" s="3">
-        <v>107400</v>
+        <v>78100</v>
       </c>
       <c r="G41" s="3">
-        <v>237900</v>
+        <v>104100</v>
       </c>
       <c r="H41" s="3">
-        <v>168300</v>
+        <v>230700</v>
       </c>
       <c r="I41" s="3">
-        <v>143900</v>
+        <v>163200</v>
       </c>
       <c r="J41" s="3">
+        <v>139600</v>
+      </c>
+      <c r="K41" s="3">
         <v>139100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>139800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>157100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>213000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>199500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>272800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>159100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>189600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,358 +2334,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2391000</v>
+        <v>2339800</v>
       </c>
       <c r="E43" s="3">
-        <v>1989700</v>
+        <v>2318500</v>
       </c>
       <c r="F43" s="3">
-        <v>2350700</v>
+        <v>1929300</v>
       </c>
       <c r="G43" s="3">
-        <v>2198300</v>
+        <v>2279400</v>
       </c>
       <c r="H43" s="3">
-        <v>2521500</v>
+        <v>2131600</v>
       </c>
       <c r="I43" s="3">
-        <v>2149500</v>
+        <v>2445100</v>
       </c>
       <c r="J43" s="3">
+        <v>2084300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2458100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2140400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2650500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2168900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2481700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1910800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2088200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1677600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1958100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>308600</v>
+        <v>339500</v>
       </c>
       <c r="E44" s="3">
-        <v>290300</v>
+        <v>299300</v>
       </c>
       <c r="F44" s="3">
-        <v>292800</v>
+        <v>281500</v>
       </c>
       <c r="G44" s="3">
-        <v>289100</v>
+        <v>283900</v>
       </c>
       <c r="H44" s="3">
-        <v>264700</v>
+        <v>280300</v>
       </c>
       <c r="I44" s="3">
-        <v>261100</v>
+        <v>256700</v>
       </c>
       <c r="J44" s="3">
+        <v>253100</v>
+      </c>
+      <c r="K44" s="3">
         <v>258600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>264900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>278800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>268900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>257400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>243000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>206100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>193600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37800</v>
+        <v>23700</v>
       </c>
       <c r="E45" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="F45" s="3">
-        <v>23200</v>
+        <v>34300</v>
       </c>
       <c r="G45" s="3">
-        <v>15900</v>
+        <v>22500</v>
       </c>
       <c r="H45" s="3">
-        <v>28100</v>
+        <v>15400</v>
       </c>
       <c r="I45" s="3">
-        <v>20700</v>
+        <v>27200</v>
       </c>
       <c r="J45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2875300</v>
+        <v>2823600</v>
       </c>
       <c r="E46" s="3">
-        <v>2395900</v>
+        <v>2788100</v>
       </c>
       <c r="F46" s="3">
-        <v>2774100</v>
+        <v>2323200</v>
       </c>
       <c r="G46" s="3">
-        <v>2741100</v>
+        <v>2689900</v>
       </c>
       <c r="H46" s="3">
-        <v>2982700</v>
+        <v>2658000</v>
       </c>
       <c r="I46" s="3">
-        <v>2575200</v>
+        <v>2892200</v>
       </c>
       <c r="J46" s="3">
+        <v>2497100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2868000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2574300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3127400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2673500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2963200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2443400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2493800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2113400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2549300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>281800</v>
+        <v>285100</v>
       </c>
       <c r="E47" s="3">
-        <v>289100</v>
+        <v>273200</v>
       </c>
       <c r="F47" s="3">
-        <v>474500</v>
+        <v>280300</v>
       </c>
       <c r="G47" s="3">
-        <v>367200</v>
+        <v>460100</v>
       </c>
       <c r="H47" s="3">
-        <v>344000</v>
+        <v>356100</v>
       </c>
       <c r="I47" s="3">
-        <v>400100</v>
+        <v>333600</v>
       </c>
       <c r="J47" s="3">
+        <v>388000</v>
+      </c>
+      <c r="K47" s="3">
         <v>311100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>326100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>343900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>312900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>294400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>334800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>315600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>256800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>312100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>356200</v>
+        <v>339500</v>
       </c>
       <c r="E48" s="3">
-        <v>400100</v>
+        <v>345400</v>
       </c>
       <c r="F48" s="3">
-        <v>461100</v>
+        <v>388000</v>
       </c>
       <c r="G48" s="3">
-        <v>527000</v>
+        <v>447100</v>
       </c>
       <c r="H48" s="3">
-        <v>541600</v>
+        <v>511000</v>
       </c>
       <c r="I48" s="3">
-        <v>561200</v>
+        <v>525200</v>
       </c>
       <c r="J48" s="3">
+        <v>544100</v>
+      </c>
+      <c r="K48" s="3">
         <v>562400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>624300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>680700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>676400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>676100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>298600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>298700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>280500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>298900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13016300</v>
+        <v>14091900</v>
       </c>
       <c r="E49" s="3">
-        <v>12707700</v>
+        <v>12621500</v>
       </c>
       <c r="F49" s="3">
-        <v>12990700</v>
+        <v>12322300</v>
       </c>
       <c r="G49" s="3">
-        <v>14093500</v>
+        <v>12596700</v>
       </c>
       <c r="H49" s="3">
-        <v>12535700</v>
+        <v>13666000</v>
       </c>
       <c r="I49" s="3">
-        <v>12960200</v>
+        <v>12155500</v>
       </c>
       <c r="J49" s="3">
+        <v>12567100</v>
+      </c>
+      <c r="K49" s="3">
         <v>12727200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13285700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12961000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12571100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12311100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11882200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10939200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10435600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10725300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>375700</v>
+        <v>532300</v>
       </c>
       <c r="E52" s="3">
-        <v>467200</v>
+        <v>364300</v>
       </c>
       <c r="F52" s="3">
-        <v>555100</v>
+        <v>453100</v>
       </c>
       <c r="G52" s="3">
-        <v>525800</v>
+        <v>538200</v>
       </c>
       <c r="H52" s="3">
-        <v>417200</v>
+        <v>509800</v>
       </c>
       <c r="I52" s="3">
-        <v>689200</v>
+        <v>404600</v>
       </c>
       <c r="J52" s="3">
+        <v>668300</v>
+      </c>
+      <c r="K52" s="3">
         <v>608700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>668200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>762700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>705600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>645400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>650300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>541300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>680800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16905400</v>
+        <v>18072300</v>
       </c>
       <c r="E54" s="3">
-        <v>16260000</v>
+        <v>16392600</v>
       </c>
       <c r="F54" s="3">
-        <v>17255500</v>
+        <v>15766900</v>
       </c>
       <c r="G54" s="3">
-        <v>18254600</v>
+        <v>16732100</v>
       </c>
       <c r="H54" s="3">
-        <v>16821200</v>
+        <v>17700900</v>
       </c>
       <c r="I54" s="3">
-        <v>17186000</v>
+        <v>16311000</v>
       </c>
       <c r="J54" s="3">
+        <v>16664700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17077400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17478700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17875700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16939400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16890200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15609400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14588700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13767000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14599300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3995200</v>
+        <v>4065600</v>
       </c>
       <c r="E57" s="3">
-        <v>3718300</v>
+        <v>3874000</v>
       </c>
       <c r="F57" s="3">
-        <v>3976900</v>
+        <v>3605500</v>
       </c>
       <c r="G57" s="3">
-        <v>3909800</v>
+        <v>3856300</v>
       </c>
       <c r="H57" s="3">
-        <v>4244000</v>
+        <v>3791200</v>
       </c>
       <c r="I57" s="3">
-        <v>3790200</v>
+        <v>4115300</v>
       </c>
       <c r="J57" s="3">
+        <v>3675300</v>
+      </c>
+      <c r="K57" s="3">
         <v>4186700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3884100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4667000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3954300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4284700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3529400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3783800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2983800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3471100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>283000</v>
+        <v>1114300</v>
       </c>
       <c r="E58" s="3">
-        <v>553800</v>
+        <v>274400</v>
       </c>
       <c r="F58" s="3">
-        <v>1033300</v>
+        <v>537000</v>
       </c>
       <c r="G58" s="3">
-        <v>1484600</v>
+        <v>1001900</v>
       </c>
       <c r="H58" s="3">
-        <v>2513000</v>
+        <v>1439600</v>
       </c>
       <c r="I58" s="3">
-        <v>1350400</v>
+        <v>2436800</v>
       </c>
       <c r="J58" s="3">
+        <v>1309500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1698100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1622600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1078300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1030500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1439700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1129900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>813900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>539900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>890200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>294000</v>
+        <v>334800</v>
       </c>
       <c r="E59" s="3">
-        <v>281800</v>
+        <v>285100</v>
       </c>
       <c r="F59" s="3">
-        <v>325700</v>
+        <v>273200</v>
       </c>
       <c r="G59" s="3">
-        <v>413500</v>
+        <v>315800</v>
       </c>
       <c r="H59" s="3">
-        <v>497700</v>
+        <v>401000</v>
       </c>
       <c r="I59" s="3">
-        <v>602600</v>
+        <v>482600</v>
       </c>
       <c r="J59" s="3">
+        <v>584400</v>
+      </c>
+      <c r="K59" s="3">
         <v>606300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>797300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>854700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>853400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>879400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>897200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>849100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>754500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4572200</v>
+        <v>5514700</v>
       </c>
       <c r="E60" s="3">
-        <v>4553900</v>
+        <v>4433500</v>
       </c>
       <c r="F60" s="3">
-        <v>5335800</v>
+        <v>4415800</v>
       </c>
       <c r="G60" s="3">
-        <v>5807900</v>
+        <v>5174000</v>
       </c>
       <c r="H60" s="3">
-        <v>7254700</v>
+        <v>5631800</v>
       </c>
       <c r="I60" s="3">
-        <v>5743300</v>
+        <v>7034700</v>
       </c>
       <c r="J60" s="3">
+        <v>5569100</v>
+      </c>
+      <c r="K60" s="3">
         <v>6491100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6304100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5838200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6603800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5556500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5446800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4278300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5182900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7240100</v>
+        <v>7046500</v>
       </c>
       <c r="E61" s="3">
-        <v>7345000</v>
+        <v>7020500</v>
       </c>
       <c r="F61" s="3">
-        <v>7656100</v>
+        <v>7122200</v>
       </c>
       <c r="G61" s="3">
-        <v>8064800</v>
+        <v>7423900</v>
       </c>
       <c r="H61" s="3">
-        <v>5311400</v>
+        <v>7820200</v>
       </c>
       <c r="I61" s="3">
-        <v>7036400</v>
+        <v>5150300</v>
       </c>
       <c r="J61" s="3">
+        <v>6823000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6066600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6868500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6355300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6414700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5033500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5098800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4275500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4669300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1160100</v>
+        <v>1205400</v>
       </c>
       <c r="E62" s="3">
-        <v>1417500</v>
+        <v>1124900</v>
       </c>
       <c r="F62" s="3">
-        <v>1700500</v>
+        <v>1374500</v>
       </c>
       <c r="G62" s="3">
-        <v>1823800</v>
+        <v>1649000</v>
       </c>
       <c r="H62" s="3">
-        <v>1583400</v>
+        <v>1768400</v>
       </c>
       <c r="I62" s="3">
-        <v>1683500</v>
+        <v>1535400</v>
       </c>
       <c r="J62" s="3">
+        <v>1632400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1642000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1426900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1647200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2214100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2410200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2356800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2025600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2416300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2455800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12962700</v>
+        <v>13752400</v>
       </c>
       <c r="E66" s="3">
-        <v>13307900</v>
+        <v>12569500</v>
       </c>
       <c r="F66" s="3">
-        <v>14694900</v>
+        <v>12904300</v>
       </c>
       <c r="G66" s="3">
-        <v>15718400</v>
+        <v>14249200</v>
       </c>
       <c r="H66" s="3">
-        <v>14178900</v>
+        <v>15241700</v>
       </c>
       <c r="I66" s="3">
-        <v>14496100</v>
+        <v>13748800</v>
       </c>
       <c r="J66" s="3">
+        <v>14056400</v>
+      </c>
+      <c r="K66" s="3">
         <v>14236200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14623500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14632200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14512300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14094400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13060000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11792300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11406000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11826100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2538600</v>
+        <v>2428500</v>
       </c>
       <c r="E72" s="3">
-        <v>1768900</v>
+        <v>2461600</v>
       </c>
       <c r="F72" s="3">
-        <v>1481000</v>
+        <v>1715200</v>
       </c>
       <c r="G72" s="3">
-        <v>956400</v>
+        <v>1436000</v>
       </c>
       <c r="H72" s="3">
-        <v>1194300</v>
+        <v>927400</v>
       </c>
       <c r="I72" s="3">
-        <v>1400400</v>
+        <v>1158100</v>
       </c>
       <c r="J72" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1200400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>824000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>601400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-264800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>262400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>444800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>184400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3942700</v>
+        <v>4320000</v>
       </c>
       <c r="E76" s="3">
-        <v>2952200</v>
+        <v>3823100</v>
       </c>
       <c r="F76" s="3">
-        <v>2560600</v>
+        <v>2862600</v>
       </c>
       <c r="G76" s="3">
-        <v>2536200</v>
+        <v>2482900</v>
       </c>
       <c r="H76" s="3">
-        <v>2642300</v>
+        <v>2459200</v>
       </c>
       <c r="I76" s="3">
-        <v>2689900</v>
+        <v>2562200</v>
       </c>
       <c r="J76" s="3">
+        <v>2608300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2841100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2855200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3243400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2427100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2795700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2549400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2796400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2361000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2773200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>984500</v>
+        <v>900200</v>
       </c>
       <c r="E81" s="3">
-        <v>810000</v>
+        <v>954600</v>
       </c>
       <c r="F81" s="3">
-        <v>824700</v>
+        <v>785400</v>
       </c>
       <c r="G81" s="3">
-        <v>668500</v>
+        <v>799600</v>
       </c>
       <c r="H81" s="3">
-        <v>885600</v>
+        <v>648200</v>
       </c>
       <c r="I81" s="3">
-        <v>950300</v>
+        <v>858800</v>
       </c>
       <c r="J81" s="3">
+        <v>921500</v>
+      </c>
+      <c r="K81" s="3">
         <v>907600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>902500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1367000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>908000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>729100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>721400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>709500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>611000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269600</v>
+        <v>230700</v>
       </c>
       <c r="E83" s="3">
-        <v>253700</v>
+        <v>261400</v>
       </c>
       <c r="F83" s="3">
-        <v>355000</v>
+        <v>246000</v>
       </c>
       <c r="G83" s="3">
-        <v>284200</v>
+        <v>344200</v>
       </c>
       <c r="H83" s="3">
+        <v>275600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>257900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>255500</v>
+      </c>
+      <c r="K83" s="3">
         <v>265900</v>
       </c>
-      <c r="I83" s="3">
-        <v>263500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>265900</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>276900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>284400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>335500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>357200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>243000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>238700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>237000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1163800</v>
+        <v>1315400</v>
       </c>
       <c r="E89" s="3">
-        <v>1295500</v>
+        <v>1128500</v>
       </c>
       <c r="F89" s="3">
-        <v>990600</v>
+        <v>1256200</v>
       </c>
       <c r="G89" s="3">
-        <v>956400</v>
+        <v>960500</v>
       </c>
       <c r="H89" s="3">
-        <v>1351600</v>
+        <v>927400</v>
       </c>
       <c r="I89" s="3">
-        <v>1196700</v>
+        <v>1310700</v>
       </c>
       <c r="J89" s="3">
+        <v>1160400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1319900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1202000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1430700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1202300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1264900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>923100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1021300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>821700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>923100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22000</v>
+        <v>-15400</v>
       </c>
       <c r="E91" s="3">
-        <v>-12200</v>
+        <v>-21300</v>
       </c>
       <c r="F91" s="3">
-        <v>-34200</v>
+        <v>-11800</v>
       </c>
       <c r="G91" s="3">
-        <v>-18300</v>
+        <v>-33100</v>
       </c>
       <c r="H91" s="3">
-        <v>-31700</v>
+        <v>-17700</v>
       </c>
       <c r="I91" s="3">
-        <v>-25600</v>
+        <v>-30800</v>
       </c>
       <c r="J91" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-42700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-53500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-376600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-469700</v>
+        <v>-636400</v>
       </c>
       <c r="E94" s="3">
+        <v>-455400</v>
+      </c>
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-367200</v>
-      </c>
       <c r="G94" s="3">
-        <v>-1063800</v>
+        <v>-356100</v>
       </c>
       <c r="H94" s="3">
-        <v>-413500</v>
+        <v>-1031500</v>
       </c>
       <c r="I94" s="3">
-        <v>-480600</v>
+        <v>-401000</v>
       </c>
       <c r="J94" s="3">
+        <v>-466100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-551400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1090200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-349500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-223700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-594900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-228800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-250400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-302900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-348900</v>
+        <v>-806700</v>
       </c>
       <c r="E96" s="3">
-        <v>-773400</v>
+        <v>-338300</v>
       </c>
       <c r="F96" s="3">
-        <v>-320800</v>
+        <v>-750000</v>
       </c>
       <c r="G96" s="3">
-        <v>-752700</v>
+        <v>-311100</v>
       </c>
       <c r="H96" s="3">
-        <v>-322100</v>
+        <v>-729800</v>
       </c>
       <c r="I96" s="3">
-        <v>-705100</v>
+        <v>-312300</v>
       </c>
       <c r="J96" s="3">
+        <v>-683700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-302500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-729400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-338200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-696300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-269700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-599900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-211300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-554400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-636800</v>
+        <v>-699100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1322400</v>
+        <v>-617500</v>
       </c>
       <c r="F100" s="3">
-        <v>-747800</v>
+        <v>-1282300</v>
       </c>
       <c r="G100" s="3">
-        <v>169600</v>
+        <v>-725100</v>
       </c>
       <c r="H100" s="3">
-        <v>-907600</v>
+        <v>164400</v>
       </c>
       <c r="I100" s="3">
-        <v>-713600</v>
+        <v>-880100</v>
       </c>
       <c r="J100" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-758800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-121100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1092500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-930600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-639200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-628300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-795600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-676800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-266000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G101" s="3">
-        <v>7300</v>
+        <v>-5900</v>
       </c>
       <c r="H101" s="3">
-        <v>-6100</v>
+        <v>7100</v>
       </c>
       <c r="I101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J101" s="3">
         <v>2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>49100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>57300</v>
+        <v>-13000</v>
       </c>
       <c r="E102" s="3">
-        <v>-26800</v>
+        <v>55600</v>
       </c>
       <c r="F102" s="3">
-        <v>-130500</v>
+        <v>-26000</v>
       </c>
       <c r="G102" s="3">
-        <v>69500</v>
+        <v>-126600</v>
       </c>
       <c r="H102" s="3">
-        <v>24400</v>
+        <v>67400</v>
       </c>
       <c r="I102" s="3">
-        <v>4900</v>
+        <v>23700</v>
       </c>
       <c r="J102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-69300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-60300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-28700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-173800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>159300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4694900</v>
+        <v>4648900</v>
       </c>
       <c r="E8" s="3">
-        <v>4554200</v>
+        <v>4509500</v>
       </c>
       <c r="F8" s="3">
-        <v>4014800</v>
+        <v>3975400</v>
       </c>
       <c r="G8" s="3">
-        <v>4269100</v>
+        <v>4227200</v>
       </c>
       <c r="H8" s="3">
-        <v>4141300</v>
+        <v>4100700</v>
       </c>
       <c r="I8" s="3">
-        <v>4715000</v>
+        <v>4668800</v>
       </c>
       <c r="J8" s="3">
-        <v>4599100</v>
+        <v>4554000</v>
       </c>
       <c r="K8" s="3">
         <v>4683200</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1660800</v>
+        <v>1644500</v>
       </c>
       <c r="E9" s="3">
-        <v>1645400</v>
+        <v>1629300</v>
       </c>
       <c r="F9" s="3">
-        <v>1385200</v>
+        <v>1371600</v>
       </c>
       <c r="G9" s="3">
-        <v>1459700</v>
+        <v>1445400</v>
       </c>
       <c r="H9" s="3">
-        <v>1482200</v>
+        <v>1467600</v>
       </c>
       <c r="I9" s="3">
-        <v>1643000</v>
+        <v>1626900</v>
       </c>
       <c r="J9" s="3">
-        <v>1615800</v>
+        <v>1600000</v>
       </c>
       <c r="K9" s="3">
         <v>1640800</v>
@@ -858,25 +858,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3034100</v>
+        <v>3004400</v>
       </c>
       <c r="E10" s="3">
-        <v>2908800</v>
+        <v>2880200</v>
       </c>
       <c r="F10" s="3">
-        <v>2629600</v>
+        <v>2603800</v>
       </c>
       <c r="G10" s="3">
-        <v>2809400</v>
+        <v>2781800</v>
       </c>
       <c r="H10" s="3">
-        <v>2659200</v>
+        <v>2633100</v>
       </c>
       <c r="I10" s="3">
-        <v>3072000</v>
+        <v>3041900</v>
       </c>
       <c r="J10" s="3">
-        <v>2983300</v>
+        <v>2954000</v>
       </c>
       <c r="K10" s="3">
         <v>3042400</v>
@@ -1041,22 +1041,22 @@
         <v>5900</v>
       </c>
       <c r="E14" s="3">
-        <v>-18900</v>
+        <v>-18700</v>
       </c>
       <c r="F14" s="3">
-        <v>-46100</v>
+        <v>-45700</v>
       </c>
       <c r="G14" s="3">
-        <v>146700</v>
+        <v>145200</v>
       </c>
       <c r="H14" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="I14" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J14" s="3">
-        <v>-67400</v>
+        <v>-66800</v>
       </c>
       <c r="K14" s="3">
         <v>43900</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3422100</v>
+        <v>3388600</v>
       </c>
       <c r="E17" s="3">
-        <v>3323900</v>
+        <v>3291400</v>
       </c>
       <c r="F17" s="3">
-        <v>2951300</v>
+        <v>2922400</v>
       </c>
       <c r="G17" s="3">
-        <v>3202100</v>
+        <v>3170700</v>
       </c>
       <c r="H17" s="3">
-        <v>3250600</v>
+        <v>3218700</v>
       </c>
       <c r="I17" s="3">
-        <v>3476500</v>
+        <v>3442500</v>
       </c>
       <c r="J17" s="3">
-        <v>3292000</v>
+        <v>3259700</v>
       </c>
       <c r="K17" s="3">
         <v>3513300</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1272800</v>
+        <v>1260300</v>
       </c>
       <c r="E18" s="3">
-        <v>1230200</v>
+        <v>1218200</v>
       </c>
       <c r="F18" s="3">
-        <v>1063400</v>
+        <v>1053000</v>
       </c>
       <c r="G18" s="3">
-        <v>1067000</v>
+        <v>1056500</v>
       </c>
       <c r="H18" s="3">
-        <v>890700</v>
+        <v>882000</v>
       </c>
       <c r="I18" s="3">
-        <v>1238500</v>
+        <v>1226400</v>
       </c>
       <c r="J18" s="3">
-        <v>1307100</v>
+        <v>1294300</v>
       </c>
       <c r="K18" s="3">
         <v>1169900</v>
@@ -1289,25 +1289,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-92300</v>
+        <v>-91400</v>
       </c>
       <c r="E20" s="3">
-        <v>-80400</v>
+        <v>-79600</v>
       </c>
       <c r="F20" s="3">
-        <v>-87500</v>
+        <v>-86700</v>
       </c>
       <c r="G20" s="3">
-        <v>-100500</v>
+        <v>-99600</v>
       </c>
       <c r="H20" s="3">
-        <v>-102900</v>
+        <v>-101900</v>
       </c>
       <c r="I20" s="3">
-        <v>-238900</v>
+        <v>-236600</v>
       </c>
       <c r="J20" s="3">
-        <v>-121800</v>
+        <v>-120600</v>
       </c>
       <c r="K20" s="3">
         <v>-135400</v>
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1618200</v>
+        <v>1602300</v>
       </c>
       <c r="E21" s="3">
-        <v>1592200</v>
+        <v>1576600</v>
       </c>
       <c r="F21" s="3">
-        <v>1389900</v>
+        <v>1376300</v>
       </c>
       <c r="G21" s="3">
-        <v>1528300</v>
+        <v>1513300</v>
       </c>
       <c r="H21" s="3">
-        <v>1223100</v>
+        <v>1211100</v>
       </c>
       <c r="I21" s="3">
-        <v>1413600</v>
+        <v>1399700</v>
       </c>
       <c r="J21" s="3">
-        <v>1579200</v>
+        <v>1563700</v>
       </c>
       <c r="K21" s="3">
         <v>1451700</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1180500</v>
+        <v>1169000</v>
       </c>
       <c r="E23" s="3">
-        <v>1149800</v>
+        <v>1138500</v>
       </c>
       <c r="F23" s="3">
-        <v>975900</v>
+        <v>966300</v>
       </c>
       <c r="G23" s="3">
-        <v>966400</v>
+        <v>957000</v>
       </c>
       <c r="H23" s="3">
-        <v>787800</v>
+        <v>780100</v>
       </c>
       <c r="I23" s="3">
-        <v>999600</v>
+        <v>989700</v>
       </c>
       <c r="J23" s="3">
-        <v>1185300</v>
+        <v>1173600</v>
       </c>
       <c r="K23" s="3">
         <v>1034500</v>
@@ -1501,25 +1501,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>281500</v>
+        <v>278800</v>
       </c>
       <c r="E24" s="3">
-        <v>191600</v>
+        <v>189800</v>
       </c>
       <c r="F24" s="3">
-        <v>194000</v>
+        <v>192100</v>
       </c>
       <c r="G24" s="3">
-        <v>178600</v>
+        <v>176900</v>
       </c>
       <c r="H24" s="3">
-        <v>146700</v>
+        <v>145200</v>
       </c>
       <c r="I24" s="3">
-        <v>136000</v>
+        <v>134700</v>
       </c>
       <c r="J24" s="3">
-        <v>263800</v>
+        <v>261200</v>
       </c>
       <c r="K24" s="3">
         <v>131700</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>899000</v>
+        <v>890200</v>
       </c>
       <c r="E26" s="3">
-        <v>958100</v>
+        <v>948800</v>
       </c>
       <c r="F26" s="3">
-        <v>781900</v>
+        <v>774200</v>
       </c>
       <c r="G26" s="3">
-        <v>787800</v>
+        <v>780100</v>
       </c>
       <c r="H26" s="3">
-        <v>641100</v>
+        <v>634800</v>
       </c>
       <c r="I26" s="3">
-        <v>863500</v>
+        <v>855000</v>
       </c>
       <c r="J26" s="3">
-        <v>921500</v>
+        <v>912400</v>
       </c>
       <c r="K26" s="3">
         <v>902700</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>900200</v>
+        <v>891400</v>
       </c>
       <c r="E27" s="3">
-        <v>954600</v>
+        <v>945200</v>
       </c>
       <c r="F27" s="3">
-        <v>785400</v>
+        <v>777700</v>
       </c>
       <c r="G27" s="3">
-        <v>799600</v>
+        <v>791800</v>
       </c>
       <c r="H27" s="3">
-        <v>648200</v>
+        <v>641900</v>
       </c>
       <c r="I27" s="3">
-        <v>858800</v>
+        <v>850400</v>
       </c>
       <c r="J27" s="3">
-        <v>921500</v>
+        <v>912400</v>
       </c>
       <c r="K27" s="3">
         <v>897800</v>
@@ -1925,25 +1925,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>92300</v>
+        <v>91400</v>
       </c>
       <c r="E32" s="3">
-        <v>80400</v>
+        <v>79600</v>
       </c>
       <c r="F32" s="3">
-        <v>87500</v>
+        <v>86700</v>
       </c>
       <c r="G32" s="3">
-        <v>100500</v>
+        <v>99600</v>
       </c>
       <c r="H32" s="3">
-        <v>102900</v>
+        <v>101900</v>
       </c>
       <c r="I32" s="3">
-        <v>238900</v>
+        <v>236600</v>
       </c>
       <c r="J32" s="3">
-        <v>121800</v>
+        <v>120600</v>
       </c>
       <c r="K32" s="3">
         <v>135400</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>900200</v>
+        <v>891400</v>
       </c>
       <c r="E33" s="3">
-        <v>954600</v>
+        <v>945200</v>
       </c>
       <c r="F33" s="3">
-        <v>785400</v>
+        <v>777700</v>
       </c>
       <c r="G33" s="3">
-        <v>799600</v>
+        <v>791800</v>
       </c>
       <c r="H33" s="3">
-        <v>648200</v>
+        <v>641900</v>
       </c>
       <c r="I33" s="3">
-        <v>858800</v>
+        <v>850400</v>
       </c>
       <c r="J33" s="3">
-        <v>921500</v>
+        <v>912400</v>
       </c>
       <c r="K33" s="3">
         <v>907600</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>900200</v>
+        <v>891400</v>
       </c>
       <c r="E35" s="3">
-        <v>954600</v>
+        <v>945200</v>
       </c>
       <c r="F35" s="3">
-        <v>785400</v>
+        <v>777700</v>
       </c>
       <c r="G35" s="3">
-        <v>799600</v>
+        <v>791800</v>
       </c>
       <c r="H35" s="3">
-        <v>648200</v>
+        <v>641900</v>
       </c>
       <c r="I35" s="3">
-        <v>858800</v>
+        <v>850400</v>
       </c>
       <c r="J35" s="3">
-        <v>921500</v>
+        <v>912400</v>
       </c>
       <c r="K35" s="3">
         <v>907600</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120700</v>
+        <v>119500</v>
       </c>
       <c r="E41" s="3">
-        <v>133700</v>
+        <v>132400</v>
       </c>
       <c r="F41" s="3">
-        <v>78100</v>
+        <v>77300</v>
       </c>
       <c r="G41" s="3">
-        <v>104100</v>
+        <v>103100</v>
       </c>
       <c r="H41" s="3">
-        <v>230700</v>
+        <v>228400</v>
       </c>
       <c r="I41" s="3">
-        <v>163200</v>
+        <v>161600</v>
       </c>
       <c r="J41" s="3">
-        <v>139600</v>
+        <v>138200</v>
       </c>
       <c r="K41" s="3">
         <v>139100</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2339800</v>
+        <v>2316800</v>
       </c>
       <c r="E43" s="3">
-        <v>2318500</v>
+        <v>2295700</v>
       </c>
       <c r="F43" s="3">
-        <v>1929300</v>
+        <v>1910400</v>
       </c>
       <c r="G43" s="3">
-        <v>2279400</v>
+        <v>2257100</v>
       </c>
       <c r="H43" s="3">
-        <v>2131600</v>
+        <v>2110700</v>
       </c>
       <c r="I43" s="3">
-        <v>2445100</v>
+        <v>2421100</v>
       </c>
       <c r="J43" s="3">
-        <v>2084300</v>
+        <v>2063800</v>
       </c>
       <c r="K43" s="3">
         <v>2458100</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>339500</v>
+        <v>336200</v>
       </c>
       <c r="E44" s="3">
-        <v>299300</v>
+        <v>296300</v>
       </c>
       <c r="F44" s="3">
-        <v>281500</v>
+        <v>278800</v>
       </c>
       <c r="G44" s="3">
-        <v>283900</v>
+        <v>281100</v>
       </c>
       <c r="H44" s="3">
-        <v>280300</v>
+        <v>277600</v>
       </c>
       <c r="I44" s="3">
-        <v>256700</v>
+        <v>254200</v>
       </c>
       <c r="J44" s="3">
-        <v>253100</v>
+        <v>250700</v>
       </c>
       <c r="K44" s="3">
         <v>258600</v>
@@ -2449,25 +2449,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="E45" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F45" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="G45" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="H45" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="I45" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="J45" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="K45" s="3">
         <v>12200</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2823600</v>
+        <v>2795900</v>
       </c>
       <c r="E46" s="3">
-        <v>2788100</v>
+        <v>2760800</v>
       </c>
       <c r="F46" s="3">
-        <v>2323200</v>
+        <v>2300400</v>
       </c>
       <c r="G46" s="3">
-        <v>2689900</v>
+        <v>2663500</v>
       </c>
       <c r="H46" s="3">
-        <v>2658000</v>
+        <v>2631900</v>
       </c>
       <c r="I46" s="3">
-        <v>2892200</v>
+        <v>2863800</v>
       </c>
       <c r="J46" s="3">
-        <v>2497100</v>
+        <v>2472600</v>
       </c>
       <c r="K46" s="3">
         <v>2868000</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>285100</v>
+        <v>282300</v>
       </c>
       <c r="E47" s="3">
-        <v>273200</v>
+        <v>270600</v>
       </c>
       <c r="F47" s="3">
-        <v>280300</v>
+        <v>277600</v>
       </c>
       <c r="G47" s="3">
-        <v>460100</v>
+        <v>455600</v>
       </c>
       <c r="H47" s="3">
-        <v>356100</v>
+        <v>352600</v>
       </c>
       <c r="I47" s="3">
-        <v>333600</v>
+        <v>330300</v>
       </c>
       <c r="J47" s="3">
-        <v>388000</v>
+        <v>384200</v>
       </c>
       <c r="K47" s="3">
         <v>311100</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>339500</v>
+        <v>336200</v>
       </c>
       <c r="E48" s="3">
-        <v>345400</v>
+        <v>342000</v>
       </c>
       <c r="F48" s="3">
-        <v>388000</v>
+        <v>384200</v>
       </c>
       <c r="G48" s="3">
-        <v>447100</v>
+        <v>442800</v>
       </c>
       <c r="H48" s="3">
-        <v>511000</v>
+        <v>506000</v>
       </c>
       <c r="I48" s="3">
-        <v>525200</v>
+        <v>520100</v>
       </c>
       <c r="J48" s="3">
-        <v>544100</v>
+        <v>538800</v>
       </c>
       <c r="K48" s="3">
         <v>562400</v>
@@ -2661,25 +2661,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14091900</v>
+        <v>13953700</v>
       </c>
       <c r="E49" s="3">
-        <v>12621500</v>
+        <v>12497800</v>
       </c>
       <c r="F49" s="3">
-        <v>12322300</v>
+        <v>12201400</v>
       </c>
       <c r="G49" s="3">
-        <v>12596700</v>
+        <v>12473200</v>
       </c>
       <c r="H49" s="3">
-        <v>13666000</v>
+        <v>13532000</v>
       </c>
       <c r="I49" s="3">
-        <v>12155500</v>
+        <v>12036300</v>
       </c>
       <c r="J49" s="3">
-        <v>12567100</v>
+        <v>12443900</v>
       </c>
       <c r="K49" s="3">
         <v>12727200</v>
@@ -2820,25 +2820,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>532300</v>
+        <v>527100</v>
       </c>
       <c r="E52" s="3">
-        <v>364300</v>
+        <v>360800</v>
       </c>
       <c r="F52" s="3">
-        <v>453100</v>
+        <v>448600</v>
       </c>
       <c r="G52" s="3">
-        <v>538200</v>
+        <v>532900</v>
       </c>
       <c r="H52" s="3">
-        <v>509800</v>
+        <v>504800</v>
       </c>
       <c r="I52" s="3">
-        <v>404600</v>
+        <v>400600</v>
       </c>
       <c r="J52" s="3">
-        <v>668300</v>
+        <v>661800</v>
       </c>
       <c r="K52" s="3">
         <v>608700</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18072300</v>
+        <v>17895100</v>
       </c>
       <c r="E54" s="3">
-        <v>16392600</v>
+        <v>16231900</v>
       </c>
       <c r="F54" s="3">
-        <v>15766900</v>
+        <v>15612300</v>
       </c>
       <c r="G54" s="3">
-        <v>16732100</v>
+        <v>16568000</v>
       </c>
       <c r="H54" s="3">
-        <v>17700900</v>
+        <v>17527300</v>
       </c>
       <c r="I54" s="3">
-        <v>16311000</v>
+        <v>16151100</v>
       </c>
       <c r="J54" s="3">
-        <v>16664700</v>
+        <v>16501300</v>
       </c>
       <c r="K54" s="3">
         <v>17077400</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4065600</v>
+        <v>4025800</v>
       </c>
       <c r="E57" s="3">
-        <v>3874000</v>
+        <v>3836000</v>
       </c>
       <c r="F57" s="3">
-        <v>3605500</v>
+        <v>3570100</v>
       </c>
       <c r="G57" s="3">
-        <v>3856300</v>
+        <v>3818400</v>
       </c>
       <c r="H57" s="3">
-        <v>3791200</v>
+        <v>3754000</v>
       </c>
       <c r="I57" s="3">
-        <v>4115300</v>
+        <v>4075000</v>
       </c>
       <c r="J57" s="3">
-        <v>3675300</v>
+        <v>3639200</v>
       </c>
       <c r="K57" s="3">
         <v>4186700</v>
@@ -3074,25 +3074,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1114300</v>
+        <v>1103400</v>
       </c>
       <c r="E58" s="3">
-        <v>274400</v>
+        <v>271700</v>
       </c>
       <c r="F58" s="3">
-        <v>537000</v>
+        <v>531800</v>
       </c>
       <c r="G58" s="3">
-        <v>1001900</v>
+        <v>992100</v>
       </c>
       <c r="H58" s="3">
-        <v>1439600</v>
+        <v>1425500</v>
       </c>
       <c r="I58" s="3">
-        <v>2436800</v>
+        <v>2412900</v>
       </c>
       <c r="J58" s="3">
-        <v>1309500</v>
+        <v>1296600</v>
       </c>
       <c r="K58" s="3">
         <v>1698100</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>334800</v>
+        <v>331500</v>
       </c>
       <c r="E59" s="3">
-        <v>285100</v>
+        <v>282300</v>
       </c>
       <c r="F59" s="3">
-        <v>273200</v>
+        <v>270600</v>
       </c>
       <c r="G59" s="3">
-        <v>315800</v>
+        <v>312700</v>
       </c>
       <c r="H59" s="3">
-        <v>401000</v>
+        <v>397100</v>
       </c>
       <c r="I59" s="3">
-        <v>482600</v>
+        <v>477900</v>
       </c>
       <c r="J59" s="3">
-        <v>584400</v>
+        <v>578600</v>
       </c>
       <c r="K59" s="3">
         <v>606300</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5514700</v>
+        <v>5460600</v>
       </c>
       <c r="E60" s="3">
-        <v>4433500</v>
+        <v>4390000</v>
       </c>
       <c r="F60" s="3">
-        <v>4415800</v>
+        <v>4372500</v>
       </c>
       <c r="G60" s="3">
-        <v>5174000</v>
+        <v>5123300</v>
       </c>
       <c r="H60" s="3">
-        <v>5631800</v>
+        <v>5576600</v>
       </c>
       <c r="I60" s="3">
-        <v>7034700</v>
+        <v>6965700</v>
       </c>
       <c r="J60" s="3">
-        <v>5569100</v>
+        <v>5514500</v>
       </c>
       <c r="K60" s="3">
         <v>6491100</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7046500</v>
+        <v>6977400</v>
       </c>
       <c r="E61" s="3">
-        <v>7020500</v>
+        <v>6951700</v>
       </c>
       <c r="F61" s="3">
-        <v>7122200</v>
+        <v>7052400</v>
       </c>
       <c r="G61" s="3">
-        <v>7423900</v>
+        <v>7351100</v>
       </c>
       <c r="H61" s="3">
-        <v>7820200</v>
+        <v>7743500</v>
       </c>
       <c r="I61" s="3">
-        <v>5150300</v>
+        <v>5099800</v>
       </c>
       <c r="J61" s="3">
-        <v>6823000</v>
+        <v>6756100</v>
       </c>
       <c r="K61" s="3">
         <v>6066600</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1205400</v>
+        <v>1193600</v>
       </c>
       <c r="E62" s="3">
-        <v>1124900</v>
+        <v>1113900</v>
       </c>
       <c r="F62" s="3">
-        <v>1374500</v>
+        <v>1361100</v>
       </c>
       <c r="G62" s="3">
-        <v>1649000</v>
+        <v>1632800</v>
       </c>
       <c r="H62" s="3">
-        <v>1768400</v>
+        <v>1751100</v>
       </c>
       <c r="I62" s="3">
-        <v>1535400</v>
+        <v>1520300</v>
       </c>
       <c r="J62" s="3">
-        <v>1632400</v>
+        <v>1616400</v>
       </c>
       <c r="K62" s="3">
         <v>1642000</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13752400</v>
+        <v>13617500</v>
       </c>
       <c r="E66" s="3">
-        <v>12569500</v>
+        <v>12446200</v>
       </c>
       <c r="F66" s="3">
-        <v>12904300</v>
+        <v>12777700</v>
       </c>
       <c r="G66" s="3">
-        <v>14249200</v>
+        <v>14109500</v>
       </c>
       <c r="H66" s="3">
-        <v>15241700</v>
+        <v>15092200</v>
       </c>
       <c r="I66" s="3">
-        <v>13748800</v>
+        <v>13614000</v>
       </c>
       <c r="J66" s="3">
-        <v>14056400</v>
+        <v>13918600</v>
       </c>
       <c r="K66" s="3">
         <v>14236200</v>
@@ -3784,25 +3784,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2428500</v>
+        <v>2404700</v>
       </c>
       <c r="E72" s="3">
-        <v>2461600</v>
+        <v>2437500</v>
       </c>
       <c r="F72" s="3">
-        <v>1715200</v>
+        <v>1698400</v>
       </c>
       <c r="G72" s="3">
-        <v>1436000</v>
+        <v>1422000</v>
       </c>
       <c r="H72" s="3">
-        <v>927400</v>
+        <v>918300</v>
       </c>
       <c r="I72" s="3">
-        <v>1158100</v>
+        <v>1146700</v>
       </c>
       <c r="J72" s="3">
-        <v>1358000</v>
+        <v>1344700</v>
       </c>
       <c r="K72" s="3">
         <v>1200400</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4320000</v>
+        <v>4277600</v>
       </c>
       <c r="E76" s="3">
-        <v>3823100</v>
+        <v>3785600</v>
       </c>
       <c r="F76" s="3">
-        <v>2862600</v>
+        <v>2834500</v>
       </c>
       <c r="G76" s="3">
-        <v>2482900</v>
+        <v>2458600</v>
       </c>
       <c r="H76" s="3">
-        <v>2459200</v>
+        <v>2435100</v>
       </c>
       <c r="I76" s="3">
-        <v>2562200</v>
+        <v>2537000</v>
       </c>
       <c r="J76" s="3">
-        <v>2608300</v>
+        <v>2582700</v>
       </c>
       <c r="K76" s="3">
         <v>2841100</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>900200</v>
+        <v>891400</v>
       </c>
       <c r="E81" s="3">
-        <v>954600</v>
+        <v>945200</v>
       </c>
       <c r="F81" s="3">
-        <v>785400</v>
+        <v>777700</v>
       </c>
       <c r="G81" s="3">
-        <v>799600</v>
+        <v>791800</v>
       </c>
       <c r="H81" s="3">
-        <v>648200</v>
+        <v>641900</v>
       </c>
       <c r="I81" s="3">
-        <v>858800</v>
+        <v>850400</v>
       </c>
       <c r="J81" s="3">
-        <v>921500</v>
+        <v>912400</v>
       </c>
       <c r="K81" s="3">
         <v>907600</v>
@@ -4234,25 +4234,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>230700</v>
+        <v>228400</v>
       </c>
       <c r="E83" s="3">
-        <v>261400</v>
+        <v>258900</v>
       </c>
       <c r="F83" s="3">
-        <v>246000</v>
+        <v>243600</v>
       </c>
       <c r="G83" s="3">
-        <v>344200</v>
+        <v>340800</v>
       </c>
       <c r="H83" s="3">
-        <v>275600</v>
+        <v>272900</v>
       </c>
       <c r="I83" s="3">
-        <v>257900</v>
+        <v>255300</v>
       </c>
       <c r="J83" s="3">
-        <v>255500</v>
+        <v>253000</v>
       </c>
       <c r="K83" s="3">
         <v>265900</v>
@@ -4552,25 +4552,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1315400</v>
+        <v>1302500</v>
       </c>
       <c r="E89" s="3">
-        <v>1128500</v>
+        <v>1117400</v>
       </c>
       <c r="F89" s="3">
-        <v>1256200</v>
+        <v>1243900</v>
       </c>
       <c r="G89" s="3">
-        <v>960500</v>
+        <v>951100</v>
       </c>
       <c r="H89" s="3">
-        <v>927400</v>
+        <v>918300</v>
       </c>
       <c r="I89" s="3">
-        <v>1310700</v>
+        <v>1297800</v>
       </c>
       <c r="J89" s="3">
-        <v>1160400</v>
+        <v>1149000</v>
       </c>
       <c r="K89" s="3">
         <v>1319900</v>
@@ -4626,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="E91" s="3">
-        <v>-21300</v>
+        <v>-21100</v>
       </c>
       <c r="F91" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="G91" s="3">
-        <v>-33100</v>
+        <v>-32800</v>
       </c>
       <c r="H91" s="3">
-        <v>-17700</v>
+        <v>-17600</v>
       </c>
       <c r="I91" s="3">
-        <v>-30800</v>
+        <v>-30500</v>
       </c>
       <c r="J91" s="3">
-        <v>-24800</v>
+        <v>-24600</v>
       </c>
       <c r="K91" s="3">
         <v>-42700</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-636400</v>
+        <v>-630200</v>
       </c>
       <c r="E94" s="3">
-        <v>-455400</v>
+        <v>-451000</v>
       </c>
       <c r="F94" s="3">
         <v>1200</v>
       </c>
       <c r="G94" s="3">
-        <v>-356100</v>
+        <v>-352600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1031500</v>
+        <v>-1021400</v>
       </c>
       <c r="I94" s="3">
-        <v>-401000</v>
+        <v>-397100</v>
       </c>
       <c r="J94" s="3">
-        <v>-466100</v>
+        <v>-461500</v>
       </c>
       <c r="K94" s="3">
         <v>-551400</v>
@@ -4859,25 +4859,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-806700</v>
+        <v>-798800</v>
       </c>
       <c r="E96" s="3">
-        <v>-338300</v>
+        <v>-335000</v>
       </c>
       <c r="F96" s="3">
-        <v>-750000</v>
+        <v>-742600</v>
       </c>
       <c r="G96" s="3">
-        <v>-311100</v>
+        <v>-308100</v>
       </c>
       <c r="H96" s="3">
-        <v>-729800</v>
+        <v>-722700</v>
       </c>
       <c r="I96" s="3">
-        <v>-312300</v>
+        <v>-309200</v>
       </c>
       <c r="J96" s="3">
-        <v>-683700</v>
+        <v>-677000</v>
       </c>
       <c r="K96" s="3">
         <v>-302500</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-699100</v>
+        <v>-692200</v>
       </c>
       <c r="E100" s="3">
-        <v>-617500</v>
+        <v>-611400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1282300</v>
+        <v>-1269700</v>
       </c>
       <c r="G100" s="3">
-        <v>-725100</v>
+        <v>-718000</v>
       </c>
       <c r="H100" s="3">
-        <v>164400</v>
+        <v>162800</v>
       </c>
       <c r="I100" s="3">
-        <v>-880100</v>
+        <v>-871400</v>
       </c>
       <c r="J100" s="3">
-        <v>-692000</v>
+        <v>-685200</v>
       </c>
       <c r="K100" s="3">
         <v>-758800</v>
@@ -5124,7 +5124,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5136,13 +5136,13 @@
         <v>-5900</v>
       </c>
       <c r="H101" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="I101" s="3">
         <v>-5900</v>
       </c>
       <c r="J101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K101" s="3">
         <v>1200</v>
@@ -5177,22 +5177,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="E102" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="F102" s="3">
-        <v>-26000</v>
+        <v>-25800</v>
       </c>
       <c r="G102" s="3">
-        <v>-126600</v>
+        <v>-125300</v>
       </c>
       <c r="H102" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="I102" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="J102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4648900</v>
+        <v>5466500</v>
       </c>
       <c r="E8" s="3">
-        <v>4509500</v>
+        <v>4733100</v>
       </c>
       <c r="F8" s="3">
-        <v>3975400</v>
+        <v>4591200</v>
       </c>
       <c r="G8" s="3">
-        <v>4227200</v>
+        <v>4047400</v>
       </c>
       <c r="H8" s="3">
-        <v>4100700</v>
+        <v>4303800</v>
       </c>
       <c r="I8" s="3">
-        <v>4668800</v>
+        <v>4175000</v>
       </c>
       <c r="J8" s="3">
+        <v>4753300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4554000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4683200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4862500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5146800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4931500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4473200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4210700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3922100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3903000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3852900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1644500</v>
+        <v>1956900</v>
       </c>
       <c r="E9" s="3">
-        <v>1629300</v>
+        <v>1674300</v>
       </c>
       <c r="F9" s="3">
-        <v>1371600</v>
+        <v>1658800</v>
       </c>
       <c r="G9" s="3">
-        <v>1445400</v>
+        <v>1396400</v>
       </c>
       <c r="H9" s="3">
-        <v>1467600</v>
+        <v>1471600</v>
       </c>
       <c r="I9" s="3">
-        <v>1626900</v>
+        <v>1494200</v>
       </c>
       <c r="J9" s="3">
+        <v>1656400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1640800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1729100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1802900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1802700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1617100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1519100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1445200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1344400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1355000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3004400</v>
+        <v>3509600</v>
       </c>
       <c r="E10" s="3">
-        <v>2880200</v>
+        <v>3058800</v>
       </c>
       <c r="F10" s="3">
-        <v>2603800</v>
+        <v>2932400</v>
       </c>
       <c r="G10" s="3">
-        <v>2781800</v>
+        <v>2650900</v>
       </c>
       <c r="H10" s="3">
-        <v>2633100</v>
+        <v>2832200</v>
       </c>
       <c r="I10" s="3">
-        <v>3041900</v>
+        <v>2680800</v>
       </c>
       <c r="J10" s="3">
+        <v>3096900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2954000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3042400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3133400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3343900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3128800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2856100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2691600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2476900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2558500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2498000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,61 +1049,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5900</v>
+        <v>4800</v>
       </c>
       <c r="E14" s="3">
-        <v>-18700</v>
+        <v>6000</v>
       </c>
       <c r="F14" s="3">
-        <v>-45700</v>
+        <v>-19100</v>
       </c>
       <c r="G14" s="3">
-        <v>145200</v>
+        <v>-46500</v>
       </c>
       <c r="H14" s="3">
-        <v>-7000</v>
+        <v>147900</v>
       </c>
       <c r="I14" s="3">
-        <v>7000</v>
+        <v>-7200</v>
       </c>
       <c r="J14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-66800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>43900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-30600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>44300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-50900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>65800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3388600</v>
+        <v>3990100</v>
       </c>
       <c r="E17" s="3">
-        <v>3291400</v>
+        <v>3449900</v>
       </c>
       <c r="F17" s="3">
-        <v>2922400</v>
+        <v>3351000</v>
       </c>
       <c r="G17" s="3">
-        <v>3170700</v>
+        <v>2975300</v>
       </c>
       <c r="H17" s="3">
-        <v>3218700</v>
+        <v>3228100</v>
       </c>
       <c r="I17" s="3">
-        <v>3442500</v>
+        <v>3277000</v>
       </c>
       <c r="J17" s="3">
+        <v>3504800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3259700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3513300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3568700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3795300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3646700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3427500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3146700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2879900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2998300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2919300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1260300</v>
+        <v>1476300</v>
       </c>
       <c r="E18" s="3">
-        <v>1218200</v>
+        <v>1283100</v>
       </c>
       <c r="F18" s="3">
-        <v>1053000</v>
+        <v>1240200</v>
       </c>
       <c r="G18" s="3">
-        <v>1056500</v>
+        <v>1072100</v>
       </c>
       <c r="H18" s="3">
-        <v>882000</v>
+        <v>1075600</v>
       </c>
       <c r="I18" s="3">
-        <v>1226400</v>
+        <v>898000</v>
       </c>
       <c r="J18" s="3">
+        <v>1248600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1294300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1169900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1293800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1351400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1284800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1045600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1064000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1042100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>904600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,114 +1316,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-91400</v>
+        <v>-146700</v>
       </c>
       <c r="E20" s="3">
-        <v>-79600</v>
+        <v>-93000</v>
       </c>
       <c r="F20" s="3">
-        <v>-86700</v>
+        <v>-81100</v>
       </c>
       <c r="G20" s="3">
-        <v>-99600</v>
+        <v>-88200</v>
       </c>
       <c r="H20" s="3">
-        <v>-101900</v>
+        <v>-101400</v>
       </c>
       <c r="I20" s="3">
-        <v>-236600</v>
+        <v>-103700</v>
       </c>
       <c r="J20" s="3">
+        <v>-240900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-120600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-135400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-133100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-135900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-137100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-151500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-116400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-114800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-113200</v>
       </c>
       <c r="S20" s="3">
         <v>-113200</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-113200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1602300</v>
+        <v>1824500</v>
       </c>
       <c r="E21" s="3">
-        <v>1576600</v>
+        <v>1631400</v>
       </c>
       <c r="F21" s="3">
-        <v>1376300</v>
+        <v>1605100</v>
       </c>
       <c r="G21" s="3">
-        <v>1513300</v>
+        <v>1401200</v>
       </c>
       <c r="H21" s="3">
-        <v>1211100</v>
+        <v>1540700</v>
       </c>
       <c r="I21" s="3">
-        <v>1399700</v>
+        <v>1233100</v>
       </c>
       <c r="J21" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1563700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1451700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1572000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1641500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1620300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1379400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1273000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1127200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1169300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,114 +1482,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1169000</v>
+        <v>1329600</v>
       </c>
       <c r="E23" s="3">
-        <v>1138500</v>
+        <v>1190100</v>
       </c>
       <c r="F23" s="3">
-        <v>966300</v>
+        <v>1159100</v>
       </c>
       <c r="G23" s="3">
-        <v>957000</v>
+        <v>983800</v>
       </c>
       <c r="H23" s="3">
-        <v>780100</v>
+        <v>974300</v>
       </c>
       <c r="I23" s="3">
-        <v>989700</v>
+        <v>794200</v>
       </c>
       <c r="J23" s="3">
+        <v>1007700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1173600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1034500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1160700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1215600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1147700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>894100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>947600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>927400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>791400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>278800</v>
+        <v>289800</v>
       </c>
       <c r="E24" s="3">
-        <v>189800</v>
+        <v>283800</v>
       </c>
       <c r="F24" s="3">
-        <v>192100</v>
+        <v>193200</v>
       </c>
       <c r="G24" s="3">
-        <v>176900</v>
+        <v>195600</v>
       </c>
       <c r="H24" s="3">
-        <v>145200</v>
+        <v>180100</v>
       </c>
       <c r="I24" s="3">
-        <v>134700</v>
+        <v>147900</v>
       </c>
       <c r="J24" s="3">
+        <v>137100</v>
+      </c>
+      <c r="K24" s="3">
         <v>261200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>131700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>255600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>329700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>237000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>157600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>223700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>212600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>177800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>890200</v>
+        <v>1039900</v>
       </c>
       <c r="E26" s="3">
-        <v>948800</v>
+        <v>906300</v>
       </c>
       <c r="F26" s="3">
-        <v>774200</v>
+        <v>965900</v>
       </c>
       <c r="G26" s="3">
-        <v>780100</v>
+        <v>788200</v>
       </c>
       <c r="H26" s="3">
-        <v>634800</v>
+        <v>794200</v>
       </c>
       <c r="I26" s="3">
-        <v>855000</v>
+        <v>646300</v>
       </c>
       <c r="J26" s="3">
+        <v>870500</v>
+      </c>
+      <c r="K26" s="3">
         <v>912400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>902700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>905100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>885900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>910700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>736500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>724000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>714800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>613600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>663700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>891400</v>
+        <v>1041100</v>
       </c>
       <c r="E27" s="3">
-        <v>945200</v>
+        <v>907500</v>
       </c>
       <c r="F27" s="3">
-        <v>777700</v>
+        <v>962400</v>
       </c>
       <c r="G27" s="3">
         <v>791800</v>
       </c>
       <c r="H27" s="3">
-        <v>641900</v>
+        <v>806100</v>
       </c>
       <c r="I27" s="3">
-        <v>850400</v>
+        <v>653500</v>
       </c>
       <c r="J27" s="3">
+        <v>865800</v>
+      </c>
+      <c r="K27" s="3">
         <v>912400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>897800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>902500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>877400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>908000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>729100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>721400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>709500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>611000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1786,17 +1847,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>9800</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>489600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1807,14 +1868,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>91400</v>
+        <v>146700</v>
       </c>
       <c r="E32" s="3">
-        <v>79600</v>
+        <v>93000</v>
       </c>
       <c r="F32" s="3">
-        <v>86700</v>
+        <v>81100</v>
       </c>
       <c r="G32" s="3">
-        <v>99600</v>
+        <v>88200</v>
       </c>
       <c r="H32" s="3">
-        <v>101900</v>
+        <v>101400</v>
       </c>
       <c r="I32" s="3">
-        <v>236600</v>
+        <v>103700</v>
       </c>
       <c r="J32" s="3">
+        <v>240900</v>
+      </c>
+      <c r="K32" s="3">
         <v>120600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>135400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>133100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>135900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>137100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>151500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>116400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>114800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>113200</v>
       </c>
       <c r="S32" s="3">
         <v>113200</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>891400</v>
+        <v>1041100</v>
       </c>
       <c r="E33" s="3">
-        <v>945200</v>
+        <v>907500</v>
       </c>
       <c r="F33" s="3">
-        <v>777700</v>
+        <v>962400</v>
       </c>
       <c r="G33" s="3">
         <v>791800</v>
       </c>
       <c r="H33" s="3">
-        <v>641900</v>
+        <v>806100</v>
       </c>
       <c r="I33" s="3">
-        <v>850400</v>
+        <v>653500</v>
       </c>
       <c r="J33" s="3">
+        <v>865800</v>
+      </c>
+      <c r="K33" s="3">
         <v>912400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>907600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>902500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1367000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>908000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>729100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>721400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>709500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>611000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>891400</v>
+        <v>1041100</v>
       </c>
       <c r="E35" s="3">
-        <v>945200</v>
+        <v>907500</v>
       </c>
       <c r="F35" s="3">
-        <v>777700</v>
+        <v>962400</v>
       </c>
       <c r="G35" s="3">
         <v>791800</v>
       </c>
       <c r="H35" s="3">
-        <v>641900</v>
+        <v>806100</v>
       </c>
       <c r="I35" s="3">
-        <v>850400</v>
+        <v>653500</v>
       </c>
       <c r="J35" s="3">
+        <v>865800</v>
+      </c>
+      <c r="K35" s="3">
         <v>912400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>907600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>902500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1367000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>908000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>729100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>721400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>709500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>611000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>119500</v>
+        <v>398300</v>
       </c>
       <c r="E41" s="3">
-        <v>132400</v>
+        <v>121600</v>
       </c>
       <c r="F41" s="3">
-        <v>77300</v>
+        <v>134800</v>
       </c>
       <c r="G41" s="3">
-        <v>103100</v>
+        <v>78700</v>
       </c>
       <c r="H41" s="3">
-        <v>228400</v>
+        <v>104900</v>
       </c>
       <c r="I41" s="3">
-        <v>161600</v>
+        <v>232500</v>
       </c>
       <c r="J41" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K41" s="3">
         <v>138200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>139100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>157100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>213000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>199500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>272800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>159100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>189600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,379 +2427,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2316800</v>
+        <v>2868000</v>
       </c>
       <c r="E43" s="3">
-        <v>2295700</v>
+        <v>2358800</v>
       </c>
       <c r="F43" s="3">
-        <v>1910400</v>
+        <v>2337300</v>
       </c>
       <c r="G43" s="3">
-        <v>2257100</v>
+        <v>1945000</v>
       </c>
       <c r="H43" s="3">
-        <v>2110700</v>
+        <v>2298000</v>
       </c>
       <c r="I43" s="3">
-        <v>2421100</v>
+        <v>2148900</v>
       </c>
       <c r="J43" s="3">
+        <v>2464900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2063800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2458100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2140400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2650500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2168900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2481700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1910800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2088200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1677600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1958100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>336200</v>
+        <v>368500</v>
       </c>
       <c r="E44" s="3">
-        <v>296300</v>
+        <v>342300</v>
       </c>
       <c r="F44" s="3">
+        <v>301700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>283800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>286200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>282600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>258800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>250700</v>
+      </c>
+      <c r="L44" s="3">
+        <v>258600</v>
+      </c>
+      <c r="M44" s="3">
+        <v>264900</v>
+      </c>
+      <c r="N44" s="3">
         <v>278800</v>
       </c>
-      <c r="G44" s="3">
-        <v>281100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>277600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>254200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>250700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>258600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>264900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>278800</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>268900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>257400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>243000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>206100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>193600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23400</v>
+        <v>25000</v>
       </c>
       <c r="E45" s="3">
-        <v>36300</v>
+        <v>23900</v>
       </c>
       <c r="F45" s="3">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="G45" s="3">
-        <v>22300</v>
+        <v>34600</v>
       </c>
       <c r="H45" s="3">
-        <v>15200</v>
+        <v>22700</v>
       </c>
       <c r="I45" s="3">
-        <v>26900</v>
+        <v>15500</v>
       </c>
       <c r="J45" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K45" s="3">
         <v>19900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2795900</v>
+        <v>3659800</v>
       </c>
       <c r="E46" s="3">
-        <v>2760800</v>
+        <v>2846500</v>
       </c>
       <c r="F46" s="3">
-        <v>2300400</v>
+        <v>2810700</v>
       </c>
       <c r="G46" s="3">
-        <v>2663500</v>
+        <v>2342100</v>
       </c>
       <c r="H46" s="3">
-        <v>2631900</v>
+        <v>2711800</v>
       </c>
       <c r="I46" s="3">
-        <v>2863800</v>
+        <v>2679600</v>
       </c>
       <c r="J46" s="3">
+        <v>2915700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2472600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2868000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2574300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3127400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2673500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2963200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2443400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2493800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2113400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2549300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>282300</v>
+        <v>347000</v>
       </c>
       <c r="E47" s="3">
-        <v>270600</v>
+        <v>287400</v>
       </c>
       <c r="F47" s="3">
-        <v>277600</v>
+        <v>275500</v>
       </c>
       <c r="G47" s="3">
-        <v>455600</v>
+        <v>282600</v>
       </c>
       <c r="H47" s="3">
-        <v>352600</v>
+        <v>463900</v>
       </c>
       <c r="I47" s="3">
-        <v>330300</v>
+        <v>358900</v>
       </c>
       <c r="J47" s="3">
+        <v>336300</v>
+      </c>
+      <c r="K47" s="3">
         <v>384200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>311100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>326100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>343900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>312900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>294400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>334800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>315600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>256800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>312100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>336200</v>
+        <v>323200</v>
       </c>
       <c r="E48" s="3">
-        <v>342000</v>
+        <v>342300</v>
       </c>
       <c r="F48" s="3">
-        <v>384200</v>
+        <v>348200</v>
       </c>
       <c r="G48" s="3">
-        <v>442800</v>
+        <v>391100</v>
       </c>
       <c r="H48" s="3">
-        <v>506000</v>
+        <v>450800</v>
       </c>
       <c r="I48" s="3">
-        <v>520100</v>
+        <v>515200</v>
       </c>
       <c r="J48" s="3">
+        <v>529500</v>
+      </c>
+      <c r="K48" s="3">
         <v>538800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>562400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>624300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>680700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>676400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>676100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>298600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>298700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>280500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>298900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13953700</v>
+        <v>14205200</v>
       </c>
       <c r="E49" s="3">
-        <v>12497800</v>
+        <v>14206400</v>
       </c>
       <c r="F49" s="3">
-        <v>12201400</v>
+        <v>12724100</v>
       </c>
       <c r="G49" s="3">
-        <v>12473200</v>
+        <v>12422400</v>
       </c>
       <c r="H49" s="3">
-        <v>13532000</v>
+        <v>12699000</v>
       </c>
       <c r="I49" s="3">
-        <v>12036300</v>
+        <v>13777100</v>
       </c>
       <c r="J49" s="3">
+        <v>12254200</v>
+      </c>
+      <c r="K49" s="3">
         <v>12443900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12727200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13285700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12961000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12571100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12311100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11882200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10939200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10435600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10725300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>527100</v>
+        <v>341100</v>
       </c>
       <c r="E52" s="3">
-        <v>360800</v>
+        <v>536600</v>
       </c>
       <c r="F52" s="3">
-        <v>448600</v>
+        <v>367300</v>
       </c>
       <c r="G52" s="3">
-        <v>532900</v>
+        <v>456700</v>
       </c>
       <c r="H52" s="3">
-        <v>504800</v>
+        <v>542600</v>
       </c>
       <c r="I52" s="3">
-        <v>400600</v>
+        <v>514000</v>
       </c>
       <c r="J52" s="3">
+        <v>407800</v>
+      </c>
+      <c r="K52" s="3">
         <v>661800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>608700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>668200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>762700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>705600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>645400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>650300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>541300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>680800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17895100</v>
+        <v>18876200</v>
       </c>
       <c r="E54" s="3">
-        <v>16231900</v>
+        <v>18219200</v>
       </c>
       <c r="F54" s="3">
-        <v>15612300</v>
+        <v>16525800</v>
       </c>
       <c r="G54" s="3">
-        <v>16568000</v>
+        <v>15895000</v>
       </c>
       <c r="H54" s="3">
-        <v>17527300</v>
+        <v>16868100</v>
       </c>
       <c r="I54" s="3">
-        <v>16151100</v>
+        <v>17844700</v>
       </c>
       <c r="J54" s="3">
+        <v>16443500</v>
+      </c>
+      <c r="K54" s="3">
         <v>16501300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17077400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17478700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17875700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16939400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16890200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15609400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14588700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13767000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14599300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4025800</v>
+        <v>4790300</v>
       </c>
       <c r="E57" s="3">
-        <v>3836000</v>
+        <v>4098700</v>
       </c>
       <c r="F57" s="3">
-        <v>3570100</v>
+        <v>3905500</v>
       </c>
       <c r="G57" s="3">
-        <v>3818400</v>
+        <v>3634800</v>
       </c>
       <c r="H57" s="3">
-        <v>3754000</v>
+        <v>3887600</v>
       </c>
       <c r="I57" s="3">
-        <v>4075000</v>
+        <v>3822000</v>
       </c>
       <c r="J57" s="3">
+        <v>4148700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3639200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4186700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3884100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4667000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3954300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4284700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3529400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3783800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2983800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3471100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1103400</v>
+        <v>1037500</v>
       </c>
       <c r="E58" s="3">
-        <v>271700</v>
+        <v>1123300</v>
       </c>
       <c r="F58" s="3">
-        <v>531800</v>
+        <v>276700</v>
       </c>
       <c r="G58" s="3">
-        <v>992100</v>
+        <v>541400</v>
       </c>
       <c r="H58" s="3">
-        <v>1425500</v>
+        <v>1010100</v>
       </c>
       <c r="I58" s="3">
-        <v>2412900</v>
+        <v>1451300</v>
       </c>
       <c r="J58" s="3">
+        <v>2456600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1296600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1698100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1622600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1078300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1030500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1439700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1129900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>813900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>539900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>890200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>331500</v>
+        <v>357800</v>
       </c>
       <c r="E59" s="3">
-        <v>282300</v>
+        <v>337500</v>
       </c>
       <c r="F59" s="3">
-        <v>270600</v>
+        <v>287400</v>
       </c>
       <c r="G59" s="3">
-        <v>312700</v>
+        <v>275500</v>
       </c>
       <c r="H59" s="3">
-        <v>397100</v>
+        <v>318400</v>
       </c>
       <c r="I59" s="3">
-        <v>477900</v>
+        <v>404300</v>
       </c>
       <c r="J59" s="3">
+        <v>486500</v>
+      </c>
+      <c r="K59" s="3">
         <v>578600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>606300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>797300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>854700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>853400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>879400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>897200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>849100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>754500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5460600</v>
+        <v>6185500</v>
       </c>
       <c r="E60" s="3">
-        <v>4390000</v>
+        <v>5559500</v>
       </c>
       <c r="F60" s="3">
-        <v>4372500</v>
+        <v>4469500</v>
       </c>
       <c r="G60" s="3">
-        <v>5123300</v>
+        <v>4451600</v>
       </c>
       <c r="H60" s="3">
-        <v>5576600</v>
+        <v>5216000</v>
       </c>
       <c r="I60" s="3">
-        <v>6965700</v>
+        <v>5677500</v>
       </c>
       <c r="J60" s="3">
+        <v>7091900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5514500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6491100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6304100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6600100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5838200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6603800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5556500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5446800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4278300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5182900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6977400</v>
+        <v>6988100</v>
       </c>
       <c r="E61" s="3">
-        <v>6951700</v>
+        <v>7103800</v>
       </c>
       <c r="F61" s="3">
-        <v>7052400</v>
+        <v>7077500</v>
       </c>
       <c r="G61" s="3">
-        <v>7351100</v>
+        <v>7180100</v>
       </c>
       <c r="H61" s="3">
-        <v>7743500</v>
+        <v>7484200</v>
       </c>
       <c r="I61" s="3">
-        <v>5099800</v>
+        <v>7883700</v>
       </c>
       <c r="J61" s="3">
+        <v>5192200</v>
+      </c>
+      <c r="K61" s="3">
         <v>6756100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6066600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6868500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6355300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6414700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5033500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5098800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4275500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4669300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1193600</v>
+        <v>1225900</v>
       </c>
       <c r="E62" s="3">
-        <v>1113900</v>
+        <v>1215200</v>
       </c>
       <c r="F62" s="3">
-        <v>1361100</v>
+        <v>1134100</v>
       </c>
       <c r="G62" s="3">
-        <v>1632800</v>
+        <v>1385700</v>
       </c>
       <c r="H62" s="3">
-        <v>1751100</v>
+        <v>1662400</v>
       </c>
       <c r="I62" s="3">
-        <v>1520300</v>
+        <v>1782800</v>
       </c>
       <c r="J62" s="3">
+        <v>1547900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1616400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1642000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1426900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1647200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2214100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2410200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2356800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2025600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2416300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2455800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13617500</v>
+        <v>14373300</v>
       </c>
       <c r="E66" s="3">
-        <v>12446200</v>
+        <v>13864100</v>
       </c>
       <c r="F66" s="3">
-        <v>12777700</v>
+        <v>12671600</v>
       </c>
       <c r="G66" s="3">
-        <v>14109500</v>
+        <v>13009100</v>
       </c>
       <c r="H66" s="3">
-        <v>15092200</v>
+        <v>14365000</v>
       </c>
       <c r="I66" s="3">
-        <v>13614000</v>
+        <v>15365500</v>
       </c>
       <c r="J66" s="3">
+        <v>13860500</v>
+      </c>
+      <c r="K66" s="3">
         <v>13918600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14236200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14623500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14632200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14512300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14094400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13060000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11792300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11406000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11826100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2404700</v>
+        <v>2047500</v>
       </c>
       <c r="E72" s="3">
-        <v>2437500</v>
+        <v>2448200</v>
       </c>
       <c r="F72" s="3">
-        <v>1698400</v>
+        <v>2481600</v>
       </c>
       <c r="G72" s="3">
-        <v>1422000</v>
+        <v>1729100</v>
       </c>
       <c r="H72" s="3">
-        <v>918300</v>
+        <v>1447700</v>
       </c>
       <c r="I72" s="3">
-        <v>1146700</v>
+        <v>934900</v>
       </c>
       <c r="J72" s="3">
+        <v>1167500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1344700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1200400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>824000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>601400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-264800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>262400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>444800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>184400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4277600</v>
+        <v>4502900</v>
       </c>
       <c r="E76" s="3">
-        <v>3785600</v>
+        <v>4355000</v>
       </c>
       <c r="F76" s="3">
-        <v>2834500</v>
+        <v>3854200</v>
       </c>
       <c r="G76" s="3">
-        <v>2458600</v>
+        <v>2885900</v>
       </c>
       <c r="H76" s="3">
-        <v>2435100</v>
+        <v>2503100</v>
       </c>
       <c r="I76" s="3">
-        <v>2537000</v>
+        <v>2479200</v>
       </c>
       <c r="J76" s="3">
+        <v>2583000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2582700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2841100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2855200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3243400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2427100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2795700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2549400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2796400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2361000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2773200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>891400</v>
+        <v>1041100</v>
       </c>
       <c r="E81" s="3">
-        <v>945200</v>
+        <v>907500</v>
       </c>
       <c r="F81" s="3">
-        <v>777700</v>
+        <v>962400</v>
       </c>
       <c r="G81" s="3">
         <v>791800</v>
       </c>
       <c r="H81" s="3">
-        <v>641900</v>
+        <v>806100</v>
       </c>
       <c r="I81" s="3">
-        <v>850400</v>
+        <v>653500</v>
       </c>
       <c r="J81" s="3">
+        <v>865800</v>
+      </c>
+      <c r="K81" s="3">
         <v>912400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>907600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>902500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1367000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>908000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>729100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>721400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>709500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>611000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>228400</v>
+        <v>267100</v>
       </c>
       <c r="E83" s="3">
-        <v>258900</v>
+        <v>232500</v>
       </c>
       <c r="F83" s="3">
-        <v>243600</v>
+        <v>263500</v>
       </c>
       <c r="G83" s="3">
-        <v>340800</v>
+        <v>248000</v>
       </c>
       <c r="H83" s="3">
-        <v>272900</v>
+        <v>347000</v>
       </c>
       <c r="I83" s="3">
-        <v>255300</v>
+        <v>277900</v>
       </c>
       <c r="J83" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K83" s="3">
         <v>253000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>265900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>276900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>284400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>335500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>357200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>243000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>238700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>237000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1302500</v>
+        <v>1537100</v>
       </c>
       <c r="E89" s="3">
-        <v>1117400</v>
+        <v>1326100</v>
       </c>
       <c r="F89" s="3">
-        <v>1243900</v>
+        <v>1137700</v>
       </c>
       <c r="G89" s="3">
-        <v>951100</v>
+        <v>1266400</v>
       </c>
       <c r="H89" s="3">
-        <v>918300</v>
+        <v>968300</v>
       </c>
       <c r="I89" s="3">
-        <v>1297800</v>
+        <v>934900</v>
       </c>
       <c r="J89" s="3">
+        <v>1321300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1149000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1319900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1202000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1430700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1202300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1264900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>923100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1021300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>821700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>923100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15200</v>
+        <v>-27400</v>
       </c>
       <c r="E91" s="3">
-        <v>-21100</v>
+        <v>-15500</v>
       </c>
       <c r="F91" s="3">
-        <v>-11700</v>
+        <v>-21500</v>
       </c>
       <c r="G91" s="3">
-        <v>-32800</v>
+        <v>-11900</v>
       </c>
       <c r="H91" s="3">
-        <v>-17600</v>
+        <v>-33400</v>
       </c>
       <c r="I91" s="3">
-        <v>-30500</v>
+        <v>-17900</v>
       </c>
       <c r="J91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-53500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-376600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-630200</v>
+        <v>-382800</v>
       </c>
       <c r="E94" s="3">
-        <v>-451000</v>
+        <v>-641600</v>
       </c>
       <c r="F94" s="3">
+        <v>-459100</v>
+      </c>
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-352600</v>
-      </c>
       <c r="H94" s="3">
-        <v>-1021400</v>
+        <v>-358900</v>
       </c>
       <c r="I94" s="3">
-        <v>-397100</v>
+        <v>-1039900</v>
       </c>
       <c r="J94" s="3">
+        <v>-404300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-461500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-551400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1090200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-349500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-223700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-594900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-228800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-250400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-302900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-798800</v>
+        <v>-358900</v>
       </c>
       <c r="E96" s="3">
-        <v>-335000</v>
+        <v>-813300</v>
       </c>
       <c r="F96" s="3">
-        <v>-742600</v>
+        <v>-341100</v>
       </c>
       <c r="G96" s="3">
-        <v>-308100</v>
+        <v>-756100</v>
       </c>
       <c r="H96" s="3">
-        <v>-722700</v>
+        <v>-313600</v>
       </c>
       <c r="I96" s="3">
-        <v>-309200</v>
+        <v>-735800</v>
       </c>
       <c r="J96" s="3">
+        <v>-314800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-677000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-302500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-729400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-338200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-696300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-269700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-599900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-211300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-554400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-692200</v>
+        <v>-886000</v>
       </c>
       <c r="E100" s="3">
-        <v>-611400</v>
+        <v>-704800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1269700</v>
+        <v>-622500</v>
       </c>
       <c r="G100" s="3">
-        <v>-718000</v>
+        <v>-1292700</v>
       </c>
       <c r="H100" s="3">
-        <v>162800</v>
+        <v>-731000</v>
       </c>
       <c r="I100" s="3">
-        <v>-871400</v>
+        <v>165800</v>
       </c>
       <c r="J100" s="3">
+        <v>-887200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-685200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-758800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-121100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1092500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-930600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-639200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-628300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-795600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-676800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-266000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>8300</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H101" s="3">
-        <v>7000</v>
+        <v>-6000</v>
       </c>
       <c r="I101" s="3">
-        <v>-5900</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>49100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-15800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12900</v>
+        <v>276700</v>
       </c>
       <c r="E102" s="3">
-        <v>55100</v>
+        <v>-13100</v>
       </c>
       <c r="F102" s="3">
-        <v>-25800</v>
+        <v>56000</v>
       </c>
       <c r="G102" s="3">
-        <v>-125300</v>
+        <v>-26200</v>
       </c>
       <c r="H102" s="3">
-        <v>66800</v>
+        <v>-127600</v>
       </c>
       <c r="I102" s="3">
-        <v>23400</v>
+        <v>68000</v>
       </c>
       <c r="J102" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-69300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-60300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>115100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-173800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>159300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5466500</v>
+        <v>5687800</v>
       </c>
       <c r="E8" s="3">
-        <v>4733100</v>
+        <v>4924700</v>
       </c>
       <c r="F8" s="3">
-        <v>4591200</v>
+        <v>4777100</v>
       </c>
       <c r="G8" s="3">
-        <v>4047400</v>
+        <v>4211300</v>
       </c>
       <c r="H8" s="3">
-        <v>4303800</v>
+        <v>4478000</v>
       </c>
       <c r="I8" s="3">
-        <v>4175000</v>
+        <v>4344000</v>
       </c>
       <c r="J8" s="3">
-        <v>4753300</v>
+        <v>4945800</v>
       </c>
       <c r="K8" s="3">
         <v>4554000</v>
@@ -812,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1956900</v>
+        <v>2036200</v>
       </c>
       <c r="E9" s="3">
-        <v>1674300</v>
+        <v>1742100</v>
       </c>
       <c r="F9" s="3">
-        <v>1658800</v>
+        <v>1726000</v>
       </c>
       <c r="G9" s="3">
-        <v>1396400</v>
+        <v>1453000</v>
       </c>
       <c r="H9" s="3">
-        <v>1471600</v>
+        <v>1531100</v>
       </c>
       <c r="I9" s="3">
-        <v>1494200</v>
+        <v>1554700</v>
       </c>
       <c r="J9" s="3">
-        <v>1656400</v>
+        <v>1723500</v>
       </c>
       <c r="K9" s="3">
         <v>1600000</v>
@@ -868,25 +868,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3509600</v>
+        <v>3651700</v>
       </c>
       <c r="E10" s="3">
-        <v>3058800</v>
+        <v>3182700</v>
       </c>
       <c r="F10" s="3">
-        <v>2932400</v>
+        <v>3051100</v>
       </c>
       <c r="G10" s="3">
-        <v>2650900</v>
+        <v>2758300</v>
       </c>
       <c r="H10" s="3">
-        <v>2832200</v>
+        <v>2946900</v>
       </c>
       <c r="I10" s="3">
-        <v>2680800</v>
+        <v>2789300</v>
       </c>
       <c r="J10" s="3">
-        <v>3096900</v>
+        <v>3222400</v>
       </c>
       <c r="K10" s="3">
         <v>2954000</v>
@@ -1058,25 +1058,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F14" s="3">
-        <v>-19100</v>
+        <v>-19900</v>
       </c>
       <c r="G14" s="3">
-        <v>-46500</v>
+        <v>-48400</v>
       </c>
       <c r="H14" s="3">
-        <v>147900</v>
+        <v>153900</v>
       </c>
       <c r="I14" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="J14" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="K14" s="3">
         <v>-66800</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3990100</v>
+        <v>4151700</v>
       </c>
       <c r="E17" s="3">
-        <v>3449900</v>
+        <v>3589600</v>
       </c>
       <c r="F17" s="3">
-        <v>3351000</v>
+        <v>3486600</v>
       </c>
       <c r="G17" s="3">
-        <v>2975300</v>
+        <v>3095800</v>
       </c>
       <c r="H17" s="3">
-        <v>3228100</v>
+        <v>3358800</v>
       </c>
       <c r="I17" s="3">
-        <v>3277000</v>
+        <v>3409700</v>
       </c>
       <c r="J17" s="3">
-        <v>3504800</v>
+        <v>3646700</v>
       </c>
       <c r="K17" s="3">
         <v>3259700</v>
@@ -1245,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1476300</v>
+        <v>1536100</v>
       </c>
       <c r="E18" s="3">
-        <v>1283100</v>
+        <v>1335100</v>
       </c>
       <c r="F18" s="3">
-        <v>1240200</v>
+        <v>1290400</v>
       </c>
       <c r="G18" s="3">
-        <v>1072100</v>
+        <v>1115500</v>
       </c>
       <c r="H18" s="3">
-        <v>1075600</v>
+        <v>1119200</v>
       </c>
       <c r="I18" s="3">
-        <v>898000</v>
+        <v>934300</v>
       </c>
       <c r="J18" s="3">
-        <v>1248600</v>
+        <v>1299100</v>
       </c>
       <c r="K18" s="3">
         <v>1294300</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-146700</v>
+        <v>-152600</v>
       </c>
       <c r="E20" s="3">
-        <v>-93000</v>
+        <v>-96800</v>
       </c>
       <c r="F20" s="3">
-        <v>-81100</v>
+        <v>-84400</v>
       </c>
       <c r="G20" s="3">
-        <v>-88200</v>
+        <v>-91800</v>
       </c>
       <c r="H20" s="3">
-        <v>-101400</v>
+        <v>-105500</v>
       </c>
       <c r="I20" s="3">
-        <v>-103700</v>
+        <v>-107900</v>
       </c>
       <c r="J20" s="3">
-        <v>-240900</v>
+        <v>-250600</v>
       </c>
       <c r="K20" s="3">
         <v>-120600</v>
@@ -1379,25 +1379,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1824500</v>
+        <v>1898400</v>
       </c>
       <c r="E21" s="3">
-        <v>1631400</v>
+        <v>1697400</v>
       </c>
       <c r="F21" s="3">
-        <v>1605100</v>
+        <v>1670100</v>
       </c>
       <c r="G21" s="3">
-        <v>1401200</v>
+        <v>1457900</v>
       </c>
       <c r="H21" s="3">
-        <v>1540700</v>
+        <v>1603100</v>
       </c>
       <c r="I21" s="3">
-        <v>1233100</v>
+        <v>1283000</v>
       </c>
       <c r="J21" s="3">
-        <v>1425000</v>
+        <v>1482800</v>
       </c>
       <c r="K21" s="3">
         <v>1563700</v>
@@ -1491,25 +1491,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1329600</v>
+        <v>1383500</v>
       </c>
       <c r="E23" s="3">
-        <v>1190100</v>
+        <v>1238300</v>
       </c>
       <c r="F23" s="3">
-        <v>1159100</v>
+        <v>1206100</v>
       </c>
       <c r="G23" s="3">
-        <v>983800</v>
+        <v>1023700</v>
       </c>
       <c r="H23" s="3">
-        <v>974300</v>
+        <v>1013700</v>
       </c>
       <c r="I23" s="3">
-        <v>794200</v>
+        <v>826400</v>
       </c>
       <c r="J23" s="3">
-        <v>1007700</v>
+        <v>1048500</v>
       </c>
       <c r="K23" s="3">
         <v>1173600</v>
@@ -1547,25 +1547,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>289800</v>
+        <v>301500</v>
       </c>
       <c r="E24" s="3">
-        <v>283800</v>
+        <v>295300</v>
       </c>
       <c r="F24" s="3">
-        <v>193200</v>
+        <v>201000</v>
       </c>
       <c r="G24" s="3">
-        <v>195600</v>
+        <v>203500</v>
       </c>
       <c r="H24" s="3">
-        <v>180100</v>
+        <v>187400</v>
       </c>
       <c r="I24" s="3">
-        <v>147900</v>
+        <v>153900</v>
       </c>
       <c r="J24" s="3">
-        <v>137100</v>
+        <v>142700</v>
       </c>
       <c r="K24" s="3">
         <v>261200</v>
@@ -1659,25 +1659,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1039900</v>
+        <v>1082000</v>
       </c>
       <c r="E26" s="3">
-        <v>906300</v>
+        <v>943000</v>
       </c>
       <c r="F26" s="3">
-        <v>965900</v>
+        <v>1005000</v>
       </c>
       <c r="G26" s="3">
-        <v>788200</v>
+        <v>820200</v>
       </c>
       <c r="H26" s="3">
-        <v>794200</v>
+        <v>826400</v>
       </c>
       <c r="I26" s="3">
-        <v>646300</v>
+        <v>672500</v>
       </c>
       <c r="J26" s="3">
-        <v>870500</v>
+        <v>905800</v>
       </c>
       <c r="K26" s="3">
         <v>912400</v>
@@ -1715,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1041100</v>
+        <v>1083200</v>
       </c>
       <c r="E27" s="3">
-        <v>907500</v>
+        <v>944200</v>
       </c>
       <c r="F27" s="3">
-        <v>962400</v>
+        <v>1001300</v>
       </c>
       <c r="G27" s="3">
-        <v>791800</v>
+        <v>823900</v>
       </c>
       <c r="H27" s="3">
-        <v>806100</v>
+        <v>838800</v>
       </c>
       <c r="I27" s="3">
-        <v>653500</v>
+        <v>680000</v>
       </c>
       <c r="J27" s="3">
-        <v>865800</v>
+        <v>900800</v>
       </c>
       <c r="K27" s="3">
         <v>912400</v>
@@ -1995,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>146700</v>
+        <v>152600</v>
       </c>
       <c r="E32" s="3">
-        <v>93000</v>
+        <v>96800</v>
       </c>
       <c r="F32" s="3">
-        <v>81100</v>
+        <v>84400</v>
       </c>
       <c r="G32" s="3">
-        <v>88200</v>
+        <v>91800</v>
       </c>
       <c r="H32" s="3">
-        <v>101400</v>
+        <v>105500</v>
       </c>
       <c r="I32" s="3">
-        <v>103700</v>
+        <v>107900</v>
       </c>
       <c r="J32" s="3">
-        <v>240900</v>
+        <v>250600</v>
       </c>
       <c r="K32" s="3">
         <v>120600</v>
@@ -2051,25 +2051,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1041100</v>
+        <v>1083200</v>
       </c>
       <c r="E33" s="3">
-        <v>907500</v>
+        <v>944200</v>
       </c>
       <c r="F33" s="3">
-        <v>962400</v>
+        <v>1001300</v>
       </c>
       <c r="G33" s="3">
-        <v>791800</v>
+        <v>823900</v>
       </c>
       <c r="H33" s="3">
-        <v>806100</v>
+        <v>838800</v>
       </c>
       <c r="I33" s="3">
-        <v>653500</v>
+        <v>680000</v>
       </c>
       <c r="J33" s="3">
-        <v>865800</v>
+        <v>900800</v>
       </c>
       <c r="K33" s="3">
         <v>912400</v>
@@ -2163,25 +2163,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1041100</v>
+        <v>1083200</v>
       </c>
       <c r="E35" s="3">
-        <v>907500</v>
+        <v>944200</v>
       </c>
       <c r="F35" s="3">
-        <v>962400</v>
+        <v>1001300</v>
       </c>
       <c r="G35" s="3">
-        <v>791800</v>
+        <v>823900</v>
       </c>
       <c r="H35" s="3">
-        <v>806100</v>
+        <v>838800</v>
       </c>
       <c r="I35" s="3">
-        <v>653500</v>
+        <v>680000</v>
       </c>
       <c r="J35" s="3">
-        <v>865800</v>
+        <v>900800</v>
       </c>
       <c r="K35" s="3">
         <v>912400</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>398300</v>
+        <v>414400</v>
       </c>
       <c r="E41" s="3">
-        <v>121600</v>
+        <v>126600</v>
       </c>
       <c r="F41" s="3">
-        <v>134800</v>
+        <v>140200</v>
       </c>
       <c r="G41" s="3">
-        <v>78700</v>
+        <v>81900</v>
       </c>
       <c r="H41" s="3">
-        <v>104900</v>
+        <v>109200</v>
       </c>
       <c r="I41" s="3">
-        <v>232500</v>
+        <v>242000</v>
       </c>
       <c r="J41" s="3">
-        <v>164600</v>
+        <v>171200</v>
       </c>
       <c r="K41" s="3">
         <v>138200</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2868000</v>
+        <v>2984100</v>
       </c>
       <c r="E43" s="3">
-        <v>2358800</v>
+        <v>2454300</v>
       </c>
       <c r="F43" s="3">
-        <v>2337300</v>
+        <v>2432000</v>
       </c>
       <c r="G43" s="3">
-        <v>1945000</v>
+        <v>2023700</v>
       </c>
       <c r="H43" s="3">
-        <v>2298000</v>
+        <v>2391000</v>
       </c>
       <c r="I43" s="3">
-        <v>2148900</v>
+        <v>2235900</v>
       </c>
       <c r="J43" s="3">
-        <v>2464900</v>
+        <v>2564700</v>
       </c>
       <c r="K43" s="3">
         <v>2063800</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>368500</v>
+        <v>383400</v>
       </c>
       <c r="E44" s="3">
-        <v>342300</v>
+        <v>356100</v>
       </c>
       <c r="F44" s="3">
-        <v>301700</v>
+        <v>313900</v>
       </c>
       <c r="G44" s="3">
-        <v>283800</v>
+        <v>295300</v>
       </c>
       <c r="H44" s="3">
-        <v>286200</v>
+        <v>297800</v>
       </c>
       <c r="I44" s="3">
-        <v>282600</v>
+        <v>294100</v>
       </c>
       <c r="J44" s="3">
-        <v>258800</v>
+        <v>269300</v>
       </c>
       <c r="K44" s="3">
         <v>250700</v>
@@ -2548,25 +2548,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="E45" s="3">
-        <v>23900</v>
+        <v>24800</v>
       </c>
       <c r="F45" s="3">
-        <v>37000</v>
+        <v>38500</v>
       </c>
       <c r="G45" s="3">
-        <v>34600</v>
+        <v>36000</v>
       </c>
       <c r="H45" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="I45" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="J45" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="K45" s="3">
         <v>19900</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3659800</v>
+        <v>3808000</v>
       </c>
       <c r="E46" s="3">
-        <v>2846500</v>
+        <v>2961800</v>
       </c>
       <c r="F46" s="3">
-        <v>2810700</v>
+        <v>2924600</v>
       </c>
       <c r="G46" s="3">
-        <v>2342100</v>
+        <v>2436900</v>
       </c>
       <c r="H46" s="3">
-        <v>2711800</v>
+        <v>2821600</v>
       </c>
       <c r="I46" s="3">
-        <v>2679600</v>
+        <v>2788100</v>
       </c>
       <c r="J46" s="3">
-        <v>2915700</v>
+        <v>3033800</v>
       </c>
       <c r="K46" s="3">
         <v>2472600</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>347000</v>
+        <v>361100</v>
       </c>
       <c r="E47" s="3">
-        <v>287400</v>
+        <v>299000</v>
       </c>
       <c r="F47" s="3">
-        <v>275500</v>
+        <v>286600</v>
       </c>
       <c r="G47" s="3">
-        <v>282600</v>
+        <v>294100</v>
       </c>
       <c r="H47" s="3">
-        <v>463900</v>
+        <v>482700</v>
       </c>
       <c r="I47" s="3">
-        <v>358900</v>
+        <v>373500</v>
       </c>
       <c r="J47" s="3">
-        <v>336300</v>
+        <v>349900</v>
       </c>
       <c r="K47" s="3">
         <v>384200</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>323200</v>
+        <v>336300</v>
       </c>
       <c r="E48" s="3">
-        <v>342300</v>
+        <v>356100</v>
       </c>
       <c r="F48" s="3">
-        <v>348200</v>
+        <v>362300</v>
       </c>
       <c r="G48" s="3">
-        <v>391100</v>
+        <v>407000</v>
       </c>
       <c r="H48" s="3">
-        <v>450800</v>
+        <v>469000</v>
       </c>
       <c r="I48" s="3">
-        <v>515200</v>
+        <v>536000</v>
       </c>
       <c r="J48" s="3">
-        <v>529500</v>
+        <v>550900</v>
       </c>
       <c r="K48" s="3">
         <v>538800</v>
@@ -2772,25 +2772,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14205200</v>
+        <v>14780400</v>
       </c>
       <c r="E49" s="3">
-        <v>14206400</v>
+        <v>14781700</v>
       </c>
       <c r="F49" s="3">
-        <v>12724100</v>
+        <v>13239300</v>
       </c>
       <c r="G49" s="3">
-        <v>12422400</v>
+        <v>12925400</v>
       </c>
       <c r="H49" s="3">
-        <v>12699000</v>
+        <v>13213300</v>
       </c>
       <c r="I49" s="3">
-        <v>13777100</v>
+        <v>14335000</v>
       </c>
       <c r="J49" s="3">
-        <v>12254200</v>
+        <v>12750500</v>
       </c>
       <c r="K49" s="3">
         <v>12443900</v>
@@ -2940,25 +2940,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>341100</v>
+        <v>354900</v>
       </c>
       <c r="E52" s="3">
-        <v>536600</v>
+        <v>558400</v>
       </c>
       <c r="F52" s="3">
-        <v>367300</v>
+        <v>382200</v>
       </c>
       <c r="G52" s="3">
-        <v>456700</v>
+        <v>475200</v>
       </c>
       <c r="H52" s="3">
-        <v>542600</v>
+        <v>564600</v>
       </c>
       <c r="I52" s="3">
-        <v>514000</v>
+        <v>534800</v>
       </c>
       <c r="J52" s="3">
-        <v>407800</v>
+        <v>424400</v>
       </c>
       <c r="K52" s="3">
         <v>661800</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18876200</v>
+        <v>19640600</v>
       </c>
       <c r="E54" s="3">
-        <v>18219200</v>
+        <v>18956900</v>
       </c>
       <c r="F54" s="3">
-        <v>16525800</v>
+        <v>17195000</v>
       </c>
       <c r="G54" s="3">
-        <v>15895000</v>
+        <v>16538600</v>
       </c>
       <c r="H54" s="3">
-        <v>16868100</v>
+        <v>17551100</v>
       </c>
       <c r="I54" s="3">
-        <v>17844700</v>
+        <v>18567300</v>
       </c>
       <c r="J54" s="3">
-        <v>16443500</v>
+        <v>17109400</v>
       </c>
       <c r="K54" s="3">
         <v>16501300</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4790300</v>
+        <v>4984300</v>
       </c>
       <c r="E57" s="3">
-        <v>4098700</v>
+        <v>4264600</v>
       </c>
       <c r="F57" s="3">
-        <v>3905500</v>
+        <v>4063600</v>
       </c>
       <c r="G57" s="3">
-        <v>3634800</v>
+        <v>3782000</v>
       </c>
       <c r="H57" s="3">
-        <v>3887600</v>
+        <v>4045000</v>
       </c>
       <c r="I57" s="3">
-        <v>3822000</v>
+        <v>3976800</v>
       </c>
       <c r="J57" s="3">
-        <v>4148700</v>
+        <v>4316700</v>
       </c>
       <c r="K57" s="3">
         <v>3639200</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1037500</v>
+        <v>1079500</v>
       </c>
       <c r="E58" s="3">
-        <v>1123300</v>
+        <v>1168800</v>
       </c>
       <c r="F58" s="3">
-        <v>276700</v>
+        <v>287900</v>
       </c>
       <c r="G58" s="3">
-        <v>541400</v>
+        <v>563300</v>
       </c>
       <c r="H58" s="3">
-        <v>1010100</v>
+        <v>1051000</v>
       </c>
       <c r="I58" s="3">
-        <v>1451300</v>
+        <v>1510100</v>
       </c>
       <c r="J58" s="3">
-        <v>2456600</v>
+        <v>2556000</v>
       </c>
       <c r="K58" s="3">
         <v>1296600</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>357800</v>
+        <v>372200</v>
       </c>
       <c r="E59" s="3">
-        <v>337500</v>
+        <v>351100</v>
       </c>
       <c r="F59" s="3">
-        <v>287400</v>
+        <v>299000</v>
       </c>
       <c r="G59" s="3">
-        <v>275500</v>
+        <v>286600</v>
       </c>
       <c r="H59" s="3">
-        <v>318400</v>
+        <v>331300</v>
       </c>
       <c r="I59" s="3">
-        <v>404300</v>
+        <v>420600</v>
       </c>
       <c r="J59" s="3">
-        <v>486500</v>
+        <v>506200</v>
       </c>
       <c r="K59" s="3">
         <v>578600</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6185500</v>
+        <v>6436000</v>
       </c>
       <c r="E60" s="3">
-        <v>5559500</v>
+        <v>5784600</v>
       </c>
       <c r="F60" s="3">
-        <v>4469500</v>
+        <v>4650500</v>
       </c>
       <c r="G60" s="3">
-        <v>4451600</v>
+        <v>4631900</v>
       </c>
       <c r="H60" s="3">
-        <v>5216000</v>
+        <v>5427300</v>
       </c>
       <c r="I60" s="3">
-        <v>5677500</v>
+        <v>5907400</v>
       </c>
       <c r="J60" s="3">
-        <v>7091900</v>
+        <v>7379000</v>
       </c>
       <c r="K60" s="3">
         <v>5514500</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6988100</v>
+        <v>7271100</v>
       </c>
       <c r="E61" s="3">
-        <v>7103800</v>
+        <v>7391400</v>
       </c>
       <c r="F61" s="3">
-        <v>7077500</v>
+        <v>7364100</v>
       </c>
       <c r="G61" s="3">
-        <v>7180100</v>
+        <v>7470900</v>
       </c>
       <c r="H61" s="3">
-        <v>7484200</v>
+        <v>7787300</v>
       </c>
       <c r="I61" s="3">
-        <v>7883700</v>
+        <v>8202900</v>
       </c>
       <c r="J61" s="3">
-        <v>5192200</v>
+        <v>5402400</v>
       </c>
       <c r="K61" s="3">
         <v>6756100</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1225900</v>
+        <v>1275500</v>
       </c>
       <c r="E62" s="3">
-        <v>1215200</v>
+        <v>1264400</v>
       </c>
       <c r="F62" s="3">
-        <v>1134100</v>
+        <v>1180000</v>
       </c>
       <c r="G62" s="3">
-        <v>1385700</v>
+        <v>1441800</v>
       </c>
       <c r="H62" s="3">
-        <v>1662400</v>
+        <v>1729700</v>
       </c>
       <c r="I62" s="3">
-        <v>1782800</v>
+        <v>1855000</v>
       </c>
       <c r="J62" s="3">
-        <v>1547900</v>
+        <v>1610600</v>
       </c>
       <c r="K62" s="3">
         <v>1616400</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14373300</v>
+        <v>14955400</v>
       </c>
       <c r="E66" s="3">
-        <v>13864100</v>
+        <v>14425500</v>
       </c>
       <c r="F66" s="3">
-        <v>12671600</v>
+        <v>13184700</v>
       </c>
       <c r="G66" s="3">
-        <v>13009100</v>
+        <v>13535900</v>
       </c>
       <c r="H66" s="3">
-        <v>14365000</v>
+        <v>14946700</v>
       </c>
       <c r="I66" s="3">
-        <v>15365500</v>
+        <v>15987700</v>
       </c>
       <c r="J66" s="3">
-        <v>13860500</v>
+        <v>14421800</v>
       </c>
       <c r="K66" s="3">
         <v>13918600</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2047500</v>
+        <v>2130500</v>
       </c>
       <c r="E72" s="3">
-        <v>2448200</v>
+        <v>2547400</v>
       </c>
       <c r="F72" s="3">
-        <v>2481600</v>
+        <v>2582100</v>
       </c>
       <c r="G72" s="3">
-        <v>1729100</v>
+        <v>1799200</v>
       </c>
       <c r="H72" s="3">
-        <v>1447700</v>
+        <v>1506300</v>
       </c>
       <c r="I72" s="3">
-        <v>934900</v>
+        <v>972800</v>
       </c>
       <c r="J72" s="3">
-        <v>1167500</v>
+        <v>1214700</v>
       </c>
       <c r="K72" s="3">
         <v>1344700</v>
@@ -4182,25 +4182,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4502900</v>
+        <v>4685300</v>
       </c>
       <c r="E76" s="3">
-        <v>4355000</v>
+        <v>4531400</v>
       </c>
       <c r="F76" s="3">
-        <v>3854200</v>
+        <v>4010300</v>
       </c>
       <c r="G76" s="3">
-        <v>2885900</v>
+        <v>3002700</v>
       </c>
       <c r="H76" s="3">
-        <v>2503100</v>
+        <v>2604400</v>
       </c>
       <c r="I76" s="3">
-        <v>2479200</v>
+        <v>2579600</v>
       </c>
       <c r="J76" s="3">
-        <v>2583000</v>
+        <v>2687600</v>
       </c>
       <c r="K76" s="3">
         <v>2582700</v>
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1041100</v>
+        <v>1083200</v>
       </c>
       <c r="E81" s="3">
-        <v>907500</v>
+        <v>944200</v>
       </c>
       <c r="F81" s="3">
-        <v>962400</v>
+        <v>1001300</v>
       </c>
       <c r="G81" s="3">
-        <v>791800</v>
+        <v>823900</v>
       </c>
       <c r="H81" s="3">
-        <v>806100</v>
+        <v>838800</v>
       </c>
       <c r="I81" s="3">
-        <v>653500</v>
+        <v>680000</v>
       </c>
       <c r="J81" s="3">
-        <v>865800</v>
+        <v>900800</v>
       </c>
       <c r="K81" s="3">
         <v>912400</v>
@@ -4433,25 +4433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>267100</v>
+        <v>277900</v>
       </c>
       <c r="E83" s="3">
-        <v>232500</v>
+        <v>242000</v>
       </c>
       <c r="F83" s="3">
-        <v>263500</v>
+        <v>274200</v>
       </c>
       <c r="G83" s="3">
-        <v>248000</v>
+        <v>258100</v>
       </c>
       <c r="H83" s="3">
-        <v>347000</v>
+        <v>361100</v>
       </c>
       <c r="I83" s="3">
-        <v>277900</v>
+        <v>289100</v>
       </c>
       <c r="J83" s="3">
-        <v>260000</v>
+        <v>270500</v>
       </c>
       <c r="K83" s="3">
         <v>253000</v>
@@ -4769,25 +4769,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1537100</v>
+        <v>1599400</v>
       </c>
       <c r="E89" s="3">
-        <v>1326100</v>
+        <v>1379800</v>
       </c>
       <c r="F89" s="3">
-        <v>1137700</v>
+        <v>1183700</v>
       </c>
       <c r="G89" s="3">
-        <v>1266400</v>
+        <v>1317700</v>
       </c>
       <c r="H89" s="3">
-        <v>968300</v>
+        <v>1007500</v>
       </c>
       <c r="I89" s="3">
-        <v>934900</v>
+        <v>972800</v>
       </c>
       <c r="J89" s="3">
-        <v>1321300</v>
+        <v>1374800</v>
       </c>
       <c r="K89" s="3">
         <v>1149000</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27400</v>
+        <v>-244000</v>
       </c>
       <c r="E91" s="3">
-        <v>-15500</v>
+        <v>-192000</v>
       </c>
       <c r="F91" s="3">
-        <v>-21500</v>
+        <v>-187000</v>
       </c>
       <c r="G91" s="3">
-        <v>-11900</v>
+        <v>-150000</v>
       </c>
       <c r="H91" s="3">
-        <v>-33400</v>
+        <v>-194000</v>
       </c>
       <c r="I91" s="3">
-        <v>-17900</v>
+        <v>-168000</v>
       </c>
       <c r="J91" s="3">
-        <v>-31000</v>
+        <v>-209000</v>
       </c>
       <c r="K91" s="3">
         <v>-24600</v>
@@ -5015,25 +5015,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-382800</v>
+        <v>-398300</v>
       </c>
       <c r="E94" s="3">
-        <v>-641600</v>
+        <v>-667600</v>
       </c>
       <c r="F94" s="3">
-        <v>-459100</v>
+        <v>-477700</v>
       </c>
       <c r="G94" s="3">
         <v>1200</v>
       </c>
       <c r="H94" s="3">
-        <v>-358900</v>
+        <v>-373500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1039900</v>
+        <v>-1082000</v>
       </c>
       <c r="J94" s="3">
-        <v>-404300</v>
+        <v>-420600</v>
       </c>
       <c r="K94" s="3">
         <v>-461500</v>
@@ -5093,25 +5093,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-358900</v>
+        <v>-373500</v>
       </c>
       <c r="E96" s="3">
-        <v>-813300</v>
+        <v>-846200</v>
       </c>
       <c r="F96" s="3">
-        <v>-341100</v>
+        <v>-354900</v>
       </c>
       <c r="G96" s="3">
-        <v>-756100</v>
+        <v>-786700</v>
       </c>
       <c r="H96" s="3">
-        <v>-313600</v>
+        <v>-326300</v>
       </c>
       <c r="I96" s="3">
-        <v>-735800</v>
+        <v>-765600</v>
       </c>
       <c r="J96" s="3">
-        <v>-314800</v>
+        <v>-327600</v>
       </c>
       <c r="K96" s="3">
         <v>-677000</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-886000</v>
+        <v>-921900</v>
       </c>
       <c r="E100" s="3">
-        <v>-704800</v>
+        <v>-733300</v>
       </c>
       <c r="F100" s="3">
-        <v>-622500</v>
+        <v>-647700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1292700</v>
+        <v>-1345000</v>
       </c>
       <c r="H100" s="3">
-        <v>-731000</v>
+        <v>-760600</v>
       </c>
       <c r="I100" s="3">
-        <v>165800</v>
+        <v>172500</v>
       </c>
       <c r="J100" s="3">
-        <v>-887200</v>
+        <v>-923200</v>
       </c>
       <c r="K100" s="3">
         <v>-685200</v>
@@ -5373,10 +5373,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="E101" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5385,13 +5385,13 @@
         <v>-1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J101" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="K101" s="3">
         <v>2300</v>
@@ -5429,25 +5429,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>276700</v>
+        <v>287900</v>
       </c>
       <c r="E102" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="F102" s="3">
-        <v>56000</v>
+        <v>58300</v>
       </c>
       <c r="G102" s="3">
-        <v>-26200</v>
+        <v>-27300</v>
       </c>
       <c r="H102" s="3">
-        <v>-127600</v>
+        <v>-132800</v>
       </c>
       <c r="I102" s="3">
-        <v>68000</v>
+        <v>70700</v>
       </c>
       <c r="J102" s="3">
-        <v>23900</v>
+        <v>24800</v>
       </c>
       <c r="K102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5687800</v>
+        <v>5701600</v>
       </c>
       <c r="E8" s="3">
-        <v>4924700</v>
+        <v>5809300</v>
       </c>
       <c r="F8" s="3">
-        <v>4777100</v>
+        <v>5029900</v>
       </c>
       <c r="G8" s="3">
-        <v>4211300</v>
+        <v>4879100</v>
       </c>
       <c r="H8" s="3">
-        <v>4478000</v>
+        <v>4301200</v>
       </c>
       <c r="I8" s="3">
-        <v>4344000</v>
+        <v>4573700</v>
       </c>
       <c r="J8" s="3">
+        <v>4436800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4945800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4554000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4683200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4862500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5146800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4931500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4473200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4210700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3922100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3903000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3852900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2036200</v>
+        <v>2025100</v>
       </c>
       <c r="E9" s="3">
-        <v>1742100</v>
+        <v>2079600</v>
       </c>
       <c r="F9" s="3">
-        <v>1726000</v>
+        <v>1779300</v>
       </c>
       <c r="G9" s="3">
-        <v>1453000</v>
+        <v>1762800</v>
       </c>
       <c r="H9" s="3">
-        <v>1531100</v>
+        <v>1484000</v>
       </c>
       <c r="I9" s="3">
-        <v>1554700</v>
+        <v>1563800</v>
       </c>
       <c r="J9" s="3">
+        <v>1587900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1723500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1640800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1729100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1802900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1802700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1617100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1519100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1445200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1344400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1355000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3651700</v>
+        <v>3676400</v>
       </c>
       <c r="E10" s="3">
-        <v>3182700</v>
+        <v>3729700</v>
       </c>
       <c r="F10" s="3">
-        <v>3051100</v>
+        <v>3250600</v>
       </c>
       <c r="G10" s="3">
-        <v>2758300</v>
+        <v>3116300</v>
       </c>
       <c r="H10" s="3">
-        <v>2946900</v>
+        <v>2817200</v>
       </c>
       <c r="I10" s="3">
-        <v>2789300</v>
+        <v>3009800</v>
       </c>
       <c r="J10" s="3">
+        <v>2848900</v>
+      </c>
+      <c r="K10" s="3">
         <v>3222400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2954000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3042400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3133400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3343900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3128800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2856100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2691600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2476900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2558500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2498000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,64 +1069,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5000</v>
+        <v>44400</v>
       </c>
       <c r="E14" s="3">
-        <v>6200</v>
+        <v>5100</v>
       </c>
       <c r="F14" s="3">
-        <v>-19900</v>
+        <v>6300</v>
       </c>
       <c r="G14" s="3">
-        <v>-48400</v>
+        <v>-20300</v>
       </c>
       <c r="H14" s="3">
-        <v>153900</v>
+        <v>-49400</v>
       </c>
       <c r="I14" s="3">
-        <v>-7400</v>
+        <v>157100</v>
       </c>
       <c r="J14" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K14" s="3">
         <v>7400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-66800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>43900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-30600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>44300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-50900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>65800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4151700</v>
+        <v>4088300</v>
       </c>
       <c r="E17" s="3">
-        <v>3589600</v>
+        <v>4240400</v>
       </c>
       <c r="F17" s="3">
-        <v>3486600</v>
+        <v>3666300</v>
       </c>
       <c r="G17" s="3">
-        <v>3095800</v>
+        <v>3561100</v>
       </c>
       <c r="H17" s="3">
-        <v>3358800</v>
+        <v>3161900</v>
       </c>
       <c r="I17" s="3">
-        <v>3409700</v>
+        <v>3430600</v>
       </c>
       <c r="J17" s="3">
+        <v>3482500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3646700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3259700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3513300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3568700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3795300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3646700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3427500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3146700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2879900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2998300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2919300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1536100</v>
+        <v>1613300</v>
       </c>
       <c r="E18" s="3">
-        <v>1335100</v>
+        <v>1568900</v>
       </c>
       <c r="F18" s="3">
-        <v>1290400</v>
+        <v>1363600</v>
       </c>
       <c r="G18" s="3">
-        <v>1115500</v>
+        <v>1318000</v>
       </c>
       <c r="H18" s="3">
-        <v>1119200</v>
+        <v>1139300</v>
       </c>
       <c r="I18" s="3">
-        <v>934300</v>
+        <v>1143100</v>
       </c>
       <c r="J18" s="3">
+        <v>954300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1299100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1294300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1169900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1293800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1351400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1284800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1045600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1064000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1042100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>904600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,120 +1350,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-152600</v>
+        <v>-172400</v>
       </c>
       <c r="E20" s="3">
-        <v>-96800</v>
+        <v>-155900</v>
       </c>
       <c r="F20" s="3">
-        <v>-84400</v>
+        <v>-98800</v>
       </c>
       <c r="G20" s="3">
-        <v>-91800</v>
+        <v>-86200</v>
       </c>
       <c r="H20" s="3">
-        <v>-105500</v>
+        <v>-93800</v>
       </c>
       <c r="I20" s="3">
-        <v>-107900</v>
+        <v>-107700</v>
       </c>
       <c r="J20" s="3">
+        <v>-110300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-250600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-120600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-135400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-133100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-135900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-137100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-151500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-116400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-114800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-113200</v>
       </c>
       <c r="T20" s="3">
         <v>-113200</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>-113200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1898400</v>
+        <v>1937700</v>
       </c>
       <c r="E21" s="3">
-        <v>1697400</v>
+        <v>1939000</v>
       </c>
       <c r="F21" s="3">
-        <v>1670100</v>
+        <v>1733700</v>
       </c>
       <c r="G21" s="3">
-        <v>1457900</v>
+        <v>1705800</v>
       </c>
       <c r="H21" s="3">
-        <v>1603100</v>
+        <v>1489100</v>
       </c>
       <c r="I21" s="3">
-        <v>1283000</v>
+        <v>1637400</v>
       </c>
       <c r="J21" s="3">
+        <v>1310400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1482800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1563700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1451700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1572000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1641500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1620300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1379400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1273000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1127200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1169300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1485,120 +1525,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1383500</v>
+        <v>1440900</v>
       </c>
       <c r="E23" s="3">
-        <v>1238300</v>
+        <v>1413000</v>
       </c>
       <c r="F23" s="3">
-        <v>1206100</v>
+        <v>1264800</v>
       </c>
       <c r="G23" s="3">
-        <v>1023700</v>
+        <v>1231800</v>
       </c>
       <c r="H23" s="3">
-        <v>1013700</v>
+        <v>1045500</v>
       </c>
       <c r="I23" s="3">
-        <v>826400</v>
+        <v>1035400</v>
       </c>
       <c r="J23" s="3">
+        <v>844000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1048500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1173600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1034500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1160700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1215600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1147700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>894100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>947600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>927400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>791400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>301500</v>
+        <v>334600</v>
       </c>
       <c r="E24" s="3">
-        <v>295300</v>
+        <v>308000</v>
       </c>
       <c r="F24" s="3">
-        <v>201000</v>
+        <v>301600</v>
       </c>
       <c r="G24" s="3">
-        <v>203500</v>
+        <v>205300</v>
       </c>
       <c r="H24" s="3">
-        <v>187400</v>
+        <v>207800</v>
       </c>
       <c r="I24" s="3">
-        <v>153900</v>
+        <v>191400</v>
       </c>
       <c r="J24" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K24" s="3">
         <v>142700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>261200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>131700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>255600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>329700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>237000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>157600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>223700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>212600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>177800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1082000</v>
+        <v>1106400</v>
       </c>
       <c r="E26" s="3">
-        <v>943000</v>
+        <v>1105100</v>
       </c>
       <c r="F26" s="3">
-        <v>1005000</v>
+        <v>963100</v>
       </c>
       <c r="G26" s="3">
-        <v>820200</v>
+        <v>1026500</v>
       </c>
       <c r="H26" s="3">
-        <v>826400</v>
+        <v>837700</v>
       </c>
       <c r="I26" s="3">
-        <v>672500</v>
+        <v>844000</v>
       </c>
       <c r="J26" s="3">
+        <v>686900</v>
+      </c>
+      <c r="K26" s="3">
         <v>905800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>912400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>902700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>905100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>885900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>910700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>736500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>724000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>714800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>613600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>663700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1083200</v>
+        <v>1107600</v>
       </c>
       <c r="E27" s="3">
-        <v>944200</v>
+        <v>1106400</v>
       </c>
       <c r="F27" s="3">
-        <v>1001300</v>
+        <v>964400</v>
       </c>
       <c r="G27" s="3">
-        <v>823900</v>
+        <v>1022700</v>
       </c>
       <c r="H27" s="3">
-        <v>838800</v>
+        <v>841500</v>
       </c>
       <c r="I27" s="3">
-        <v>680000</v>
+        <v>856700</v>
       </c>
       <c r="J27" s="3">
+        <v>694500</v>
+      </c>
+      <c r="K27" s="3">
         <v>900800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>912400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>897800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>902500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>877400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>908000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>729100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>721400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>709500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>611000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1850,17 +1911,17 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>9800</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>489600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1871,14 +1932,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>152600</v>
+        <v>172400</v>
       </c>
       <c r="E32" s="3">
-        <v>96800</v>
+        <v>155900</v>
       </c>
       <c r="F32" s="3">
-        <v>84400</v>
+        <v>98800</v>
       </c>
       <c r="G32" s="3">
-        <v>91800</v>
+        <v>86200</v>
       </c>
       <c r="H32" s="3">
-        <v>105500</v>
+        <v>93800</v>
       </c>
       <c r="I32" s="3">
-        <v>107900</v>
+        <v>107700</v>
       </c>
       <c r="J32" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K32" s="3">
         <v>250600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>120600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>135400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>133100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>135900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>137100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>151500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>116400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>114800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>113200</v>
       </c>
       <c r="T32" s="3">
         <v>113200</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1083200</v>
+        <v>1107600</v>
       </c>
       <c r="E33" s="3">
-        <v>944200</v>
+        <v>1106400</v>
       </c>
       <c r="F33" s="3">
-        <v>1001300</v>
+        <v>964400</v>
       </c>
       <c r="G33" s="3">
-        <v>823900</v>
+        <v>1022700</v>
       </c>
       <c r="H33" s="3">
-        <v>838800</v>
+        <v>841500</v>
       </c>
       <c r="I33" s="3">
-        <v>680000</v>
+        <v>856700</v>
       </c>
       <c r="J33" s="3">
+        <v>694500</v>
+      </c>
+      <c r="K33" s="3">
         <v>900800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>912400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>907600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>902500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1367000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>908000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>729100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>721400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>709500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>611000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1083200</v>
+        <v>1107600</v>
       </c>
       <c r="E35" s="3">
-        <v>944200</v>
+        <v>1106400</v>
       </c>
       <c r="F35" s="3">
-        <v>1001300</v>
+        <v>964400</v>
       </c>
       <c r="G35" s="3">
-        <v>823900</v>
+        <v>1022700</v>
       </c>
       <c r="H35" s="3">
-        <v>838800</v>
+        <v>841500</v>
       </c>
       <c r="I35" s="3">
-        <v>680000</v>
+        <v>856700</v>
       </c>
       <c r="J35" s="3">
+        <v>694500</v>
+      </c>
+      <c r="K35" s="3">
         <v>900800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>912400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>907600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>902500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1367000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>908000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>729100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>721400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>709500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>611000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>414400</v>
+        <v>125500</v>
       </c>
       <c r="E41" s="3">
-        <v>126600</v>
+        <v>423300</v>
       </c>
       <c r="F41" s="3">
-        <v>140200</v>
+        <v>129300</v>
       </c>
       <c r="G41" s="3">
-        <v>81900</v>
+        <v>143200</v>
       </c>
       <c r="H41" s="3">
-        <v>109200</v>
+        <v>83600</v>
       </c>
       <c r="I41" s="3">
-        <v>242000</v>
+        <v>111500</v>
       </c>
       <c r="J41" s="3">
+        <v>247100</v>
+      </c>
+      <c r="K41" s="3">
         <v>171200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>139800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>157100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>213000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>199500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>272800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>159100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>189600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,400 +2520,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2984100</v>
+        <v>2524500</v>
       </c>
       <c r="E43" s="3">
-        <v>2454300</v>
+        <v>3047900</v>
       </c>
       <c r="F43" s="3">
-        <v>2432000</v>
+        <v>2506700</v>
       </c>
       <c r="G43" s="3">
-        <v>2023700</v>
+        <v>2483900</v>
       </c>
       <c r="H43" s="3">
-        <v>2391000</v>
+        <v>2067000</v>
       </c>
       <c r="I43" s="3">
-        <v>2235900</v>
+        <v>2442100</v>
       </c>
       <c r="J43" s="3">
+        <v>2283700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2564700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2063800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2458100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2140400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2650500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2168900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2481700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1910800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2088200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1677600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1958100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>383400</v>
+        <v>394100</v>
       </c>
       <c r="E44" s="3">
-        <v>356100</v>
+        <v>391600</v>
       </c>
       <c r="F44" s="3">
-        <v>313900</v>
+        <v>363700</v>
       </c>
       <c r="G44" s="3">
-        <v>295300</v>
+        <v>320600</v>
       </c>
       <c r="H44" s="3">
-        <v>297800</v>
+        <v>301600</v>
       </c>
       <c r="I44" s="3">
-        <v>294100</v>
+        <v>304200</v>
       </c>
       <c r="J44" s="3">
+        <v>300400</v>
+      </c>
+      <c r="K44" s="3">
         <v>269300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>250700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>258600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>264900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>278800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>268900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>257400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>243000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>206100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>193600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26100</v>
+        <v>39300</v>
       </c>
       <c r="E45" s="3">
-        <v>24800</v>
+        <v>26600</v>
       </c>
       <c r="F45" s="3">
-        <v>38500</v>
+        <v>25300</v>
       </c>
       <c r="G45" s="3">
-        <v>36000</v>
+        <v>39300</v>
       </c>
       <c r="H45" s="3">
-        <v>23600</v>
+        <v>36800</v>
       </c>
       <c r="I45" s="3">
-        <v>16100</v>
+        <v>24100</v>
       </c>
       <c r="J45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K45" s="3">
         <v>28500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>40400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3808000</v>
+        <v>3083300</v>
       </c>
       <c r="E46" s="3">
-        <v>2961800</v>
+        <v>3889300</v>
       </c>
       <c r="F46" s="3">
-        <v>2924600</v>
+        <v>3025000</v>
       </c>
       <c r="G46" s="3">
-        <v>2436900</v>
+        <v>2987000</v>
       </c>
       <c r="H46" s="3">
-        <v>2821600</v>
+        <v>2489000</v>
       </c>
       <c r="I46" s="3">
-        <v>2788100</v>
+        <v>2881800</v>
       </c>
       <c r="J46" s="3">
+        <v>2847600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3033800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2472600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2868000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2574300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3127400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2673500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2963200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2443400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2493800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2113400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2549300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>361100</v>
+        <v>368800</v>
       </c>
       <c r="E47" s="3">
-        <v>299000</v>
+        <v>368800</v>
       </c>
       <c r="F47" s="3">
-        <v>286600</v>
+        <v>305400</v>
       </c>
       <c r="G47" s="3">
-        <v>294100</v>
+        <v>292700</v>
       </c>
       <c r="H47" s="3">
-        <v>482700</v>
+        <v>300400</v>
       </c>
       <c r="I47" s="3">
-        <v>373500</v>
+        <v>493000</v>
       </c>
       <c r="J47" s="3">
+        <v>381500</v>
+      </c>
+      <c r="K47" s="3">
         <v>349900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>384200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>311100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>326100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>343900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>312900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>294400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>334800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>315600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>256800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>312100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>336300</v>
+        <v>300400</v>
       </c>
       <c r="E48" s="3">
-        <v>356100</v>
+        <v>343400</v>
       </c>
       <c r="F48" s="3">
-        <v>362300</v>
+        <v>363700</v>
       </c>
       <c r="G48" s="3">
-        <v>407000</v>
+        <v>370100</v>
       </c>
       <c r="H48" s="3">
-        <v>469000</v>
+        <v>415700</v>
       </c>
       <c r="I48" s="3">
-        <v>536000</v>
+        <v>479000</v>
       </c>
       <c r="J48" s="3">
+        <v>547500</v>
+      </c>
+      <c r="K48" s="3">
         <v>550900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>538800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>562400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>624300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>680700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>676400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>676100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>298600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>298700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>280500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>298900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14780400</v>
+        <v>14378800</v>
       </c>
       <c r="E49" s="3">
-        <v>14781700</v>
+        <v>15096100</v>
       </c>
       <c r="F49" s="3">
-        <v>13239300</v>
+        <v>15097300</v>
       </c>
       <c r="G49" s="3">
-        <v>12925400</v>
+        <v>13522100</v>
       </c>
       <c r="H49" s="3">
-        <v>13213300</v>
+        <v>13201500</v>
       </c>
       <c r="I49" s="3">
-        <v>14335000</v>
+        <v>13495500</v>
       </c>
       <c r="J49" s="3">
+        <v>14641100</v>
+      </c>
+      <c r="K49" s="3">
         <v>12750500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12443900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12727200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13285700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12961000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12571100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12311100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11882200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10939200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10435600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10725300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>354900</v>
+        <v>448600</v>
       </c>
       <c r="E52" s="3">
-        <v>558400</v>
+        <v>362400</v>
       </c>
       <c r="F52" s="3">
-        <v>382200</v>
+        <v>570300</v>
       </c>
       <c r="G52" s="3">
-        <v>475200</v>
+        <v>390300</v>
       </c>
       <c r="H52" s="3">
-        <v>564600</v>
+        <v>485400</v>
       </c>
       <c r="I52" s="3">
-        <v>534800</v>
+        <v>576600</v>
       </c>
       <c r="J52" s="3">
+        <v>546200</v>
+      </c>
+      <c r="K52" s="3">
         <v>424400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>661800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>608700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>668200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>762700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>705600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>645400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>650300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>541300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>680800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19640600</v>
+        <v>18579900</v>
       </c>
       <c r="E54" s="3">
-        <v>18956900</v>
+        <v>20060100</v>
       </c>
       <c r="F54" s="3">
-        <v>17195000</v>
+        <v>19361800</v>
       </c>
       <c r="G54" s="3">
-        <v>16538600</v>
+        <v>17562200</v>
       </c>
       <c r="H54" s="3">
-        <v>17551100</v>
+        <v>16891800</v>
       </c>
       <c r="I54" s="3">
-        <v>18567300</v>
+        <v>17926000</v>
       </c>
       <c r="J54" s="3">
+        <v>18963900</v>
+      </c>
+      <c r="K54" s="3">
         <v>17109400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16501300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17077400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17478700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17875700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16939400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16890200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15609400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14588700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13767000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14599300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4984300</v>
+        <v>4357000</v>
       </c>
       <c r="E57" s="3">
-        <v>4264600</v>
+        <v>5090700</v>
       </c>
       <c r="F57" s="3">
-        <v>4063600</v>
+        <v>4355700</v>
       </c>
       <c r="G57" s="3">
-        <v>3782000</v>
+        <v>4150400</v>
       </c>
       <c r="H57" s="3">
-        <v>4045000</v>
+        <v>3862700</v>
       </c>
       <c r="I57" s="3">
-        <v>3976800</v>
+        <v>4131400</v>
       </c>
       <c r="J57" s="3">
+        <v>4061700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4316700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3639200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4186700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3884100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4667000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3954300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4284700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3529400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3783800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2983800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3471100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1079500</v>
+        <v>1944000</v>
       </c>
       <c r="E58" s="3">
-        <v>1168800</v>
+        <v>1102600</v>
       </c>
       <c r="F58" s="3">
-        <v>287900</v>
+        <v>1193800</v>
       </c>
       <c r="G58" s="3">
-        <v>563300</v>
+        <v>294000</v>
       </c>
       <c r="H58" s="3">
-        <v>1051000</v>
+        <v>575400</v>
       </c>
       <c r="I58" s="3">
-        <v>1510100</v>
+        <v>1073400</v>
       </c>
       <c r="J58" s="3">
+        <v>1542300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2556000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1296600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1698100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1622600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1078300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1030500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1439700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1129900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>813900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>539900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>890200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>372200</v>
+        <v>306700</v>
       </c>
       <c r="E59" s="3">
-        <v>351100</v>
+        <v>380200</v>
       </c>
       <c r="F59" s="3">
-        <v>299000</v>
+        <v>358600</v>
       </c>
       <c r="G59" s="3">
-        <v>286600</v>
+        <v>305400</v>
       </c>
       <c r="H59" s="3">
-        <v>331300</v>
+        <v>292700</v>
       </c>
       <c r="I59" s="3">
-        <v>420600</v>
+        <v>338400</v>
       </c>
       <c r="J59" s="3">
+        <v>429600</v>
+      </c>
+      <c r="K59" s="3">
         <v>506200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>578600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>606300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>797300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>854700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>853400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>879400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>897200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>849100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>754500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6436000</v>
+        <v>6607700</v>
       </c>
       <c r="E60" s="3">
-        <v>5784600</v>
+        <v>6573500</v>
       </c>
       <c r="F60" s="3">
-        <v>4650500</v>
+        <v>5908200</v>
       </c>
       <c r="G60" s="3">
-        <v>4631900</v>
+        <v>4749800</v>
       </c>
       <c r="H60" s="3">
-        <v>5427300</v>
+        <v>4730800</v>
       </c>
       <c r="I60" s="3">
-        <v>5907400</v>
+        <v>5543200</v>
       </c>
       <c r="J60" s="3">
+        <v>6033600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7379000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5514500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6491100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6304100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6600100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5838200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6603800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5556500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5446800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4278300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5182900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7271100</v>
+        <v>6671100</v>
       </c>
       <c r="E61" s="3">
-        <v>7391400</v>
+        <v>7426400</v>
       </c>
       <c r="F61" s="3">
-        <v>7364100</v>
+        <v>7549300</v>
       </c>
       <c r="G61" s="3">
-        <v>7470900</v>
+        <v>7521400</v>
       </c>
       <c r="H61" s="3">
-        <v>7787300</v>
+        <v>7630400</v>
       </c>
       <c r="I61" s="3">
-        <v>8202900</v>
+        <v>7953600</v>
       </c>
       <c r="J61" s="3">
+        <v>8378100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5402400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6756100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6066600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6868500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6355300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6414700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5033500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5098800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4275500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4669300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1275500</v>
+        <v>1184900</v>
       </c>
       <c r="E62" s="3">
-        <v>1264400</v>
+        <v>1302800</v>
       </c>
       <c r="F62" s="3">
-        <v>1180000</v>
+        <v>1291400</v>
       </c>
       <c r="G62" s="3">
-        <v>1441800</v>
+        <v>1205200</v>
       </c>
       <c r="H62" s="3">
-        <v>1729700</v>
+        <v>1472600</v>
       </c>
       <c r="I62" s="3">
-        <v>1855000</v>
+        <v>1766600</v>
       </c>
       <c r="J62" s="3">
+        <v>1894600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1610600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1616400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1642000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1426900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1647200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2214100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2410200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2356800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2025600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2416300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2455800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14955400</v>
+        <v>14433300</v>
       </c>
       <c r="E66" s="3">
-        <v>14425500</v>
+        <v>15274800</v>
       </c>
       <c r="F66" s="3">
-        <v>13184700</v>
+        <v>14733600</v>
       </c>
       <c r="G66" s="3">
-        <v>13535900</v>
+        <v>13466300</v>
       </c>
       <c r="H66" s="3">
-        <v>14946700</v>
+        <v>13825000</v>
       </c>
       <c r="I66" s="3">
-        <v>15987700</v>
+        <v>15265900</v>
       </c>
       <c r="J66" s="3">
+        <v>16329200</v>
+      </c>
+      <c r="K66" s="3">
         <v>14421800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13918600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14236200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14623500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14632200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14512300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14094400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13060000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11792300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11406000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11826100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2130500</v>
+        <v>2416700</v>
       </c>
       <c r="E72" s="3">
-        <v>2547400</v>
+        <v>2176000</v>
       </c>
       <c r="F72" s="3">
-        <v>2582100</v>
+        <v>2601800</v>
       </c>
       <c r="G72" s="3">
-        <v>1799200</v>
+        <v>2637300</v>
       </c>
       <c r="H72" s="3">
-        <v>1506300</v>
+        <v>1837600</v>
       </c>
       <c r="I72" s="3">
-        <v>972800</v>
+        <v>1538500</v>
       </c>
       <c r="J72" s="3">
+        <v>993600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1214700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1344700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1200400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>824000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>601400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-264800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>262400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>444800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>184400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4685300</v>
+        <v>4146600</v>
       </c>
       <c r="E76" s="3">
-        <v>4531400</v>
+        <v>4785300</v>
       </c>
       <c r="F76" s="3">
-        <v>4010300</v>
+        <v>4628200</v>
       </c>
       <c r="G76" s="3">
-        <v>3002700</v>
+        <v>4095900</v>
       </c>
       <c r="H76" s="3">
-        <v>2604400</v>
+        <v>3066900</v>
       </c>
       <c r="I76" s="3">
-        <v>2579600</v>
+        <v>2660100</v>
       </c>
       <c r="J76" s="3">
+        <v>2634700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2687600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2582700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2841100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2855200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3243400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2427100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2795700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2549400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2796400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2361000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2773200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1083200</v>
+        <v>1107600</v>
       </c>
       <c r="E81" s="3">
-        <v>944200</v>
+        <v>1106400</v>
       </c>
       <c r="F81" s="3">
-        <v>1001300</v>
+        <v>964400</v>
       </c>
       <c r="G81" s="3">
-        <v>823900</v>
+        <v>1022700</v>
       </c>
       <c r="H81" s="3">
-        <v>838800</v>
+        <v>841500</v>
       </c>
       <c r="I81" s="3">
-        <v>680000</v>
+        <v>856700</v>
       </c>
       <c r="J81" s="3">
+        <v>694500</v>
+      </c>
+      <c r="K81" s="3">
         <v>900800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>912400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>907600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>902500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1367000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>908000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>729100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>721400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>709500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>611000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>277900</v>
+        <v>269900</v>
       </c>
       <c r="E83" s="3">
-        <v>242000</v>
+        <v>283900</v>
       </c>
       <c r="F83" s="3">
-        <v>274200</v>
+        <v>247100</v>
       </c>
       <c r="G83" s="3">
-        <v>258100</v>
+        <v>280100</v>
       </c>
       <c r="H83" s="3">
-        <v>361100</v>
+        <v>263600</v>
       </c>
       <c r="I83" s="3">
-        <v>289100</v>
+        <v>368800</v>
       </c>
       <c r="J83" s="3">
+        <v>295300</v>
+      </c>
+      <c r="K83" s="3">
         <v>270500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>253000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>265900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>276900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>284400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>335500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>357200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>243000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>238700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>237000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1599400</v>
+        <v>1492900</v>
       </c>
       <c r="E89" s="3">
-        <v>1379800</v>
+        <v>1633500</v>
       </c>
       <c r="F89" s="3">
-        <v>1183700</v>
+        <v>1409200</v>
       </c>
       <c r="G89" s="3">
-        <v>1317700</v>
+        <v>1209000</v>
       </c>
       <c r="H89" s="3">
-        <v>1007500</v>
+        <v>1345900</v>
       </c>
       <c r="I89" s="3">
-        <v>972800</v>
+        <v>1029000</v>
       </c>
       <c r="J89" s="3">
+        <v>993600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1374800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1149000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1319900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1202000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1430700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1202300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1264900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>923100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1021300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>821700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>923100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-244000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-192000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-187000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-150000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-194000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-168000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-209000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-53500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-376600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-398300</v>
+        <v>-415700</v>
       </c>
       <c r="E94" s="3">
-        <v>-667600</v>
+        <v>-406800</v>
       </c>
       <c r="F94" s="3">
-        <v>-477700</v>
+        <v>-681800</v>
       </c>
       <c r="G94" s="3">
-        <v>1200</v>
+        <v>-487900</v>
       </c>
       <c r="H94" s="3">
-        <v>-373500</v>
+        <v>1300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1082000</v>
+        <v>-381500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1105100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-420600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-461500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-551400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1090200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-349500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-223700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-594900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-228800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-250400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-302900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-373500</v>
+        <v>-935300</v>
       </c>
       <c r="E96" s="3">
-        <v>-846200</v>
+        <v>-381500</v>
       </c>
       <c r="F96" s="3">
-        <v>-354900</v>
+        <v>-864300</v>
       </c>
       <c r="G96" s="3">
-        <v>-786700</v>
+        <v>-362400</v>
       </c>
       <c r="H96" s="3">
-        <v>-326300</v>
+        <v>-803500</v>
       </c>
       <c r="I96" s="3">
-        <v>-765600</v>
+        <v>-333300</v>
       </c>
       <c r="J96" s="3">
+        <v>-781900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-327600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-677000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-302500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-729400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-338200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-696300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-269700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-599900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-211300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-554400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-921900</v>
+        <v>-1366100</v>
       </c>
       <c r="E100" s="3">
-        <v>-733300</v>
+        <v>-941600</v>
       </c>
       <c r="F100" s="3">
-        <v>-647700</v>
+        <v>-749000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1345000</v>
+        <v>-661500</v>
       </c>
       <c r="H100" s="3">
-        <v>-760600</v>
+        <v>-1373800</v>
       </c>
       <c r="I100" s="3">
-        <v>172500</v>
+        <v>-776900</v>
       </c>
       <c r="J100" s="3">
+        <v>176200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-923200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-685200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-758800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-121100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1092500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-930600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-639200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-628300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-795600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-676800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-266000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8700</v>
+        <v>-8900</v>
       </c>
       <c r="E101" s="3">
-        <v>7400</v>
+        <v>8900</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="G101" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6200</v>
       </c>
-      <c r="I101" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>49100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-15800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>287900</v>
+        <v>-297800</v>
       </c>
       <c r="E102" s="3">
-        <v>-13600</v>
+        <v>294000</v>
       </c>
       <c r="F102" s="3">
-        <v>58300</v>
+        <v>-13900</v>
       </c>
       <c r="G102" s="3">
-        <v>-27300</v>
+        <v>59600</v>
       </c>
       <c r="H102" s="3">
-        <v>-132800</v>
+        <v>-27900</v>
       </c>
       <c r="I102" s="3">
-        <v>70700</v>
+        <v>-135600</v>
       </c>
       <c r="J102" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K102" s="3">
         <v>24800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-69300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-60300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>115100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-173800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>159300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RELX_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5701600</v>
+        <v>5581500</v>
       </c>
       <c r="E8" s="3">
-        <v>5809300</v>
+        <v>5686900</v>
       </c>
       <c r="F8" s="3">
-        <v>5029900</v>
+        <v>4923900</v>
       </c>
       <c r="G8" s="3">
-        <v>4879100</v>
+        <v>4776300</v>
       </c>
       <c r="H8" s="3">
-        <v>4301200</v>
+        <v>4210600</v>
       </c>
       <c r="I8" s="3">
-        <v>4573700</v>
+        <v>4477300</v>
       </c>
       <c r="J8" s="3">
-        <v>4436800</v>
+        <v>4343300</v>
       </c>
       <c r="K8" s="3">
         <v>4945800</v>
@@ -819,25 +819,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2025100</v>
+        <v>1982500</v>
       </c>
       <c r="E9" s="3">
-        <v>2079600</v>
+        <v>2035800</v>
       </c>
       <c r="F9" s="3">
-        <v>1779300</v>
+        <v>1741800</v>
       </c>
       <c r="G9" s="3">
-        <v>1762800</v>
+        <v>1725700</v>
       </c>
       <c r="H9" s="3">
-        <v>1484000</v>
+        <v>1452700</v>
       </c>
       <c r="I9" s="3">
-        <v>1563800</v>
+        <v>1530900</v>
       </c>
       <c r="J9" s="3">
-        <v>1587900</v>
+        <v>1554500</v>
       </c>
       <c r="K9" s="3">
         <v>1723500</v>
@@ -878,25 +878,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3676400</v>
+        <v>3599000</v>
       </c>
       <c r="E10" s="3">
-        <v>3729700</v>
+        <v>3651100</v>
       </c>
       <c r="F10" s="3">
-        <v>3250600</v>
+        <v>3182100</v>
       </c>
       <c r="G10" s="3">
-        <v>3116300</v>
+        <v>3050600</v>
       </c>
       <c r="H10" s="3">
-        <v>2817200</v>
+        <v>2757900</v>
       </c>
       <c r="I10" s="3">
-        <v>3009800</v>
+        <v>2946400</v>
       </c>
       <c r="J10" s="3">
-        <v>2848900</v>
+        <v>2788900</v>
       </c>
       <c r="K10" s="3">
         <v>3222400</v>
@@ -1078,25 +1078,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>44400</v>
+        <v>43400</v>
       </c>
       <c r="E14" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F14" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G14" s="3">
-        <v>-20300</v>
+        <v>-19800</v>
       </c>
       <c r="H14" s="3">
-        <v>-49400</v>
+        <v>-48400</v>
       </c>
       <c r="I14" s="3">
-        <v>157100</v>
+        <v>153800</v>
       </c>
       <c r="J14" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="K14" s="3">
         <v>7400</v>
@@ -1216,25 +1216,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4088300</v>
+        <v>4002200</v>
       </c>
       <c r="E17" s="3">
-        <v>4240400</v>
+        <v>4151000</v>
       </c>
       <c r="F17" s="3">
-        <v>3666300</v>
+        <v>3589100</v>
       </c>
       <c r="G17" s="3">
-        <v>3561100</v>
+        <v>3486100</v>
       </c>
       <c r="H17" s="3">
-        <v>3161900</v>
+        <v>3095300</v>
       </c>
       <c r="I17" s="3">
-        <v>3430600</v>
+        <v>3358300</v>
       </c>
       <c r="J17" s="3">
-        <v>3482500</v>
+        <v>3409200</v>
       </c>
       <c r="K17" s="3">
         <v>3646700</v>
@@ -1275,25 +1275,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1613300</v>
+        <v>1579300</v>
       </c>
       <c r="E18" s="3">
-        <v>1568900</v>
+        <v>1535900</v>
       </c>
       <c r="F18" s="3">
-        <v>1363600</v>
+        <v>1334900</v>
       </c>
       <c r="G18" s="3">
-        <v>1318000</v>
+        <v>1290200</v>
       </c>
       <c r="H18" s="3">
-        <v>1139300</v>
+        <v>1115300</v>
       </c>
       <c r="I18" s="3">
-        <v>1143100</v>
+        <v>1119000</v>
       </c>
       <c r="J18" s="3">
-        <v>954300</v>
+        <v>934200</v>
       </c>
       <c r="K18" s="3">
         <v>1299100</v>
@@ -1357,25 +1357,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-172400</v>
+        <v>-168700</v>
       </c>
       <c r="E20" s="3">
-        <v>-155900</v>
+        <v>-152600</v>
       </c>
       <c r="F20" s="3">
-        <v>-98800</v>
+        <v>-96800</v>
       </c>
       <c r="G20" s="3">
-        <v>-86200</v>
+        <v>-84400</v>
       </c>
       <c r="H20" s="3">
-        <v>-93800</v>
+        <v>-91800</v>
       </c>
       <c r="I20" s="3">
-        <v>-107700</v>
+        <v>-105500</v>
       </c>
       <c r="J20" s="3">
-        <v>-110300</v>
+        <v>-107900</v>
       </c>
       <c r="K20" s="3">
         <v>-250600</v>
@@ -1416,25 +1416,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1937700</v>
+        <v>1896900</v>
       </c>
       <c r="E21" s="3">
-        <v>1939000</v>
+        <v>1898100</v>
       </c>
       <c r="F21" s="3">
-        <v>1733700</v>
+        <v>1697100</v>
       </c>
       <c r="G21" s="3">
-        <v>1705800</v>
+        <v>1669800</v>
       </c>
       <c r="H21" s="3">
-        <v>1489100</v>
+        <v>1457700</v>
       </c>
       <c r="I21" s="3">
-        <v>1637400</v>
+        <v>1602900</v>
       </c>
       <c r="J21" s="3">
-        <v>1310400</v>
+        <v>1282800</v>
       </c>
       <c r="K21" s="3">
         <v>1482800</v>
@@ -1534,25 +1534,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1440900</v>
+        <v>1410600</v>
       </c>
       <c r="E23" s="3">
-        <v>1413000</v>
+        <v>1383300</v>
       </c>
       <c r="F23" s="3">
-        <v>1264800</v>
+        <v>1238100</v>
       </c>
       <c r="G23" s="3">
-        <v>1231800</v>
+        <v>1205900</v>
       </c>
       <c r="H23" s="3">
-        <v>1045500</v>
+        <v>1023500</v>
       </c>
       <c r="I23" s="3">
-        <v>1035400</v>
+        <v>1013600</v>
       </c>
       <c r="J23" s="3">
-        <v>844000</v>
+        <v>826200</v>
       </c>
       <c r="K23" s="3">
         <v>1048500</v>
@@ -1593,25 +1593,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>334600</v>
+        <v>327500</v>
       </c>
       <c r="E24" s="3">
-        <v>308000</v>
+        <v>301500</v>
       </c>
       <c r="F24" s="3">
-        <v>301600</v>
+        <v>295300</v>
       </c>
       <c r="G24" s="3">
-        <v>205300</v>
+        <v>201000</v>
       </c>
       <c r="H24" s="3">
-        <v>207800</v>
+        <v>203500</v>
       </c>
       <c r="I24" s="3">
-        <v>191400</v>
+        <v>187300</v>
       </c>
       <c r="J24" s="3">
-        <v>157100</v>
+        <v>153800</v>
       </c>
       <c r="K24" s="3">
         <v>142700</v>
@@ -1711,25 +1711,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1106400</v>
+        <v>1083000</v>
       </c>
       <c r="E26" s="3">
-        <v>1105100</v>
+        <v>1081800</v>
       </c>
       <c r="F26" s="3">
-        <v>963100</v>
+        <v>942900</v>
       </c>
       <c r="G26" s="3">
-        <v>1026500</v>
+        <v>1004900</v>
       </c>
       <c r="H26" s="3">
-        <v>837700</v>
+        <v>820000</v>
       </c>
       <c r="I26" s="3">
-        <v>844000</v>
+        <v>826200</v>
       </c>
       <c r="J26" s="3">
-        <v>686900</v>
+        <v>672400</v>
       </c>
       <c r="K26" s="3">
         <v>905800</v>
@@ -1770,25 +1770,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1107600</v>
+        <v>1084300</v>
       </c>
       <c r="E27" s="3">
-        <v>1106400</v>
+        <v>1083000</v>
       </c>
       <c r="F27" s="3">
-        <v>964400</v>
+        <v>944100</v>
       </c>
       <c r="G27" s="3">
-        <v>1022700</v>
+        <v>1001200</v>
       </c>
       <c r="H27" s="3">
-        <v>841500</v>
+        <v>823800</v>
       </c>
       <c r="I27" s="3">
-        <v>856700</v>
+        <v>838600</v>
       </c>
       <c r="J27" s="3">
-        <v>694500</v>
+        <v>679800</v>
       </c>
       <c r="K27" s="3">
         <v>900800</v>
@@ -2065,25 +2065,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>172400</v>
+        <v>168700</v>
       </c>
       <c r="E32" s="3">
-        <v>155900</v>
+        <v>152600</v>
       </c>
       <c r="F32" s="3">
-        <v>98800</v>
+        <v>96800</v>
       </c>
       <c r="G32" s="3">
-        <v>86200</v>
+        <v>84400</v>
       </c>
       <c r="H32" s="3">
-        <v>93800</v>
+        <v>91800</v>
       </c>
       <c r="I32" s="3">
-        <v>107700</v>
+        <v>105500</v>
       </c>
       <c r="J32" s="3">
-        <v>110300</v>
+        <v>107900</v>
       </c>
       <c r="K32" s="3">
         <v>250600</v>
@@ -2124,25 +2124,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1107600</v>
+        <v>1084300</v>
       </c>
       <c r="E33" s="3">
-        <v>1106400</v>
+        <v>1083000</v>
       </c>
       <c r="F33" s="3">
-        <v>964400</v>
+        <v>944100</v>
       </c>
       <c r="G33" s="3">
-        <v>1022700</v>
+        <v>1001200</v>
       </c>
       <c r="H33" s="3">
-        <v>841500</v>
+        <v>823800</v>
       </c>
       <c r="I33" s="3">
-        <v>856700</v>
+        <v>838600</v>
       </c>
       <c r="J33" s="3">
-        <v>694500</v>
+        <v>679800</v>
       </c>
       <c r="K33" s="3">
         <v>900800</v>
@@ -2242,25 +2242,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1107600</v>
+        <v>1084300</v>
       </c>
       <c r="E35" s="3">
-        <v>1106400</v>
+        <v>1083000</v>
       </c>
       <c r="F35" s="3">
-        <v>964400</v>
+        <v>944100</v>
       </c>
       <c r="G35" s="3">
-        <v>1022700</v>
+        <v>1001200</v>
       </c>
       <c r="H35" s="3">
-        <v>841500</v>
+        <v>823800</v>
       </c>
       <c r="I35" s="3">
-        <v>856700</v>
+        <v>838600</v>
       </c>
       <c r="J35" s="3">
-        <v>694500</v>
+        <v>679800</v>
       </c>
       <c r="K35" s="3">
         <v>900800</v>
@@ -2411,25 +2411,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>125500</v>
+        <v>122800</v>
       </c>
       <c r="E41" s="3">
-        <v>423300</v>
+        <v>414400</v>
       </c>
       <c r="F41" s="3">
-        <v>129300</v>
+        <v>126500</v>
       </c>
       <c r="G41" s="3">
-        <v>143200</v>
+        <v>140200</v>
       </c>
       <c r="H41" s="3">
-        <v>83600</v>
+        <v>81900</v>
       </c>
       <c r="I41" s="3">
-        <v>111500</v>
+        <v>109200</v>
       </c>
       <c r="J41" s="3">
-        <v>247100</v>
+        <v>241900</v>
       </c>
       <c r="K41" s="3">
         <v>171200</v>
@@ -2529,25 +2529,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2524500</v>
+        <v>2471300</v>
       </c>
       <c r="E43" s="3">
-        <v>3047900</v>
+        <v>2983600</v>
       </c>
       <c r="F43" s="3">
-        <v>2506700</v>
+        <v>2453900</v>
       </c>
       <c r="G43" s="3">
-        <v>2483900</v>
+        <v>2431600</v>
       </c>
       <c r="H43" s="3">
-        <v>2067000</v>
+        <v>2023400</v>
       </c>
       <c r="I43" s="3">
-        <v>2442100</v>
+        <v>2390600</v>
       </c>
       <c r="J43" s="3">
-        <v>2283700</v>
+        <v>2235600</v>
       </c>
       <c r="K43" s="3">
         <v>2564700</v>
@@ -2588,25 +2588,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>394100</v>
+        <v>385800</v>
       </c>
       <c r="E44" s="3">
-        <v>391600</v>
+        <v>383300</v>
       </c>
       <c r="F44" s="3">
-        <v>363700</v>
+        <v>356100</v>
       </c>
       <c r="G44" s="3">
-        <v>320600</v>
+        <v>313900</v>
       </c>
       <c r="H44" s="3">
-        <v>301600</v>
+        <v>295300</v>
       </c>
       <c r="I44" s="3">
-        <v>304200</v>
+        <v>297700</v>
       </c>
       <c r="J44" s="3">
-        <v>300400</v>
+        <v>294000</v>
       </c>
       <c r="K44" s="3">
         <v>269300</v>
@@ -2647,25 +2647,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39300</v>
+        <v>38500</v>
       </c>
       <c r="E45" s="3">
-        <v>26600</v>
+        <v>26100</v>
       </c>
       <c r="F45" s="3">
-        <v>25300</v>
+        <v>24800</v>
       </c>
       <c r="G45" s="3">
-        <v>39300</v>
+        <v>38500</v>
       </c>
       <c r="H45" s="3">
-        <v>36800</v>
+        <v>36000</v>
       </c>
       <c r="I45" s="3">
-        <v>24100</v>
+        <v>23600</v>
       </c>
       <c r="J45" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="K45" s="3">
         <v>28500</v>
@@ -2706,25 +2706,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3083300</v>
+        <v>3018400</v>
       </c>
       <c r="E46" s="3">
-        <v>3889300</v>
+        <v>3807400</v>
       </c>
       <c r="F46" s="3">
-        <v>3025000</v>
+        <v>2961300</v>
       </c>
       <c r="G46" s="3">
-        <v>2987000</v>
+        <v>2924100</v>
       </c>
       <c r="H46" s="3">
-        <v>2489000</v>
+        <v>2436500</v>
       </c>
       <c r="I46" s="3">
-        <v>2881800</v>
+        <v>2821100</v>
       </c>
       <c r="J46" s="3">
-        <v>2847600</v>
+        <v>2787600</v>
       </c>
       <c r="K46" s="3">
         <v>3033800</v>
@@ -2765,25 +2765,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>368800</v>
+        <v>361000</v>
       </c>
       <c r="E47" s="3">
-        <v>368800</v>
+        <v>361000</v>
       </c>
       <c r="F47" s="3">
-        <v>305400</v>
+        <v>299000</v>
       </c>
       <c r="G47" s="3">
-        <v>292700</v>
+        <v>286600</v>
       </c>
       <c r="H47" s="3">
-        <v>300400</v>
+        <v>294000</v>
       </c>
       <c r="I47" s="3">
-        <v>493000</v>
+        <v>482600</v>
       </c>
       <c r="J47" s="3">
-        <v>381500</v>
+        <v>373400</v>
       </c>
       <c r="K47" s="3">
         <v>349900</v>
@@ -2824,25 +2824,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300400</v>
+        <v>294000</v>
       </c>
       <c r="E48" s="3">
-        <v>343400</v>
+        <v>336200</v>
       </c>
       <c r="F48" s="3">
-        <v>363700</v>
+        <v>356100</v>
       </c>
       <c r="G48" s="3">
-        <v>370100</v>
+        <v>362300</v>
       </c>
       <c r="H48" s="3">
-        <v>415700</v>
+        <v>406900</v>
       </c>
       <c r="I48" s="3">
-        <v>479000</v>
+        <v>468900</v>
       </c>
       <c r="J48" s="3">
-        <v>547500</v>
+        <v>535900</v>
       </c>
       <c r="K48" s="3">
         <v>550900</v>
@@ -2883,25 +2883,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14378800</v>
+        <v>14075800</v>
       </c>
       <c r="E49" s="3">
-        <v>15096100</v>
+        <v>14778000</v>
       </c>
       <c r="F49" s="3">
-        <v>15097300</v>
+        <v>14779300</v>
       </c>
       <c r="G49" s="3">
-        <v>13522100</v>
+        <v>13237200</v>
       </c>
       <c r="H49" s="3">
-        <v>13201500</v>
+        <v>12923300</v>
       </c>
       <c r="I49" s="3">
-        <v>13495500</v>
+        <v>13211100</v>
       </c>
       <c r="J49" s="3">
-        <v>14641100</v>
+        <v>14332700</v>
       </c>
       <c r="K49" s="3">
         <v>12750500</v>
@@ -3060,25 +3060,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>448600</v>
+        <v>439200</v>
       </c>
       <c r="E52" s="3">
-        <v>362400</v>
+        <v>354800</v>
       </c>
       <c r="F52" s="3">
-        <v>570300</v>
+        <v>558300</v>
       </c>
       <c r="G52" s="3">
-        <v>390300</v>
+        <v>382100</v>
       </c>
       <c r="H52" s="3">
-        <v>485400</v>
+        <v>475100</v>
       </c>
       <c r="I52" s="3">
-        <v>576600</v>
+        <v>564500</v>
       </c>
       <c r="J52" s="3">
-        <v>546200</v>
+        <v>534700</v>
       </c>
       <c r="K52" s="3">
         <v>424400</v>
@@ -3178,25 +3178,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18579900</v>
+        <v>18188400</v>
       </c>
       <c r="E54" s="3">
-        <v>20060100</v>
+        <v>19637500</v>
       </c>
       <c r="F54" s="3">
-        <v>19361800</v>
+        <v>18953900</v>
       </c>
       <c r="G54" s="3">
-        <v>17562200</v>
+        <v>17192200</v>
       </c>
       <c r="H54" s="3">
-        <v>16891800</v>
+        <v>16536000</v>
       </c>
       <c r="I54" s="3">
-        <v>17926000</v>
+        <v>17548300</v>
       </c>
       <c r="J54" s="3">
-        <v>18963900</v>
+        <v>18564300</v>
       </c>
       <c r="K54" s="3">
         <v>17109400</v>
@@ -3283,25 +3283,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4357000</v>
+        <v>4265200</v>
       </c>
       <c r="E57" s="3">
-        <v>5090700</v>
+        <v>4983500</v>
       </c>
       <c r="F57" s="3">
-        <v>4355700</v>
+        <v>4263900</v>
       </c>
       <c r="G57" s="3">
-        <v>4150400</v>
+        <v>4063000</v>
       </c>
       <c r="H57" s="3">
-        <v>3862700</v>
+        <v>3781300</v>
       </c>
       <c r="I57" s="3">
-        <v>4131400</v>
+        <v>4044400</v>
       </c>
       <c r="J57" s="3">
-        <v>4061700</v>
+        <v>3976100</v>
       </c>
       <c r="K57" s="3">
         <v>4316700</v>
@@ -3342,25 +3342,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1944000</v>
+        <v>1903100</v>
       </c>
       <c r="E58" s="3">
-        <v>1102600</v>
+        <v>1079300</v>
       </c>
       <c r="F58" s="3">
-        <v>1193800</v>
+        <v>1168600</v>
       </c>
       <c r="G58" s="3">
-        <v>294000</v>
+        <v>287800</v>
       </c>
       <c r="H58" s="3">
-        <v>575400</v>
+        <v>563200</v>
       </c>
       <c r="I58" s="3">
-        <v>1073400</v>
+        <v>1050800</v>
       </c>
       <c r="J58" s="3">
-        <v>1542300</v>
+        <v>1509800</v>
       </c>
       <c r="K58" s="3">
         <v>2556000</v>
@@ -3401,25 +3401,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>306700</v>
+        <v>300200</v>
       </c>
       <c r="E59" s="3">
-        <v>380200</v>
+        <v>372200</v>
       </c>
       <c r="F59" s="3">
-        <v>358600</v>
+        <v>351100</v>
       </c>
       <c r="G59" s="3">
-        <v>305400</v>
+        <v>299000</v>
       </c>
       <c r="H59" s="3">
-        <v>292700</v>
+        <v>286600</v>
       </c>
       <c r="I59" s="3">
-        <v>338400</v>
+        <v>331200</v>
       </c>
       <c r="J59" s="3">
-        <v>429600</v>
+        <v>420600</v>
       </c>
       <c r="K59" s="3">
         <v>506200</v>
@@ -3460,25 +3460,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6607700</v>
+        <v>6468500</v>
       </c>
       <c r="E60" s="3">
-        <v>6573500</v>
+        <v>6435000</v>
       </c>
       <c r="F60" s="3">
-        <v>5908200</v>
+        <v>5783700</v>
       </c>
       <c r="G60" s="3">
-        <v>4749800</v>
+        <v>4649800</v>
       </c>
       <c r="H60" s="3">
-        <v>4730800</v>
+        <v>4631200</v>
       </c>
       <c r="I60" s="3">
-        <v>5543200</v>
+        <v>5426400</v>
       </c>
       <c r="J60" s="3">
-        <v>6033600</v>
+        <v>5906500</v>
       </c>
       <c r="K60" s="3">
         <v>7379000</v>
@@ -3519,25 +3519,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6671100</v>
+        <v>6530500</v>
       </c>
       <c r="E61" s="3">
-        <v>7426400</v>
+        <v>7269900</v>
       </c>
       <c r="F61" s="3">
-        <v>7549300</v>
+        <v>7390300</v>
       </c>
       <c r="G61" s="3">
-        <v>7521400</v>
+        <v>7363000</v>
       </c>
       <c r="H61" s="3">
-        <v>7630400</v>
+        <v>7469700</v>
       </c>
       <c r="I61" s="3">
-        <v>7953600</v>
+        <v>7786000</v>
       </c>
       <c r="J61" s="3">
-        <v>8378100</v>
+        <v>8201600</v>
       </c>
       <c r="K61" s="3">
         <v>5402400</v>
@@ -3578,25 +3578,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1184900</v>
+        <v>1160000</v>
       </c>
       <c r="E62" s="3">
-        <v>1302800</v>
+        <v>1275300</v>
       </c>
       <c r="F62" s="3">
-        <v>1291400</v>
+        <v>1264200</v>
       </c>
       <c r="G62" s="3">
-        <v>1205200</v>
+        <v>1179800</v>
       </c>
       <c r="H62" s="3">
-        <v>1472600</v>
+        <v>1441600</v>
       </c>
       <c r="I62" s="3">
-        <v>1766600</v>
+        <v>1729400</v>
       </c>
       <c r="J62" s="3">
-        <v>1894600</v>
+        <v>1854700</v>
       </c>
       <c r="K62" s="3">
         <v>1610600</v>
@@ -3814,25 +3814,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14433300</v>
+        <v>14129200</v>
       </c>
       <c r="E66" s="3">
-        <v>15274800</v>
+        <v>14953000</v>
       </c>
       <c r="F66" s="3">
-        <v>14733600</v>
+        <v>14423200</v>
       </c>
       <c r="G66" s="3">
-        <v>13466300</v>
+        <v>13182600</v>
       </c>
       <c r="H66" s="3">
-        <v>13825000</v>
+        <v>13533700</v>
       </c>
       <c r="I66" s="3">
-        <v>15265900</v>
+        <v>14944300</v>
       </c>
       <c r="J66" s="3">
-        <v>16329200</v>
+        <v>15985100</v>
       </c>
       <c r="K66" s="3">
         <v>14421800</v>
@@ -4132,25 +4132,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2416700</v>
+        <v>2365800</v>
       </c>
       <c r="E72" s="3">
-        <v>2176000</v>
+        <v>2130100</v>
       </c>
       <c r="F72" s="3">
-        <v>2601800</v>
+        <v>2547000</v>
       </c>
       <c r="G72" s="3">
-        <v>2637300</v>
+        <v>2581700</v>
       </c>
       <c r="H72" s="3">
-        <v>1837600</v>
+        <v>1798900</v>
       </c>
       <c r="I72" s="3">
-        <v>1538500</v>
+        <v>1506100</v>
       </c>
       <c r="J72" s="3">
-        <v>993600</v>
+        <v>972600</v>
       </c>
       <c r="K72" s="3">
         <v>1214700</v>
@@ -4368,25 +4368,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4146600</v>
+        <v>4059200</v>
       </c>
       <c r="E76" s="3">
-        <v>4785300</v>
+        <v>4684500</v>
       </c>
       <c r="F76" s="3">
-        <v>4628200</v>
+        <v>4530700</v>
       </c>
       <c r="G76" s="3">
-        <v>4095900</v>
+        <v>4009600</v>
       </c>
       <c r="H76" s="3">
-        <v>3066900</v>
+        <v>3002300</v>
       </c>
       <c r="I76" s="3">
-        <v>2660100</v>
+        <v>2604000</v>
       </c>
       <c r="J76" s="3">
-        <v>2634700</v>
+        <v>2579200</v>
       </c>
       <c r="K76" s="3">
         <v>2687600</v>
@@ -4550,25 +4550,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1107600</v>
+        <v>1084300</v>
       </c>
       <c r="E81" s="3">
-        <v>1106400</v>
+        <v>1083000</v>
       </c>
       <c r="F81" s="3">
-        <v>964400</v>
+        <v>944100</v>
       </c>
       <c r="G81" s="3">
-        <v>1022700</v>
+        <v>1001200</v>
       </c>
       <c r="H81" s="3">
-        <v>841500</v>
+        <v>823800</v>
       </c>
       <c r="I81" s="3">
-        <v>856700</v>
+        <v>838600</v>
       </c>
       <c r="J81" s="3">
-        <v>694500</v>
+        <v>679800</v>
       </c>
       <c r="K81" s="3">
         <v>900800</v>
@@ -4632,25 +4632,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269900</v>
+        <v>264200</v>
       </c>
       <c r="E83" s="3">
-        <v>283900</v>
+        <v>277900</v>
       </c>
       <c r="F83" s="3">
-        <v>247100</v>
+        <v>241900</v>
       </c>
       <c r="G83" s="3">
-        <v>280100</v>
+        <v>274200</v>
       </c>
       <c r="H83" s="3">
-        <v>263600</v>
+        <v>258000</v>
       </c>
       <c r="I83" s="3">
-        <v>368800</v>
+        <v>361000</v>
       </c>
       <c r="J83" s="3">
-        <v>295300</v>
+        <v>289100</v>
       </c>
       <c r="K83" s="3">
         <v>270500</v>
@@ -4986,25 +4986,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1492900</v>
+        <v>1461400</v>
       </c>
       <c r="E89" s="3">
-        <v>1633500</v>
+        <v>1599100</v>
       </c>
       <c r="F89" s="3">
-        <v>1409200</v>
+        <v>1379500</v>
       </c>
       <c r="G89" s="3">
-        <v>1209000</v>
+        <v>1183500</v>
       </c>
       <c r="H89" s="3">
-        <v>1345900</v>
+        <v>1317500</v>
       </c>
       <c r="I89" s="3">
-        <v>1029000</v>
+        <v>1007400</v>
       </c>
       <c r="J89" s="3">
-        <v>993600</v>
+        <v>972600</v>
       </c>
       <c r="K89" s="3">
         <v>1374800</v>
@@ -5245,25 +5245,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-415700</v>
+        <v>-406900</v>
       </c>
       <c r="E94" s="3">
-        <v>-406800</v>
+        <v>-398200</v>
       </c>
       <c r="F94" s="3">
-        <v>-681800</v>
+        <v>-667400</v>
       </c>
       <c r="G94" s="3">
-        <v>-487900</v>
+        <v>-477600</v>
       </c>
       <c r="H94" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I94" s="3">
-        <v>-381500</v>
+        <v>-373400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1105100</v>
+        <v>-1081800</v>
       </c>
       <c r="K94" s="3">
         <v>-420600</v>
@@ -5327,25 +5327,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-935300</v>
+        <v>-915600</v>
       </c>
       <c r="E96" s="3">
-        <v>-381500</v>
+        <v>-373400</v>
       </c>
       <c r="F96" s="3">
-        <v>-864300</v>
+        <v>-846100</v>
       </c>
       <c r="G96" s="3">
-        <v>-362400</v>
+        <v>-354800</v>
       </c>
       <c r="H96" s="3">
-        <v>-803500</v>
+        <v>-786500</v>
       </c>
       <c r="I96" s="3">
-        <v>-333300</v>
+        <v>-326300</v>
       </c>
       <c r="J96" s="3">
-        <v>-781900</v>
+        <v>-765500</v>
       </c>
       <c r="K96" s="3">
         <v>-327600</v>
@@ -5563,25 +5563,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1366100</v>
+        <v>-1337400</v>
       </c>
       <c r="E100" s="3">
-        <v>-941600</v>
+        <v>-921800</v>
       </c>
       <c r="F100" s="3">
-        <v>-749000</v>
+        <v>-733200</v>
       </c>
       <c r="G100" s="3">
-        <v>-661500</v>
+        <v>-647600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1373800</v>
+        <v>-1344800</v>
       </c>
       <c r="I100" s="3">
-        <v>-776900</v>
+        <v>-760500</v>
       </c>
       <c r="J100" s="3">
-        <v>176200</v>
+        <v>172400</v>
       </c>
       <c r="K100" s="3">
         <v>-923200</v>
@@ -5622,25 +5622,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="E101" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I101" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="J101" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="K101" s="3">
         <v>-6200</v>
@@ -5681,25 +5681,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-297800</v>
+        <v>-291500</v>
       </c>
       <c r="E102" s="3">
-        <v>294000</v>
+        <v>287800</v>
       </c>
       <c r="F102" s="3">
-        <v>-13900</v>
+        <v>-13600</v>
       </c>
       <c r="G102" s="3">
-        <v>59600</v>
+        <v>58300</v>
       </c>
       <c r="H102" s="3">
-        <v>-27900</v>
+        <v>-27300</v>
       </c>
       <c r="I102" s="3">
-        <v>-135600</v>
+        <v>-132700</v>
       </c>
       <c r="J102" s="3">
-        <v>72200</v>
+        <v>70700</v>
       </c>
       <c r="K102" s="3">
         <v>24800</v>
